--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="386">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -826,6 +826,12 @@
     <t>['41']</t>
   </si>
   <si>
+    <t>['14', '36']</t>
+  </si>
+  <si>
+    <t>['29', '52', '63', '85']</t>
+  </si>
+  <si>
     <t>['8', '54']</t>
   </si>
   <si>
@@ -1527,7 +1533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP262"/>
+  <dimension ref="A1:BP264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2198,7 +2204,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2610,7 +2616,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -3100,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ8">
         <v>0.71</v>
@@ -3228,7 +3234,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3721,7 +3727,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ11">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3924,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>2.14</v>
@@ -4464,7 +4470,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4670,7 +4676,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4876,7 +4882,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -5369,7 +5375,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ19">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5700,7 +5706,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5906,7 +5912,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -6936,7 +6942,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -7348,7 +7354,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7632,7 +7638,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
         <v>0.57</v>
@@ -7760,7 +7766,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -8044,7 +8050,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ32">
         <v>1.13</v>
@@ -8996,7 +9002,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -9614,7 +9620,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -10107,7 +10113,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ42">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR42">
         <v>1.23</v>
@@ -10644,7 +10650,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10850,7 +10856,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10928,7 +10934,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ46">
         <v>0.86</v>
@@ -11056,7 +11062,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -11262,7 +11268,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -11343,7 +11349,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ48">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AR48">
         <v>1.91</v>
@@ -11468,7 +11474,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -11674,7 +11680,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11752,7 +11758,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
         <v>0.6</v>
@@ -11880,7 +11886,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -12292,7 +12298,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -12704,7 +12710,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -12910,7 +12916,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -13403,7 +13409,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ58">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR58">
         <v>1.08</v>
@@ -13940,7 +13946,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -14021,7 +14027,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ61">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AR61">
         <v>1.5</v>
@@ -14146,7 +14152,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -14970,7 +14976,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -15048,7 +15054,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ66">
         <v>0.47</v>
@@ -15666,7 +15672,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
         <v>0.71</v>
@@ -15794,7 +15800,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -16206,7 +16212,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -16287,7 +16293,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ72">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR72">
         <v>1.63</v>
@@ -16412,7 +16418,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -17030,7 +17036,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17648,7 +17654,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q79">
         <v>6.5</v>
@@ -17729,7 +17735,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ79">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AR79">
         <v>1.54</v>
@@ -17854,7 +17860,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q80">
         <v>2.6</v>
@@ -18678,7 +18684,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q84">
         <v>2.6</v>
@@ -18962,7 +18968,7 @@
         <v>1.75</v>
       </c>
       <c r="AP85">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ85">
         <v>1.14</v>
@@ -19090,7 +19096,7 @@
         <v>91</v>
       </c>
       <c r="P86" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19168,7 +19174,7 @@
         <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ86">
         <v>1.93</v>
@@ -19708,7 +19714,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19914,7 +19920,7 @@
         <v>91</v>
       </c>
       <c r="P90" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19995,7 +20001,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ90">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AR90">
         <v>1.77</v>
@@ -20532,7 +20538,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20738,7 +20744,7 @@
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q94">
         <v>2.05</v>
@@ -21150,7 +21156,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q96">
         <v>2.2</v>
@@ -21562,7 +21568,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q98">
         <v>3.1</v>
@@ -21849,7 +21855,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ99">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR99">
         <v>1.21</v>
@@ -22052,7 +22058,7 @@
         <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ100">
         <v>0.71</v>
@@ -22592,7 +22598,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q103">
         <v>7.5</v>
@@ -22798,7 +22804,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -23004,7 +23010,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q105">
         <v>8.5</v>
@@ -23210,7 +23216,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q106">
         <v>3.1</v>
@@ -23291,7 +23297,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ106">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AR106">
         <v>2.03</v>
@@ -23494,7 +23500,7 @@
         <v>1.4</v>
       </c>
       <c r="AP107">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ107">
         <v>1.07</v>
@@ -23622,7 +23628,7 @@
         <v>115</v>
       </c>
       <c r="P108" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q108">
         <v>1.95</v>
@@ -23909,7 +23915,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ109">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR109">
         <v>1.61</v>
@@ -24240,7 +24246,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24652,7 +24658,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q113">
         <v>4.75</v>
@@ -24858,7 +24864,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25064,7 +25070,7 @@
         <v>93</v>
       </c>
       <c r="P115" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25270,7 +25276,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25760,7 +25766,7 @@
         <v>0.17</v>
       </c>
       <c r="AP118">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ118">
         <v>0.47</v>
@@ -25969,7 +25975,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ119">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR119">
         <v>1.34</v>
@@ -26712,7 +26718,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -26790,7 +26796,7 @@
         <v>2.57</v>
       </c>
       <c r="AP123">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ123">
         <v>2</v>
@@ -26918,7 +26924,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q124">
         <v>2.2</v>
@@ -27330,7 +27336,7 @@
         <v>180</v>
       </c>
       <c r="P126" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q126">
         <v>4.75</v>
@@ -27411,7 +27417,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ126">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AR126">
         <v>1.45</v>
@@ -27536,7 +27542,7 @@
         <v>181</v>
       </c>
       <c r="P127" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q127">
         <v>2.2</v>
@@ -28154,7 +28160,7 @@
         <v>91</v>
       </c>
       <c r="P130" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q130">
         <v>2.6</v>
@@ -28360,7 +28366,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q131">
         <v>8</v>
@@ -28566,7 +28572,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q132">
         <v>3.25</v>
@@ -28978,7 +28984,7 @@
         <v>98</v>
       </c>
       <c r="P134" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q134">
         <v>3.2</v>
@@ -29265,7 +29271,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ135">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AR135">
         <v>1.92</v>
@@ -29390,7 +29396,7 @@
         <v>147</v>
       </c>
       <c r="P136" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q136">
         <v>4.75</v>
@@ -29880,7 +29886,7 @@
         <v>2.63</v>
       </c>
       <c r="AP138">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ138">
         <v>2</v>
@@ -30008,7 +30014,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q139">
         <v>2.2</v>
@@ -30214,7 +30220,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q140">
         <v>1.57</v>
@@ -30420,7 +30426,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q141">
         <v>2.6</v>
@@ -30498,7 +30504,7 @@
         <v>1</v>
       </c>
       <c r="AP141">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ141">
         <v>1.07</v>
@@ -31119,7 +31125,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ144">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR144">
         <v>1.74</v>
@@ -31244,7 +31250,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -32274,7 +32280,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32355,7 +32361,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ150">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AR150">
         <v>1.58</v>
@@ -32686,7 +32692,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q152">
         <v>2.25</v>
@@ -32764,7 +32770,7 @@
         <v>0.88</v>
       </c>
       <c r="AP152">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ152">
         <v>1</v>
@@ -33098,7 +33104,7 @@
         <v>91</v>
       </c>
       <c r="P154" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q154">
         <v>3.5</v>
@@ -33716,7 +33722,7 @@
         <v>91</v>
       </c>
       <c r="P157" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q157">
         <v>3.25</v>
@@ -33922,7 +33928,7 @@
         <v>199</v>
       </c>
       <c r="P158" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q158">
         <v>1.83</v>
@@ -34128,7 +34134,7 @@
         <v>200</v>
       </c>
       <c r="P159" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q159">
         <v>2</v>
@@ -34415,7 +34421,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ160">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR160">
         <v>1.27</v>
@@ -34540,7 +34546,7 @@
         <v>134</v>
       </c>
       <c r="P161" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q161">
         <v>2</v>
@@ -34746,7 +34752,7 @@
         <v>201</v>
       </c>
       <c r="P162" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q162">
         <v>2.75</v>
@@ -34952,7 +34958,7 @@
         <v>202</v>
       </c>
       <c r="P163" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q163">
         <v>8</v>
@@ -35236,7 +35242,7 @@
         <v>1.89</v>
       </c>
       <c r="AP164">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ164">
         <v>1.53</v>
@@ -35364,7 +35370,7 @@
         <v>132</v>
       </c>
       <c r="P165" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -35776,7 +35782,7 @@
         <v>204</v>
       </c>
       <c r="P167" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -35982,7 +35988,7 @@
         <v>91</v>
       </c>
       <c r="P168" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q168">
         <v>3.1</v>
@@ -36188,7 +36194,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -36266,10 +36272,10 @@
         <v>1.89</v>
       </c>
       <c r="AP169">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ169">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AR169">
         <v>1.56</v>
@@ -36394,7 +36400,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -37012,7 +37018,7 @@
         <v>207</v>
       </c>
       <c r="P173" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q173">
         <v>1.4</v>
@@ -37424,7 +37430,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q175">
         <v>2.75</v>
@@ -37836,7 +37842,7 @@
         <v>210</v>
       </c>
       <c r="P177" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q177">
         <v>2.1</v>
@@ -38042,7 +38048,7 @@
         <v>211</v>
       </c>
       <c r="P178" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38454,7 +38460,7 @@
         <v>213</v>
       </c>
       <c r="P180" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q180">
         <v>3.6</v>
@@ -38660,7 +38666,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q181">
         <v>2.75</v>
@@ -38738,7 +38744,7 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ181">
         <v>1</v>
@@ -38866,7 +38872,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q182">
         <v>5.5</v>
@@ -39072,7 +39078,7 @@
         <v>216</v>
       </c>
       <c r="P183" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q183">
         <v>2.88</v>
@@ -39484,7 +39490,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q185">
         <v>3.1</v>
@@ -39896,7 +39902,7 @@
         <v>91</v>
       </c>
       <c r="P187" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q187">
         <v>4.75</v>
@@ -40102,7 +40108,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q188">
         <v>3.75</v>
@@ -41004,10 +41010,10 @@
         <v>0.33</v>
       </c>
       <c r="AP192">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ192">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR192">
         <v>1.52</v>
@@ -41338,7 +41344,7 @@
         <v>91</v>
       </c>
       <c r="P194" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q194">
         <v>5.5</v>
@@ -41419,7 +41425,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ194">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AR194">
         <v>1.36</v>
@@ -41750,7 +41756,7 @@
         <v>225</v>
       </c>
       <c r="P196" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q196">
         <v>4</v>
@@ -41828,7 +41834,7 @@
         <v>1.27</v>
       </c>
       <c r="AP196">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ196">
         <v>1.13</v>
@@ -42162,7 +42168,7 @@
         <v>226</v>
       </c>
       <c r="P198" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q198">
         <v>1.8</v>
@@ -42574,7 +42580,7 @@
         <v>227</v>
       </c>
       <c r="P200" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q200">
         <v>3.25</v>
@@ -42780,7 +42786,7 @@
         <v>228</v>
       </c>
       <c r="P201" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q201">
         <v>2.1</v>
@@ -42861,7 +42867,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ201">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR201">
         <v>1.59</v>
@@ -43685,7 +43691,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ205">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR205">
         <v>1.87</v>
@@ -44428,7 +44434,7 @@
         <v>160</v>
       </c>
       <c r="P209" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q209">
         <v>2.6</v>
@@ -44712,7 +44718,7 @@
         <v>0.64</v>
       </c>
       <c r="AP210">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ210">
         <v>0.57</v>
@@ -44840,7 +44846,7 @@
         <v>237</v>
       </c>
       <c r="P211" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q211">
         <v>4.75</v>
@@ -45046,7 +45052,7 @@
         <v>128</v>
       </c>
       <c r="P212" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q212">
         <v>4.33</v>
@@ -45536,7 +45542,7 @@
         <v>1.91</v>
       </c>
       <c r="AP214">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ214">
         <v>1.53</v>
@@ -45664,7 +45670,7 @@
         <v>239</v>
       </c>
       <c r="P215" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q215">
         <v>2.75</v>
@@ -45951,7 +45957,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ216">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AR216">
         <v>1.35</v>
@@ -46694,7 +46700,7 @@
         <v>241</v>
       </c>
       <c r="P220" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q220">
         <v>1.62</v>
@@ -46900,7 +46906,7 @@
         <v>242</v>
       </c>
       <c r="P221" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q221">
         <v>4.33</v>
@@ -47106,7 +47112,7 @@
         <v>91</v>
       </c>
       <c r="P222" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q222">
         <v>5</v>
@@ -47187,7 +47193,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ222">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AR222">
         <v>1.26</v>
@@ -47312,7 +47318,7 @@
         <v>243</v>
       </c>
       <c r="P223" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q223">
         <v>2.75</v>
@@ -47599,7 +47605,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ224">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR224">
         <v>2.02</v>
@@ -48008,7 +48014,7 @@
         <v>0.83</v>
       </c>
       <c r="AP226">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ226">
         <v>0.93</v>
@@ -48342,7 +48348,7 @@
         <v>91</v>
       </c>
       <c r="P228" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q228">
         <v>8</v>
@@ -48626,7 +48632,7 @@
         <v>0.67</v>
       </c>
       <c r="AP229">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ229">
         <v>0.71</v>
@@ -49166,7 +49172,7 @@
         <v>248</v>
       </c>
       <c r="P232" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q232">
         <v>2.88</v>
@@ -49372,7 +49378,7 @@
         <v>249</v>
       </c>
       <c r="P233" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q233">
         <v>2.5</v>
@@ -49784,7 +49790,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q235">
         <v>2.88</v>
@@ -49865,7 +49871,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ235">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR235">
         <v>1.23</v>
@@ -49990,7 +49996,7 @@
         <v>91</v>
       </c>
       <c r="P236" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q236">
         <v>3.75</v>
@@ -50402,7 +50408,7 @@
         <v>252</v>
       </c>
       <c r="P238" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q238">
         <v>3.75</v>
@@ -50686,7 +50692,7 @@
         <v>0.54</v>
       </c>
       <c r="AP239">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ239">
         <v>0.47</v>
@@ -50814,7 +50820,7 @@
         <v>91</v>
       </c>
       <c r="P240" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q240">
         <v>2.2</v>
@@ -50895,7 +50901,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ240">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AR240">
         <v>2.54</v>
@@ -51226,7 +51232,7 @@
         <v>255</v>
       </c>
       <c r="P242" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q242">
         <v>1.91</v>
@@ -51432,7 +51438,7 @@
         <v>256</v>
       </c>
       <c r="P243" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q243">
         <v>1.8</v>
@@ -51922,7 +51928,7 @@
         <v>0.92</v>
       </c>
       <c r="AP245">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ245">
         <v>0.86</v>
@@ -52256,7 +52262,7 @@
         <v>175</v>
       </c>
       <c r="P247" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q247">
         <v>1.91</v>
@@ -52462,7 +52468,7 @@
         <v>106</v>
       </c>
       <c r="P248" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q248">
         <v>6.5</v>
@@ -52668,7 +52674,7 @@
         <v>259</v>
       </c>
       <c r="P249" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q249">
         <v>2.88</v>
@@ -53080,7 +53086,7 @@
         <v>260</v>
       </c>
       <c r="P251" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q251">
         <v>2.63</v>
@@ -53492,7 +53498,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q253">
         <v>1.67</v>
@@ -53904,7 +53910,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q255">
         <v>6</v>
@@ -54110,7 +54116,7 @@
         <v>264</v>
       </c>
       <c r="P256" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q256">
         <v>2.5</v>
@@ -54397,7 +54403,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ257">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR257">
         <v>2.5</v>
@@ -54522,7 +54528,7 @@
         <v>266</v>
       </c>
       <c r="P258" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q258">
         <v>3.5</v>
@@ -54806,7 +54812,7 @@
         <v>0.64</v>
       </c>
       <c r="AP259">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ259">
         <v>0.6</v>
@@ -55346,7 +55352,7 @@
         <v>269</v>
       </c>
       <c r="P262" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q262">
         <v>7.5</v>
@@ -55427,7 +55433,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ262">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AR262">
         <v>1.27</v>
@@ -55503,6 +55509,418 @@
       </c>
       <c r="BP262">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="263" spans="1:68">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>7466324</v>
+      </c>
+      <c r="C263" t="s">
+        <v>68</v>
+      </c>
+      <c r="D263" t="s">
+        <v>69</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45766.625</v>
+      </c>
+      <c r="F263">
+        <v>31</v>
+      </c>
+      <c r="G263" t="s">
+        <v>80</v>
+      </c>
+      <c r="H263" t="s">
+        <v>73</v>
+      </c>
+      <c r="I263">
+        <v>2</v>
+      </c>
+      <c r="J263">
+        <v>1</v>
+      </c>
+      <c r="K263">
+        <v>3</v>
+      </c>
+      <c r="L263">
+        <v>2</v>
+      </c>
+      <c r="M263">
+        <v>1</v>
+      </c>
+      <c r="N263">
+        <v>3</v>
+      </c>
+      <c r="O263" t="s">
+        <v>270</v>
+      </c>
+      <c r="P263" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q263">
+        <v>2.25</v>
+      </c>
+      <c r="R263">
+        <v>2.3</v>
+      </c>
+      <c r="S263">
+        <v>5</v>
+      </c>
+      <c r="T263">
+        <v>1.33</v>
+      </c>
+      <c r="U263">
+        <v>3.25</v>
+      </c>
+      <c r="V263">
+        <v>2.63</v>
+      </c>
+      <c r="W263">
+        <v>1.44</v>
+      </c>
+      <c r="X263">
+        <v>6.5</v>
+      </c>
+      <c r="Y263">
+        <v>1.11</v>
+      </c>
+      <c r="Z263">
+        <v>1.76</v>
+      </c>
+      <c r="AA263">
+        <v>4.1</v>
+      </c>
+      <c r="AB263">
+        <v>4.5</v>
+      </c>
+      <c r="AC263">
+        <v>1.01</v>
+      </c>
+      <c r="AD263">
+        <v>14</v>
+      </c>
+      <c r="AE263">
+        <v>1.2</v>
+      </c>
+      <c r="AF263">
+        <v>4.35</v>
+      </c>
+      <c r="AG263">
+        <v>1.73</v>
+      </c>
+      <c r="AH263">
+        <v>2.05</v>
+      </c>
+      <c r="AI263">
+        <v>1.75</v>
+      </c>
+      <c r="AJ263">
+        <v>2</v>
+      </c>
+      <c r="AK263">
+        <v>1.22</v>
+      </c>
+      <c r="AL263">
+        <v>1.2</v>
+      </c>
+      <c r="AM263">
+        <v>2</v>
+      </c>
+      <c r="AN263">
+        <v>1.93</v>
+      </c>
+      <c r="AO263">
+        <v>0.67</v>
+      </c>
+      <c r="AP263">
+        <v>2</v>
+      </c>
+      <c r="AQ263">
+        <v>0.63</v>
+      </c>
+      <c r="AR263">
+        <v>1.71</v>
+      </c>
+      <c r="AS263">
+        <v>1.23</v>
+      </c>
+      <c r="AT263">
+        <v>2.94</v>
+      </c>
+      <c r="AU263">
+        <v>5</v>
+      </c>
+      <c r="AV263">
+        <v>5</v>
+      </c>
+      <c r="AW263">
+        <v>12</v>
+      </c>
+      <c r="AX263">
+        <v>8</v>
+      </c>
+      <c r="AY263">
+        <v>19</v>
+      </c>
+      <c r="AZ263">
+        <v>13</v>
+      </c>
+      <c r="BA263">
+        <v>4</v>
+      </c>
+      <c r="BB263">
+        <v>3</v>
+      </c>
+      <c r="BC263">
+        <v>7</v>
+      </c>
+      <c r="BD263">
+        <v>0</v>
+      </c>
+      <c r="BE263">
+        <v>0</v>
+      </c>
+      <c r="BF263">
+        <v>0</v>
+      </c>
+      <c r="BG263">
+        <v>0</v>
+      </c>
+      <c r="BH263">
+        <v>0</v>
+      </c>
+      <c r="BI263">
+        <v>0</v>
+      </c>
+      <c r="BJ263">
+        <v>0</v>
+      </c>
+      <c r="BK263">
+        <v>0</v>
+      </c>
+      <c r="BL263">
+        <v>0</v>
+      </c>
+      <c r="BM263">
+        <v>0</v>
+      </c>
+      <c r="BN263">
+        <v>0</v>
+      </c>
+      <c r="BO263">
+        <v>0</v>
+      </c>
+      <c r="BP263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:68">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>7466323</v>
+      </c>
+      <c r="C264" t="s">
+        <v>68</v>
+      </c>
+      <c r="D264" t="s">
+        <v>69</v>
+      </c>
+      <c r="E264" s="2">
+        <v>45767.30208333334</v>
+      </c>
+      <c r="F264">
+        <v>31</v>
+      </c>
+      <c r="G264" t="s">
+        <v>76</v>
+      </c>
+      <c r="H264" t="s">
+        <v>78</v>
+      </c>
+      <c r="I264">
+        <v>1</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>1</v>
+      </c>
+      <c r="L264">
+        <v>4</v>
+      </c>
+      <c r="M264">
+        <v>0</v>
+      </c>
+      <c r="N264">
+        <v>4</v>
+      </c>
+      <c r="O264" t="s">
+        <v>271</v>
+      </c>
+      <c r="P264" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q264">
+        <v>3.75</v>
+      </c>
+      <c r="R264">
+        <v>2.3</v>
+      </c>
+      <c r="S264">
+        <v>2.6</v>
+      </c>
+      <c r="T264">
+        <v>1.3</v>
+      </c>
+      <c r="U264">
+        <v>3.4</v>
+      </c>
+      <c r="V264">
+        <v>2.5</v>
+      </c>
+      <c r="W264">
+        <v>1.5</v>
+      </c>
+      <c r="X264">
+        <v>6</v>
+      </c>
+      <c r="Y264">
+        <v>1.13</v>
+      </c>
+      <c r="Z264">
+        <v>3.29</v>
+      </c>
+      <c r="AA264">
+        <v>3.72</v>
+      </c>
+      <c r="AB264">
+        <v>2.16</v>
+      </c>
+      <c r="AC264">
+        <v>1.04</v>
+      </c>
+      <c r="AD264">
+        <v>10</v>
+      </c>
+      <c r="AE264">
+        <v>1.2</v>
+      </c>
+      <c r="AF264">
+        <v>4.33</v>
+      </c>
+      <c r="AG264">
+        <v>1.62</v>
+      </c>
+      <c r="AH264">
+        <v>2.21</v>
+      </c>
+      <c r="AI264">
+        <v>1.57</v>
+      </c>
+      <c r="AJ264">
+        <v>2.25</v>
+      </c>
+      <c r="AK264">
+        <v>1.77</v>
+      </c>
+      <c r="AL264">
+        <v>1.22</v>
+      </c>
+      <c r="AM264">
+        <v>1.3</v>
+      </c>
+      <c r="AN264">
+        <v>1.73</v>
+      </c>
+      <c r="AO264">
+        <v>2.33</v>
+      </c>
+      <c r="AP264">
+        <v>1.81</v>
+      </c>
+      <c r="AQ264">
+        <v>2.19</v>
+      </c>
+      <c r="AR264">
+        <v>1.6</v>
+      </c>
+      <c r="AS264">
+        <v>1.45</v>
+      </c>
+      <c r="AT264">
+        <v>3.05</v>
+      </c>
+      <c r="AU264">
+        <v>6</v>
+      </c>
+      <c r="AV264">
+        <v>4</v>
+      </c>
+      <c r="AW264">
+        <v>8</v>
+      </c>
+      <c r="AX264">
+        <v>4</v>
+      </c>
+      <c r="AY264">
+        <v>16</v>
+      </c>
+      <c r="AZ264">
+        <v>9</v>
+      </c>
+      <c r="BA264">
+        <v>1</v>
+      </c>
+      <c r="BB264">
+        <v>10</v>
+      </c>
+      <c r="BC264">
+        <v>11</v>
+      </c>
+      <c r="BD264">
+        <v>0</v>
+      </c>
+      <c r="BE264">
+        <v>0</v>
+      </c>
+      <c r="BF264">
+        <v>0</v>
+      </c>
+      <c r="BG264">
+        <v>0</v>
+      </c>
+      <c r="BH264">
+        <v>0</v>
+      </c>
+      <c r="BI264">
+        <v>0</v>
+      </c>
+      <c r="BJ264">
+        <v>0</v>
+      </c>
+      <c r="BK264">
+        <v>0</v>
+      </c>
+      <c r="BL264">
+        <v>0</v>
+      </c>
+      <c r="BM264">
+        <v>0</v>
+      </c>
+      <c r="BN264">
+        <v>0</v>
+      </c>
+      <c r="BO264">
+        <v>0</v>
+      </c>
+      <c r="BP264">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
@@ -55878,10 +55878,10 @@
         <v>1</v>
       </c>
       <c r="BB264">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC264">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD264">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="387">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -832,6 +832,9 @@
     <t>['29', '52', '63', '85']</t>
   </si>
   <si>
+    <t>['4', '16', '50', '59']</t>
+  </si>
+  <si>
     <t>['8', '54']</t>
   </si>
   <si>
@@ -1533,7 +1536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP264"/>
+  <dimension ref="A1:BP265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1870,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ2">
         <v>0.57</v>
@@ -2204,7 +2207,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2616,7 +2619,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2903,7 +2906,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ7">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3234,7 +3237,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -4470,7 +4473,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4676,7 +4679,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4882,7 +4885,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -5706,7 +5709,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5912,7 +5915,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -6196,7 +6199,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ23">
         <v>1.53</v>
@@ -6942,7 +6945,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -7354,7 +7357,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7766,7 +7769,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -8259,7 +8262,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ33">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR33">
         <v>0.7</v>
@@ -9002,7 +9005,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -9080,7 +9083,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ37">
         <v>1.93</v>
@@ -9620,7 +9623,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -10650,7 +10653,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10856,7 +10859,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -11062,7 +11065,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -11268,7 +11271,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -11474,7 +11477,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -11555,7 +11558,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ49">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR49">
         <v>1.18</v>
@@ -11680,7 +11683,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11886,7 +11889,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -12298,7 +12301,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -12710,7 +12713,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -12916,7 +12919,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -13818,7 +13821,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ60">
         <v>1.07</v>
@@ -13946,7 +13949,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -14152,7 +14155,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -14976,7 +14979,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -15263,7 +15266,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ67">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR67">
         <v>1.65</v>
@@ -15800,7 +15803,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -16212,7 +16215,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -16418,7 +16421,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -17036,7 +17039,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17526,7 +17529,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ78">
         <v>2.14</v>
@@ -17654,7 +17657,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q79">
         <v>6.5</v>
@@ -17860,7 +17863,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q80">
         <v>2.6</v>
@@ -18684,7 +18687,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q84">
         <v>2.6</v>
@@ -19096,7 +19099,7 @@
         <v>91</v>
       </c>
       <c r="P86" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19383,7 +19386,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ87">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR87">
         <v>1.97</v>
@@ -19714,7 +19717,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19920,7 +19923,7 @@
         <v>91</v>
       </c>
       <c r="P90" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -20538,7 +20541,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20744,7 +20747,7 @@
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q94">
         <v>2.05</v>
@@ -21156,7 +21159,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q96">
         <v>2.2</v>
@@ -21568,7 +21571,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q98">
         <v>3.1</v>
@@ -22061,7 +22064,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ100">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR100">
         <v>1.37</v>
@@ -22264,7 +22267,7 @@
         <v>1.4</v>
       </c>
       <c r="AP101">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ101">
         <v>1.14</v>
@@ -22598,7 +22601,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q103">
         <v>7.5</v>
@@ -22804,7 +22807,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -23010,7 +23013,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q105">
         <v>8.5</v>
@@ -23216,7 +23219,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q106">
         <v>3.1</v>
@@ -23628,7 +23631,7 @@
         <v>115</v>
       </c>
       <c r="P108" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q108">
         <v>1.95</v>
@@ -24246,7 +24249,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24658,7 +24661,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q113">
         <v>4.75</v>
@@ -24864,7 +24867,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25070,7 +25073,7 @@
         <v>93</v>
       </c>
       <c r="P115" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25276,7 +25279,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -26178,7 +26181,7 @@
         <v>1.33</v>
       </c>
       <c r="AP120">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ120">
         <v>0.86</v>
@@ -26718,7 +26721,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -26924,7 +26927,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q124">
         <v>2.2</v>
@@ -27211,7 +27214,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ125">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR125">
         <v>1.92</v>
@@ -27336,7 +27339,7 @@
         <v>180</v>
       </c>
       <c r="P126" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q126">
         <v>4.75</v>
@@ -27542,7 +27545,7 @@
         <v>181</v>
       </c>
       <c r="P127" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q127">
         <v>2.2</v>
@@ -28160,7 +28163,7 @@
         <v>91</v>
       </c>
       <c r="P130" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q130">
         <v>2.6</v>
@@ -28366,7 +28369,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q131">
         <v>8</v>
@@ -28572,7 +28575,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q132">
         <v>3.25</v>
@@ -28856,7 +28859,7 @@
         <v>0.43</v>
       </c>
       <c r="AP133">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ133">
         <v>0.71</v>
@@ -28984,7 +28987,7 @@
         <v>98</v>
       </c>
       <c r="P134" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q134">
         <v>3.2</v>
@@ -29396,7 +29399,7 @@
         <v>147</v>
       </c>
       <c r="P136" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q136">
         <v>4.75</v>
@@ -30014,7 +30017,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q139">
         <v>2.2</v>
@@ -30220,7 +30223,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q140">
         <v>1.57</v>
@@ -30301,7 +30304,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ140">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR140">
         <v>1.81</v>
@@ -30426,7 +30429,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q141">
         <v>2.6</v>
@@ -31250,7 +31253,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -32280,7 +32283,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32692,7 +32695,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q152">
         <v>2.25</v>
@@ -33104,7 +33107,7 @@
         <v>91</v>
       </c>
       <c r="P154" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q154">
         <v>3.5</v>
@@ -33722,7 +33725,7 @@
         <v>91</v>
       </c>
       <c r="P157" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q157">
         <v>3.25</v>
@@ -33928,7 +33931,7 @@
         <v>199</v>
       </c>
       <c r="P158" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q158">
         <v>1.83</v>
@@ -34134,7 +34137,7 @@
         <v>200</v>
       </c>
       <c r="P159" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q159">
         <v>2</v>
@@ -34418,7 +34421,7 @@
         <v>0.25</v>
       </c>
       <c r="AP160">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ160">
         <v>0.63</v>
@@ -34546,7 +34549,7 @@
         <v>134</v>
       </c>
       <c r="P161" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q161">
         <v>2</v>
@@ -34752,7 +34755,7 @@
         <v>201</v>
       </c>
       <c r="P162" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q162">
         <v>2.75</v>
@@ -34958,7 +34961,7 @@
         <v>202</v>
       </c>
       <c r="P163" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q163">
         <v>8</v>
@@ -35370,7 +35373,7 @@
         <v>132</v>
       </c>
       <c r="P165" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -35782,7 +35785,7 @@
         <v>204</v>
       </c>
       <c r="P167" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -35988,7 +35991,7 @@
         <v>91</v>
       </c>
       <c r="P168" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q168">
         <v>3.1</v>
@@ -36069,7 +36072,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ168">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR168">
         <v>1.26</v>
@@ -36194,7 +36197,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -36400,7 +36403,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -37018,7 +37021,7 @@
         <v>207</v>
       </c>
       <c r="P173" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q173">
         <v>1.4</v>
@@ -37302,7 +37305,7 @@
         <v>0.6</v>
       </c>
       <c r="AP174">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ174">
         <v>0.47</v>
@@ -37430,7 +37433,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q175">
         <v>2.75</v>
@@ -37842,7 +37845,7 @@
         <v>210</v>
       </c>
       <c r="P177" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q177">
         <v>2.1</v>
@@ -38048,7 +38051,7 @@
         <v>211</v>
       </c>
       <c r="P178" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38335,7 +38338,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ179">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR179">
         <v>1.35</v>
@@ -38460,7 +38463,7 @@
         <v>213</v>
       </c>
       <c r="P180" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q180">
         <v>3.6</v>
@@ -38666,7 +38669,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q181">
         <v>2.75</v>
@@ -38872,7 +38875,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q182">
         <v>5.5</v>
@@ -39078,7 +39081,7 @@
         <v>216</v>
       </c>
       <c r="P183" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q183">
         <v>2.88</v>
@@ -39490,7 +39493,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q185">
         <v>3.1</v>
@@ -39902,7 +39905,7 @@
         <v>91</v>
       </c>
       <c r="P187" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q187">
         <v>4.75</v>
@@ -40108,7 +40111,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q188">
         <v>3.75</v>
@@ -40598,7 +40601,7 @@
         <v>1</v>
       </c>
       <c r="AP190">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ190">
         <v>0.93</v>
@@ -41344,7 +41347,7 @@
         <v>91</v>
       </c>
       <c r="P194" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q194">
         <v>5.5</v>
@@ -41756,7 +41759,7 @@
         <v>225</v>
       </c>
       <c r="P196" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q196">
         <v>4</v>
@@ -42168,7 +42171,7 @@
         <v>226</v>
       </c>
       <c r="P198" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q198">
         <v>1.8</v>
@@ -42580,7 +42583,7 @@
         <v>227</v>
       </c>
       <c r="P200" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q200">
         <v>3.25</v>
@@ -42786,7 +42789,7 @@
         <v>228</v>
       </c>
       <c r="P201" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q201">
         <v>2.1</v>
@@ -43485,7 +43488,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ204">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR204">
         <v>1.82</v>
@@ -44434,7 +44437,7 @@
         <v>160</v>
       </c>
       <c r="P209" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q209">
         <v>2.6</v>
@@ -44846,7 +44849,7 @@
         <v>237</v>
       </c>
       <c r="P211" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q211">
         <v>4.75</v>
@@ -45052,7 +45055,7 @@
         <v>128</v>
       </c>
       <c r="P212" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q212">
         <v>4.33</v>
@@ -45130,7 +45133,7 @@
         <v>1.25</v>
       </c>
       <c r="AP212">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ212">
         <v>1.13</v>
@@ -45670,7 +45673,7 @@
         <v>239</v>
       </c>
       <c r="P215" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q215">
         <v>2.75</v>
@@ -46575,7 +46578,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ219">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR219">
         <v>1.35</v>
@@ -46700,7 +46703,7 @@
         <v>241</v>
       </c>
       <c r="P220" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q220">
         <v>1.62</v>
@@ -46906,7 +46909,7 @@
         <v>242</v>
       </c>
       <c r="P221" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q221">
         <v>4.33</v>
@@ -47112,7 +47115,7 @@
         <v>91</v>
       </c>
       <c r="P222" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q222">
         <v>5</v>
@@ -47318,7 +47321,7 @@
         <v>243</v>
       </c>
       <c r="P223" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q223">
         <v>2.75</v>
@@ -48348,7 +48351,7 @@
         <v>91</v>
       </c>
       <c r="P228" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q228">
         <v>8</v>
@@ -48635,7 +48638,7 @@
         <v>2</v>
       </c>
       <c r="AQ229">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR229">
         <v>1.69</v>
@@ -49044,7 +49047,7 @@
         <v>1.08</v>
       </c>
       <c r="AP231">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ231">
         <v>1</v>
@@ -49172,7 +49175,7 @@
         <v>248</v>
       </c>
       <c r="P232" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q232">
         <v>2.88</v>
@@ -49378,7 +49381,7 @@
         <v>249</v>
       </c>
       <c r="P233" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q233">
         <v>2.5</v>
@@ -49790,7 +49793,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q235">
         <v>2.88</v>
@@ -49996,7 +49999,7 @@
         <v>91</v>
       </c>
       <c r="P236" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q236">
         <v>3.75</v>
@@ -50408,7 +50411,7 @@
         <v>252</v>
       </c>
       <c r="P238" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q238">
         <v>3.75</v>
@@ -50820,7 +50823,7 @@
         <v>91</v>
       </c>
       <c r="P240" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q240">
         <v>2.2</v>
@@ -51232,7 +51235,7 @@
         <v>255</v>
       </c>
       <c r="P242" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q242">
         <v>1.91</v>
@@ -51438,7 +51441,7 @@
         <v>256</v>
       </c>
       <c r="P243" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q243">
         <v>1.8</v>
@@ -52262,7 +52265,7 @@
         <v>175</v>
       </c>
       <c r="P247" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q247">
         <v>1.91</v>
@@ -52468,7 +52471,7 @@
         <v>106</v>
       </c>
       <c r="P248" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q248">
         <v>6.5</v>
@@ -52546,7 +52549,7 @@
         <v>1.92</v>
       </c>
       <c r="AP248">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ248">
         <v>2</v>
@@ -52674,7 +52677,7 @@
         <v>259</v>
       </c>
       <c r="P249" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q249">
         <v>2.88</v>
@@ -52961,7 +52964,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ250">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR250">
         <v>1.3</v>
@@ -53086,7 +53089,7 @@
         <v>260</v>
       </c>
       <c r="P251" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q251">
         <v>2.63</v>
@@ -53498,7 +53501,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q253">
         <v>1.67</v>
@@ -53910,7 +53913,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q255">
         <v>6</v>
@@ -54116,7 +54119,7 @@
         <v>264</v>
       </c>
       <c r="P256" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q256">
         <v>2.5</v>
@@ -54528,7 +54531,7 @@
         <v>266</v>
       </c>
       <c r="P258" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q258">
         <v>3.5</v>
@@ -55352,7 +55355,7 @@
         <v>269</v>
       </c>
       <c r="P262" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q262">
         <v>7.5</v>
@@ -55558,7 +55561,7 @@
         <v>270</v>
       </c>
       <c r="P263" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q263">
         <v>2.25</v>
@@ -55921,6 +55924,212 @@
       </c>
       <c r="BP264">
         <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:68">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>7466317</v>
+      </c>
+      <c r="C265" t="s">
+        <v>68</v>
+      </c>
+      <c r="D265" t="s">
+        <v>69</v>
+      </c>
+      <c r="E265" s="2">
+        <v>45770.625</v>
+      </c>
+      <c r="F265">
+        <v>30</v>
+      </c>
+      <c r="G265" t="s">
+        <v>70</v>
+      </c>
+      <c r="H265" t="s">
+        <v>84</v>
+      </c>
+      <c r="I265">
+        <v>2</v>
+      </c>
+      <c r="J265">
+        <v>1</v>
+      </c>
+      <c r="K265">
+        <v>3</v>
+      </c>
+      <c r="L265">
+        <v>4</v>
+      </c>
+      <c r="M265">
+        <v>1</v>
+      </c>
+      <c r="N265">
+        <v>5</v>
+      </c>
+      <c r="O265" t="s">
+        <v>272</v>
+      </c>
+      <c r="P265" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q265">
+        <v>2.75</v>
+      </c>
+      <c r="R265">
+        <v>2.05</v>
+      </c>
+      <c r="S265">
+        <v>4.33</v>
+      </c>
+      <c r="T265">
+        <v>1.44</v>
+      </c>
+      <c r="U265">
+        <v>2.63</v>
+      </c>
+      <c r="V265">
+        <v>3.25</v>
+      </c>
+      <c r="W265">
+        <v>1.33</v>
+      </c>
+      <c r="X265">
+        <v>10</v>
+      </c>
+      <c r="Y265">
+        <v>1.06</v>
+      </c>
+      <c r="Z265">
+        <v>2.06</v>
+      </c>
+      <c r="AA265">
+        <v>3.14</v>
+      </c>
+      <c r="AB265">
+        <v>4.3</v>
+      </c>
+      <c r="AC265">
+        <v>1.07</v>
+      </c>
+      <c r="AD265">
+        <v>8</v>
+      </c>
+      <c r="AE265">
+        <v>1.36</v>
+      </c>
+      <c r="AF265">
+        <v>3.1</v>
+      </c>
+      <c r="AG265">
+        <v>2</v>
+      </c>
+      <c r="AH265">
+        <v>1.73</v>
+      </c>
+      <c r="AI265">
+        <v>1.95</v>
+      </c>
+      <c r="AJ265">
+        <v>1.8</v>
+      </c>
+      <c r="AK265">
+        <v>1.25</v>
+      </c>
+      <c r="AL265">
+        <v>1.25</v>
+      </c>
+      <c r="AM265">
+        <v>1.77</v>
+      </c>
+      <c r="AN265">
+        <v>1.64</v>
+      </c>
+      <c r="AO265">
+        <v>0.71</v>
+      </c>
+      <c r="AP265">
+        <v>1.73</v>
+      </c>
+      <c r="AQ265">
+        <v>0.67</v>
+      </c>
+      <c r="AR265">
+        <v>1.42</v>
+      </c>
+      <c r="AS265">
+        <v>0.99</v>
+      </c>
+      <c r="AT265">
+        <v>2.41</v>
+      </c>
+      <c r="AU265">
+        <v>7</v>
+      </c>
+      <c r="AV265">
+        <v>4</v>
+      </c>
+      <c r="AW265">
+        <v>5</v>
+      </c>
+      <c r="AX265">
+        <v>5</v>
+      </c>
+      <c r="AY265">
+        <v>14</v>
+      </c>
+      <c r="AZ265">
+        <v>11</v>
+      </c>
+      <c r="BA265">
+        <v>3</v>
+      </c>
+      <c r="BB265">
+        <v>5</v>
+      </c>
+      <c r="BC265">
+        <v>8</v>
+      </c>
+      <c r="BD265">
+        <v>1.57</v>
+      </c>
+      <c r="BE265">
+        <v>6.95</v>
+      </c>
+      <c r="BF265">
+        <v>3.2</v>
+      </c>
+      <c r="BG265">
+        <v>1.18</v>
+      </c>
+      <c r="BH265">
+        <v>3.9</v>
+      </c>
+      <c r="BI265">
+        <v>1.37</v>
+      </c>
+      <c r="BJ265">
+        <v>2.75</v>
+      </c>
+      <c r="BK265">
+        <v>1.7</v>
+      </c>
+      <c r="BL265">
+        <v>2.05</v>
+      </c>
+      <c r="BM265">
+        <v>2.09</v>
+      </c>
+      <c r="BN265">
+        <v>1.63</v>
+      </c>
+      <c r="BO265">
+        <v>2.7</v>
+      </c>
+      <c r="BP265">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="391">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1185,6 +1185,9 @@
   <si>
     <t>['11', '53', '57']</t>
   </si>
+  <si>
+    <t>['15', '19', '27', '88']</t>
+  </si>
 </sst>
 </file>
 
@@ -1545,7 +1548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP267"/>
+  <dimension ref="A1:BP268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3945,7 +3948,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4560,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ15">
         <v>0.6</v>
@@ -6005,7 +6008,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ22">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AR22">
         <v>0.79</v>
@@ -7032,7 +7035,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ27">
         <v>1.53</v>
@@ -11152,7 +11155,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ47">
         <v>1.14</v>
@@ -14036,7 +14039,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ61">
         <v>2.19</v>
@@ -14245,7 +14248,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ62">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AR62">
         <v>2.58</v>
@@ -16920,7 +16923,7 @@
         <v>1.5</v>
       </c>
       <c r="AP75">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ75">
         <v>1.13</v>
@@ -17541,7 +17544,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ78">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AR78">
         <v>1.07</v>
@@ -21661,7 +21664,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ98">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AR98">
         <v>1.7</v>
@@ -21864,7 +21867,7 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ99">
         <v>0.63</v>
@@ -22894,7 +22897,7 @@
         <v>0.6</v>
       </c>
       <c r="AP104">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ104">
         <v>0.93</v>
@@ -24957,7 +24960,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ114">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AR114">
         <v>1.43</v>
@@ -27635,7 +27638,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ127">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AR127">
         <v>1.82</v>
@@ -28456,7 +28459,7 @@
         <v>2.14</v>
       </c>
       <c r="AP131">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ131">
         <v>1.93</v>
@@ -29489,7 +29492,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ136">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AR136">
         <v>1.21</v>
@@ -31546,7 +31549,7 @@
         <v>0.5</v>
       </c>
       <c r="AP146">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ146">
         <v>0.71</v>
@@ -34639,7 +34642,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ161">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AR161">
         <v>1.8</v>
@@ -36905,7 +36908,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ172">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AR172">
         <v>1.45</v>
@@ -37726,7 +37729,7 @@
         <v>1.22</v>
       </c>
       <c r="AP176">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ176">
         <v>0.86</v>
@@ -38553,7 +38556,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ180">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AR180">
         <v>1.23</v>
@@ -41228,7 +41231,7 @@
         <v>0.7</v>
       </c>
       <c r="AP193">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ193">
         <v>0.6</v>
@@ -42261,7 +42264,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ198">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AR198">
         <v>2.36</v>
@@ -44524,7 +44527,7 @@
         <v>0.92</v>
       </c>
       <c r="AP209">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ209">
         <v>1</v>
@@ -46999,7 +47002,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ221">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AR221">
         <v>1.2</v>
@@ -48438,7 +48441,7 @@
         <v>1.83</v>
       </c>
       <c r="AP228">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ228">
         <v>2.07</v>
@@ -52970,7 +52973,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP250">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ250">
         <v>0.67</v>
@@ -53179,7 +53182,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ251">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AR251">
         <v>1.71</v>
@@ -56551,6 +56554,212 @@
       </c>
       <c r="BP267">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="268" spans="1:68">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>7466321</v>
+      </c>
+      <c r="C268" t="s">
+        <v>68</v>
+      </c>
+      <c r="D268" t="s">
+        <v>69</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45772.57291666666</v>
+      </c>
+      <c r="F268">
+        <v>30</v>
+      </c>
+      <c r="G268" t="s">
+        <v>83</v>
+      </c>
+      <c r="H268" t="s">
+        <v>76</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>3</v>
+      </c>
+      <c r="K268">
+        <v>3</v>
+      </c>
+      <c r="L268">
+        <v>0</v>
+      </c>
+      <c r="M268">
+        <v>4</v>
+      </c>
+      <c r="N268">
+        <v>4</v>
+      </c>
+      <c r="O268" t="s">
+        <v>91</v>
+      </c>
+      <c r="P268" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q268">
+        <v>3.75</v>
+      </c>
+      <c r="R268">
+        <v>2.4</v>
+      </c>
+      <c r="S268">
+        <v>2.5</v>
+      </c>
+      <c r="T268">
+        <v>1.29</v>
+      </c>
+      <c r="U268">
+        <v>3.5</v>
+      </c>
+      <c r="V268">
+        <v>2.25</v>
+      </c>
+      <c r="W268">
+        <v>1.57</v>
+      </c>
+      <c r="X268">
+        <v>5.5</v>
+      </c>
+      <c r="Y268">
+        <v>1.14</v>
+      </c>
+      <c r="Z268">
+        <v>3.58</v>
+      </c>
+      <c r="AA268">
+        <v>4.1</v>
+      </c>
+      <c r="AB268">
+        <v>1.95</v>
+      </c>
+      <c r="AC268">
+        <v>0</v>
+      </c>
+      <c r="AD268">
+        <v>0</v>
+      </c>
+      <c r="AE268">
+        <v>0</v>
+      </c>
+      <c r="AF268">
+        <v>0</v>
+      </c>
+      <c r="AG268">
+        <v>1.55</v>
+      </c>
+      <c r="AH268">
+        <v>2.3</v>
+      </c>
+      <c r="AI268">
+        <v>1.5</v>
+      </c>
+      <c r="AJ268">
+        <v>2.5</v>
+      </c>
+      <c r="AK268">
+        <v>0</v>
+      </c>
+      <c r="AL268">
+        <v>0</v>
+      </c>
+      <c r="AM268">
+        <v>0</v>
+      </c>
+      <c r="AN268">
+        <v>0.86</v>
+      </c>
+      <c r="AO268">
+        <v>2.14</v>
+      </c>
+      <c r="AP268">
+        <v>0.8</v>
+      </c>
+      <c r="AQ268">
+        <v>2.2</v>
+      </c>
+      <c r="AR268">
+        <v>1.3</v>
+      </c>
+      <c r="AS268">
+        <v>1.43</v>
+      </c>
+      <c r="AT268">
+        <v>2.73</v>
+      </c>
+      <c r="AU268">
+        <v>3</v>
+      </c>
+      <c r="AV268">
+        <v>10</v>
+      </c>
+      <c r="AW268">
+        <v>12</v>
+      </c>
+      <c r="AX268">
+        <v>12</v>
+      </c>
+      <c r="AY268">
+        <v>20</v>
+      </c>
+      <c r="AZ268">
+        <v>29</v>
+      </c>
+      <c r="BA268">
+        <v>5</v>
+      </c>
+      <c r="BB268">
+        <v>5</v>
+      </c>
+      <c r="BC268">
+        <v>10</v>
+      </c>
+      <c r="BD268">
+        <v>0</v>
+      </c>
+      <c r="BE268">
+        <v>0</v>
+      </c>
+      <c r="BF268">
+        <v>0</v>
+      </c>
+      <c r="BG268">
+        <v>0</v>
+      </c>
+      <c r="BH268">
+        <v>0</v>
+      </c>
+      <c r="BI268">
+        <v>0</v>
+      </c>
+      <c r="BJ268">
+        <v>0</v>
+      </c>
+      <c r="BK268">
+        <v>0</v>
+      </c>
+      <c r="BL268">
+        <v>0</v>
+      </c>
+      <c r="BM268">
+        <v>0</v>
+      </c>
+      <c r="BN268">
+        <v>0</v>
+      </c>
+      <c r="BO268">
+        <v>0</v>
+      </c>
+      <c r="BP268">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="392">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -841,6 +841,9 @@
     <t>['1']</t>
   </si>
   <si>
+    <t>['14', '22', '25', '79']</t>
+  </si>
+  <si>
     <t>['8', '54']</t>
   </si>
   <si>
@@ -1548,7 +1551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP268"/>
+  <dimension ref="A1:BP269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2091,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ3">
         <v>0.86</v>
@@ -2219,7 +2222,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2631,7 +2634,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -3124,7 +3127,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ8">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3249,7 +3252,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -4485,7 +4488,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4691,7 +4694,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4897,7 +4900,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -5596,7 +5599,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ20">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR20">
         <v>1.11</v>
@@ -5721,7 +5724,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5927,7 +5930,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -6957,7 +6960,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -7369,7 +7372,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7781,7 +7784,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -8892,7 +8895,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ36">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR36">
         <v>1.72</v>
@@ -9017,7 +9020,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -9635,7 +9638,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -10665,7 +10668,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10871,7 +10874,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -11077,7 +11080,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -11283,7 +11286,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -11489,7 +11492,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -11695,7 +11698,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11901,7 +11904,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -12185,7 +12188,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ52">
         <v>0.6</v>
@@ -12313,7 +12316,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -12725,7 +12728,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -12931,7 +12934,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -13961,7 +13964,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -14167,7 +14170,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -14991,7 +14994,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -15481,7 +15484,7 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ68">
         <v>1.13</v>
@@ -15690,7 +15693,7 @@
         <v>2</v>
       </c>
       <c r="AQ69">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR69">
         <v>2.09</v>
@@ -15815,7 +15818,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -16227,7 +16230,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -16433,7 +16436,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -17051,7 +17054,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17669,7 +17672,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q79">
         <v>6.5</v>
@@ -17875,7 +17878,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q80">
         <v>2.6</v>
@@ -18574,7 +18577,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ83">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR83">
         <v>2.49</v>
@@ -18699,7 +18702,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q84">
         <v>2.6</v>
@@ -19111,7 +19114,7 @@
         <v>91</v>
       </c>
       <c r="P86" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19729,7 +19732,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19935,7 +19938,7 @@
         <v>91</v>
       </c>
       <c r="P90" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -20013,7 +20016,7 @@
         <v>1.75</v>
       </c>
       <c r="AP90">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ90">
         <v>2.19</v>
@@ -20553,7 +20556,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20759,7 +20762,7 @@
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q94">
         <v>2.05</v>
@@ -20837,7 +20840,7 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ94">
         <v>1.53</v>
@@ -21171,7 +21174,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q96">
         <v>2.2</v>
@@ -21252,7 +21255,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ96">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR96">
         <v>1.62</v>
@@ -21583,7 +21586,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q98">
         <v>3.1</v>
@@ -22613,7 +22616,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q103">
         <v>7.5</v>
@@ -22819,7 +22822,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -23025,7 +23028,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q105">
         <v>8.5</v>
@@ -23231,7 +23234,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q106">
         <v>3.1</v>
@@ -23643,7 +23646,7 @@
         <v>115</v>
       </c>
       <c r="P108" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q108">
         <v>1.95</v>
@@ -24133,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="AP110">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ110">
         <v>0.47</v>
@@ -24261,7 +24264,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24673,7 +24676,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q113">
         <v>4.75</v>
@@ -24879,7 +24882,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25085,7 +25088,7 @@
         <v>93</v>
       </c>
       <c r="P115" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25291,7 +25294,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25578,7 +25581,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ117">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR117">
         <v>2.01</v>
@@ -26399,7 +26402,7 @@
         <v>0.83</v>
       </c>
       <c r="AP121">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ121">
         <v>1</v>
@@ -26733,7 +26736,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -26939,7 +26942,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q124">
         <v>2.2</v>
@@ -27351,7 +27354,7 @@
         <v>180</v>
       </c>
       <c r="P126" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q126">
         <v>4.75</v>
@@ -27557,7 +27560,7 @@
         <v>181</v>
       </c>
       <c r="P127" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q127">
         <v>2.2</v>
@@ -28175,7 +28178,7 @@
         <v>91</v>
       </c>
       <c r="P130" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q130">
         <v>2.6</v>
@@ -28381,7 +28384,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q131">
         <v>8</v>
@@ -28587,7 +28590,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q132">
         <v>3.25</v>
@@ -28874,7 +28877,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ133">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR133">
         <v>1.23</v>
@@ -28999,7 +29002,7 @@
         <v>98</v>
       </c>
       <c r="P134" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q134">
         <v>3.2</v>
@@ -29411,7 +29414,7 @@
         <v>147</v>
       </c>
       <c r="P136" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q136">
         <v>4.75</v>
@@ -30029,7 +30032,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q139">
         <v>2.2</v>
@@ -30235,7 +30238,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q140">
         <v>1.57</v>
@@ -30313,7 +30316,7 @@
         <v>0.57</v>
       </c>
       <c r="AP140">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ140">
         <v>0.67</v>
@@ -30441,7 +30444,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q141">
         <v>2.6</v>
@@ -31265,7 +31268,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31552,7 +31555,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ146">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR146">
         <v>1.16</v>
@@ -32295,7 +32298,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32707,7 +32710,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q152">
         <v>2.25</v>
@@ -33119,7 +33122,7 @@
         <v>91</v>
       </c>
       <c r="P154" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q154">
         <v>3.5</v>
@@ -33737,7 +33740,7 @@
         <v>91</v>
       </c>
       <c r="P157" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q157">
         <v>3.25</v>
@@ -33943,7 +33946,7 @@
         <v>199</v>
       </c>
       <c r="P158" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q158">
         <v>1.83</v>
@@ -34149,7 +34152,7 @@
         <v>200</v>
       </c>
       <c r="P159" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q159">
         <v>2</v>
@@ -34561,7 +34564,7 @@
         <v>134</v>
       </c>
       <c r="P161" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q161">
         <v>2</v>
@@ -34639,7 +34642,7 @@
         <v>2.5</v>
       </c>
       <c r="AP161">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ161">
         <v>2.2</v>
@@ -34767,7 +34770,7 @@
         <v>201</v>
       </c>
       <c r="P162" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q162">
         <v>2.75</v>
@@ -34973,7 +34976,7 @@
         <v>202</v>
       </c>
       <c r="P163" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q163">
         <v>8</v>
@@ -35385,7 +35388,7 @@
         <v>132</v>
       </c>
       <c r="P165" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -35797,7 +35800,7 @@
         <v>204</v>
       </c>
       <c r="P167" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -36003,7 +36006,7 @@
         <v>91</v>
       </c>
       <c r="P168" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q168">
         <v>3.1</v>
@@ -36209,7 +36212,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -36415,7 +36418,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -37033,7 +37036,7 @@
         <v>207</v>
       </c>
       <c r="P173" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q173">
         <v>1.4</v>
@@ -37445,7 +37448,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q175">
         <v>2.75</v>
@@ -37526,7 +37529,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ175">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR175">
         <v>1.34</v>
@@ -37857,7 +37860,7 @@
         <v>210</v>
       </c>
       <c r="P177" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q177">
         <v>2.1</v>
@@ -38063,7 +38066,7 @@
         <v>211</v>
       </c>
       <c r="P178" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38475,7 +38478,7 @@
         <v>213</v>
       </c>
       <c r="P180" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q180">
         <v>3.6</v>
@@ -38681,7 +38684,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q181">
         <v>2.75</v>
@@ -38887,7 +38890,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q182">
         <v>5.5</v>
@@ -39093,7 +39096,7 @@
         <v>216</v>
       </c>
       <c r="P183" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q183">
         <v>2.88</v>
@@ -39505,7 +39508,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q185">
         <v>3.1</v>
@@ -39917,7 +39920,7 @@
         <v>91</v>
       </c>
       <c r="P187" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q187">
         <v>4.75</v>
@@ -40123,7 +40126,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q188">
         <v>3.75</v>
@@ -40819,7 +40822,7 @@
         <v>1.2</v>
       </c>
       <c r="AP191">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ191">
         <v>1.14</v>
@@ -41359,7 +41362,7 @@
         <v>91</v>
       </c>
       <c r="P194" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q194">
         <v>5.5</v>
@@ -41646,7 +41649,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ195">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR195">
         <v>1.82</v>
@@ -41771,7 +41774,7 @@
         <v>225</v>
       </c>
       <c r="P196" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q196">
         <v>4</v>
@@ -42183,7 +42186,7 @@
         <v>226</v>
       </c>
       <c r="P198" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q198">
         <v>1.8</v>
@@ -42595,7 +42598,7 @@
         <v>227</v>
       </c>
       <c r="P200" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q200">
         <v>3.25</v>
@@ -42801,7 +42804,7 @@
         <v>228</v>
       </c>
       <c r="P201" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q201">
         <v>2.1</v>
@@ -43703,7 +43706,7 @@
         <v>0.64</v>
       </c>
       <c r="AP205">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ205">
         <v>0.63</v>
@@ -44449,7 +44452,7 @@
         <v>160</v>
       </c>
       <c r="P209" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q209">
         <v>2.6</v>
@@ -44861,7 +44864,7 @@
         <v>237</v>
       </c>
       <c r="P211" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q211">
         <v>4.75</v>
@@ -45067,7 +45070,7 @@
         <v>128</v>
       </c>
       <c r="P212" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q212">
         <v>4.33</v>
@@ -45351,7 +45354,7 @@
         <v>0.82</v>
       </c>
       <c r="AP213">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ213">
         <v>0.93</v>
@@ -45685,7 +45688,7 @@
         <v>239</v>
       </c>
       <c r="P215" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q215">
         <v>2.75</v>
@@ -45766,7 +45769,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ215">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR215">
         <v>1.42</v>
@@ -46715,7 +46718,7 @@
         <v>241</v>
       </c>
       <c r="P220" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q220">
         <v>1.62</v>
@@ -46921,7 +46924,7 @@
         <v>242</v>
       </c>
       <c r="P221" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q221">
         <v>4.33</v>
@@ -47127,7 +47130,7 @@
         <v>91</v>
       </c>
       <c r="P222" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q222">
         <v>5</v>
@@ -47333,7 +47336,7 @@
         <v>243</v>
       </c>
       <c r="P223" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q223">
         <v>2.75</v>
@@ -48238,7 +48241,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ227">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR227">
         <v>1.66</v>
@@ -48363,7 +48366,7 @@
         <v>91</v>
       </c>
       <c r="P228" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q228">
         <v>8</v>
@@ -49187,7 +49190,7 @@
         <v>248</v>
       </c>
       <c r="P232" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q232">
         <v>2.88</v>
@@ -49393,7 +49396,7 @@
         <v>249</v>
       </c>
       <c r="P233" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q233">
         <v>2.5</v>
@@ -49805,7 +49808,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q235">
         <v>2.88</v>
@@ -50011,7 +50014,7 @@
         <v>91</v>
       </c>
       <c r="P236" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q236">
         <v>3.75</v>
@@ -50423,7 +50426,7 @@
         <v>252</v>
       </c>
       <c r="P238" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q238">
         <v>3.75</v>
@@ -50835,7 +50838,7 @@
         <v>91</v>
       </c>
       <c r="P240" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q240">
         <v>2.2</v>
@@ -51247,7 +51250,7 @@
         <v>255</v>
       </c>
       <c r="P242" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q242">
         <v>1.91</v>
@@ -51325,7 +51328,7 @@
         <v>1.17</v>
       </c>
       <c r="AP242">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ242">
         <v>1.07</v>
@@ -51453,7 +51456,7 @@
         <v>256</v>
       </c>
       <c r="P243" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q243">
         <v>1.8</v>
@@ -51737,7 +51740,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP244">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AQ244">
         <v>0.6</v>
@@ -52277,7 +52280,7 @@
         <v>175</v>
       </c>
       <c r="P247" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q247">
         <v>1.91</v>
@@ -52483,7 +52486,7 @@
         <v>106</v>
       </c>
       <c r="P248" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q248">
         <v>6.5</v>
@@ -52689,7 +52692,7 @@
         <v>259</v>
       </c>
       <c r="P249" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q249">
         <v>2.88</v>
@@ -52770,7 +52773,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ249">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR249">
         <v>1.41</v>
@@ -53101,7 +53104,7 @@
         <v>260</v>
       </c>
       <c r="P251" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q251">
         <v>2.63</v>
@@ -53513,7 +53516,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q253">
         <v>1.67</v>
@@ -53925,7 +53928,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q255">
         <v>6</v>
@@ -54131,7 +54134,7 @@
         <v>264</v>
       </c>
       <c r="P256" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q256">
         <v>2.5</v>
@@ -54543,7 +54546,7 @@
         <v>266</v>
       </c>
       <c r="P258" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q258">
         <v>3.5</v>
@@ -55367,7 +55370,7 @@
         <v>269</v>
       </c>
       <c r="P262" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q262">
         <v>7.5</v>
@@ -55573,7 +55576,7 @@
         <v>270</v>
       </c>
       <c r="P263" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q263">
         <v>2.25</v>
@@ -56397,7 +56400,7 @@
         <v>274</v>
       </c>
       <c r="P267" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q267">
         <v>4</v>
@@ -56603,7 +56606,7 @@
         <v>91</v>
       </c>
       <c r="P268" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q268">
         <v>3.75</v>
@@ -56759,6 +56762,212 @@
         <v>0</v>
       </c>
       <c r="BP268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:68">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>7466319</v>
+      </c>
+      <c r="C269" t="s">
+        <v>68</v>
+      </c>
+      <c r="D269" t="s">
+        <v>69</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45772.66666666666</v>
+      </c>
+      <c r="F269">
+        <v>30</v>
+      </c>
+      <c r="G269" t="s">
+        <v>71</v>
+      </c>
+      <c r="H269" t="s">
+        <v>85</v>
+      </c>
+      <c r="I269">
+        <v>3</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>3</v>
+      </c>
+      <c r="L269">
+        <v>4</v>
+      </c>
+      <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269">
+        <v>4</v>
+      </c>
+      <c r="O269" t="s">
+        <v>275</v>
+      </c>
+      <c r="P269" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q269">
+        <v>1.67</v>
+      </c>
+      <c r="R269">
+        <v>2.75</v>
+      </c>
+      <c r="S269">
+        <v>8.5</v>
+      </c>
+      <c r="T269">
+        <v>1.25</v>
+      </c>
+      <c r="U269">
+        <v>3.75</v>
+      </c>
+      <c r="V269">
+        <v>2.2</v>
+      </c>
+      <c r="W269">
+        <v>1.62</v>
+      </c>
+      <c r="X269">
+        <v>5</v>
+      </c>
+      <c r="Y269">
+        <v>1.17</v>
+      </c>
+      <c r="Z269">
+        <v>1.3</v>
+      </c>
+      <c r="AA269">
+        <v>6.3</v>
+      </c>
+      <c r="AB269">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC269">
+        <v>0</v>
+      </c>
+      <c r="AD269">
+        <v>0</v>
+      </c>
+      <c r="AE269">
+        <v>0</v>
+      </c>
+      <c r="AF269">
+        <v>0</v>
+      </c>
+      <c r="AG269">
+        <v>1.46</v>
+      </c>
+      <c r="AH269">
+        <v>2.6</v>
+      </c>
+      <c r="AI269">
+        <v>1.95</v>
+      </c>
+      <c r="AJ269">
+        <v>1.8</v>
+      </c>
+      <c r="AK269">
+        <v>0</v>
+      </c>
+      <c r="AL269">
+        <v>0</v>
+      </c>
+      <c r="AM269">
+        <v>0</v>
+      </c>
+      <c r="AN269">
+        <v>2.14</v>
+      </c>
+      <c r="AO269">
+        <v>0.71</v>
+      </c>
+      <c r="AP269">
+        <v>2.2</v>
+      </c>
+      <c r="AQ269">
+        <v>0.67</v>
+      </c>
+      <c r="AR269">
+        <v>1.93</v>
+      </c>
+      <c r="AS269">
+        <v>1.07</v>
+      </c>
+      <c r="AT269">
+        <v>3</v>
+      </c>
+      <c r="AU269">
+        <v>5</v>
+      </c>
+      <c r="AV269">
+        <v>5</v>
+      </c>
+      <c r="AW269">
+        <v>9</v>
+      </c>
+      <c r="AX269">
+        <v>15</v>
+      </c>
+      <c r="AY269">
+        <v>16</v>
+      </c>
+      <c r="AZ269">
+        <v>25</v>
+      </c>
+      <c r="BA269">
+        <v>1</v>
+      </c>
+      <c r="BB269">
+        <v>3</v>
+      </c>
+      <c r="BC269">
+        <v>4</v>
+      </c>
+      <c r="BD269">
+        <v>0</v>
+      </c>
+      <c r="BE269">
+        <v>0</v>
+      </c>
+      <c r="BF269">
+        <v>0</v>
+      </c>
+      <c r="BG269">
+        <v>0</v>
+      </c>
+      <c r="BH269">
+        <v>0</v>
+      </c>
+      <c r="BI269">
+        <v>0</v>
+      </c>
+      <c r="BJ269">
+        <v>0</v>
+      </c>
+      <c r="BK269">
+        <v>0</v>
+      </c>
+      <c r="BL269">
+        <v>0</v>
+      </c>
+      <c r="BM269">
+        <v>0</v>
+      </c>
+      <c r="BN269">
+        <v>0</v>
+      </c>
+      <c r="BO269">
+        <v>0</v>
+      </c>
+      <c r="BP269">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="392">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1551,7 +1551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP269"/>
+  <dimension ref="A1:BP270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2097,7 +2097,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ3">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ11">
         <v>0.63</v>
@@ -6423,7 +6423,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ24">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR24">
         <v>0.78</v>
@@ -7450,7 +7450,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ29">
         <v>0.93</v>
@@ -10955,7 +10955,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ46">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR46">
         <v>1.08</v>
@@ -12394,7 +12394,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ53">
         <v>2.07</v>
@@ -14457,7 +14457,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ63">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR63">
         <v>1.02</v>
@@ -16102,7 +16102,7 @@
         <v>2.5</v>
       </c>
       <c r="AP71">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ71">
         <v>1.53</v>
@@ -18368,7 +18368,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ82">
         <v>0.6</v>
@@ -19607,7 +19607,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ88">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR88">
         <v>2.16</v>
@@ -21046,7 +21046,7 @@
         <v>0</v>
       </c>
       <c r="AP95">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ95">
         <v>0.47</v>
@@ -23727,7 +23727,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ108">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR108">
         <v>1.94</v>
@@ -24754,7 +24754,7 @@
         <v>1.67</v>
       </c>
       <c r="AP113">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ113">
         <v>1.13</v>
@@ -26199,7 +26199,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ120">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR120">
         <v>1.14</v>
@@ -29701,7 +29701,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ137">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR137">
         <v>1.19</v>
@@ -30110,7 +30110,7 @@
         <v>0.29</v>
       </c>
       <c r="AP139">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ139">
         <v>0.47</v>
@@ -33200,7 +33200,7 @@
         <v>1</v>
       </c>
       <c r="AP154">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ154">
         <v>1.07</v>
@@ -34233,7 +34233,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ159">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR159">
         <v>1.99</v>
@@ -37526,7 +37526,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP175">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ175">
         <v>0.67</v>
@@ -37735,7 +37735,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ176">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR176">
         <v>1.2</v>
@@ -40413,7 +40413,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ189">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR189">
         <v>2.4</v>
@@ -41440,7 +41440,7 @@
         <v>2</v>
       </c>
       <c r="AP194">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ194">
         <v>2.19</v>
@@ -46181,7 +46181,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ217">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR217">
         <v>1.56</v>
@@ -46590,7 +46590,7 @@
         <v>0.73</v>
       </c>
       <c r="AP219">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ219">
         <v>0.67</v>
@@ -48859,7 +48859,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ230">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR230">
         <v>1.64</v>
@@ -50092,7 +50092,7 @@
         <v>1</v>
       </c>
       <c r="AP236">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ236">
         <v>1.14</v>
@@ -51949,7 +51949,7 @@
         <v>2</v>
       </c>
       <c r="AQ245">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR245">
         <v>1.65</v>
@@ -54006,7 +54006,7 @@
         <v>1.86</v>
       </c>
       <c r="AP255">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ255">
         <v>1.93</v>
@@ -56720,10 +56720,10 @@
         <v>5</v>
       </c>
       <c r="BB268">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC268">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD268">
         <v>0</v>
@@ -56968,6 +56968,212 @@
         <v>0</v>
       </c>
       <c r="BP269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:68">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>7466320</v>
+      </c>
+      <c r="C270" t="s">
+        <v>68</v>
+      </c>
+      <c r="D270" t="s">
+        <v>69</v>
+      </c>
+      <c r="E270" s="2">
+        <v>45774.30208333334</v>
+      </c>
+      <c r="F270">
+        <v>30</v>
+      </c>
+      <c r="G270" t="s">
+        <v>79</v>
+      </c>
+      <c r="H270" t="s">
+        <v>86</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>0</v>
+      </c>
+      <c r="L270">
+        <v>1</v>
+      </c>
+      <c r="M270">
+        <v>0</v>
+      </c>
+      <c r="N270">
+        <v>1</v>
+      </c>
+      <c r="O270" t="s">
+        <v>171</v>
+      </c>
+      <c r="P270" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q270">
+        <v>2.4</v>
+      </c>
+      <c r="R270">
+        <v>2.1</v>
+      </c>
+      <c r="S270">
+        <v>5</v>
+      </c>
+      <c r="T270">
+        <v>1.44</v>
+      </c>
+      <c r="U270">
+        <v>2.63</v>
+      </c>
+      <c r="V270">
+        <v>3.25</v>
+      </c>
+      <c r="W270">
+        <v>1.33</v>
+      </c>
+      <c r="X270">
+        <v>9</v>
+      </c>
+      <c r="Y270">
+        <v>1.07</v>
+      </c>
+      <c r="Z270">
+        <v>1.88</v>
+      </c>
+      <c r="AA270">
+        <v>3.59</v>
+      </c>
+      <c r="AB270">
+        <v>4.5</v>
+      </c>
+      <c r="AC270">
+        <v>0</v>
+      </c>
+      <c r="AD270">
+        <v>0</v>
+      </c>
+      <c r="AE270">
+        <v>2.68</v>
+      </c>
+      <c r="AF270">
+        <v>1.51</v>
+      </c>
+      <c r="AG270">
+        <v>1.96</v>
+      </c>
+      <c r="AH270">
+        <v>1.85</v>
+      </c>
+      <c r="AI270">
+        <v>1.95</v>
+      </c>
+      <c r="AJ270">
+        <v>1.8</v>
+      </c>
+      <c r="AK270">
+        <v>0</v>
+      </c>
+      <c r="AL270">
+        <v>0</v>
+      </c>
+      <c r="AM270">
+        <v>0</v>
+      </c>
+      <c r="AN270">
+        <v>1.29</v>
+      </c>
+      <c r="AO270">
+        <v>0.86</v>
+      </c>
+      <c r="AP270">
+        <v>1.4</v>
+      </c>
+      <c r="AQ270">
+        <v>0.8</v>
+      </c>
+      <c r="AR270">
+        <v>1.37</v>
+      </c>
+      <c r="AS270">
+        <v>0.96</v>
+      </c>
+      <c r="AT270">
+        <v>2.33</v>
+      </c>
+      <c r="AU270">
+        <v>3</v>
+      </c>
+      <c r="AV270">
+        <v>2</v>
+      </c>
+      <c r="AW270">
+        <v>11</v>
+      </c>
+      <c r="AX270">
+        <v>4</v>
+      </c>
+      <c r="AY270">
+        <v>20</v>
+      </c>
+      <c r="AZ270">
+        <v>7</v>
+      </c>
+      <c r="BA270">
+        <v>4</v>
+      </c>
+      <c r="BB270">
+        <v>5</v>
+      </c>
+      <c r="BC270">
+        <v>9</v>
+      </c>
+      <c r="BD270">
+        <v>0</v>
+      </c>
+      <c r="BE270">
+        <v>0</v>
+      </c>
+      <c r="BF270">
+        <v>0</v>
+      </c>
+      <c r="BG270">
+        <v>0</v>
+      </c>
+      <c r="BH270">
+        <v>0</v>
+      </c>
+      <c r="BI270">
+        <v>0</v>
+      </c>
+      <c r="BJ270">
+        <v>0</v>
+      </c>
+      <c r="BK270">
+        <v>0</v>
+      </c>
+      <c r="BL270">
+        <v>0</v>
+      </c>
+      <c r="BM270">
+        <v>0</v>
+      </c>
+      <c r="BN270">
+        <v>0</v>
+      </c>
+      <c r="BO270">
+        <v>0</v>
+      </c>
+      <c r="BP270">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="393">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1191,6 +1191,9 @@
   <si>
     <t>['15', '19', '27', '88']</t>
   </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
 </sst>
 </file>
 
@@ -1551,7 +1554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP270"/>
+  <dimension ref="A1:BP273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2506,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ5">
         <v>1.53</v>
@@ -3536,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.71</v>
+        <v>2.6</v>
       </c>
       <c r="AQ10">
         <v>0.47</v>
@@ -3948,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ12">
         <v>2.2</v>
@@ -4157,7 +4160,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ13">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4363,7 +4366,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ14">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -5802,7 +5805,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ21">
         <v>2.07</v>
@@ -7244,7 +7247,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ28">
         <v>0.6</v>
@@ -7453,7 +7456,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ29">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR29">
         <v>2.19</v>
@@ -7656,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ30">
         <v>0.6</v>
@@ -7865,7 +7868,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ31">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR31">
         <v>0.77</v>
@@ -8689,7 +8692,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ35">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR35">
         <v>2.65</v>
@@ -10540,7 +10543,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2.71</v>
+        <v>2.6</v>
       </c>
       <c r="AQ44">
         <v>1</v>
@@ -11161,7 +11164,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ47">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR47">
         <v>1.15</v>
@@ -11776,7 +11779,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ50">
         <v>0.6</v>
@@ -11982,7 +11985,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ51">
         <v>1.13</v>
@@ -14454,7 +14457,7 @@
         <v>0.67</v>
       </c>
       <c r="AP63">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ63">
         <v>0.8</v>
@@ -14663,7 +14666,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ64">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR64">
         <v>0.92</v>
@@ -14869,7 +14872,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ65">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR65">
         <v>2.79</v>
@@ -15690,7 +15693,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ69">
         <v>0.67</v>
@@ -15896,7 +15899,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>2.71</v>
+        <v>2.6</v>
       </c>
       <c r="AQ70">
         <v>0.6</v>
@@ -18162,10 +18165,10 @@
         <v>0.75</v>
       </c>
       <c r="AP81">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ81">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR81">
         <v>1.25</v>
@@ -18986,10 +18989,10 @@
         <v>1.75</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ85">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR85">
         <v>1.93</v>
@@ -19604,7 +19607,7 @@
         <v>1.25</v>
       </c>
       <c r="AP88">
-        <v>2.71</v>
+        <v>2.6</v>
       </c>
       <c r="AQ88">
         <v>0.8</v>
@@ -20634,7 +20637,7 @@
         <v>3</v>
       </c>
       <c r="AP93">
-        <v>2.71</v>
+        <v>2.6</v>
       </c>
       <c r="AQ93">
         <v>2.07</v>
@@ -22285,7 +22288,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ101">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR101">
         <v>1.12</v>
@@ -22903,7 +22906,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ104">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR104">
         <v>1.2</v>
@@ -23106,7 +23109,7 @@
         <v>2</v>
       </c>
       <c r="AP105">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ105">
         <v>1.93</v>
@@ -23518,7 +23521,7 @@
         <v>1.4</v>
       </c>
       <c r="AP107">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ107">
         <v>1.07</v>
@@ -25578,7 +25581,7 @@
         <v>0.5</v>
       </c>
       <c r="AP117">
-        <v>2.71</v>
+        <v>2.6</v>
       </c>
       <c r="AQ117">
         <v>0.67</v>
@@ -25784,7 +25787,7 @@
         <v>0.17</v>
       </c>
       <c r="AP118">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ118">
         <v>0.47</v>
@@ -26611,7 +26614,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ122">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR122">
         <v>1.18</v>
@@ -27638,7 +27641,7 @@
         <v>2.67</v>
       </c>
       <c r="AP127">
-        <v>2.71</v>
+        <v>2.6</v>
       </c>
       <c r="AQ127">
         <v>2.2</v>
@@ -28053,7 +28056,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ129">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR129">
         <v>1.64</v>
@@ -29492,7 +29495,7 @@
         <v>2.43</v>
       </c>
       <c r="AP136">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ136">
         <v>2.2</v>
@@ -29904,7 +29907,7 @@
         <v>2.63</v>
       </c>
       <c r="AP138">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ138">
         <v>2.07</v>
@@ -30731,7 +30734,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ142">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR142">
         <v>1.53</v>
@@ -31140,7 +31143,7 @@
         <v>0.29</v>
       </c>
       <c r="AP144">
-        <v>2.71</v>
+        <v>2.6</v>
       </c>
       <c r="AQ144">
         <v>0.63</v>
@@ -31964,7 +31967,7 @@
         <v>0.38</v>
       </c>
       <c r="AP148">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ148">
         <v>0.47</v>
@@ -32997,7 +33000,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ153">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR153">
         <v>1.13</v>
@@ -33409,7 +33412,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ155">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR155">
         <v>1.47</v>
@@ -33612,7 +33615,7 @@
         <v>0.25</v>
       </c>
       <c r="AP156">
-        <v>2.71</v>
+        <v>2.6</v>
       </c>
       <c r="AQ156">
         <v>0.47</v>
@@ -33821,7 +33824,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ157">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR157">
         <v>1.23</v>
@@ -36084,7 +36087,7 @@
         <v>0.5</v>
       </c>
       <c r="AP168">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ168">
         <v>0.67</v>
@@ -36290,7 +36293,7 @@
         <v>1.89</v>
       </c>
       <c r="AP169">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ169">
         <v>2.19</v>
@@ -37941,7 +37944,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ177">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR177">
         <v>1.77</v>
@@ -38762,7 +38765,7 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ181">
         <v>1</v>
@@ -39174,7 +39177,7 @@
         <v>0.3</v>
       </c>
       <c r="AP183">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ183">
         <v>0.47</v>
@@ -39380,7 +39383,7 @@
         <v>1.9</v>
       </c>
       <c r="AP184">
-        <v>2.71</v>
+        <v>2.6</v>
       </c>
       <c r="AQ184">
         <v>1.93</v>
@@ -40619,7 +40622,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ190">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR190">
         <v>1.38</v>
@@ -40825,7 +40828,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ191">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR191">
         <v>1.85</v>
@@ -41852,7 +41855,7 @@
         <v>1.27</v>
       </c>
       <c r="AP196">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ196">
         <v>1.13</v>
@@ -42061,7 +42064,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ197">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR197">
         <v>1.68</v>
@@ -43500,7 +43503,7 @@
         <v>0.8</v>
       </c>
       <c r="AP204">
-        <v>2.71</v>
+        <v>2.6</v>
       </c>
       <c r="AQ204">
         <v>0.67</v>
@@ -43912,7 +43915,7 @@
         <v>1.1</v>
       </c>
       <c r="AP206">
-        <v>2.71</v>
+        <v>2.6</v>
       </c>
       <c r="AQ206">
         <v>1.07</v>
@@ -44121,7 +44124,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ207">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR207">
         <v>2.08</v>
@@ -45357,7 +45360,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ213">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR213">
         <v>1.91</v>
@@ -45560,7 +45563,7 @@
         <v>1.91</v>
       </c>
       <c r="AP214">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ214">
         <v>1.53</v>
@@ -45972,7 +45975,7 @@
         <v>2.09</v>
       </c>
       <c r="AP216">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ216">
         <v>2.19</v>
@@ -46387,7 +46390,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ218">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR218">
         <v>1.39</v>
@@ -47826,7 +47829,7 @@
         <v>0.58</v>
       </c>
       <c r="AP225">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ225">
         <v>0.6</v>
@@ -48035,7 +48038,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ226">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR226">
         <v>1.62</v>
@@ -48650,7 +48653,7 @@
         <v>0.67</v>
       </c>
       <c r="AP229">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ229">
         <v>0.67</v>
@@ -49474,7 +49477,7 @@
         <v>1.75</v>
       </c>
       <c r="AP233">
-        <v>2.71</v>
+        <v>2.6</v>
       </c>
       <c r="AQ233">
         <v>1.53</v>
@@ -50095,7 +50098,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ236">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR236">
         <v>1.35</v>
@@ -51946,7 +51949,7 @@
         <v>0.92</v>
       </c>
       <c r="AP245">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ245">
         <v>0.8</v>
@@ -52770,7 +52773,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP249">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AQ249">
         <v>0.67</v>
@@ -53391,7 +53394,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ252">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR252">
         <v>1.63</v>
@@ -53594,7 +53597,7 @@
         <v>0.62</v>
       </c>
       <c r="AP253">
-        <v>2.71</v>
+        <v>2.6</v>
       </c>
       <c r="AQ253">
         <v>0.6</v>
@@ -55654,7 +55657,7 @@
         <v>0.67</v>
       </c>
       <c r="AP263">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ263">
         <v>0.63</v>
@@ -57174,6 +57177,624 @@
         <v>0</v>
       </c>
       <c r="BP270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:68">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>7466322</v>
+      </c>
+      <c r="C271" t="s">
+        <v>68</v>
+      </c>
+      <c r="D271" t="s">
+        <v>69</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45774.39583333334</v>
+      </c>
+      <c r="F271">
+        <v>30</v>
+      </c>
+      <c r="G271" t="s">
+        <v>80</v>
+      </c>
+      <c r="H271" t="s">
+        <v>72</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <v>1</v>
+      </c>
+      <c r="M271">
+        <v>0</v>
+      </c>
+      <c r="N271">
+        <v>1</v>
+      </c>
+      <c r="O271" t="s">
+        <v>266</v>
+      </c>
+      <c r="P271" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q271">
+        <v>2.6</v>
+      </c>
+      <c r="R271">
+        <v>2.3</v>
+      </c>
+      <c r="S271">
+        <v>4</v>
+      </c>
+      <c r="T271">
+        <v>1.33</v>
+      </c>
+      <c r="U271">
+        <v>3.25</v>
+      </c>
+      <c r="V271">
+        <v>2.63</v>
+      </c>
+      <c r="W271">
+        <v>1.44</v>
+      </c>
+      <c r="X271">
+        <v>6.5</v>
+      </c>
+      <c r="Y271">
+        <v>1.11</v>
+      </c>
+      <c r="Z271">
+        <v>2.02</v>
+      </c>
+      <c r="AA271">
+        <v>3.71</v>
+      </c>
+      <c r="AB271">
+        <v>3.68</v>
+      </c>
+      <c r="AC271">
+        <v>0</v>
+      </c>
+      <c r="AD271">
+        <v>0</v>
+      </c>
+      <c r="AE271">
+        <v>0</v>
+      </c>
+      <c r="AF271">
+        <v>0</v>
+      </c>
+      <c r="AG271">
+        <v>1.65</v>
+      </c>
+      <c r="AH271">
+        <v>2.15</v>
+      </c>
+      <c r="AI271">
+        <v>1.62</v>
+      </c>
+      <c r="AJ271">
+        <v>2.2</v>
+      </c>
+      <c r="AK271">
+        <v>0</v>
+      </c>
+      <c r="AL271">
+        <v>0</v>
+      </c>
+      <c r="AM271">
+        <v>0</v>
+      </c>
+      <c r="AN271">
+        <v>2</v>
+      </c>
+      <c r="AO271">
+        <v>0.93</v>
+      </c>
+      <c r="AP271">
+        <v>2.06</v>
+      </c>
+      <c r="AQ271">
+        <v>0.87</v>
+      </c>
+      <c r="AR271">
+        <v>1.71</v>
+      </c>
+      <c r="AS271">
+        <v>1.28</v>
+      </c>
+      <c r="AT271">
+        <v>2.99</v>
+      </c>
+      <c r="AU271">
+        <v>7</v>
+      </c>
+      <c r="AV271">
+        <v>2</v>
+      </c>
+      <c r="AW271">
+        <v>10</v>
+      </c>
+      <c r="AX271">
+        <v>6</v>
+      </c>
+      <c r="AY271">
+        <v>20</v>
+      </c>
+      <c r="AZ271">
+        <v>9</v>
+      </c>
+      <c r="BA271">
+        <v>7</v>
+      </c>
+      <c r="BB271">
+        <v>5</v>
+      </c>
+      <c r="BC271">
+        <v>12</v>
+      </c>
+      <c r="BD271">
+        <v>0</v>
+      </c>
+      <c r="BE271">
+        <v>0</v>
+      </c>
+      <c r="BF271">
+        <v>0</v>
+      </c>
+      <c r="BG271">
+        <v>0</v>
+      </c>
+      <c r="BH271">
+        <v>0</v>
+      </c>
+      <c r="BI271">
+        <v>0</v>
+      </c>
+      <c r="BJ271">
+        <v>0</v>
+      </c>
+      <c r="BK271">
+        <v>0</v>
+      </c>
+      <c r="BL271">
+        <v>0</v>
+      </c>
+      <c r="BM271">
+        <v>0</v>
+      </c>
+      <c r="BN271">
+        <v>0</v>
+      </c>
+      <c r="BO271">
+        <v>0</v>
+      </c>
+      <c r="BP271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:68">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>7466314</v>
+      </c>
+      <c r="C272" t="s">
+        <v>68</v>
+      </c>
+      <c r="D272" t="s">
+        <v>69</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45774.39583333334</v>
+      </c>
+      <c r="F272">
+        <v>30</v>
+      </c>
+      <c r="G272" t="s">
+        <v>78</v>
+      </c>
+      <c r="H272" t="s">
+        <v>75</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+      <c r="L272">
+        <v>1</v>
+      </c>
+      <c r="M272">
+        <v>1</v>
+      </c>
+      <c r="N272">
+        <v>2</v>
+      </c>
+      <c r="O272" t="s">
+        <v>273</v>
+      </c>
+      <c r="P272" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q272">
+        <v>1.95</v>
+      </c>
+      <c r="R272">
+        <v>2.5</v>
+      </c>
+      <c r="S272">
+        <v>6</v>
+      </c>
+      <c r="T272">
+        <v>1.29</v>
+      </c>
+      <c r="U272">
+        <v>3.5</v>
+      </c>
+      <c r="V272">
+        <v>2.38</v>
+      </c>
+      <c r="W272">
+        <v>1.53</v>
+      </c>
+      <c r="X272">
+        <v>5.5</v>
+      </c>
+      <c r="Y272">
+        <v>1.14</v>
+      </c>
+      <c r="Z272">
+        <v>1.54</v>
+      </c>
+      <c r="AA272">
+        <v>4.8</v>
+      </c>
+      <c r="AB272">
+        <v>5.7</v>
+      </c>
+      <c r="AC272">
+        <v>0</v>
+      </c>
+      <c r="AD272">
+        <v>0</v>
+      </c>
+      <c r="AE272">
+        <v>0</v>
+      </c>
+      <c r="AF272">
+        <v>0</v>
+      </c>
+      <c r="AG272">
+        <v>1.6</v>
+      </c>
+      <c r="AH272">
+        <v>2.25</v>
+      </c>
+      <c r="AI272">
+        <v>1.75</v>
+      </c>
+      <c r="AJ272">
+        <v>2</v>
+      </c>
+      <c r="AK272">
+        <v>0</v>
+      </c>
+      <c r="AL272">
+        <v>0</v>
+      </c>
+      <c r="AM272">
+        <v>0</v>
+      </c>
+      <c r="AN272">
+        <v>2.71</v>
+      </c>
+      <c r="AO272">
+        <v>1.14</v>
+      </c>
+      <c r="AP272">
+        <v>2.6</v>
+      </c>
+      <c r="AQ272">
+        <v>1.13</v>
+      </c>
+      <c r="AR272">
+        <v>1.79</v>
+      </c>
+      <c r="AS272">
+        <v>1.49</v>
+      </c>
+      <c r="AT272">
+        <v>3.28</v>
+      </c>
+      <c r="AU272">
+        <v>7</v>
+      </c>
+      <c r="AV272">
+        <v>6</v>
+      </c>
+      <c r="AW272">
+        <v>23</v>
+      </c>
+      <c r="AX272">
+        <v>8</v>
+      </c>
+      <c r="AY272">
+        <v>38</v>
+      </c>
+      <c r="AZ272">
+        <v>18</v>
+      </c>
+      <c r="BA272">
+        <v>11</v>
+      </c>
+      <c r="BB272">
+        <v>4</v>
+      </c>
+      <c r="BC272">
+        <v>15</v>
+      </c>
+      <c r="BD272">
+        <v>0</v>
+      </c>
+      <c r="BE272">
+        <v>0</v>
+      </c>
+      <c r="BF272">
+        <v>0</v>
+      </c>
+      <c r="BG272">
+        <v>0</v>
+      </c>
+      <c r="BH272">
+        <v>0</v>
+      </c>
+      <c r="BI272">
+        <v>0</v>
+      </c>
+      <c r="BJ272">
+        <v>0</v>
+      </c>
+      <c r="BK272">
+        <v>0</v>
+      </c>
+      <c r="BL272">
+        <v>0</v>
+      </c>
+      <c r="BM272">
+        <v>0</v>
+      </c>
+      <c r="BN272">
+        <v>0</v>
+      </c>
+      <c r="BO272">
+        <v>0</v>
+      </c>
+      <c r="BP272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:68">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>7466315</v>
+      </c>
+      <c r="C273" t="s">
+        <v>68</v>
+      </c>
+      <c r="D273" t="s">
+        <v>69</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45774.48958333334</v>
+      </c>
+      <c r="F273">
+        <v>30</v>
+      </c>
+      <c r="G273" t="s">
+        <v>73</v>
+      </c>
+      <c r="H273" t="s">
+        <v>77</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>0</v>
+      </c>
+      <c r="L273">
+        <v>0</v>
+      </c>
+      <c r="M273">
+        <v>0</v>
+      </c>
+      <c r="N273">
+        <v>0</v>
+      </c>
+      <c r="O273" t="s">
+        <v>91</v>
+      </c>
+      <c r="P273" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q273">
+        <v>3.4</v>
+      </c>
+      <c r="R273">
+        <v>2.3</v>
+      </c>
+      <c r="S273">
+        <v>2.88</v>
+      </c>
+      <c r="T273">
+        <v>1.33</v>
+      </c>
+      <c r="U273">
+        <v>3.25</v>
+      </c>
+      <c r="V273">
+        <v>2.5</v>
+      </c>
+      <c r="W273">
+        <v>1.5</v>
+      </c>
+      <c r="X273">
+        <v>6.5</v>
+      </c>
+      <c r="Y273">
+        <v>1.11</v>
+      </c>
+      <c r="Z273">
+        <v>3.25</v>
+      </c>
+      <c r="AA273">
+        <v>3.77</v>
+      </c>
+      <c r="AB273">
+        <v>2.16</v>
+      </c>
+      <c r="AC273">
+        <v>1.89</v>
+      </c>
+      <c r="AD273">
+        <v>1.99</v>
+      </c>
+      <c r="AE273">
+        <v>1.81</v>
+      </c>
+      <c r="AF273">
+        <v>2.07</v>
+      </c>
+      <c r="AG273">
+        <v>1.65</v>
+      </c>
+      <c r="AH273">
+        <v>2.15</v>
+      </c>
+      <c r="AI273">
+        <v>1.57</v>
+      </c>
+      <c r="AJ273">
+        <v>2.25</v>
+      </c>
+      <c r="AK273">
+        <v>0</v>
+      </c>
+      <c r="AL273">
+        <v>0</v>
+      </c>
+      <c r="AM273">
+        <v>0</v>
+      </c>
+      <c r="AN273">
+        <v>0.64</v>
+      </c>
+      <c r="AO273">
+        <v>1.07</v>
+      </c>
+      <c r="AP273">
+        <v>0.67</v>
+      </c>
+      <c r="AQ273">
+        <v>1.07</v>
+      </c>
+      <c r="AR273">
+        <v>1.48</v>
+      </c>
+      <c r="AS273">
+        <v>1.35</v>
+      </c>
+      <c r="AT273">
+        <v>2.83</v>
+      </c>
+      <c r="AU273">
+        <v>7</v>
+      </c>
+      <c r="AV273">
+        <v>3</v>
+      </c>
+      <c r="AW273">
+        <v>22</v>
+      </c>
+      <c r="AX273">
+        <v>4</v>
+      </c>
+      <c r="AY273">
+        <v>38</v>
+      </c>
+      <c r="AZ273">
+        <v>8</v>
+      </c>
+      <c r="BA273">
+        <v>13</v>
+      </c>
+      <c r="BB273">
+        <v>2</v>
+      </c>
+      <c r="BC273">
+        <v>15</v>
+      </c>
+      <c r="BD273">
+        <v>0</v>
+      </c>
+      <c r="BE273">
+        <v>0</v>
+      </c>
+      <c r="BF273">
+        <v>0</v>
+      </c>
+      <c r="BG273">
+        <v>0</v>
+      </c>
+      <c r="BH273">
+        <v>0</v>
+      </c>
+      <c r="BI273">
+        <v>0</v>
+      </c>
+      <c r="BJ273">
+        <v>0</v>
+      </c>
+      <c r="BK273">
+        <v>0</v>
+      </c>
+      <c r="BL273">
+        <v>0</v>
+      </c>
+      <c r="BM273">
+        <v>0</v>
+      </c>
+      <c r="BN273">
+        <v>0</v>
+      </c>
+      <c r="BO273">
+        <v>0</v>
+      </c>
+      <c r="BP273">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="396">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -844,6 +844,12 @@
     <t>['14', '22', '25', '79']</t>
   </si>
   <si>
+    <t>['7', '45+2', '46', '50', '60', '89']</t>
+  </si>
+  <si>
+    <t>['15', '40', '57', '73']</t>
+  </si>
+  <si>
     <t>['8', '54']</t>
   </si>
   <si>
@@ -1193,6 +1199,9 @@
   </si>
   <si>
     <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['9', '36', '45+2', '78']</t>
   </si>
 </sst>
 </file>
@@ -1554,7 +1563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP273"/>
+  <dimension ref="A1:BP277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1891,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ2">
         <v>0.6</v>
@@ -2100,7 +2109,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ3">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2225,7 +2234,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2303,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ4">
         <v>1.13</v>
@@ -2637,7 +2646,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2715,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ6">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3255,7 +3264,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3336,7 +3345,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -4491,7 +4500,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4697,7 +4706,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4775,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ16">
         <v>2.07</v>
@@ -4903,7 +4912,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4984,7 +4993,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ17">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5599,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ20">
         <v>0.67</v>
@@ -5727,7 +5736,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5933,7 +5942,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -6217,7 +6226,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ23">
         <v>1.53</v>
@@ -6423,10 +6432,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ24">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR24">
         <v>0.78</v>
@@ -6632,7 +6641,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ25">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR25">
         <v>1.08</v>
@@ -6838,7 +6847,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ26">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR26">
         <v>1.73</v>
@@ -6963,7 +6972,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -7375,7 +7384,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7787,7 +7796,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -8483,7 +8492,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ34">
         <v>1.07</v>
@@ -8689,7 +8698,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ35">
         <v>0.87</v>
@@ -9023,7 +9032,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -9101,10 +9110,10 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ37">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR37">
         <v>1.07</v>
@@ -9310,7 +9319,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR38">
         <v>0.83</v>
@@ -9641,7 +9650,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9928,7 +9937,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ41">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR41">
         <v>1.08</v>
@@ -10131,7 +10140,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ42">
         <v>0.63</v>
@@ -10546,7 +10555,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR44">
         <v>1.45</v>
@@ -10671,7 +10680,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10877,7 +10886,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10958,7 +10967,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ46">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR46">
         <v>1.08</v>
@@ -11083,7 +11092,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -11289,7 +11298,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -11495,7 +11504,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -11573,7 +11582,7 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ49">
         <v>0.67</v>
@@ -11701,7 +11710,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11907,7 +11916,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -12319,7 +12328,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -12603,7 +12612,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ54">
         <v>0.47</v>
@@ -12731,7 +12740,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -12937,7 +12946,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -13015,10 +13024,10 @@
         <v>1.67</v>
       </c>
       <c r="AP56">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ56">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR56">
         <v>1.55</v>
@@ -13224,7 +13233,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR57">
         <v>1.49</v>
@@ -13839,7 +13848,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ60">
         <v>1.07</v>
@@ -13967,7 +13976,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -14173,7 +14182,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -14460,7 +14469,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ63">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR63">
         <v>1.02</v>
@@ -14869,7 +14878,7 @@
         <v>2.33</v>
       </c>
       <c r="AP65">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ65">
         <v>1.13</v>
@@ -14997,7 +15006,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -15078,7 +15087,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ66">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR66">
         <v>1.08</v>
@@ -15821,7 +15830,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -16233,7 +16242,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -16439,7 +16448,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -16723,7 +16732,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ74">
         <v>0.47</v>
@@ -17057,7 +17066,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17138,7 +17147,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ76">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR76">
         <v>1.77</v>
@@ -17344,7 +17353,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR77">
         <v>1.05</v>
@@ -17547,7 +17556,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ78">
         <v>2.2</v>
@@ -17675,7 +17684,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q79">
         <v>6.5</v>
@@ -17753,7 +17762,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ79">
         <v>2.19</v>
@@ -17881,7 +17890,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q80">
         <v>2.6</v>
@@ -18577,7 +18586,7 @@
         <v>0.5</v>
       </c>
       <c r="AP83">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ83">
         <v>0.67</v>
@@ -18705,7 +18714,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q84">
         <v>2.6</v>
@@ -18786,7 +18795,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ84">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR84">
         <v>1.12</v>
@@ -19117,7 +19126,7 @@
         <v>91</v>
       </c>
       <c r="P86" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19198,7 +19207,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ86">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR86">
         <v>1.47</v>
@@ -19610,7 +19619,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ88">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR88">
         <v>2.16</v>
@@ -19735,7 +19744,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19941,7 +19950,7 @@
         <v>91</v>
       </c>
       <c r="P90" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -20431,7 +20440,7 @@
         <v>0.6</v>
       </c>
       <c r="AP92">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ92">
         <v>0.6</v>
@@ -20559,7 +20568,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20765,7 +20774,7 @@
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q94">
         <v>2.05</v>
@@ -21177,7 +21186,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q96">
         <v>2.2</v>
@@ -21461,7 +21470,7 @@
         <v>0.8</v>
       </c>
       <c r="AP97">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ97">
         <v>0.6</v>
@@ -21589,7 +21598,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q98">
         <v>3.1</v>
@@ -22285,7 +22294,7 @@
         <v>1.4</v>
       </c>
       <c r="AP101">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ101">
         <v>1.13</v>
@@ -22494,7 +22503,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ102">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR102">
         <v>1.15</v>
@@ -22619,7 +22628,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q103">
         <v>7.5</v>
@@ -22825,7 +22834,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -23031,7 +23040,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q105">
         <v>8.5</v>
@@ -23112,7 +23121,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ105">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR105">
         <v>1.24</v>
@@ -23237,7 +23246,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q106">
         <v>3.1</v>
@@ -23649,7 +23658,7 @@
         <v>115</v>
       </c>
       <c r="P108" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q108">
         <v>1.95</v>
@@ -23730,7 +23739,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ108">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR108">
         <v>1.94</v>
@@ -24267,7 +24276,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24345,10 +24354,10 @@
         <v>0</v>
       </c>
       <c r="AP111">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ111">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR111">
         <v>1.37</v>
@@ -24551,7 +24560,7 @@
         <v>0.67</v>
       </c>
       <c r="AP112">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ112">
         <v>0.6</v>
@@ -24679,7 +24688,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q113">
         <v>4.75</v>
@@ -24885,7 +24894,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -24963,7 +24972,7 @@
         <v>2.6</v>
       </c>
       <c r="AP114">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ114">
         <v>2.2</v>
@@ -25091,7 +25100,7 @@
         <v>93</v>
       </c>
       <c r="P115" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25297,7 +25306,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25790,7 +25799,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ118">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR118">
         <v>1.65</v>
@@ -26199,10 +26208,10 @@
         <v>1.33</v>
       </c>
       <c r="AP120">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ120">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR120">
         <v>1.14</v>
@@ -26408,7 +26417,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ121">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR121">
         <v>1.62</v>
@@ -26739,7 +26748,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -26945,7 +26954,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q124">
         <v>2.2</v>
@@ -27357,7 +27366,7 @@
         <v>180</v>
       </c>
       <c r="P126" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q126">
         <v>4.75</v>
@@ -27435,7 +27444,7 @@
         <v>1.83</v>
       </c>
       <c r="AP126">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ126">
         <v>2.19</v>
@@ -27563,7 +27572,7 @@
         <v>181</v>
       </c>
       <c r="P127" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q127">
         <v>2.2</v>
@@ -27847,7 +27856,7 @@
         <v>1.86</v>
       </c>
       <c r="AP128">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ128">
         <v>1.13</v>
@@ -28181,7 +28190,7 @@
         <v>91</v>
       </c>
       <c r="P130" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q130">
         <v>2.6</v>
@@ -28387,7 +28396,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q131">
         <v>8</v>
@@ -28468,7 +28477,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ131">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR131">
         <v>1.18</v>
@@ -28593,7 +28602,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q132">
         <v>3.25</v>
@@ -28671,10 +28680,10 @@
         <v>0.86</v>
       </c>
       <c r="AP132">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ132">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR132">
         <v>1.37</v>
@@ -28877,7 +28886,7 @@
         <v>0.43</v>
       </c>
       <c r="AP133">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ133">
         <v>0.67</v>
@@ -29005,7 +29014,7 @@
         <v>98</v>
       </c>
       <c r="P134" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q134">
         <v>3.2</v>
@@ -29417,7 +29426,7 @@
         <v>147</v>
       </c>
       <c r="P136" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q136">
         <v>4.75</v>
@@ -29704,7 +29713,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ137">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR137">
         <v>1.19</v>
@@ -30035,7 +30044,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q139">
         <v>2.2</v>
@@ -30116,7 +30125,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ139">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR139">
         <v>1.21</v>
@@ -30241,7 +30250,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q140">
         <v>1.57</v>
@@ -30447,7 +30456,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q141">
         <v>2.6</v>
@@ -30731,7 +30740,7 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ142">
         <v>1.13</v>
@@ -31271,7 +31280,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -32301,7 +32310,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32585,10 +32594,10 @@
         <v>2.25</v>
       </c>
       <c r="AP151">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ151">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR151">
         <v>2.48</v>
@@ -32713,7 +32722,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q152">
         <v>2.25</v>
@@ -32794,7 +32803,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ152">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR152">
         <v>1.54</v>
@@ -33125,7 +33134,7 @@
         <v>91</v>
       </c>
       <c r="P154" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q154">
         <v>3.5</v>
@@ -33409,7 +33418,7 @@
         <v>1</v>
       </c>
       <c r="AP155">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ155">
         <v>1.13</v>
@@ -33618,7 +33627,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ156">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR156">
         <v>1.73</v>
@@ -33743,7 +33752,7 @@
         <v>91</v>
       </c>
       <c r="P157" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q157">
         <v>3.25</v>
@@ -33949,7 +33958,7 @@
         <v>199</v>
       </c>
       <c r="P158" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q158">
         <v>1.83</v>
@@ -34027,7 +34036,7 @@
         <v>2</v>
       </c>
       <c r="AP158">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ158">
         <v>1.53</v>
@@ -34155,7 +34164,7 @@
         <v>200</v>
       </c>
       <c r="P159" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q159">
         <v>2</v>
@@ -34236,7 +34245,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ159">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR159">
         <v>1.99</v>
@@ -34439,7 +34448,7 @@
         <v>0.25</v>
       </c>
       <c r="AP160">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ160">
         <v>0.63</v>
@@ -34567,7 +34576,7 @@
         <v>134</v>
       </c>
       <c r="P161" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q161">
         <v>2</v>
@@ -34773,7 +34782,7 @@
         <v>201</v>
       </c>
       <c r="P162" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q162">
         <v>2.75</v>
@@ -34979,7 +34988,7 @@
         <v>202</v>
       </c>
       <c r="P163" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q163">
         <v>8</v>
@@ -35391,7 +35400,7 @@
         <v>132</v>
       </c>
       <c r="P165" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -35472,7 +35481,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ165">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR165">
         <v>1.19</v>
@@ -35803,7 +35812,7 @@
         <v>204</v>
       </c>
       <c r="P167" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -36009,7 +36018,7 @@
         <v>91</v>
       </c>
       <c r="P168" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q168">
         <v>3.1</v>
@@ -36215,7 +36224,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -36421,7 +36430,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36499,10 +36508,10 @@
         <v>1.11</v>
       </c>
       <c r="AP170">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ170">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR170">
         <v>1.58</v>
@@ -36708,7 +36717,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ171">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR171">
         <v>1.53</v>
@@ -36911,7 +36920,7 @@
         <v>2.56</v>
       </c>
       <c r="AP172">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ172">
         <v>2.2</v>
@@ -37039,7 +37048,7 @@
         <v>207</v>
       </c>
       <c r="P173" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q173">
         <v>1.4</v>
@@ -37117,7 +37126,7 @@
         <v>0.78</v>
       </c>
       <c r="AP173">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ173">
         <v>0.6</v>
@@ -37323,7 +37332,7 @@
         <v>0.6</v>
       </c>
       <c r="AP174">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ174">
         <v>0.47</v>
@@ -37451,7 +37460,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q175">
         <v>2.75</v>
@@ -37738,7 +37747,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ176">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR176">
         <v>1.2</v>
@@ -37863,7 +37872,7 @@
         <v>210</v>
       </c>
       <c r="P177" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q177">
         <v>2.1</v>
@@ -38069,7 +38078,7 @@
         <v>211</v>
       </c>
       <c r="P178" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38147,7 +38156,7 @@
         <v>0.44</v>
       </c>
       <c r="AP178">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ178">
         <v>0.6</v>
@@ -38481,7 +38490,7 @@
         <v>213</v>
       </c>
       <c r="P180" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q180">
         <v>3.6</v>
@@ -38687,7 +38696,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q181">
         <v>2.75</v>
@@ -38768,7 +38777,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ181">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR181">
         <v>1.53</v>
@@ -38893,7 +38902,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q182">
         <v>5.5</v>
@@ -38971,7 +38980,7 @@
         <v>2.1</v>
       </c>
       <c r="AP182">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ182">
         <v>2.07</v>
@@ -39099,7 +39108,7 @@
         <v>216</v>
       </c>
       <c r="P183" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q183">
         <v>2.88</v>
@@ -39180,7 +39189,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ183">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR183">
         <v>1.31</v>
@@ -39386,7 +39395,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ184">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR184">
         <v>1.78</v>
@@ -39511,7 +39520,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q185">
         <v>3.1</v>
@@ -39923,7 +39932,7 @@
         <v>91</v>
       </c>
       <c r="P187" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q187">
         <v>4.75</v>
@@ -40129,7 +40138,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q188">
         <v>3.75</v>
@@ -40207,7 +40216,7 @@
         <v>1.22</v>
       </c>
       <c r="AP188">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ188">
         <v>1.07</v>
@@ -40413,10 +40422,10 @@
         <v>1.1</v>
       </c>
       <c r="AP189">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ189">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR189">
         <v>2.4</v>
@@ -40619,7 +40628,7 @@
         <v>1</v>
       </c>
       <c r="AP190">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ190">
         <v>0.87</v>
@@ -41365,7 +41374,7 @@
         <v>91</v>
       </c>
       <c r="P194" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q194">
         <v>5.5</v>
@@ -41777,7 +41786,7 @@
         <v>225</v>
       </c>
       <c r="P196" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q196">
         <v>4</v>
@@ -42189,7 +42198,7 @@
         <v>226</v>
       </c>
       <c r="P198" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q198">
         <v>1.8</v>
@@ -42267,7 +42276,7 @@
         <v>2.27</v>
       </c>
       <c r="AP198">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ198">
         <v>2.2</v>
@@ -42476,7 +42485,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ199">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR199">
         <v>1.41</v>
@@ -42601,7 +42610,7 @@
         <v>227</v>
       </c>
       <c r="P200" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q200">
         <v>3.25</v>
@@ -42807,7 +42816,7 @@
         <v>228</v>
       </c>
       <c r="P201" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q201">
         <v>2.1</v>
@@ -42885,7 +42894,7 @@
         <v>0.6</v>
       </c>
       <c r="AP201">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ201">
         <v>0.63</v>
@@ -43300,7 +43309,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ203">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR203">
         <v>2.08</v>
@@ -44330,7 +44339,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ208">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR208">
         <v>1.81</v>
@@ -44455,7 +44464,7 @@
         <v>160</v>
       </c>
       <c r="P209" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q209">
         <v>2.6</v>
@@ -44536,7 +44545,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ209">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR209">
         <v>1.29</v>
@@ -44867,7 +44876,7 @@
         <v>237</v>
       </c>
       <c r="P211" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q211">
         <v>4.75</v>
@@ -45073,7 +45082,7 @@
         <v>128</v>
       </c>
       <c r="P212" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q212">
         <v>4.33</v>
@@ -45151,7 +45160,7 @@
         <v>1.25</v>
       </c>
       <c r="AP212">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ212">
         <v>1.13</v>
@@ -45691,7 +45700,7 @@
         <v>239</v>
       </c>
       <c r="P215" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q215">
         <v>2.75</v>
@@ -45769,7 +45778,7 @@
         <v>0.73</v>
       </c>
       <c r="AP215">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ215">
         <v>0.67</v>
@@ -46184,7 +46193,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ217">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR217">
         <v>1.56</v>
@@ -46721,7 +46730,7 @@
         <v>241</v>
       </c>
       <c r="P220" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q220">
         <v>1.62</v>
@@ -46799,7 +46808,7 @@
         <v>0.58</v>
       </c>
       <c r="AP220">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ220">
         <v>0.47</v>
@@ -46927,7 +46936,7 @@
         <v>242</v>
       </c>
       <c r="P221" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q221">
         <v>4.33</v>
@@ -47133,7 +47142,7 @@
         <v>91</v>
       </c>
       <c r="P222" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q222">
         <v>5</v>
@@ -47339,7 +47348,7 @@
         <v>243</v>
       </c>
       <c r="P223" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q223">
         <v>2.75</v>
@@ -47417,7 +47426,7 @@
         <v>1</v>
       </c>
       <c r="AP223">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ223">
         <v>1.07</v>
@@ -48369,7 +48378,7 @@
         <v>91</v>
       </c>
       <c r="P228" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q228">
         <v>8</v>
@@ -48862,7 +48871,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ230">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR230">
         <v>1.64</v>
@@ -49065,10 +49074,10 @@
         <v>1.08</v>
       </c>
       <c r="AP231">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ231">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR231">
         <v>1.41</v>
@@ -49193,7 +49202,7 @@
         <v>248</v>
       </c>
       <c r="P232" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q232">
         <v>2.88</v>
@@ -49274,7 +49283,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ232">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR232">
         <v>2</v>
@@ -49399,7 +49408,7 @@
         <v>249</v>
       </c>
       <c r="P233" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q233">
         <v>2.5</v>
@@ -49811,7 +49820,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q235">
         <v>2.88</v>
@@ -50017,7 +50026,7 @@
         <v>91</v>
       </c>
       <c r="P236" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q236">
         <v>3.75</v>
@@ -50304,7 +50313,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ237">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR237">
         <v>1.26</v>
@@ -50429,7 +50438,7 @@
         <v>252</v>
       </c>
       <c r="P238" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q238">
         <v>3.75</v>
@@ -50507,7 +50516,7 @@
         <v>1.69</v>
       </c>
       <c r="AP238">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ238">
         <v>1.53</v>
@@ -50841,7 +50850,7 @@
         <v>91</v>
       </c>
       <c r="P240" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q240">
         <v>2.2</v>
@@ -50919,7 +50928,7 @@
         <v>2.23</v>
       </c>
       <c r="AP240">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ240">
         <v>2.19</v>
@@ -51125,7 +51134,7 @@
         <v>1.23</v>
       </c>
       <c r="AP241">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ241">
         <v>1.13</v>
@@ -51253,7 +51262,7 @@
         <v>255</v>
       </c>
       <c r="P242" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q242">
         <v>1.91</v>
@@ -51459,7 +51468,7 @@
         <v>256</v>
       </c>
       <c r="P243" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q243">
         <v>1.8</v>
@@ -51540,7 +51549,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ243">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR243">
         <v>1.8</v>
@@ -51952,7 +51961,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ245">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR245">
         <v>1.65</v>
@@ -52158,7 +52167,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ246">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR246">
         <v>1.83</v>
@@ -52283,7 +52292,7 @@
         <v>175</v>
       </c>
       <c r="P247" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q247">
         <v>1.91</v>
@@ -52364,7 +52373,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ247">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR247">
         <v>1.91</v>
@@ -52489,7 +52498,7 @@
         <v>106</v>
       </c>
       <c r="P248" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q248">
         <v>6.5</v>
@@ -52567,7 +52576,7 @@
         <v>1.92</v>
       </c>
       <c r="AP248">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ248">
         <v>2.07</v>
@@ -52695,7 +52704,7 @@
         <v>259</v>
       </c>
       <c r="P249" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q249">
         <v>2.88</v>
@@ -53107,7 +53116,7 @@
         <v>260</v>
       </c>
       <c r="P251" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q251">
         <v>2.63</v>
@@ -53519,7 +53528,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q253">
         <v>1.67</v>
@@ -53803,10 +53812,10 @@
         <v>0.5</v>
       </c>
       <c r="AP254">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ254">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR254">
         <v>1.54</v>
@@ -53931,7 +53940,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q255">
         <v>6</v>
@@ -54012,7 +54021,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ255">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR255">
         <v>1.41</v>
@@ -54137,7 +54146,7 @@
         <v>264</v>
       </c>
       <c r="P256" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q256">
         <v>2.5</v>
@@ -54421,7 +54430,7 @@
         <v>0.71</v>
       </c>
       <c r="AP257">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AQ257">
         <v>0.63</v>
@@ -54549,7 +54558,7 @@
         <v>266</v>
       </c>
       <c r="P258" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q258">
         <v>3.5</v>
@@ -55039,7 +55048,7 @@
         <v>1.64</v>
       </c>
       <c r="AP260">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AQ260">
         <v>1.53</v>
@@ -55373,7 +55382,7 @@
         <v>269</v>
       </c>
       <c r="P262" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q262">
         <v>7.5</v>
@@ -55579,7 +55588,7 @@
         <v>270</v>
       </c>
       <c r="P263" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q263">
         <v>2.25</v>
@@ -56069,7 +56078,7 @@
         <v>0.71</v>
       </c>
       <c r="AP265">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ265">
         <v>0.67</v>
@@ -56403,7 +56412,7 @@
         <v>274</v>
       </c>
       <c r="P267" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q267">
         <v>4</v>
@@ -56609,7 +56618,7 @@
         <v>91</v>
       </c>
       <c r="P268" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q268">
         <v>3.75</v>
@@ -57102,7 +57111,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ270">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR270">
         <v>1.37</v>
@@ -57433,7 +57442,7 @@
         <v>273</v>
       </c>
       <c r="P272" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q272">
         <v>1.95</v>
@@ -57795,6 +57804,830 @@
         <v>0</v>
       </c>
       <c r="BP273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:68">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>7466331</v>
+      </c>
+      <c r="C274" t="s">
+        <v>68</v>
+      </c>
+      <c r="D274" t="s">
+        <v>69</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45780.47916666666</v>
+      </c>
+      <c r="F274">
+        <v>31</v>
+      </c>
+      <c r="G274" t="s">
+        <v>72</v>
+      </c>
+      <c r="H274" t="s">
+        <v>86</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>1</v>
+      </c>
+      <c r="K274">
+        <v>1</v>
+      </c>
+      <c r="L274">
+        <v>1</v>
+      </c>
+      <c r="M274">
+        <v>1</v>
+      </c>
+      <c r="N274">
+        <v>2</v>
+      </c>
+      <c r="O274" t="s">
+        <v>247</v>
+      </c>
+      <c r="P274" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q274">
+        <v>2.1</v>
+      </c>
+      <c r="R274">
+        <v>2.38</v>
+      </c>
+      <c r="S274">
+        <v>5.5</v>
+      </c>
+      <c r="T274">
+        <v>1.33</v>
+      </c>
+      <c r="U274">
+        <v>3.25</v>
+      </c>
+      <c r="V274">
+        <v>2.63</v>
+      </c>
+      <c r="W274">
+        <v>1.44</v>
+      </c>
+      <c r="X274">
+        <v>6.5</v>
+      </c>
+      <c r="Y274">
+        <v>1.11</v>
+      </c>
+      <c r="Z274">
+        <v>1.76</v>
+      </c>
+      <c r="AA274">
+        <v>3.99</v>
+      </c>
+      <c r="AB274">
+        <v>4.6</v>
+      </c>
+      <c r="AC274">
+        <v>0</v>
+      </c>
+      <c r="AD274">
+        <v>0</v>
+      </c>
+      <c r="AE274">
+        <v>0</v>
+      </c>
+      <c r="AF274">
+        <v>0</v>
+      </c>
+      <c r="AG274">
+        <v>1.81</v>
+      </c>
+      <c r="AH274">
+        <v>2.01</v>
+      </c>
+      <c r="AI274">
+        <v>1.91</v>
+      </c>
+      <c r="AJ274">
+        <v>1.91</v>
+      </c>
+      <c r="AK274">
+        <v>0</v>
+      </c>
+      <c r="AL274">
+        <v>0</v>
+      </c>
+      <c r="AM274">
+        <v>0</v>
+      </c>
+      <c r="AN274">
+        <v>1.33</v>
+      </c>
+      <c r="AO274">
+        <v>0.8</v>
+      </c>
+      <c r="AP274">
+        <v>1.31</v>
+      </c>
+      <c r="AQ274">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR274">
+        <v>1.58</v>
+      </c>
+      <c r="AS274">
+        <v>0.95</v>
+      </c>
+      <c r="AT274">
+        <v>2.53</v>
+      </c>
+      <c r="AU274">
+        <v>5</v>
+      </c>
+      <c r="AV274">
+        <v>5</v>
+      </c>
+      <c r="AW274">
+        <v>17</v>
+      </c>
+      <c r="AX274">
+        <v>7</v>
+      </c>
+      <c r="AY274">
+        <v>23</v>
+      </c>
+      <c r="AZ274">
+        <v>13</v>
+      </c>
+      <c r="BA274">
+        <v>4</v>
+      </c>
+      <c r="BB274">
+        <v>2</v>
+      </c>
+      <c r="BC274">
+        <v>6</v>
+      </c>
+      <c r="BD274">
+        <v>0</v>
+      </c>
+      <c r="BE274">
+        <v>0</v>
+      </c>
+      <c r="BF274">
+        <v>0</v>
+      </c>
+      <c r="BG274">
+        <v>0</v>
+      </c>
+      <c r="BH274">
+        <v>0</v>
+      </c>
+      <c r="BI274">
+        <v>0</v>
+      </c>
+      <c r="BJ274">
+        <v>0</v>
+      </c>
+      <c r="BK274">
+        <v>0</v>
+      </c>
+      <c r="BL274">
+        <v>0</v>
+      </c>
+      <c r="BM274">
+        <v>0</v>
+      </c>
+      <c r="BN274">
+        <v>0</v>
+      </c>
+      <c r="BO274">
+        <v>0</v>
+      </c>
+      <c r="BP274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:68">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>7466327</v>
+      </c>
+      <c r="C275" t="s">
+        <v>68</v>
+      </c>
+      <c r="D275" t="s">
+        <v>69</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45780.57291666666</v>
+      </c>
+      <c r="F275">
+        <v>31</v>
+      </c>
+      <c r="G275" t="s">
+        <v>84</v>
+      </c>
+      <c r="H275" t="s">
+        <v>71</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>3</v>
+      </c>
+      <c r="K275">
+        <v>3</v>
+      </c>
+      <c r="L275">
+        <v>1</v>
+      </c>
+      <c r="M275">
+        <v>4</v>
+      </c>
+      <c r="N275">
+        <v>5</v>
+      </c>
+      <c r="O275" t="s">
+        <v>187</v>
+      </c>
+      <c r="P275" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q275">
+        <v>5.5</v>
+      </c>
+      <c r="R275">
+        <v>2.4</v>
+      </c>
+      <c r="S275">
+        <v>2.05</v>
+      </c>
+      <c r="T275">
+        <v>1.3</v>
+      </c>
+      <c r="U275">
+        <v>3.4</v>
+      </c>
+      <c r="V275">
+        <v>2.5</v>
+      </c>
+      <c r="W275">
+        <v>1.5</v>
+      </c>
+      <c r="X275">
+        <v>6</v>
+      </c>
+      <c r="Y275">
+        <v>1.13</v>
+      </c>
+      <c r="Z275">
+        <v>5.2</v>
+      </c>
+      <c r="AA275">
+        <v>4.75</v>
+      </c>
+      <c r="AB275">
+        <v>1.58</v>
+      </c>
+      <c r="AC275">
+        <v>0</v>
+      </c>
+      <c r="AD275">
+        <v>0</v>
+      </c>
+      <c r="AE275">
+        <v>0</v>
+      </c>
+      <c r="AF275">
+        <v>0</v>
+      </c>
+      <c r="AG275">
+        <v>1.7</v>
+      </c>
+      <c r="AH275">
+        <v>2.05</v>
+      </c>
+      <c r="AI275">
+        <v>1.8</v>
+      </c>
+      <c r="AJ275">
+        <v>1.95</v>
+      </c>
+      <c r="AK275">
+        <v>0</v>
+      </c>
+      <c r="AL275">
+        <v>0</v>
+      </c>
+      <c r="AM275">
+        <v>0</v>
+      </c>
+      <c r="AN275">
+        <v>1.67</v>
+      </c>
+      <c r="AO275">
+        <v>1.93</v>
+      </c>
+      <c r="AP275">
+        <v>1.56</v>
+      </c>
+      <c r="AQ275">
+        <v>2</v>
+      </c>
+      <c r="AR275">
+        <v>1.38</v>
+      </c>
+      <c r="AS275">
+        <v>1.82</v>
+      </c>
+      <c r="AT275">
+        <v>3.2</v>
+      </c>
+      <c r="AU275">
+        <v>5</v>
+      </c>
+      <c r="AV275">
+        <v>9</v>
+      </c>
+      <c r="AW275">
+        <v>8</v>
+      </c>
+      <c r="AX275">
+        <v>7</v>
+      </c>
+      <c r="AY275">
+        <v>14</v>
+      </c>
+      <c r="AZ275">
+        <v>18</v>
+      </c>
+      <c r="BA275">
+        <v>5</v>
+      </c>
+      <c r="BB275">
+        <v>1</v>
+      </c>
+      <c r="BC275">
+        <v>6</v>
+      </c>
+      <c r="BD275">
+        <v>0</v>
+      </c>
+      <c r="BE275">
+        <v>0</v>
+      </c>
+      <c r="BF275">
+        <v>0</v>
+      </c>
+      <c r="BG275">
+        <v>0</v>
+      </c>
+      <c r="BH275">
+        <v>0</v>
+      </c>
+      <c r="BI275">
+        <v>0</v>
+      </c>
+      <c r="BJ275">
+        <v>0</v>
+      </c>
+      <c r="BK275">
+        <v>0</v>
+      </c>
+      <c r="BL275">
+        <v>0</v>
+      </c>
+      <c r="BM275">
+        <v>0</v>
+      </c>
+      <c r="BN275">
+        <v>0</v>
+      </c>
+      <c r="BO275">
+        <v>0</v>
+      </c>
+      <c r="BP275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:68">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>7466330</v>
+      </c>
+      <c r="C276" t="s">
+        <v>68</v>
+      </c>
+      <c r="D276" t="s">
+        <v>69</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45780.625</v>
+      </c>
+      <c r="F276">
+        <v>31</v>
+      </c>
+      <c r="G276" t="s">
+        <v>70</v>
+      </c>
+      <c r="H276" t="s">
+        <v>83</v>
+      </c>
+      <c r="I276">
+        <v>2</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>2</v>
+      </c>
+      <c r="L276">
+        <v>6</v>
+      </c>
+      <c r="M276">
+        <v>1</v>
+      </c>
+      <c r="N276">
+        <v>7</v>
+      </c>
+      <c r="O276" t="s">
+        <v>276</v>
+      </c>
+      <c r="P276" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q276">
+        <v>2.25</v>
+      </c>
+      <c r="R276">
+        <v>2.3</v>
+      </c>
+      <c r="S276">
+        <v>5</v>
+      </c>
+      <c r="T276">
+        <v>1.36</v>
+      </c>
+      <c r="U276">
+        <v>3</v>
+      </c>
+      <c r="V276">
+        <v>2.63</v>
+      </c>
+      <c r="W276">
+        <v>1.44</v>
+      </c>
+      <c r="X276">
+        <v>7</v>
+      </c>
+      <c r="Y276">
+        <v>1.1</v>
+      </c>
+      <c r="Z276">
+        <v>1.72</v>
+      </c>
+      <c r="AA276">
+        <v>4</v>
+      </c>
+      <c r="AB276">
+        <v>4.9</v>
+      </c>
+      <c r="AC276">
+        <v>0</v>
+      </c>
+      <c r="AD276">
+        <v>0</v>
+      </c>
+      <c r="AE276">
+        <v>0</v>
+      </c>
+      <c r="AF276">
+        <v>0</v>
+      </c>
+      <c r="AG276">
+        <v>1.81</v>
+      </c>
+      <c r="AH276">
+        <v>2.01</v>
+      </c>
+      <c r="AI276">
+        <v>1.8</v>
+      </c>
+      <c r="AJ276">
+        <v>1.95</v>
+      </c>
+      <c r="AK276">
+        <v>0</v>
+      </c>
+      <c r="AL276">
+        <v>0</v>
+      </c>
+      <c r="AM276">
+        <v>0</v>
+      </c>
+      <c r="AN276">
+        <v>1.73</v>
+      </c>
+      <c r="AO276">
+        <v>0.47</v>
+      </c>
+      <c r="AP276">
+        <v>1.81</v>
+      </c>
+      <c r="AQ276">
+        <v>0.44</v>
+      </c>
+      <c r="AR276">
+        <v>1.43</v>
+      </c>
+      <c r="AS276">
+        <v>1.26</v>
+      </c>
+      <c r="AT276">
+        <v>2.69</v>
+      </c>
+      <c r="AU276">
+        <v>13</v>
+      </c>
+      <c r="AV276">
+        <v>5</v>
+      </c>
+      <c r="AW276">
+        <v>9</v>
+      </c>
+      <c r="AX276">
+        <v>5</v>
+      </c>
+      <c r="AY276">
+        <v>25</v>
+      </c>
+      <c r="AZ276">
+        <v>13</v>
+      </c>
+      <c r="BA276">
+        <v>5</v>
+      </c>
+      <c r="BB276">
+        <v>3</v>
+      </c>
+      <c r="BC276">
+        <v>8</v>
+      </c>
+      <c r="BD276">
+        <v>0</v>
+      </c>
+      <c r="BE276">
+        <v>0</v>
+      </c>
+      <c r="BF276">
+        <v>0</v>
+      </c>
+      <c r="BG276">
+        <v>0</v>
+      </c>
+      <c r="BH276">
+        <v>0</v>
+      </c>
+      <c r="BI276">
+        <v>0</v>
+      </c>
+      <c r="BJ276">
+        <v>0</v>
+      </c>
+      <c r="BK276">
+        <v>0</v>
+      </c>
+      <c r="BL276">
+        <v>0</v>
+      </c>
+      <c r="BM276">
+        <v>0</v>
+      </c>
+      <c r="BN276">
+        <v>0</v>
+      </c>
+      <c r="BO276">
+        <v>0</v>
+      </c>
+      <c r="BP276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:68">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>7466328</v>
+      </c>
+      <c r="C277" t="s">
+        <v>68</v>
+      </c>
+      <c r="D277" t="s">
+        <v>69</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45780.66666666666</v>
+      </c>
+      <c r="F277">
+        <v>31</v>
+      </c>
+      <c r="G277" t="s">
+        <v>74</v>
+      </c>
+      <c r="H277" t="s">
+        <v>79</v>
+      </c>
+      <c r="I277">
+        <v>2</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <v>2</v>
+      </c>
+      <c r="L277">
+        <v>4</v>
+      </c>
+      <c r="M277">
+        <v>1</v>
+      </c>
+      <c r="N277">
+        <v>5</v>
+      </c>
+      <c r="O277" t="s">
+        <v>277</v>
+      </c>
+      <c r="P277" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q277">
+        <v>1.36</v>
+      </c>
+      <c r="R277">
+        <v>3.75</v>
+      </c>
+      <c r="S277">
+        <v>13</v>
+      </c>
+      <c r="T277">
+        <v>1.14</v>
+      </c>
+      <c r="U277">
+        <v>5.5</v>
+      </c>
+      <c r="V277">
+        <v>1.67</v>
+      </c>
+      <c r="W277">
+        <v>2.1</v>
+      </c>
+      <c r="X277">
+        <v>3.25</v>
+      </c>
+      <c r="Y277">
+        <v>1.33</v>
+      </c>
+      <c r="Z277">
+        <v>1.15</v>
+      </c>
+      <c r="AA277">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB277">
+        <v>17</v>
+      </c>
+      <c r="AC277">
+        <v>0</v>
+      </c>
+      <c r="AD277">
+        <v>0</v>
+      </c>
+      <c r="AE277">
+        <v>0</v>
+      </c>
+      <c r="AF277">
+        <v>0</v>
+      </c>
+      <c r="AG277">
+        <v>1.21</v>
+      </c>
+      <c r="AH277">
+        <v>4.11</v>
+      </c>
+      <c r="AI277">
+        <v>1.95</v>
+      </c>
+      <c r="AJ277">
+        <v>1.8</v>
+      </c>
+      <c r="AK277">
+        <v>0</v>
+      </c>
+      <c r="AL277">
+        <v>0</v>
+      </c>
+      <c r="AM277">
+        <v>0</v>
+      </c>
+      <c r="AN277">
+        <v>2.4</v>
+      </c>
+      <c r="AO277">
+        <v>1</v>
+      </c>
+      <c r="AP277">
+        <v>2.44</v>
+      </c>
+      <c r="AQ277">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR277">
+        <v>2.63</v>
+      </c>
+      <c r="AS277">
+        <v>1.05</v>
+      </c>
+      <c r="AT277">
+        <v>3.68</v>
+      </c>
+      <c r="AU277">
+        <v>5</v>
+      </c>
+      <c r="AV277">
+        <v>0</v>
+      </c>
+      <c r="AW277">
+        <v>7</v>
+      </c>
+      <c r="AX277">
+        <v>3</v>
+      </c>
+      <c r="AY277">
+        <v>13</v>
+      </c>
+      <c r="AZ277">
+        <v>4</v>
+      </c>
+      <c r="BA277">
+        <v>5</v>
+      </c>
+      <c r="BB277">
+        <v>3</v>
+      </c>
+      <c r="BC277">
+        <v>8</v>
+      </c>
+      <c r="BD277">
+        <v>0</v>
+      </c>
+      <c r="BE277">
+        <v>0</v>
+      </c>
+      <c r="BF277">
+        <v>0</v>
+      </c>
+      <c r="BG277">
+        <v>0</v>
+      </c>
+      <c r="BH277">
+        <v>0</v>
+      </c>
+      <c r="BI277">
+        <v>0</v>
+      </c>
+      <c r="BJ277">
+        <v>0</v>
+      </c>
+      <c r="BK277">
+        <v>0</v>
+      </c>
+      <c r="BL277">
+        <v>0</v>
+      </c>
+      <c r="BM277">
+        <v>0</v>
+      </c>
+      <c r="BN277">
+        <v>0</v>
+      </c>
+      <c r="BO277">
+        <v>0</v>
+      </c>
+      <c r="BP277">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="399">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -850,6 +850,9 @@
     <t>['15', '40', '57', '73']</t>
   </si>
   <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
     <t>['8', '54']</t>
   </si>
   <si>
@@ -1168,9 +1171,6 @@
     <t>['62', '82']</t>
   </si>
   <si>
-    <t>['90+2']</t>
-  </si>
-  <si>
     <t>['11', '28', '88']</t>
   </si>
   <si>
@@ -1202,6 +1202,15 @@
   </si>
   <si>
     <t>['9', '36', '45+2', '78']</t>
+  </si>
+  <si>
+    <t>['54', '83', '90']</t>
+  </si>
+  <si>
+    <t>['42', '45']</t>
+  </si>
+  <si>
+    <t>['15', '44', '74']</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +1572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP277"/>
+  <dimension ref="A1:BP280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2234,7 +2243,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2315,7 +2324,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ4">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2521,7 +2530,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ5">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2646,7 +2655,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2930,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ7">
         <v>0.67</v>
@@ -3139,7 +3148,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ8">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3264,7 +3273,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3342,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ9">
         <v>0.9399999999999999</v>
@@ -4500,7 +4509,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4706,7 +4715,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4912,7 +4921,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -5402,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ19">
         <v>2.19</v>
@@ -5611,7 +5620,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ20">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR20">
         <v>1.11</v>
@@ -5736,7 +5745,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5942,7 +5951,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -6020,7 +6029,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ22">
         <v>2.2</v>
@@ -6229,7 +6238,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ23">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -6638,7 +6647,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ25">
         <v>2</v>
@@ -6844,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ26">
         <v>0.44</v>
@@ -6972,7 +6981,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -7053,7 +7062,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ27">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR27">
         <v>1.81</v>
@@ -7384,7 +7393,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7796,7 +7805,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -8083,7 +8092,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ32">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR32">
         <v>1.07</v>
@@ -8907,7 +8916,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ36">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR36">
         <v>1.72</v>
@@ -9032,7 +9041,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -9316,7 +9325,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ38">
         <v>0.9399999999999999</v>
@@ -9650,7 +9659,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9728,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ40">
         <v>1.07</v>
@@ -10680,7 +10689,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10761,7 +10770,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ45">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR45">
         <v>1.06</v>
@@ -10886,7 +10895,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -11092,7 +11101,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -11298,7 +11307,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -11376,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ48">
         <v>2.19</v>
@@ -11504,7 +11513,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -11710,7 +11719,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11916,7 +11925,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -11997,7 +12006,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ51">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR51">
         <v>0.82</v>
@@ -12328,7 +12337,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -12740,7 +12749,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -12946,7 +12955,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -13230,7 +13239,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ57">
         <v>0.9399999999999999</v>
@@ -13976,7 +13985,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -14182,7 +14191,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -14672,7 +14681,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ64">
         <v>0.87</v>
@@ -15006,7 +15015,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -15290,7 +15299,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ67">
         <v>0.67</v>
@@ -15499,7 +15508,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ68">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR68">
         <v>2.17</v>
@@ -15705,7 +15714,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ69">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR69">
         <v>2.09</v>
@@ -15830,7 +15839,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -16117,7 +16126,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ71">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR71">
         <v>1.43</v>
@@ -16242,7 +16251,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -16320,7 +16329,7 @@
         <v>0.33</v>
       </c>
       <c r="AP72">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ72">
         <v>0.63</v>
@@ -16448,7 +16457,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -16941,7 +16950,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ75">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR75">
         <v>1.24</v>
@@ -17066,7 +17075,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17144,7 +17153,7 @@
         <v>1.5</v>
       </c>
       <c r="AP76">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ76">
         <v>2</v>
@@ -17684,7 +17693,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q79">
         <v>6.5</v>
@@ -17890,7 +17899,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q80">
         <v>2.6</v>
@@ -18589,7 +18598,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ83">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR83">
         <v>2.49</v>
@@ -18714,7 +18723,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q84">
         <v>2.6</v>
@@ -18792,7 +18801,7 @@
         <v>0</v>
       </c>
       <c r="AP84">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ84">
         <v>0.44</v>
@@ -19126,7 +19135,7 @@
         <v>91</v>
       </c>
       <c r="P86" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19744,7 +19753,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19950,7 +19959,7 @@
         <v>91</v>
       </c>
       <c r="P90" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -20237,7 +20246,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ91">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR91">
         <v>1.05</v>
@@ -20568,7 +20577,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20774,7 +20783,7 @@
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q94">
         <v>2.05</v>
@@ -20855,7 +20864,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ94">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR94">
         <v>1.67</v>
@@ -21186,7 +21195,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q96">
         <v>2.2</v>
@@ -21264,10 +21273,10 @@
         <v>0.4</v>
       </c>
       <c r="AP96">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ96">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR96">
         <v>1.62</v>
@@ -21598,7 +21607,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q98">
         <v>3.1</v>
@@ -21676,7 +21685,7 @@
         <v>2.5</v>
       </c>
       <c r="AP98">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ98">
         <v>2.2</v>
@@ -22628,7 +22637,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q103">
         <v>7.5</v>
@@ -22706,7 +22715,7 @@
         <v>2.5</v>
       </c>
       <c r="AP103">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ103">
         <v>2.07</v>
@@ -22834,7 +22843,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -23040,7 +23049,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q105">
         <v>8.5</v>
@@ -23246,7 +23255,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q106">
         <v>3.1</v>
@@ -23658,7 +23667,7 @@
         <v>115</v>
       </c>
       <c r="P108" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q108">
         <v>1.95</v>
@@ -23942,7 +23951,7 @@
         <v>0.4</v>
       </c>
       <c r="AP109">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ109">
         <v>0.63</v>
@@ -24276,7 +24285,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24688,7 +24697,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q113">
         <v>4.75</v>
@@ -24769,7 +24778,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ113">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR113">
         <v>1.21</v>
@@ -24894,7 +24903,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25100,7 +25109,7 @@
         <v>93</v>
       </c>
       <c r="P115" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25178,10 +25187,10 @@
         <v>1.67</v>
       </c>
       <c r="AP115">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ115">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR115">
         <v>1.6</v>
@@ -25306,7 +25315,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25593,7 +25602,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ117">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR117">
         <v>2.01</v>
@@ -26002,7 +26011,7 @@
         <v>0.33</v>
       </c>
       <c r="AP119">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ119">
         <v>0.63</v>
@@ -26748,7 +26757,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -26954,7 +26963,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q124">
         <v>2.2</v>
@@ -27366,7 +27375,7 @@
         <v>180</v>
       </c>
       <c r="P126" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q126">
         <v>4.75</v>
@@ -27572,7 +27581,7 @@
         <v>181</v>
       </c>
       <c r="P127" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q127">
         <v>2.2</v>
@@ -27859,7 +27868,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ128">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR128">
         <v>2.46</v>
@@ -28062,7 +28071,7 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ129">
         <v>0.87</v>
@@ -28190,7 +28199,7 @@
         <v>91</v>
       </c>
       <c r="P130" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q130">
         <v>2.6</v>
@@ -28268,7 +28277,7 @@
         <v>0.57</v>
       </c>
       <c r="AP130">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ130">
         <v>0.6</v>
@@ -28396,7 +28405,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q131">
         <v>8</v>
@@ -28602,7 +28611,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q132">
         <v>3.25</v>
@@ -28889,7 +28898,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ133">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR133">
         <v>1.23</v>
@@ -29014,7 +29023,7 @@
         <v>98</v>
       </c>
       <c r="P134" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q134">
         <v>3.2</v>
@@ -29426,7 +29435,7 @@
         <v>147</v>
       </c>
       <c r="P136" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q136">
         <v>4.75</v>
@@ -30044,7 +30053,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q139">
         <v>2.2</v>
@@ -30250,7 +30259,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q140">
         <v>1.57</v>
@@ -30456,7 +30465,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q141">
         <v>2.6</v>
@@ -31280,7 +31289,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31358,10 +31367,10 @@
         <v>1.86</v>
       </c>
       <c r="AP145">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ145">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR145">
         <v>1.32</v>
@@ -31567,7 +31576,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ146">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR146">
         <v>1.16</v>
@@ -31770,7 +31779,7 @@
         <v>0.88</v>
       </c>
       <c r="AP147">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ147">
         <v>0.6</v>
@@ -32185,7 +32194,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ149">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR149">
         <v>1.83</v>
@@ -32310,7 +32319,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32388,7 +32397,7 @@
         <v>1.75</v>
       </c>
       <c r="AP150">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ150">
         <v>2.19</v>
@@ -32722,7 +32731,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q152">
         <v>2.25</v>
@@ -33134,7 +33143,7 @@
         <v>91</v>
       </c>
       <c r="P154" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q154">
         <v>3.5</v>
@@ -33752,7 +33761,7 @@
         <v>91</v>
       </c>
       <c r="P157" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q157">
         <v>3.25</v>
@@ -33958,7 +33967,7 @@
         <v>199</v>
       </c>
       <c r="P158" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q158">
         <v>1.83</v>
@@ -34039,7 +34048,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ158">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR158">
         <v>2.37</v>
@@ -34164,7 +34173,7 @@
         <v>200</v>
       </c>
       <c r="P159" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q159">
         <v>2</v>
@@ -34576,7 +34585,7 @@
         <v>134</v>
       </c>
       <c r="P161" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q161">
         <v>2</v>
@@ -34782,7 +34791,7 @@
         <v>201</v>
       </c>
       <c r="P162" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q162">
         <v>2.75</v>
@@ -34860,7 +34869,7 @@
         <v>0.33</v>
       </c>
       <c r="AP162">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ162">
         <v>0.47</v>
@@ -34988,7 +34997,7 @@
         <v>202</v>
       </c>
       <c r="P163" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q163">
         <v>8</v>
@@ -35275,7 +35284,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ164">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR164">
         <v>1.55</v>
@@ -35400,7 +35409,7 @@
         <v>132</v>
       </c>
       <c r="P165" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -35684,7 +35693,7 @@
         <v>0.5</v>
       </c>
       <c r="AP166">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ166">
         <v>0.6</v>
@@ -35812,7 +35821,7 @@
         <v>204</v>
       </c>
       <c r="P167" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -35890,10 +35899,10 @@
         <v>1.44</v>
       </c>
       <c r="AP167">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ167">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR167">
         <v>1.33</v>
@@ -36018,7 +36027,7 @@
         <v>91</v>
       </c>
       <c r="P168" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q168">
         <v>3.1</v>
@@ -36224,7 +36233,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -36430,7 +36439,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36714,7 +36723,7 @@
         <v>0.22</v>
       </c>
       <c r="AP171">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ171">
         <v>0.44</v>
@@ -37048,7 +37057,7 @@
         <v>207</v>
       </c>
       <c r="P173" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q173">
         <v>1.4</v>
@@ -37460,7 +37469,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q175">
         <v>2.75</v>
@@ -37541,7 +37550,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ175">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR175">
         <v>1.34</v>
@@ -37872,7 +37881,7 @@
         <v>210</v>
       </c>
       <c r="P177" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q177">
         <v>2.1</v>
@@ -38078,7 +38087,7 @@
         <v>211</v>
       </c>
       <c r="P178" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38362,7 +38371,7 @@
         <v>0.78</v>
       </c>
       <c r="AP179">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ179">
         <v>0.67</v>
@@ -38490,7 +38499,7 @@
         <v>213</v>
       </c>
       <c r="P180" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q180">
         <v>3.6</v>
@@ -38696,7 +38705,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q181">
         <v>2.75</v>
@@ -38902,7 +38911,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q182">
         <v>5.5</v>
@@ -39108,7 +39117,7 @@
         <v>216</v>
       </c>
       <c r="P183" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q183">
         <v>2.88</v>
@@ -39520,7 +39529,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q185">
         <v>3.1</v>
@@ -39598,10 +39607,10 @@
         <v>1.3</v>
       </c>
       <c r="AP185">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ185">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR185">
         <v>1.74</v>
@@ -39804,7 +39813,7 @@
         <v>0.5</v>
       </c>
       <c r="AP186">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ186">
         <v>0.6</v>
@@ -39932,7 +39941,7 @@
         <v>91</v>
       </c>
       <c r="P187" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q187">
         <v>4.75</v>
@@ -40013,7 +40022,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ187">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR187">
         <v>1.16</v>
@@ -40138,7 +40147,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q188">
         <v>3.75</v>
@@ -41374,7 +41383,7 @@
         <v>91</v>
       </c>
       <c r="P194" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q194">
         <v>5.5</v>
@@ -41661,7 +41670,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ195">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR195">
         <v>1.82</v>
@@ -41786,7 +41795,7 @@
         <v>225</v>
       </c>
       <c r="P196" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q196">
         <v>4</v>
@@ -41867,7 +41876,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ196">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR196">
         <v>1.64</v>
@@ -42070,7 +42079,7 @@
         <v>1.09</v>
       </c>
       <c r="AP197">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ197">
         <v>1.13</v>
@@ -42198,7 +42207,7 @@
         <v>226</v>
       </c>
       <c r="P198" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q198">
         <v>1.8</v>
@@ -42482,7 +42491,7 @@
         <v>1.73</v>
       </c>
       <c r="AP199">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ199">
         <v>2</v>
@@ -42610,7 +42619,7 @@
         <v>227</v>
       </c>
       <c r="P200" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q200">
         <v>3.25</v>
@@ -42816,7 +42825,7 @@
         <v>228</v>
       </c>
       <c r="P201" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q201">
         <v>2.1</v>
@@ -44464,7 +44473,7 @@
         <v>160</v>
       </c>
       <c r="P209" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q209">
         <v>2.6</v>
@@ -44876,7 +44885,7 @@
         <v>237</v>
       </c>
       <c r="P211" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q211">
         <v>4.75</v>
@@ -44954,7 +44963,7 @@
         <v>2</v>
       </c>
       <c r="AP211">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ211">
         <v>2.07</v>
@@ -45082,7 +45091,7 @@
         <v>128</v>
       </c>
       <c r="P212" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q212">
         <v>4.33</v>
@@ -45163,7 +45172,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ212">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR212">
         <v>1.44</v>
@@ -45575,7 +45584,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ214">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR214">
         <v>1.72</v>
@@ -45700,7 +45709,7 @@
         <v>239</v>
       </c>
       <c r="P215" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q215">
         <v>2.75</v>
@@ -45781,7 +45790,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ215">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR215">
         <v>1.42</v>
@@ -46190,7 +46199,7 @@
         <v>1.09</v>
       </c>
       <c r="AP217">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ217">
         <v>0.8100000000000001</v>
@@ -46396,7 +46405,7 @@
         <v>1</v>
       </c>
       <c r="AP218">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ218">
         <v>1.13</v>
@@ -46730,7 +46739,7 @@
         <v>241</v>
       </c>
       <c r="P220" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q220">
         <v>1.62</v>
@@ -46936,7 +46945,7 @@
         <v>242</v>
       </c>
       <c r="P221" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q221">
         <v>4.33</v>
@@ -47142,7 +47151,7 @@
         <v>91</v>
       </c>
       <c r="P222" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q222">
         <v>5</v>
@@ -47348,7 +47357,7 @@
         <v>243</v>
       </c>
       <c r="P223" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q223">
         <v>2.75</v>
@@ -48250,10 +48259,10 @@
         <v>0.67</v>
       </c>
       <c r="AP227">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ227">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR227">
         <v>1.66</v>
@@ -48378,7 +48387,7 @@
         <v>91</v>
       </c>
       <c r="P228" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q228">
         <v>8</v>
@@ -48868,7 +48877,7 @@
         <v>1</v>
       </c>
       <c r="AP230">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ230">
         <v>0.8100000000000001</v>
@@ -49202,7 +49211,7 @@
         <v>248</v>
       </c>
       <c r="P232" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q232">
         <v>2.88</v>
@@ -49408,7 +49417,7 @@
         <v>249</v>
       </c>
       <c r="P233" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q233">
         <v>2.5</v>
@@ -49489,7 +49498,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ233">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR233">
         <v>1.84</v>
@@ -49692,7 +49701,7 @@
         <v>0.67</v>
       </c>
       <c r="AP234">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ234">
         <v>0.6</v>
@@ -49820,7 +49829,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q235">
         <v>2.88</v>
@@ -50026,7 +50035,7 @@
         <v>91</v>
       </c>
       <c r="P236" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q236">
         <v>3.75</v>
@@ -50438,7 +50447,7 @@
         <v>252</v>
       </c>
       <c r="P238" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q238">
         <v>3.75</v>
@@ -50519,7 +50528,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ238">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR238">
         <v>1.54</v>
@@ -50850,7 +50859,7 @@
         <v>91</v>
       </c>
       <c r="P240" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q240">
         <v>2.2</v>
@@ -51137,7 +51146,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ241">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR241">
         <v>1.45</v>
@@ -51262,7 +51271,7 @@
         <v>255</v>
       </c>
       <c r="P242" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q242">
         <v>1.91</v>
@@ -51468,7 +51477,7 @@
         <v>256</v>
       </c>
       <c r="P243" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q243">
         <v>1.8</v>
@@ -52292,7 +52301,7 @@
         <v>175</v>
       </c>
       <c r="P247" t="s">
-        <v>384</v>
+        <v>278</v>
       </c>
       <c r="Q247">
         <v>1.91</v>
@@ -52785,7 +52794,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ249">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR249">
         <v>1.41</v>
@@ -53194,7 +53203,7 @@
         <v>2.23</v>
       </c>
       <c r="AP251">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ251">
         <v>2.2</v>
@@ -53400,7 +53409,7 @@
         <v>1</v>
       </c>
       <c r="AP252">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ252">
         <v>0.87</v>
@@ -53528,7 +53537,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q253">
         <v>1.67</v>
@@ -54224,7 +54233,7 @@
         <v>0.5</v>
       </c>
       <c r="AP256">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ256">
         <v>0.47</v>
@@ -54636,7 +54645,7 @@
         <v>1.08</v>
       </c>
       <c r="AP258">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ258">
         <v>1.07</v>
@@ -55051,7 +55060,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ260">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR260">
         <v>1.4</v>
@@ -55257,7 +55266,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ261">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR261">
         <v>1.38</v>
@@ -55588,7 +55597,7 @@
         <v>270</v>
       </c>
       <c r="P263" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q263">
         <v>2.25</v>
@@ -56905,7 +56914,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ269">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR269">
         <v>1.93</v>
@@ -58628,6 +58637,624 @@
         <v>0</v>
       </c>
       <c r="BP277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:68">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>7466329</v>
+      </c>
+      <c r="C278" t="s">
+        <v>68</v>
+      </c>
+      <c r="D278" t="s">
+        <v>69</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45781.30208333334</v>
+      </c>
+      <c r="F278">
+        <v>31</v>
+      </c>
+      <c r="G278" t="s">
+        <v>87</v>
+      </c>
+      <c r="H278" t="s">
+        <v>85</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>0</v>
+      </c>
+      <c r="L278">
+        <v>1</v>
+      </c>
+      <c r="M278">
+        <v>3</v>
+      </c>
+      <c r="N278">
+        <v>4</v>
+      </c>
+      <c r="O278" t="s">
+        <v>278</v>
+      </c>
+      <c r="P278" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q278">
+        <v>2.88</v>
+      </c>
+      <c r="R278">
+        <v>2.2</v>
+      </c>
+      <c r="S278">
+        <v>3.6</v>
+      </c>
+      <c r="T278">
+        <v>1.36</v>
+      </c>
+      <c r="U278">
+        <v>3</v>
+      </c>
+      <c r="V278">
+        <v>2.63</v>
+      </c>
+      <c r="W278">
+        <v>1.44</v>
+      </c>
+      <c r="X278">
+        <v>7</v>
+      </c>
+      <c r="Y278">
+        <v>1.1</v>
+      </c>
+      <c r="Z278">
+        <v>2.29</v>
+      </c>
+      <c r="AA278">
+        <v>3.57</v>
+      </c>
+      <c r="AB278">
+        <v>3.15</v>
+      </c>
+      <c r="AC278">
+        <v>0</v>
+      </c>
+      <c r="AD278">
+        <v>0</v>
+      </c>
+      <c r="AE278">
+        <v>0</v>
+      </c>
+      <c r="AF278">
+        <v>0</v>
+      </c>
+      <c r="AG278">
+        <v>1.85</v>
+      </c>
+      <c r="AH278">
+        <v>1.96</v>
+      </c>
+      <c r="AI278">
+        <v>1.7</v>
+      </c>
+      <c r="AJ278">
+        <v>2.05</v>
+      </c>
+      <c r="AK278">
+        <v>0</v>
+      </c>
+      <c r="AL278">
+        <v>0</v>
+      </c>
+      <c r="AM278">
+        <v>0</v>
+      </c>
+      <c r="AN278">
+        <v>1.53</v>
+      </c>
+      <c r="AO278">
+        <v>0.67</v>
+      </c>
+      <c r="AP278">
+        <v>1.44</v>
+      </c>
+      <c r="AQ278">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR278">
+        <v>1.5</v>
+      </c>
+      <c r="AS278">
+        <v>1.12</v>
+      </c>
+      <c r="AT278">
+        <v>2.62</v>
+      </c>
+      <c r="AU278">
+        <v>5</v>
+      </c>
+      <c r="AV278">
+        <v>6</v>
+      </c>
+      <c r="AW278">
+        <v>10</v>
+      </c>
+      <c r="AX278">
+        <v>8</v>
+      </c>
+      <c r="AY278">
+        <v>16</v>
+      </c>
+      <c r="AZ278">
+        <v>14</v>
+      </c>
+      <c r="BA278">
+        <v>4</v>
+      </c>
+      <c r="BB278">
+        <v>2</v>
+      </c>
+      <c r="BC278">
+        <v>6</v>
+      </c>
+      <c r="BD278">
+        <v>0</v>
+      </c>
+      <c r="BE278">
+        <v>0</v>
+      </c>
+      <c r="BF278">
+        <v>0</v>
+      </c>
+      <c r="BG278">
+        <v>0</v>
+      </c>
+      <c r="BH278">
+        <v>0</v>
+      </c>
+      <c r="BI278">
+        <v>0</v>
+      </c>
+      <c r="BJ278">
+        <v>0</v>
+      </c>
+      <c r="BK278">
+        <v>0</v>
+      </c>
+      <c r="BL278">
+        <v>0</v>
+      </c>
+      <c r="BM278">
+        <v>0</v>
+      </c>
+      <c r="BN278">
+        <v>0</v>
+      </c>
+      <c r="BO278">
+        <v>0</v>
+      </c>
+      <c r="BP278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:68">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>7466326</v>
+      </c>
+      <c r="C279" t="s">
+        <v>68</v>
+      </c>
+      <c r="D279" t="s">
+        <v>69</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45781.39583333334</v>
+      </c>
+      <c r="F279">
+        <v>31</v>
+      </c>
+      <c r="G279" t="s">
+        <v>75</v>
+      </c>
+      <c r="H279" t="s">
+        <v>81</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>2</v>
+      </c>
+      <c r="K279">
+        <v>2</v>
+      </c>
+      <c r="L279">
+        <v>0</v>
+      </c>
+      <c r="M279">
+        <v>2</v>
+      </c>
+      <c r="N279">
+        <v>2</v>
+      </c>
+      <c r="O279" t="s">
+        <v>91</v>
+      </c>
+      <c r="P279" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q279">
+        <v>3.1</v>
+      </c>
+      <c r="R279">
+        <v>2.3</v>
+      </c>
+      <c r="S279">
+        <v>3.2</v>
+      </c>
+      <c r="T279">
+        <v>1.33</v>
+      </c>
+      <c r="U279">
+        <v>3.25</v>
+      </c>
+      <c r="V279">
+        <v>2.5</v>
+      </c>
+      <c r="W279">
+        <v>1.5</v>
+      </c>
+      <c r="X279">
+        <v>6.5</v>
+      </c>
+      <c r="Y279">
+        <v>1.11</v>
+      </c>
+      <c r="Z279">
+        <v>2.6</v>
+      </c>
+      <c r="AA279">
+        <v>3.59</v>
+      </c>
+      <c r="AB279">
+        <v>2.69</v>
+      </c>
+      <c r="AC279">
+        <v>0</v>
+      </c>
+      <c r="AD279">
+        <v>0</v>
+      </c>
+      <c r="AE279">
+        <v>0</v>
+      </c>
+      <c r="AF279">
+        <v>0</v>
+      </c>
+      <c r="AG279">
+        <v>1.67</v>
+      </c>
+      <c r="AH279">
+        <v>2.1</v>
+      </c>
+      <c r="AI279">
+        <v>1.62</v>
+      </c>
+      <c r="AJ279">
+        <v>2.2</v>
+      </c>
+      <c r="AK279">
+        <v>0</v>
+      </c>
+      <c r="AL279">
+        <v>0</v>
+      </c>
+      <c r="AM279">
+        <v>0</v>
+      </c>
+      <c r="AN279">
+        <v>1.2</v>
+      </c>
+      <c r="AO279">
+        <v>1.13</v>
+      </c>
+      <c r="AP279">
+        <v>1.13</v>
+      </c>
+      <c r="AQ279">
+        <v>1.25</v>
+      </c>
+      <c r="AR279">
+        <v>1.64</v>
+      </c>
+      <c r="AS279">
+        <v>1.61</v>
+      </c>
+      <c r="AT279">
+        <v>3.25</v>
+      </c>
+      <c r="AU279">
+        <v>2</v>
+      </c>
+      <c r="AV279">
+        <v>3</v>
+      </c>
+      <c r="AW279">
+        <v>12</v>
+      </c>
+      <c r="AX279">
+        <v>7</v>
+      </c>
+      <c r="AY279">
+        <v>21</v>
+      </c>
+      <c r="AZ279">
+        <v>11</v>
+      </c>
+      <c r="BA279">
+        <v>5</v>
+      </c>
+      <c r="BB279">
+        <v>4</v>
+      </c>
+      <c r="BC279">
+        <v>9</v>
+      </c>
+      <c r="BD279">
+        <v>0</v>
+      </c>
+      <c r="BE279">
+        <v>0</v>
+      </c>
+      <c r="BF279">
+        <v>0</v>
+      </c>
+      <c r="BG279">
+        <v>0</v>
+      </c>
+      <c r="BH279">
+        <v>0</v>
+      </c>
+      <c r="BI279">
+        <v>0</v>
+      </c>
+      <c r="BJ279">
+        <v>0</v>
+      </c>
+      <c r="BK279">
+        <v>0</v>
+      </c>
+      <c r="BL279">
+        <v>0</v>
+      </c>
+      <c r="BM279">
+        <v>0</v>
+      </c>
+      <c r="BN279">
+        <v>0</v>
+      </c>
+      <c r="BO279">
+        <v>0</v>
+      </c>
+      <c r="BP279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:68">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>7466325</v>
+      </c>
+      <c r="C280" t="s">
+        <v>68</v>
+      </c>
+      <c r="D280" t="s">
+        <v>69</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45781.39583333334</v>
+      </c>
+      <c r="F280">
+        <v>31</v>
+      </c>
+      <c r="G280" t="s">
+        <v>77</v>
+      </c>
+      <c r="H280" t="s">
+        <v>82</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>2</v>
+      </c>
+      <c r="K280">
+        <v>2</v>
+      </c>
+      <c r="L280">
+        <v>0</v>
+      </c>
+      <c r="M280">
+        <v>3</v>
+      </c>
+      <c r="N280">
+        <v>3</v>
+      </c>
+      <c r="O280" t="s">
+        <v>91</v>
+      </c>
+      <c r="P280" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q280">
+        <v>3.1</v>
+      </c>
+      <c r="R280">
+        <v>2.4</v>
+      </c>
+      <c r="S280">
+        <v>2.88</v>
+      </c>
+      <c r="T280">
+        <v>1.29</v>
+      </c>
+      <c r="U280">
+        <v>3.5</v>
+      </c>
+      <c r="V280">
+        <v>2.25</v>
+      </c>
+      <c r="W280">
+        <v>1.57</v>
+      </c>
+      <c r="X280">
+        <v>5.5</v>
+      </c>
+      <c r="Y280">
+        <v>1.14</v>
+      </c>
+      <c r="Z280">
+        <v>2.7</v>
+      </c>
+      <c r="AA280">
+        <v>3.85</v>
+      </c>
+      <c r="AB280">
+        <v>2.47</v>
+      </c>
+      <c r="AC280">
+        <v>0</v>
+      </c>
+      <c r="AD280">
+        <v>0</v>
+      </c>
+      <c r="AE280">
+        <v>0</v>
+      </c>
+      <c r="AF280">
+        <v>0</v>
+      </c>
+      <c r="AG280">
+        <v>1.6</v>
+      </c>
+      <c r="AH280">
+        <v>2.25</v>
+      </c>
+      <c r="AI280">
+        <v>1.5</v>
+      </c>
+      <c r="AJ280">
+        <v>2.5</v>
+      </c>
+      <c r="AK280">
+        <v>0</v>
+      </c>
+      <c r="AL280">
+        <v>0</v>
+      </c>
+      <c r="AM280">
+        <v>0</v>
+      </c>
+      <c r="AN280">
+        <v>2.07</v>
+      </c>
+      <c r="AO280">
+        <v>1.53</v>
+      </c>
+      <c r="AP280">
+        <v>1.94</v>
+      </c>
+      <c r="AQ280">
+        <v>1.63</v>
+      </c>
+      <c r="AR280">
+        <v>1.7</v>
+      </c>
+      <c r="AS280">
+        <v>1.42</v>
+      </c>
+      <c r="AT280">
+        <v>3.12</v>
+      </c>
+      <c r="AU280">
+        <v>0</v>
+      </c>
+      <c r="AV280">
+        <v>11</v>
+      </c>
+      <c r="AW280">
+        <v>16</v>
+      </c>
+      <c r="AX280">
+        <v>9</v>
+      </c>
+      <c r="AY280">
+        <v>21</v>
+      </c>
+      <c r="AZ280">
+        <v>23</v>
+      </c>
+      <c r="BA280">
+        <v>6</v>
+      </c>
+      <c r="BB280">
+        <v>9</v>
+      </c>
+      <c r="BC280">
+        <v>15</v>
+      </c>
+      <c r="BD280">
+        <v>0</v>
+      </c>
+      <c r="BE280">
+        <v>0</v>
+      </c>
+      <c r="BF280">
+        <v>0</v>
+      </c>
+      <c r="BG280">
+        <v>0</v>
+      </c>
+      <c r="BH280">
+        <v>0</v>
+      </c>
+      <c r="BI280">
+        <v>0</v>
+      </c>
+      <c r="BJ280">
+        <v>0</v>
+      </c>
+      <c r="BK280">
+        <v>0</v>
+      </c>
+      <c r="BL280">
+        <v>0</v>
+      </c>
+      <c r="BM280">
+        <v>0</v>
+      </c>
+      <c r="BN280">
+        <v>0</v>
+      </c>
+      <c r="BO280">
+        <v>0</v>
+      </c>
+      <c r="BP280">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="400">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1212,6 +1212,9 @@
   <si>
     <t>['15', '44', '74']</t>
   </si>
+  <si>
+    <t>['16', '66']</t>
+  </si>
 </sst>
 </file>
 
@@ -1572,7 +1575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP280"/>
+  <dimension ref="A1:BP281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2942,7 +2945,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ7">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -5205,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ18">
         <v>1.07</v>
@@ -7883,7 +7886,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ31">
         <v>1.13</v>
@@ -8298,7 +8301,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ33">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR33">
         <v>0.7</v>
@@ -9943,7 +9946,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ41">
         <v>0.44</v>
@@ -11594,7 +11597,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ49">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR49">
         <v>1.18</v>
@@ -12827,7 +12830,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ55">
         <v>2.07</v>
@@ -15302,7 +15305,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ67">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR67">
         <v>1.65</v>
@@ -17359,7 +17362,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ77">
         <v>0.9399999999999999</v>
@@ -19422,7 +19425,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ87">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR87">
         <v>1.97</v>
@@ -20243,7 +20246,7 @@
         <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ91">
         <v>1.25</v>
@@ -22100,7 +22103,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ100">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR100">
         <v>1.37</v>
@@ -25393,7 +25396,7 @@
         <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ116">
         <v>0.6</v>
@@ -27250,7 +27253,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ125">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR125">
         <v>1.92</v>
@@ -29101,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="AP134">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ134">
         <v>0.47</v>
@@ -30340,7 +30343,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ140">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR140">
         <v>1.81</v>
@@ -33015,7 +33018,7 @@
         <v>0.86</v>
       </c>
       <c r="AP153">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ153">
         <v>0.87</v>
@@ -35487,7 +35490,7 @@
         <v>2</v>
       </c>
       <c r="AP165">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ165">
         <v>2</v>
@@ -36108,7 +36111,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ168">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR168">
         <v>1.26</v>
@@ -38374,7 +38377,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ179">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR179">
         <v>1.35</v>
@@ -40019,7 +40022,7 @@
         <v>1.8</v>
       </c>
       <c r="AP187">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ187">
         <v>1.63</v>
@@ -42697,7 +42700,7 @@
         <v>0.45</v>
       </c>
       <c r="AP200">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ200">
         <v>0.6</v>
@@ -43524,7 +43527,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ204">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR204">
         <v>1.82</v>
@@ -46614,7 +46617,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ219">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR219">
         <v>1.35</v>
@@ -47023,7 +47026,7 @@
         <v>2.17</v>
       </c>
       <c r="AP221">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ221">
         <v>2.2</v>
@@ -48674,7 +48677,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ229">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR229">
         <v>1.69</v>
@@ -49907,7 +49910,7 @@
         <v>0.54</v>
       </c>
       <c r="AP235">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ235">
         <v>0.63</v>
@@ -53000,7 +53003,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ250">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR250">
         <v>1.3</v>
@@ -55469,7 +55472,7 @@
         <v>2.29</v>
       </c>
       <c r="AP262">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AQ262">
         <v>2.19</v>
@@ -56090,7 +56093,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ265">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR265">
         <v>1.42</v>
@@ -59256,6 +59259,212 @@
       </c>
       <c r="BP280">
         <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:68">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>7466340</v>
+      </c>
+      <c r="C281" t="s">
+        <v>68</v>
+      </c>
+      <c r="D281" t="s">
+        <v>69</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45786.625</v>
+      </c>
+      <c r="F281">
+        <v>32</v>
+      </c>
+      <c r="G281" t="s">
+        <v>86</v>
+      </c>
+      <c r="H281" t="s">
+        <v>84</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>1</v>
+      </c>
+      <c r="K281">
+        <v>1</v>
+      </c>
+      <c r="L281">
+        <v>1</v>
+      </c>
+      <c r="M281">
+        <v>2</v>
+      </c>
+      <c r="N281">
+        <v>3</v>
+      </c>
+      <c r="O281" t="s">
+        <v>245</v>
+      </c>
+      <c r="P281" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q281">
+        <v>3.1</v>
+      </c>
+      <c r="R281">
+        <v>2.25</v>
+      </c>
+      <c r="S281">
+        <v>3.25</v>
+      </c>
+      <c r="T281">
+        <v>1.33</v>
+      </c>
+      <c r="U281">
+        <v>3.25</v>
+      </c>
+      <c r="V281">
+        <v>2.63</v>
+      </c>
+      <c r="W281">
+        <v>1.44</v>
+      </c>
+      <c r="X281">
+        <v>7</v>
+      </c>
+      <c r="Y281">
+        <v>1.1</v>
+      </c>
+      <c r="Z281">
+        <v>2.45</v>
+      </c>
+      <c r="AA281">
+        <v>3.45</v>
+      </c>
+      <c r="AB281">
+        <v>2.69</v>
+      </c>
+      <c r="AC281">
+        <v>1.02</v>
+      </c>
+      <c r="AD281">
+        <v>8.1</v>
+      </c>
+      <c r="AE281">
+        <v>1.28</v>
+      </c>
+      <c r="AF281">
+        <v>3.16</v>
+      </c>
+      <c r="AG281">
+        <v>1.79</v>
+      </c>
+      <c r="AH281">
+        <v>1.95</v>
+      </c>
+      <c r="AI281">
+        <v>1.67</v>
+      </c>
+      <c r="AJ281">
+        <v>2.1</v>
+      </c>
+      <c r="AK281">
+        <v>1.5</v>
+      </c>
+      <c r="AL281">
+        <v>1.33</v>
+      </c>
+      <c r="AM281">
+        <v>1.46</v>
+      </c>
+      <c r="AN281">
+        <v>0.8</v>
+      </c>
+      <c r="AO281">
+        <v>0.67</v>
+      </c>
+      <c r="AP281">
+        <v>0.75</v>
+      </c>
+      <c r="AQ281">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR281">
+        <v>1.22</v>
+      </c>
+      <c r="AS281">
+        <v>0.99</v>
+      </c>
+      <c r="AT281">
+        <v>2.21</v>
+      </c>
+      <c r="AU281">
+        <v>7</v>
+      </c>
+      <c r="AV281">
+        <v>7</v>
+      </c>
+      <c r="AW281">
+        <v>4</v>
+      </c>
+      <c r="AX281">
+        <v>9</v>
+      </c>
+      <c r="AY281">
+        <v>11</v>
+      </c>
+      <c r="AZ281">
+        <v>19</v>
+      </c>
+      <c r="BA281">
+        <v>5</v>
+      </c>
+      <c r="BB281">
+        <v>10</v>
+      </c>
+      <c r="BC281">
+        <v>15</v>
+      </c>
+      <c r="BD281">
+        <v>2.32</v>
+      </c>
+      <c r="BE281">
+        <v>6.7</v>
+      </c>
+      <c r="BF281">
+        <v>1.95</v>
+      </c>
+      <c r="BG281">
+        <v>1.16</v>
+      </c>
+      <c r="BH281">
+        <v>4.2</v>
+      </c>
+      <c r="BI281">
+        <v>1.32</v>
+      </c>
+      <c r="BJ281">
+        <v>2.88</v>
+      </c>
+      <c r="BK281">
+        <v>1.6</v>
+      </c>
+      <c r="BL281">
+        <v>2.14</v>
+      </c>
+      <c r="BM281">
+        <v>2.02</v>
+      </c>
+      <c r="BN281">
+        <v>1.71</v>
+      </c>
+      <c r="BO281">
+        <v>2.6</v>
+      </c>
+      <c r="BP281">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="402">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -853,6 +853,12 @@
     <t>['90+2']</t>
   </si>
   <si>
+    <t>['10', '75', '79']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
     <t>['8', '54']</t>
   </si>
   <si>
@@ -1575,7 +1581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP281"/>
+  <dimension ref="A1:BP283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1915,7 +1921,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ2">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2246,7 +2252,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2658,7 +2664,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -3276,7 +3282,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3563,7 +3569,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ10">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3766,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>0.63</v>
@@ -4512,7 +4518,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4590,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ15">
         <v>0.6</v>
@@ -4718,7 +4724,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4924,7 +4930,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -5748,7 +5754,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5954,7 +5960,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -6984,7 +6990,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -7062,7 +7068,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ27">
         <v>1.63</v>
@@ -7396,7 +7402,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7474,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ29">
         <v>0.87</v>
@@ -7683,7 +7689,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ30">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR30">
         <v>2.4</v>
@@ -7808,7 +7814,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -9044,7 +9050,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -9537,7 +9543,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ39">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR39">
         <v>1.82</v>
@@ -9662,7 +9668,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -10361,7 +10367,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ43">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR43">
         <v>2.19</v>
@@ -10692,7 +10698,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10898,7 +10904,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -11104,7 +11110,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -11182,7 +11188,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ47">
         <v>1.13</v>
@@ -11310,7 +11316,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -11516,7 +11522,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -11722,7 +11728,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11928,7 +11934,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -12215,7 +12221,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ52">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR52">
         <v>2.23</v>
@@ -12340,7 +12346,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -12418,7 +12424,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
         <v>2.07</v>
@@ -12627,7 +12633,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ54">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR54">
         <v>1.37</v>
@@ -12752,7 +12758,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -12958,7 +12964,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -13657,7 +13663,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ59">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR59">
         <v>2.11</v>
@@ -13988,7 +13994,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -14066,7 +14072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ61">
         <v>2.19</v>
@@ -14194,7 +14200,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -15018,7 +15024,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -15842,7 +15848,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -16126,7 +16132,7 @@
         <v>2.5</v>
       </c>
       <c r="AP71">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71">
         <v>1.63</v>
@@ -16254,7 +16260,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -16460,7 +16466,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -16747,7 +16753,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ74">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR74">
         <v>1.44</v>
@@ -16950,7 +16956,7 @@
         <v>1.5</v>
       </c>
       <c r="AP75">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ75">
         <v>1.25</v>
@@ -17078,7 +17084,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17696,7 +17702,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q79">
         <v>6.5</v>
@@ -17902,7 +17908,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q80">
         <v>2.6</v>
@@ -17983,7 +17989,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ80">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR80">
         <v>1.12</v>
@@ -18392,7 +18398,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ82">
         <v>0.6</v>
@@ -18726,7 +18732,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q84">
         <v>2.6</v>
@@ -19138,7 +19144,7 @@
         <v>91</v>
       </c>
       <c r="P86" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19756,7 +19762,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19962,7 +19968,7 @@
         <v>91</v>
       </c>
       <c r="P90" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -20455,7 +20461,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ92">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR92">
         <v>1.39</v>
@@ -20580,7 +20586,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20786,7 +20792,7 @@
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q94">
         <v>2.05</v>
@@ -21070,10 +21076,10 @@
         <v>0</v>
       </c>
       <c r="AP95">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ95">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR95">
         <v>1.29</v>
@@ -21198,7 +21204,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q96">
         <v>2.2</v>
@@ -21610,7 +21616,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q98">
         <v>3.1</v>
@@ -21894,7 +21900,7 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ99">
         <v>0.63</v>
@@ -22640,7 +22646,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q103">
         <v>7.5</v>
@@ -22846,7 +22852,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22924,7 +22930,7 @@
         <v>0.6</v>
       </c>
       <c r="AP104">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ104">
         <v>0.87</v>
@@ -23052,7 +23058,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q105">
         <v>8.5</v>
@@ -23258,7 +23264,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q106">
         <v>3.1</v>
@@ -23670,7 +23676,7 @@
         <v>115</v>
       </c>
       <c r="P108" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q108">
         <v>1.95</v>
@@ -24163,7 +24169,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ110">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR110">
         <v>1.62</v>
@@ -24288,7 +24294,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24700,7 +24706,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q113">
         <v>4.75</v>
@@ -24778,7 +24784,7 @@
         <v>1.67</v>
       </c>
       <c r="AP113">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ113">
         <v>1.25</v>
@@ -24906,7 +24912,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25112,7 +25118,7 @@
         <v>93</v>
       </c>
       <c r="P115" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25318,7 +25324,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25399,7 +25405,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ116">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR116">
         <v>1.02</v>
@@ -26760,7 +26766,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -26966,7 +26972,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q124">
         <v>2.2</v>
@@ -27378,7 +27384,7 @@
         <v>180</v>
       </c>
       <c r="P126" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q126">
         <v>4.75</v>
@@ -27584,7 +27590,7 @@
         <v>181</v>
       </c>
       <c r="P127" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q127">
         <v>2.2</v>
@@ -28202,7 +28208,7 @@
         <v>91</v>
       </c>
       <c r="P130" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q130">
         <v>2.6</v>
@@ -28283,7 +28289,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ130">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR130">
         <v>1.55</v>
@@ -28408,7 +28414,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q131">
         <v>8</v>
@@ -28486,7 +28492,7 @@
         <v>2.14</v>
       </c>
       <c r="AP131">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ131">
         <v>2</v>
@@ -28614,7 +28620,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q132">
         <v>3.25</v>
@@ -29026,7 +29032,7 @@
         <v>98</v>
       </c>
       <c r="P134" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q134">
         <v>3.2</v>
@@ -29107,7 +29113,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ134">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR134">
         <v>1.12</v>
@@ -29438,7 +29444,7 @@
         <v>147</v>
       </c>
       <c r="P136" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q136">
         <v>4.75</v>
@@ -30056,7 +30062,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q139">
         <v>2.2</v>
@@ -30134,7 +30140,7 @@
         <v>0.29</v>
       </c>
       <c r="AP139">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ139">
         <v>0.44</v>
@@ -30262,7 +30268,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q140">
         <v>1.57</v>
@@ -30468,7 +30474,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q141">
         <v>2.6</v>
@@ -31292,7 +31298,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31576,7 +31582,7 @@
         <v>0.5</v>
       </c>
       <c r="AP146">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ146">
         <v>0.8100000000000001</v>
@@ -31785,7 +31791,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ147">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR147">
         <v>1.7</v>
@@ -31991,7 +31997,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ148">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR148">
         <v>1.21</v>
@@ -32322,7 +32328,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32734,7 +32740,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q152">
         <v>2.25</v>
@@ -33146,7 +33152,7 @@
         <v>91</v>
       </c>
       <c r="P154" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q154">
         <v>3.5</v>
@@ -33224,7 +33230,7 @@
         <v>1</v>
       </c>
       <c r="AP154">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ154">
         <v>1.07</v>
@@ -33764,7 +33770,7 @@
         <v>91</v>
       </c>
       <c r="P157" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q157">
         <v>3.25</v>
@@ -33970,7 +33976,7 @@
         <v>199</v>
       </c>
       <c r="P158" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q158">
         <v>1.83</v>
@@ -34176,7 +34182,7 @@
         <v>200</v>
       </c>
       <c r="P159" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q159">
         <v>2</v>
@@ -34588,7 +34594,7 @@
         <v>134</v>
       </c>
       <c r="P161" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q161">
         <v>2</v>
@@ -34794,7 +34800,7 @@
         <v>201</v>
       </c>
       <c r="P162" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q162">
         <v>2.75</v>
@@ -34875,7 +34881,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ162">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR162">
         <v>1.26</v>
@@ -35000,7 +35006,7 @@
         <v>202</v>
       </c>
       <c r="P163" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q163">
         <v>8</v>
@@ -35412,7 +35418,7 @@
         <v>132</v>
       </c>
       <c r="P165" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -35824,7 +35830,7 @@
         <v>204</v>
       </c>
       <c r="P167" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -36030,7 +36036,7 @@
         <v>91</v>
       </c>
       <c r="P168" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q168">
         <v>3.1</v>
@@ -36236,7 +36242,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -36442,7 +36448,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -37060,7 +37066,7 @@
         <v>207</v>
       </c>
       <c r="P173" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q173">
         <v>1.4</v>
@@ -37141,7 +37147,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ173">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR173">
         <v>2.35</v>
@@ -37347,7 +37353,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ174">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR174">
         <v>1.36</v>
@@ -37472,7 +37478,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q175">
         <v>2.75</v>
@@ -37550,7 +37556,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP175">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ175">
         <v>0.8100000000000001</v>
@@ -37756,7 +37762,7 @@
         <v>1.22</v>
       </c>
       <c r="AP176">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ176">
         <v>0.8100000000000001</v>
@@ -37884,7 +37890,7 @@
         <v>210</v>
       </c>
       <c r="P177" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q177">
         <v>2.1</v>
@@ -38090,7 +38096,7 @@
         <v>211</v>
       </c>
       <c r="P178" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38502,7 +38508,7 @@
         <v>213</v>
       </c>
       <c r="P180" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q180">
         <v>3.6</v>
@@ -38708,7 +38714,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q181">
         <v>2.75</v>
@@ -38914,7 +38920,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q182">
         <v>5.5</v>
@@ -39120,7 +39126,7 @@
         <v>216</v>
       </c>
       <c r="P183" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q183">
         <v>2.88</v>
@@ -39532,7 +39538,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q185">
         <v>3.1</v>
@@ -39944,7 +39950,7 @@
         <v>91</v>
       </c>
       <c r="P187" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q187">
         <v>4.75</v>
@@ -40150,7 +40156,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q188">
         <v>3.75</v>
@@ -41258,10 +41264,10 @@
         <v>0.7</v>
       </c>
       <c r="AP193">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ193">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR193">
         <v>1.22</v>
@@ -41386,7 +41392,7 @@
         <v>91</v>
       </c>
       <c r="P194" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q194">
         <v>5.5</v>
@@ -41464,7 +41470,7 @@
         <v>2</v>
       </c>
       <c r="AP194">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ194">
         <v>2.19</v>
@@ -41798,7 +41804,7 @@
         <v>225</v>
       </c>
       <c r="P196" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q196">
         <v>4</v>
@@ -42210,7 +42216,7 @@
         <v>226</v>
       </c>
       <c r="P198" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q198">
         <v>1.8</v>
@@ -42622,7 +42628,7 @@
         <v>227</v>
       </c>
       <c r="P200" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q200">
         <v>3.25</v>
@@ -42828,7 +42834,7 @@
         <v>228</v>
       </c>
       <c r="P201" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q201">
         <v>2.1</v>
@@ -43115,7 +43121,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ202">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR202">
         <v>1.27</v>
@@ -44476,7 +44482,7 @@
         <v>160</v>
       </c>
       <c r="P209" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q209">
         <v>2.6</v>
@@ -44554,7 +44560,7 @@
         <v>0.92</v>
       </c>
       <c r="AP209">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ209">
         <v>0.9399999999999999</v>
@@ -44763,7 +44769,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ210">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR210">
         <v>1.55</v>
@@ -44888,7 +44894,7 @@
         <v>237</v>
       </c>
       <c r="P211" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q211">
         <v>4.75</v>
@@ -45094,7 +45100,7 @@
         <v>128</v>
       </c>
       <c r="P212" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q212">
         <v>4.33</v>
@@ -45712,7 +45718,7 @@
         <v>239</v>
       </c>
       <c r="P215" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q215">
         <v>2.75</v>
@@ -46614,7 +46620,7 @@
         <v>0.73</v>
       </c>
       <c r="AP219">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ219">
         <v>0.8100000000000001</v>
@@ -46742,7 +46748,7 @@
         <v>241</v>
       </c>
       <c r="P220" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q220">
         <v>1.62</v>
@@ -46823,7 +46829,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ220">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR220">
         <v>2.5</v>
@@ -46948,7 +46954,7 @@
         <v>242</v>
       </c>
       <c r="P221" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q221">
         <v>4.33</v>
@@ -47154,7 +47160,7 @@
         <v>91</v>
       </c>
       <c r="P222" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q222">
         <v>5</v>
@@ -47360,7 +47366,7 @@
         <v>243</v>
       </c>
       <c r="P223" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q223">
         <v>2.75</v>
@@ -47853,7 +47859,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ225">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR225">
         <v>1.36</v>
@@ -48390,7 +48396,7 @@
         <v>91</v>
       </c>
       <c r="P228" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q228">
         <v>8</v>
@@ -48468,7 +48474,7 @@
         <v>1.83</v>
       </c>
       <c r="AP228">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ228">
         <v>2.07</v>
@@ -49214,7 +49220,7 @@
         <v>248</v>
       </c>
       <c r="P232" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q232">
         <v>2.88</v>
@@ -49420,7 +49426,7 @@
         <v>249</v>
       </c>
       <c r="P233" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q233">
         <v>2.5</v>
@@ -49832,7 +49838,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q235">
         <v>2.88</v>
@@ -50038,7 +50044,7 @@
         <v>91</v>
       </c>
       <c r="P236" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q236">
         <v>3.75</v>
@@ -50116,7 +50122,7 @@
         <v>1</v>
       </c>
       <c r="AP236">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ236">
         <v>1.13</v>
@@ -50450,7 +50456,7 @@
         <v>252</v>
       </c>
       <c r="P238" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q238">
         <v>3.75</v>
@@ -50737,7 +50743,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ239">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR239">
         <v>1.62</v>
@@ -50862,7 +50868,7 @@
         <v>91</v>
       </c>
       <c r="P240" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q240">
         <v>2.2</v>
@@ -51274,7 +51280,7 @@
         <v>255</v>
       </c>
       <c r="P242" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q242">
         <v>1.91</v>
@@ -51480,7 +51486,7 @@
         <v>256</v>
       </c>
       <c r="P243" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q243">
         <v>1.8</v>
@@ -52510,7 +52516,7 @@
         <v>106</v>
       </c>
       <c r="P248" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q248">
         <v>6.5</v>
@@ -52716,7 +52722,7 @@
         <v>259</v>
       </c>
       <c r="P249" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q249">
         <v>2.88</v>
@@ -53000,7 +53006,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP250">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ250">
         <v>0.8100000000000001</v>
@@ -53128,7 +53134,7 @@
         <v>260</v>
       </c>
       <c r="P251" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q251">
         <v>2.63</v>
@@ -53540,7 +53546,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q253">
         <v>1.67</v>
@@ -53621,7 +53627,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ253">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR253">
         <v>1.82</v>
@@ -53952,7 +53958,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q255">
         <v>6</v>
@@ -54030,7 +54036,7 @@
         <v>1.86</v>
       </c>
       <c r="AP255">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ255">
         <v>2</v>
@@ -54158,7 +54164,7 @@
         <v>264</v>
       </c>
       <c r="P256" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q256">
         <v>2.5</v>
@@ -54239,7 +54245,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ256">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR256">
         <v>1.63</v>
@@ -54570,7 +54576,7 @@
         <v>266</v>
       </c>
       <c r="P258" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q258">
         <v>3.5</v>
@@ -55394,7 +55400,7 @@
         <v>269</v>
       </c>
       <c r="P262" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q262">
         <v>7.5</v>
@@ -55600,7 +55606,7 @@
         <v>270</v>
       </c>
       <c r="P263" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q263">
         <v>2.25</v>
@@ -56299,7 +56305,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ266">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR266">
         <v>1.79</v>
@@ -56424,7 +56430,7 @@
         <v>274</v>
       </c>
       <c r="P267" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q267">
         <v>4</v>
@@ -56630,7 +56636,7 @@
         <v>91</v>
       </c>
       <c r="P268" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q268">
         <v>3.75</v>
@@ -56708,7 +56714,7 @@
         <v>2.14</v>
       </c>
       <c r="AP268">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ268">
         <v>2.2</v>
@@ -57120,7 +57126,7 @@
         <v>0.86</v>
       </c>
       <c r="AP270">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ270">
         <v>0.8100000000000001</v>
@@ -57454,7 +57460,7 @@
         <v>273</v>
       </c>
       <c r="P272" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q272">
         <v>1.95</v>
@@ -58072,7 +58078,7 @@
         <v>187</v>
       </c>
       <c r="P275" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q275">
         <v>5.5</v>
@@ -58690,7 +58696,7 @@
         <v>278</v>
       </c>
       <c r="P278" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q278">
         <v>2.88</v>
@@ -58896,7 +58902,7 @@
         <v>91</v>
       </c>
       <c r="P279" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q279">
         <v>3.1</v>
@@ -59102,7 +59108,7 @@
         <v>91</v>
       </c>
       <c r="P280" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q280">
         <v>3.1</v>
@@ -59308,7 +59314,7 @@
         <v>245</v>
       </c>
       <c r="P281" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q281">
         <v>3.1</v>
@@ -59465,6 +59471,418 @@
       </c>
       <c r="BP281">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="282" spans="1:68">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>7466339</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" t="s">
+        <v>69</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45787.47916666666</v>
+      </c>
+      <c r="F282">
+        <v>32</v>
+      </c>
+      <c r="G282" t="s">
+        <v>83</v>
+      </c>
+      <c r="H282" t="s">
+        <v>80</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282">
+        <v>1</v>
+      </c>
+      <c r="K282">
+        <v>2</v>
+      </c>
+      <c r="L282">
+        <v>3</v>
+      </c>
+      <c r="M282">
+        <v>1</v>
+      </c>
+      <c r="N282">
+        <v>4</v>
+      </c>
+      <c r="O282" t="s">
+        <v>279</v>
+      </c>
+      <c r="P282" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q282">
+        <v>3.6</v>
+      </c>
+      <c r="R282">
+        <v>2.4</v>
+      </c>
+      <c r="S282">
+        <v>2.5</v>
+      </c>
+      <c r="T282">
+        <v>1.25</v>
+      </c>
+      <c r="U282">
+        <v>3.75</v>
+      </c>
+      <c r="V282">
+        <v>2.2</v>
+      </c>
+      <c r="W282">
+        <v>1.62</v>
+      </c>
+      <c r="X282">
+        <v>5</v>
+      </c>
+      <c r="Y282">
+        <v>1.17</v>
+      </c>
+      <c r="Z282">
+        <v>3</v>
+      </c>
+      <c r="AA282">
+        <v>3.66</v>
+      </c>
+      <c r="AB282">
+        <v>2.16</v>
+      </c>
+      <c r="AC282">
+        <v>0</v>
+      </c>
+      <c r="AD282">
+        <v>0</v>
+      </c>
+      <c r="AE282">
+        <v>1.11</v>
+      </c>
+      <c r="AF282">
+        <v>4.85</v>
+      </c>
+      <c r="AG282">
+        <v>1.57</v>
+      </c>
+      <c r="AH282">
+        <v>2.3</v>
+      </c>
+      <c r="AI282">
+        <v>1.5</v>
+      </c>
+      <c r="AJ282">
+        <v>2.5</v>
+      </c>
+      <c r="AK282">
+        <v>1.83</v>
+      </c>
+      <c r="AL282">
+        <v>1.26</v>
+      </c>
+      <c r="AM282">
+        <v>1.32</v>
+      </c>
+      <c r="AN282">
+        <v>0.8</v>
+      </c>
+      <c r="AO282">
+        <v>0.47</v>
+      </c>
+      <c r="AP282">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ282">
+        <v>0.44</v>
+      </c>
+      <c r="AR282">
+        <v>1.31</v>
+      </c>
+      <c r="AS282">
+        <v>1.29</v>
+      </c>
+      <c r="AT282">
+        <v>2.6</v>
+      </c>
+      <c r="AU282">
+        <v>7</v>
+      </c>
+      <c r="AV282">
+        <v>3</v>
+      </c>
+      <c r="AW282">
+        <v>10</v>
+      </c>
+      <c r="AX282">
+        <v>2</v>
+      </c>
+      <c r="AY282">
+        <v>20</v>
+      </c>
+      <c r="AZ282">
+        <v>5</v>
+      </c>
+      <c r="BA282">
+        <v>5</v>
+      </c>
+      <c r="BB282">
+        <v>2</v>
+      </c>
+      <c r="BC282">
+        <v>7</v>
+      </c>
+      <c r="BD282">
+        <v>2.47</v>
+      </c>
+      <c r="BE282">
+        <v>6.75</v>
+      </c>
+      <c r="BF282">
+        <v>1.85</v>
+      </c>
+      <c r="BG282">
+        <v>1.13</v>
+      </c>
+      <c r="BH282">
+        <v>4.55</v>
+      </c>
+      <c r="BI282">
+        <v>1.28</v>
+      </c>
+      <c r="BJ282">
+        <v>3.08</v>
+      </c>
+      <c r="BK282">
+        <v>1.53</v>
+      </c>
+      <c r="BL282">
+        <v>2.28</v>
+      </c>
+      <c r="BM282">
+        <v>1.9</v>
+      </c>
+      <c r="BN282">
+        <v>1.8</v>
+      </c>
+      <c r="BO282">
+        <v>2.45</v>
+      </c>
+      <c r="BP282">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="283" spans="1:68">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>7466337</v>
+      </c>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>69</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45787.57291666666</v>
+      </c>
+      <c r="F283">
+        <v>32</v>
+      </c>
+      <c r="G283" t="s">
+        <v>79</v>
+      </c>
+      <c r="H283" t="s">
+        <v>87</v>
+      </c>
+      <c r="I283">
+        <v>1</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>1</v>
+      </c>
+      <c r="L283">
+        <v>1</v>
+      </c>
+      <c r="M283">
+        <v>0</v>
+      </c>
+      <c r="N283">
+        <v>1</v>
+      </c>
+      <c r="O283" t="s">
+        <v>280</v>
+      </c>
+      <c r="P283" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q283">
+        <v>2.5</v>
+      </c>
+      <c r="R283">
+        <v>2.2</v>
+      </c>
+      <c r="S283">
+        <v>4.33</v>
+      </c>
+      <c r="T283">
+        <v>1.36</v>
+      </c>
+      <c r="U283">
+        <v>3</v>
+      </c>
+      <c r="V283">
+        <v>2.75</v>
+      </c>
+      <c r="W283">
+        <v>1.4</v>
+      </c>
+      <c r="X283">
+        <v>7</v>
+      </c>
+      <c r="Y283">
+        <v>1.1</v>
+      </c>
+      <c r="Z283">
+        <v>1.97</v>
+      </c>
+      <c r="AA283">
+        <v>3.66</v>
+      </c>
+      <c r="AB283">
+        <v>3.45</v>
+      </c>
+      <c r="AC283">
+        <v>0</v>
+      </c>
+      <c r="AD283">
+        <v>0</v>
+      </c>
+      <c r="AE283">
+        <v>1.26</v>
+      </c>
+      <c r="AF283">
+        <v>3.32</v>
+      </c>
+      <c r="AG283">
+        <v>1.79</v>
+      </c>
+      <c r="AH283">
+        <v>1.95</v>
+      </c>
+      <c r="AI283">
+        <v>1.75</v>
+      </c>
+      <c r="AJ283">
+        <v>2</v>
+      </c>
+      <c r="AK283">
+        <v>1.27</v>
+      </c>
+      <c r="AL283">
+        <v>1.28</v>
+      </c>
+      <c r="AM283">
+        <v>1.86</v>
+      </c>
+      <c r="AN283">
+        <v>1.4</v>
+      </c>
+      <c r="AO283">
+        <v>0.6</v>
+      </c>
+      <c r="AP283">
+        <v>1.5</v>
+      </c>
+      <c r="AQ283">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR283">
+        <v>1.38</v>
+      </c>
+      <c r="AS283">
+        <v>1.17</v>
+      </c>
+      <c r="AT283">
+        <v>2.55</v>
+      </c>
+      <c r="AU283">
+        <v>5</v>
+      </c>
+      <c r="AV283">
+        <v>5</v>
+      </c>
+      <c r="AW283">
+        <v>5</v>
+      </c>
+      <c r="AX283">
+        <v>1</v>
+      </c>
+      <c r="AY283">
+        <v>10</v>
+      </c>
+      <c r="AZ283">
+        <v>6</v>
+      </c>
+      <c r="BA283">
+        <v>5</v>
+      </c>
+      <c r="BB283">
+        <v>3</v>
+      </c>
+      <c r="BC283">
+        <v>8</v>
+      </c>
+      <c r="BD283">
+        <v>1.68</v>
+      </c>
+      <c r="BE283">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF283">
+        <v>2.61</v>
+      </c>
+      <c r="BG283">
+        <v>1.21</v>
+      </c>
+      <c r="BH283">
+        <v>3.58</v>
+      </c>
+      <c r="BI283">
+        <v>1.43</v>
+      </c>
+      <c r="BJ283">
+        <v>2.54</v>
+      </c>
+      <c r="BK283">
+        <v>1.76</v>
+      </c>
+      <c r="BL283">
+        <v>1.95</v>
+      </c>
+      <c r="BM283">
+        <v>2.23</v>
+      </c>
+      <c r="BN283">
+        <v>1.55</v>
+      </c>
+      <c r="BO283">
+        <v>2.92</v>
+      </c>
+      <c r="BP283">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="403">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1221,6 +1221,9 @@
   <si>
     <t>['16', '66']</t>
   </si>
+  <si>
+    <t>['57', '68', '90']</t>
+  </si>
 </sst>
 </file>
 
@@ -1581,7 +1584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP283"/>
+  <dimension ref="A1:BP284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2536,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AQ5">
         <v>1.63</v>
@@ -4187,7 +4190,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ13">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -5832,7 +5835,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AQ21">
         <v>2.07</v>
@@ -7274,7 +7277,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AQ28">
         <v>0.6</v>
@@ -7895,7 +7898,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ31">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR31">
         <v>0.77</v>
@@ -11191,7 +11194,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ47">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR47">
         <v>1.15</v>
@@ -12012,7 +12015,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AQ51">
         <v>1.25</v>
@@ -14484,7 +14487,7 @@
         <v>0.67</v>
       </c>
       <c r="AP63">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AQ63">
         <v>0.8100000000000001</v>
@@ -14899,7 +14902,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ65">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR65">
         <v>2.79</v>
@@ -18192,7 +18195,7 @@
         <v>0.75</v>
       </c>
       <c r="AP81">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AQ81">
         <v>0.87</v>
@@ -19019,7 +19022,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ85">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR85">
         <v>1.93</v>
@@ -22315,7 +22318,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ101">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR101">
         <v>1.12</v>
@@ -23136,7 +23139,7 @@
         <v>2</v>
       </c>
       <c r="AP105">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AQ105">
         <v>2</v>
@@ -26641,7 +26644,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ122">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR122">
         <v>1.18</v>
@@ -29522,7 +29525,7 @@
         <v>2.43</v>
       </c>
       <c r="AP136">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AQ136">
         <v>2.2</v>
@@ -30761,7 +30764,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ142">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR142">
         <v>1.53</v>
@@ -31994,7 +31997,7 @@
         <v>0.38</v>
       </c>
       <c r="AP148">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AQ148">
         <v>0.44</v>
@@ -33439,7 +33442,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ155">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR155">
         <v>1.47</v>
@@ -36114,7 +36117,7 @@
         <v>0.5</v>
       </c>
       <c r="AP168">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AQ168">
         <v>0.8100000000000001</v>
@@ -37971,7 +37974,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ177">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR177">
         <v>1.77</v>
@@ -39204,7 +39207,7 @@
         <v>0.3</v>
       </c>
       <c r="AP183">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AQ183">
         <v>0.44</v>
@@ -40855,7 +40858,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ191">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR191">
         <v>1.85</v>
@@ -42091,7 +42094,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ197">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR197">
         <v>1.68</v>
@@ -46002,7 +46005,7 @@
         <v>2.09</v>
       </c>
       <c r="AP216">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AQ216">
         <v>2.19</v>
@@ -46417,7 +46420,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ218">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR218">
         <v>1.39</v>
@@ -47856,7 +47859,7 @@
         <v>0.58</v>
       </c>
       <c r="AP225">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AQ225">
         <v>0.5600000000000001</v>
@@ -50125,7 +50128,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ236">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR236">
         <v>1.35</v>
@@ -52800,7 +52803,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP249">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AQ249">
         <v>0.8100000000000001</v>
@@ -57541,7 +57544,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ272">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AR272">
         <v>1.79</v>
@@ -57744,7 +57747,7 @@
         <v>1.07</v>
       </c>
       <c r="AP273">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AQ273">
         <v>1.07</v>
@@ -59883,6 +59886,212 @@
       </c>
       <c r="BP283">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="284" spans="1:68">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>7466333</v>
+      </c>
+      <c r="C284" t="s">
+        <v>68</v>
+      </c>
+      <c r="D284" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45787.66666666666</v>
+      </c>
+      <c r="F284">
+        <v>32</v>
+      </c>
+      <c r="G284" t="s">
+        <v>73</v>
+      </c>
+      <c r="H284" t="s">
+        <v>75</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>0</v>
+      </c>
+      <c r="L284">
+        <v>0</v>
+      </c>
+      <c r="M284">
+        <v>3</v>
+      </c>
+      <c r="N284">
+        <v>3</v>
+      </c>
+      <c r="O284" t="s">
+        <v>91</v>
+      </c>
+      <c r="P284" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q284">
+        <v>3.25</v>
+      </c>
+      <c r="R284">
+        <v>2.3</v>
+      </c>
+      <c r="S284">
+        <v>3</v>
+      </c>
+      <c r="T284">
+        <v>1.33</v>
+      </c>
+      <c r="U284">
+        <v>3.25</v>
+      </c>
+      <c r="V284">
+        <v>2.5</v>
+      </c>
+      <c r="W284">
+        <v>1.5</v>
+      </c>
+      <c r="X284">
+        <v>6.5</v>
+      </c>
+      <c r="Y284">
+        <v>1.11</v>
+      </c>
+      <c r="Z284">
+        <v>3.67</v>
+      </c>
+      <c r="AA284">
+        <v>3.57</v>
+      </c>
+      <c r="AB284">
+        <v>1.93</v>
+      </c>
+      <c r="AC284">
+        <v>0</v>
+      </c>
+      <c r="AD284">
+        <v>0</v>
+      </c>
+      <c r="AE284">
+        <v>1.02</v>
+      </c>
+      <c r="AF284">
+        <v>1.02</v>
+      </c>
+      <c r="AG284">
+        <v>1.8</v>
+      </c>
+      <c r="AH284">
+        <v>1.94</v>
+      </c>
+      <c r="AI284">
+        <v>1.57</v>
+      </c>
+      <c r="AJ284">
+        <v>2.25</v>
+      </c>
+      <c r="AK284">
+        <v>1.58</v>
+      </c>
+      <c r="AL284">
+        <v>1.28</v>
+      </c>
+      <c r="AM284">
+        <v>1.45</v>
+      </c>
+      <c r="AN284">
+        <v>0.67</v>
+      </c>
+      <c r="AO284">
+        <v>1.13</v>
+      </c>
+      <c r="AP284">
+        <v>0.63</v>
+      </c>
+      <c r="AQ284">
+        <v>1.25</v>
+      </c>
+      <c r="AR284">
+        <v>1.58</v>
+      </c>
+      <c r="AS284">
+        <v>1.49</v>
+      </c>
+      <c r="AT284">
+        <v>3.07</v>
+      </c>
+      <c r="AU284">
+        <v>-1</v>
+      </c>
+      <c r="AV284">
+        <v>-1</v>
+      </c>
+      <c r="AW284">
+        <v>-1</v>
+      </c>
+      <c r="AX284">
+        <v>-1</v>
+      </c>
+      <c r="AY284">
+        <v>-1</v>
+      </c>
+      <c r="AZ284">
+        <v>-1</v>
+      </c>
+      <c r="BA284">
+        <v>-1</v>
+      </c>
+      <c r="BB284">
+        <v>-1</v>
+      </c>
+      <c r="BC284">
+        <v>-1</v>
+      </c>
+      <c r="BD284">
+        <v>2.07</v>
+      </c>
+      <c r="BE284">
+        <v>6.7</v>
+      </c>
+      <c r="BF284">
+        <v>2.17</v>
+      </c>
+      <c r="BG284">
+        <v>1.15</v>
+      </c>
+      <c r="BH284">
+        <v>4.25</v>
+      </c>
+      <c r="BI284">
+        <v>1.32</v>
+      </c>
+      <c r="BJ284">
+        <v>2.88</v>
+      </c>
+      <c r="BK284">
+        <v>1.59</v>
+      </c>
+      <c r="BL284">
+        <v>2.16</v>
+      </c>
+      <c r="BM284">
+        <v>2</v>
+      </c>
+      <c r="BN284">
+        <v>1.72</v>
+      </c>
+      <c r="BO284">
+        <v>2.57</v>
+      </c>
+      <c r="BP284">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
@@ -60028,31 +60028,31 @@
         <v>3.07</v>
       </c>
       <c r="AU284">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV284">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AW284">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AX284">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY284">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="AZ284">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BA284">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB284">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC284">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD284">
         <v>2.07</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="403">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1584,7 +1584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP284"/>
+  <dimension ref="A1:BP285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5011,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ17">
         <v>2</v>
@@ -5220,7 +5220,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ18">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -8307,7 +8307,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ33">
         <v>0.8100000000000001</v>
@@ -8516,7 +8516,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ34">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR34">
         <v>2.85</v>
@@ -9752,7 +9752,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ40">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR40">
         <v>1.21</v>
@@ -10779,7 +10779,7 @@
         <v>2.33</v>
       </c>
       <c r="AP45">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ45">
         <v>1.63</v>
@@ -13457,7 +13457,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ58">
         <v>0.63</v>
@@ -13872,7 +13872,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ60">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR60">
         <v>1.17</v>
@@ -17989,7 +17989,7 @@
         <v>0</v>
       </c>
       <c r="AP80">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ80">
         <v>0.5600000000000001</v>
@@ -19846,7 +19846,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ89">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR89">
         <v>2.01</v>
@@ -22521,7 +22521,7 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ102">
         <v>0.9399999999999999</v>
@@ -23554,7 +23554,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ107">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR107">
         <v>1.85</v>
@@ -26641,7 +26641,7 @@
         <v>1.17</v>
       </c>
       <c r="AP122">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ122">
         <v>1.25</v>
@@ -27056,7 +27056,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ124">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR124">
         <v>1.98</v>
@@ -29731,7 +29731,7 @@
         <v>1.14</v>
       </c>
       <c r="AP137">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ137">
         <v>0.8100000000000001</v>
@@ -30558,7 +30558,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ141">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR141">
         <v>1.36</v>
@@ -33236,7 +33236,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ154">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR154">
         <v>1.32</v>
@@ -33851,7 +33851,7 @@
         <v>0.75</v>
       </c>
       <c r="AP157">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ157">
         <v>0.87</v>
@@ -35087,7 +35087,7 @@
         <v>2.33</v>
       </c>
       <c r="AP163">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ163">
         <v>2.07</v>
@@ -38589,7 +38589,7 @@
         <v>2.4</v>
       </c>
       <c r="AP180">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ180">
         <v>2.2</v>
@@ -40240,7 +40240,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ188">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR188">
         <v>1.33</v>
@@ -43121,7 +43121,7 @@
         <v>0.55</v>
       </c>
       <c r="AP202">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ202">
         <v>0.44</v>
@@ -43948,7 +43948,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ206">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR206">
         <v>1.8</v>
@@ -47241,7 +47241,7 @@
         <v>2.17</v>
       </c>
       <c r="AP222">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ222">
         <v>2.19</v>
@@ -47450,7 +47450,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ223">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR223">
         <v>1.55</v>
@@ -50331,7 +50331,7 @@
         <v>0.5</v>
       </c>
       <c r="AP237">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ237">
         <v>0.44</v>
@@ -51364,7 +51364,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ242">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR242">
         <v>1.95</v>
@@ -54660,7 +54660,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ258">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR258">
         <v>1.43</v>
@@ -55275,7 +55275,7 @@
         <v>1.14</v>
       </c>
       <c r="AP261">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ261">
         <v>1.25</v>
@@ -57750,7 +57750,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ273">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AR273">
         <v>1.48</v>
@@ -60092,6 +60092,212 @@
       </c>
       <c r="BP284">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="285" spans="1:68">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>7466338</v>
+      </c>
+      <c r="C285" t="s">
+        <v>68</v>
+      </c>
+      <c r="D285" t="s">
+        <v>69</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45788.30208333334</v>
+      </c>
+      <c r="F285">
+        <v>32</v>
+      </c>
+      <c r="G285" t="s">
+        <v>85</v>
+      </c>
+      <c r="H285" t="s">
+        <v>77</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>1</v>
+      </c>
+      <c r="M285">
+        <v>1</v>
+      </c>
+      <c r="N285">
+        <v>2</v>
+      </c>
+      <c r="O285" t="s">
+        <v>125</v>
+      </c>
+      <c r="P285" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q285">
+        <v>3.1</v>
+      </c>
+      <c r="R285">
+        <v>2.38</v>
+      </c>
+      <c r="S285">
+        <v>3</v>
+      </c>
+      <c r="T285">
+        <v>1.29</v>
+      </c>
+      <c r="U285">
+        <v>3.5</v>
+      </c>
+      <c r="V285">
+        <v>2.25</v>
+      </c>
+      <c r="W285">
+        <v>1.57</v>
+      </c>
+      <c r="X285">
+        <v>5.5</v>
+      </c>
+      <c r="Y285">
+        <v>1.14</v>
+      </c>
+      <c r="Z285">
+        <v>2.64</v>
+      </c>
+      <c r="AA285">
+        <v>3.65</v>
+      </c>
+      <c r="AB285">
+        <v>2.4</v>
+      </c>
+      <c r="AC285">
+        <v>1.03</v>
+      </c>
+      <c r="AD285">
+        <v>11</v>
+      </c>
+      <c r="AE285">
+        <v>1.12</v>
+      </c>
+      <c r="AF285">
+        <v>4.85</v>
+      </c>
+      <c r="AG285">
+        <v>1.57</v>
+      </c>
+      <c r="AH285">
+        <v>2.25</v>
+      </c>
+      <c r="AI285">
+        <v>1.53</v>
+      </c>
+      <c r="AJ285">
+        <v>2.38</v>
+      </c>
+      <c r="AK285">
+        <v>1.55</v>
+      </c>
+      <c r="AL285">
+        <v>1.26</v>
+      </c>
+      <c r="AM285">
+        <v>1.51</v>
+      </c>
+      <c r="AN285">
+        <v>1.4</v>
+      </c>
+      <c r="AO285">
+        <v>1.07</v>
+      </c>
+      <c r="AP285">
+        <v>1.38</v>
+      </c>
+      <c r="AQ285">
+        <v>1.06</v>
+      </c>
+      <c r="AR285">
+        <v>1.39</v>
+      </c>
+      <c r="AS285">
+        <v>1.32</v>
+      </c>
+      <c r="AT285">
+        <v>2.71</v>
+      </c>
+      <c r="AU285">
+        <v>-1</v>
+      </c>
+      <c r="AV285">
+        <v>-1</v>
+      </c>
+      <c r="AW285">
+        <v>-1</v>
+      </c>
+      <c r="AX285">
+        <v>-1</v>
+      </c>
+      <c r="AY285">
+        <v>-1</v>
+      </c>
+      <c r="AZ285">
+        <v>-1</v>
+      </c>
+      <c r="BA285">
+        <v>-1</v>
+      </c>
+      <c r="BB285">
+        <v>-1</v>
+      </c>
+      <c r="BC285">
+        <v>-1</v>
+      </c>
+      <c r="BD285">
+        <v>1.91</v>
+      </c>
+      <c r="BE285">
+        <v>6.7</v>
+      </c>
+      <c r="BF285">
+        <v>2.38</v>
+      </c>
+      <c r="BG285">
+        <v>1.16</v>
+      </c>
+      <c r="BH285">
+        <v>4.2</v>
+      </c>
+      <c r="BI285">
+        <v>1.33</v>
+      </c>
+      <c r="BJ285">
+        <v>2.83</v>
+      </c>
+      <c r="BK285">
+        <v>1.6</v>
+      </c>
+      <c r="BL285">
+        <v>2.14</v>
+      </c>
+      <c r="BM285">
+        <v>2.02</v>
+      </c>
+      <c r="BN285">
+        <v>1.71</v>
+      </c>
+      <c r="BO285">
+        <v>2.6</v>
+      </c>
+      <c r="BP285">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
@@ -60234,31 +60234,31 @@
         <v>2.71</v>
       </c>
       <c r="AU285">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV285">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW285">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AX285">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY285">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="AZ285">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BA285">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB285">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC285">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD285">
         <v>1.91</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="408">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -859,6 +859,15 @@
     <t>['30']</t>
   </si>
   <si>
+    <t>['21', '57']</t>
+  </si>
+  <si>
+    <t>['5', '10']</t>
+  </si>
+  <si>
+    <t>['9', '30', '48']</t>
+  </si>
+  <si>
     <t>['8', '54']</t>
   </si>
   <si>
@@ -1224,6 +1233,12 @@
   <si>
     <t>['57', '68', '90']</t>
   </si>
+  <si>
+    <t>['50', '73', '90+9']</t>
+  </si>
+  <si>
+    <t>['59', '67', '82']</t>
+  </si>
 </sst>
 </file>
 
@@ -1584,7 +1599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP285"/>
+  <dimension ref="A1:BP289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2127,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ3">
         <v>0.8100000000000001</v>
@@ -2255,7 +2270,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2667,7 +2682,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -3285,7 +3300,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3569,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AQ10">
         <v>0.44</v>
@@ -3984,7 +3999,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ12">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4187,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ13">
         <v>1.25</v>
@@ -4393,10 +4408,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ14">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4521,7 +4536,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4602,7 +4617,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ15">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4727,7 +4742,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4808,7 +4823,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ16">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4933,7 +4948,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -5757,7 +5772,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5838,7 +5853,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ21">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR21">
         <v>0.96</v>
@@ -5963,7 +5978,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -6044,7 +6059,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ22">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AR22">
         <v>0.79</v>
@@ -6993,7 +7008,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -7280,7 +7295,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ28">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR28">
         <v>0.73</v>
@@ -7405,7 +7420,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7486,7 +7501,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ29">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>2.19</v>
@@ -7817,7 +7832,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -8722,7 +8737,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ35">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>2.65</v>
@@ -8925,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ36">
         <v>0.8100000000000001</v>
@@ -9053,7 +9068,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -9543,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ39">
         <v>0.44</v>
@@ -9671,7 +9686,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -10367,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ43">
         <v>0.44</v>
@@ -10573,7 +10588,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AQ44">
         <v>0.9399999999999999</v>
@@ -10701,7 +10716,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10907,7 +10922,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -11113,7 +11128,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -11319,7 +11334,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -11525,7 +11540,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -11731,7 +11746,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11812,7 +11827,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ50">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR50">
         <v>2.16</v>
@@ -11937,7 +11952,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -12221,7 +12236,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ52">
         <v>0.5600000000000001</v>
@@ -12349,7 +12364,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -12430,7 +12445,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ53">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR53">
         <v>1.65</v>
@@ -12761,7 +12776,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -12842,7 +12857,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ55">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR55">
         <v>1.25</v>
@@ -12967,7 +12982,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -13663,7 +13678,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ59">
         <v>0.5600000000000001</v>
@@ -13997,7 +14012,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -14203,7 +14218,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -14281,10 +14296,10 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ62">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AR62">
         <v>2.58</v>
@@ -14696,7 +14711,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ64">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR64">
         <v>0.92</v>
@@ -15027,7 +15042,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -15517,7 +15532,7 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ68">
         <v>1.25</v>
@@ -15851,7 +15866,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -15929,10 +15944,10 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AQ70">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR70">
         <v>2.32</v>
@@ -16263,7 +16278,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -16469,7 +16484,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -16547,10 +16562,10 @@
         <v>3</v>
       </c>
       <c r="AP73">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ73">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR73">
         <v>2.44</v>
@@ -17087,7 +17102,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17580,7 +17595,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ78">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AR78">
         <v>1.07</v>
@@ -17705,7 +17720,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q79">
         <v>6.5</v>
@@ -17911,7 +17926,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q80">
         <v>2.6</v>
@@ -18198,7 +18213,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ81">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR81">
         <v>1.25</v>
@@ -18404,7 +18419,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ82">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR82">
         <v>1.34</v>
@@ -18735,7 +18750,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q84">
         <v>2.6</v>
@@ -19147,7 +19162,7 @@
         <v>91</v>
       </c>
       <c r="P86" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19431,7 +19446,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ87">
         <v>0.8100000000000001</v>
@@ -19637,7 +19652,7 @@
         <v>1.25</v>
       </c>
       <c r="AP88">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AQ88">
         <v>0.8100000000000001</v>
@@ -19765,7 +19780,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19843,7 +19858,7 @@
         <v>1.5</v>
       </c>
       <c r="AP89">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ89">
         <v>1.06</v>
@@ -19971,7 +19986,7 @@
         <v>91</v>
       </c>
       <c r="P90" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -20049,7 +20064,7 @@
         <v>1.75</v>
       </c>
       <c r="AP90">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ90">
         <v>2.19</v>
@@ -20589,7 +20604,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20667,10 +20682,10 @@
         <v>3</v>
       </c>
       <c r="AP93">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AQ93">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR93">
         <v>2.04</v>
@@ -20795,7 +20810,7 @@
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q94">
         <v>2.05</v>
@@ -20873,7 +20888,7 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ94">
         <v>1.63</v>
@@ -21207,7 +21222,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q96">
         <v>2.2</v>
@@ -21494,7 +21509,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ97">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR97">
         <v>1.38</v>
@@ -21619,7 +21634,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q98">
         <v>3.1</v>
@@ -21700,7 +21715,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ98">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AR98">
         <v>1.7</v>
@@ -22649,7 +22664,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q103">
         <v>7.5</v>
@@ -22730,7 +22745,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ103">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR103">
         <v>1.38</v>
@@ -22855,7 +22870,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22936,7 +22951,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ104">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR104">
         <v>1.2</v>
@@ -23061,7 +23076,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q105">
         <v>8.5</v>
@@ -23267,7 +23282,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q106">
         <v>3.1</v>
@@ -23345,7 +23360,7 @@
         <v>2</v>
       </c>
       <c r="AP106">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ106">
         <v>2.19</v>
@@ -23679,7 +23694,7 @@
         <v>115</v>
       </c>
       <c r="P108" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q108">
         <v>1.95</v>
@@ -23757,7 +23772,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ108">
         <v>0.8100000000000001</v>
@@ -24169,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="AP110">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ110">
         <v>0.44</v>
@@ -24297,7 +24312,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24584,7 +24599,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ112">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR112">
         <v>2.46</v>
@@ -24709,7 +24724,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q113">
         <v>4.75</v>
@@ -24915,7 +24930,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -24996,7 +25011,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ114">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AR114">
         <v>1.43</v>
@@ -25121,7 +25136,7 @@
         <v>93</v>
       </c>
       <c r="P115" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25327,7 +25342,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25611,7 +25626,7 @@
         <v>0.5</v>
       </c>
       <c r="AP117">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AQ117">
         <v>0.8100000000000001</v>
@@ -26435,7 +26450,7 @@
         <v>0.83</v>
       </c>
       <c r="AP121">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ121">
         <v>0.9399999999999999</v>
@@ -26769,7 +26784,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -26850,7 +26865,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ123">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR123">
         <v>1.43</v>
@@ -26975,7 +26990,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q124">
         <v>2.2</v>
@@ -27053,7 +27068,7 @@
         <v>1.17</v>
       </c>
       <c r="AP124">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ124">
         <v>1.06</v>
@@ -27259,7 +27274,7 @@
         <v>0.67</v>
       </c>
       <c r="AP125">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ125">
         <v>0.8100000000000001</v>
@@ -27387,7 +27402,7 @@
         <v>180</v>
       </c>
       <c r="P126" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q126">
         <v>4.75</v>
@@ -27593,7 +27608,7 @@
         <v>181</v>
       </c>
       <c r="P127" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q127">
         <v>2.2</v>
@@ -27671,10 +27686,10 @@
         <v>2.67</v>
       </c>
       <c r="AP127">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AQ127">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AR127">
         <v>1.82</v>
@@ -28086,7 +28101,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ129">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR129">
         <v>1.64</v>
@@ -28211,7 +28226,7 @@
         <v>91</v>
       </c>
       <c r="P130" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q130">
         <v>2.6</v>
@@ -28417,7 +28432,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q131">
         <v>8</v>
@@ -28623,7 +28638,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q132">
         <v>3.25</v>
@@ -29035,7 +29050,7 @@
         <v>98</v>
       </c>
       <c r="P134" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q134">
         <v>3.2</v>
@@ -29319,7 +29334,7 @@
         <v>2</v>
       </c>
       <c r="AP135">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ135">
         <v>2.19</v>
@@ -29447,7 +29462,7 @@
         <v>147</v>
       </c>
       <c r="P136" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q136">
         <v>4.75</v>
@@ -29528,7 +29543,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ136">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AR136">
         <v>1.21</v>
@@ -29940,7 +29955,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ138">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR138">
         <v>1.59</v>
@@ -30065,7 +30080,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q139">
         <v>2.2</v>
@@ -30271,7 +30286,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q140">
         <v>1.57</v>
@@ -30349,7 +30364,7 @@
         <v>0.57</v>
       </c>
       <c r="AP140">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ140">
         <v>0.8100000000000001</v>
@@ -30477,7 +30492,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q141">
         <v>2.6</v>
@@ -30967,10 +30982,10 @@
         <v>0.57</v>
       </c>
       <c r="AP143">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ143">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR143">
         <v>2.08</v>
@@ -31173,7 +31188,7 @@
         <v>0.29</v>
       </c>
       <c r="AP144">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AQ144">
         <v>0.63</v>
@@ -31301,7 +31316,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -32203,7 +32218,7 @@
         <v>1.63</v>
       </c>
       <c r="AP149">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ149">
         <v>1.25</v>
@@ -32331,7 +32346,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32743,7 +32758,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q152">
         <v>2.25</v>
@@ -33030,7 +33045,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ153">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR153">
         <v>1.13</v>
@@ -33155,7 +33170,7 @@
         <v>91</v>
       </c>
       <c r="P154" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q154">
         <v>3.5</v>
@@ -33645,7 +33660,7 @@
         <v>0.25</v>
       </c>
       <c r="AP156">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AQ156">
         <v>0.44</v>
@@ -33773,7 +33788,7 @@
         <v>91</v>
       </c>
       <c r="P157" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q157">
         <v>3.25</v>
@@ -33854,7 +33869,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ157">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR157">
         <v>1.23</v>
@@ -33979,7 +33994,7 @@
         <v>199</v>
       </c>
       <c r="P158" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q158">
         <v>1.83</v>
@@ -34185,7 +34200,7 @@
         <v>200</v>
       </c>
       <c r="P159" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q159">
         <v>2</v>
@@ -34263,7 +34278,7 @@
         <v>1.38</v>
       </c>
       <c r="AP159">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ159">
         <v>0.8100000000000001</v>
@@ -34597,7 +34612,7 @@
         <v>134</v>
       </c>
       <c r="P161" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q161">
         <v>2</v>
@@ -34675,10 +34690,10 @@
         <v>2.5</v>
       </c>
       <c r="AP161">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ161">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AR161">
         <v>1.8</v>
@@ -34803,7 +34818,7 @@
         <v>201</v>
       </c>
       <c r="P162" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q162">
         <v>2.75</v>
@@ -35009,7 +35024,7 @@
         <v>202</v>
       </c>
       <c r="P163" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q163">
         <v>8</v>
@@ -35090,7 +35105,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ163">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR163">
         <v>1.24</v>
@@ -35421,7 +35436,7 @@
         <v>132</v>
       </c>
       <c r="P165" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -35708,7 +35723,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ166">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR166">
         <v>1.78</v>
@@ -35833,7 +35848,7 @@
         <v>204</v>
       </c>
       <c r="P167" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -36039,7 +36054,7 @@
         <v>91</v>
       </c>
       <c r="P168" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q168">
         <v>3.1</v>
@@ -36245,7 +36260,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -36451,7 +36466,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36944,7 +36959,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ172">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AR172">
         <v>1.45</v>
@@ -37069,7 +37084,7 @@
         <v>207</v>
       </c>
       <c r="P173" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q173">
         <v>1.4</v>
@@ -37481,7 +37496,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q175">
         <v>2.75</v>
@@ -37893,7 +37908,7 @@
         <v>210</v>
       </c>
       <c r="P177" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q177">
         <v>2.1</v>
@@ -37971,7 +37986,7 @@
         <v>1</v>
       </c>
       <c r="AP177">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ177">
         <v>1.25</v>
@@ -38099,7 +38114,7 @@
         <v>211</v>
       </c>
       <c r="P178" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38180,7 +38195,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ178">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR178">
         <v>1.43</v>
@@ -38511,7 +38526,7 @@
         <v>213</v>
       </c>
       <c r="P180" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q180">
         <v>3.6</v>
@@ -38592,7 +38607,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ180">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AR180">
         <v>1.23</v>
@@ -38717,7 +38732,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q181">
         <v>2.75</v>
@@ -38923,7 +38938,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q182">
         <v>5.5</v>
@@ -39004,7 +39019,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ182">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR182">
         <v>1.6</v>
@@ -39129,7 +39144,7 @@
         <v>216</v>
       </c>
       <c r="P183" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q183">
         <v>2.88</v>
@@ -39413,7 +39428,7 @@
         <v>1.9</v>
       </c>
       <c r="AP184">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AQ184">
         <v>2</v>
@@ -39541,7 +39556,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q185">
         <v>3.1</v>
@@ -39828,7 +39843,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ186">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR186">
         <v>1.58</v>
@@ -39953,7 +39968,7 @@
         <v>91</v>
       </c>
       <c r="P187" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q187">
         <v>4.75</v>
@@ -40159,7 +40174,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q188">
         <v>3.75</v>
@@ -40652,7 +40667,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ190">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR190">
         <v>1.38</v>
@@ -40855,7 +40870,7 @@
         <v>1.2</v>
       </c>
       <c r="AP191">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ191">
         <v>1.25</v>
@@ -41395,7 +41410,7 @@
         <v>91</v>
       </c>
       <c r="P194" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q194">
         <v>5.5</v>
@@ -41679,7 +41694,7 @@
         <v>0.8</v>
       </c>
       <c r="AP195">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ195">
         <v>0.8100000000000001</v>
@@ -41807,7 +41822,7 @@
         <v>225</v>
       </c>
       <c r="P196" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q196">
         <v>4</v>
@@ -42219,7 +42234,7 @@
         <v>226</v>
       </c>
       <c r="P198" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q198">
         <v>1.8</v>
@@ -42300,7 +42315,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ198">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AR198">
         <v>2.36</v>
@@ -42631,7 +42646,7 @@
         <v>227</v>
       </c>
       <c r="P200" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q200">
         <v>3.25</v>
@@ -42712,7 +42727,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ200">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR200">
         <v>1.12</v>
@@ -42837,7 +42852,7 @@
         <v>228</v>
       </c>
       <c r="P201" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q201">
         <v>2.1</v>
@@ -43327,7 +43342,7 @@
         <v>0.55</v>
       </c>
       <c r="AP203">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ203">
         <v>0.44</v>
@@ -43533,7 +43548,7 @@
         <v>0.8</v>
       </c>
       <c r="AP204">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AQ204">
         <v>0.8100000000000001</v>
@@ -43739,7 +43754,7 @@
         <v>0.64</v>
       </c>
       <c r="AP205">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ205">
         <v>0.63</v>
@@ -43945,7 +43960,7 @@
         <v>1.1</v>
       </c>
       <c r="AP206">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AQ206">
         <v>1.06</v>
@@ -44151,10 +44166,10 @@
         <v>0.9</v>
       </c>
       <c r="AP207">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ207">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR207">
         <v>2.08</v>
@@ -44357,7 +44372,7 @@
         <v>1</v>
       </c>
       <c r="AP208">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ208">
         <v>0.9399999999999999</v>
@@ -44485,7 +44500,7 @@
         <v>160</v>
       </c>
       <c r="P209" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q209">
         <v>2.6</v>
@@ -44897,7 +44912,7 @@
         <v>237</v>
       </c>
       <c r="P211" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q211">
         <v>4.75</v>
@@ -44978,7 +44993,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ211">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR211">
         <v>1.68</v>
@@ -45103,7 +45118,7 @@
         <v>128</v>
       </c>
       <c r="P212" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q212">
         <v>4.33</v>
@@ -45387,10 +45402,10 @@
         <v>0.82</v>
       </c>
       <c r="AP213">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ213">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR213">
         <v>1.91</v>
@@ -45721,7 +45736,7 @@
         <v>239</v>
       </c>
       <c r="P215" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q215">
         <v>2.75</v>
@@ -46751,7 +46766,7 @@
         <v>241</v>
       </c>
       <c r="P220" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q220">
         <v>1.62</v>
@@ -46957,7 +46972,7 @@
         <v>242</v>
       </c>
       <c r="P221" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q221">
         <v>4.33</v>
@@ -47038,7 +47053,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ221">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AR221">
         <v>1.2</v>
@@ -47163,7 +47178,7 @@
         <v>91</v>
       </c>
       <c r="P222" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q222">
         <v>5</v>
@@ -47369,7 +47384,7 @@
         <v>243</v>
       </c>
       <c r="P223" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q223">
         <v>2.75</v>
@@ -47653,7 +47668,7 @@
         <v>0.58</v>
       </c>
       <c r="AP224">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ224">
         <v>0.63</v>
@@ -48068,7 +48083,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ226">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR226">
         <v>1.62</v>
@@ -48399,7 +48414,7 @@
         <v>91</v>
       </c>
       <c r="P228" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q228">
         <v>8</v>
@@ -48480,7 +48495,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ228">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR228">
         <v>1.35</v>
@@ -49223,7 +49238,7 @@
         <v>248</v>
       </c>
       <c r="P232" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q232">
         <v>2.88</v>
@@ -49301,7 +49316,7 @@
         <v>1.67</v>
       </c>
       <c r="AP232">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ232">
         <v>2</v>
@@ -49429,7 +49444,7 @@
         <v>249</v>
       </c>
       <c r="P233" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q233">
         <v>2.5</v>
@@ -49507,7 +49522,7 @@
         <v>1.75</v>
       </c>
       <c r="AP233">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AQ233">
         <v>1.63</v>
@@ -49716,7 +49731,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ234">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR234">
         <v>1.42</v>
@@ -49841,7 +49856,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q235">
         <v>2.88</v>
@@ -50047,7 +50062,7 @@
         <v>91</v>
       </c>
       <c r="P236" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q236">
         <v>3.75</v>
@@ -50459,7 +50474,7 @@
         <v>252</v>
       </c>
       <c r="P238" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q238">
         <v>3.75</v>
@@ -50871,7 +50886,7 @@
         <v>91</v>
       </c>
       <c r="P240" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q240">
         <v>2.2</v>
@@ -51283,7 +51298,7 @@
         <v>255</v>
       </c>
       <c r="P242" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q242">
         <v>1.91</v>
@@ -51361,7 +51376,7 @@
         <v>1.17</v>
       </c>
       <c r="AP242">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ242">
         <v>1.06</v>
@@ -51489,7 +51504,7 @@
         <v>256</v>
       </c>
       <c r="P243" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q243">
         <v>1.8</v>
@@ -51567,7 +51582,7 @@
         <v>0.46</v>
       </c>
       <c r="AP243">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ243">
         <v>0.44</v>
@@ -51773,10 +51788,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP244">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ244">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR244">
         <v>1.96</v>
@@ -52185,7 +52200,7 @@
         <v>1.77</v>
       </c>
       <c r="AP246">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ246">
         <v>2</v>
@@ -52391,7 +52406,7 @@
         <v>1</v>
       </c>
       <c r="AP247">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ247">
         <v>0.9399999999999999</v>
@@ -52519,7 +52534,7 @@
         <v>106</v>
       </c>
       <c r="P248" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q248">
         <v>6.5</v>
@@ -52600,7 +52615,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ248">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR248">
         <v>1.41</v>
@@ -52725,7 +52740,7 @@
         <v>259</v>
       </c>
       <c r="P249" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q249">
         <v>2.88</v>
@@ -53137,7 +53152,7 @@
         <v>260</v>
       </c>
       <c r="P251" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q251">
         <v>2.63</v>
@@ -53218,7 +53233,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ251">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AR251">
         <v>1.71</v>
@@ -53424,7 +53439,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ252">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR252">
         <v>1.63</v>
@@ -53549,7 +53564,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q253">
         <v>1.67</v>
@@ -53627,7 +53642,7 @@
         <v>0.62</v>
       </c>
       <c r="AP253">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AQ253">
         <v>0.5600000000000001</v>
@@ -53961,7 +53976,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q255">
         <v>6</v>
@@ -54167,7 +54182,7 @@
         <v>264</v>
       </c>
       <c r="P256" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q256">
         <v>2.5</v>
@@ -54579,7 +54594,7 @@
         <v>266</v>
       </c>
       <c r="P258" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q258">
         <v>3.5</v>
@@ -54866,7 +54881,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ259">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR259">
         <v>1.61</v>
@@ -55403,7 +55418,7 @@
         <v>269</v>
       </c>
       <c r="P262" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q262">
         <v>7.5</v>
@@ -55609,7 +55624,7 @@
         <v>270</v>
       </c>
       <c r="P263" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q263">
         <v>2.25</v>
@@ -56305,7 +56320,7 @@
         <v>0.57</v>
       </c>
       <c r="AP266">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ266">
         <v>0.5600000000000001</v>
@@ -56433,7 +56448,7 @@
         <v>274</v>
       </c>
       <c r="P267" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q267">
         <v>4</v>
@@ -56511,10 +56526,10 @@
         <v>2</v>
       </c>
       <c r="AP267">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ267">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR267">
         <v>1.87</v>
@@ -56639,7 +56654,7 @@
         <v>91</v>
       </c>
       <c r="P268" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q268">
         <v>3.75</v>
@@ -56720,7 +56735,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ268">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AR268">
         <v>1.3</v>
@@ -56923,7 +56938,7 @@
         <v>0.71</v>
       </c>
       <c r="AP269">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ269">
         <v>0.8100000000000001</v>
@@ -57338,7 +57353,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ271">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR271">
         <v>1.71</v>
@@ -57463,7 +57478,7 @@
         <v>273</v>
       </c>
       <c r="P272" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q272">
         <v>1.95</v>
@@ -57541,7 +57556,7 @@
         <v>1.14</v>
       </c>
       <c r="AP272">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AQ272">
         <v>1.25</v>
@@ -58081,7 +58096,7 @@
         <v>187</v>
       </c>
       <c r="P275" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q275">
         <v>5.5</v>
@@ -58699,7 +58714,7 @@
         <v>278</v>
       </c>
       <c r="P278" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q278">
         <v>2.88</v>
@@ -58905,7 +58920,7 @@
         <v>91</v>
       </c>
       <c r="P279" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q279">
         <v>3.1</v>
@@ -59111,7 +59126,7 @@
         <v>91</v>
       </c>
       <c r="P280" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q280">
         <v>3.1</v>
@@ -59317,7 +59332,7 @@
         <v>245</v>
       </c>
       <c r="P281" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q281">
         <v>3.1</v>
@@ -59935,7 +59950,7 @@
         <v>91</v>
       </c>
       <c r="P284" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="Q284">
         <v>3.25</v>
@@ -60298,6 +60313,830 @@
       </c>
       <c r="BP285">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="286" spans="1:68">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>7466335</v>
+      </c>
+      <c r="C286" t="s">
+        <v>68</v>
+      </c>
+      <c r="D286" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45788.39583333334</v>
+      </c>
+      <c r="F286">
+        <v>32</v>
+      </c>
+      <c r="G286" t="s">
+        <v>81</v>
+      </c>
+      <c r="H286" t="s">
+        <v>76</v>
+      </c>
+      <c r="I286">
+        <v>1</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>1</v>
+      </c>
+      <c r="L286">
+        <v>2</v>
+      </c>
+      <c r="M286">
+        <v>0</v>
+      </c>
+      <c r="N286">
+        <v>2</v>
+      </c>
+      <c r="O286" t="s">
+        <v>281</v>
+      </c>
+      <c r="P286" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q286">
+        <v>2.88</v>
+      </c>
+      <c r="R286">
+        <v>2.38</v>
+      </c>
+      <c r="S286">
+        <v>3.2</v>
+      </c>
+      <c r="T286">
+        <v>1.29</v>
+      </c>
+      <c r="U286">
+        <v>3.5</v>
+      </c>
+      <c r="V286">
+        <v>2.38</v>
+      </c>
+      <c r="W286">
+        <v>1.53</v>
+      </c>
+      <c r="X286">
+        <v>5.5</v>
+      </c>
+      <c r="Y286">
+        <v>1.14</v>
+      </c>
+      <c r="Z286">
+        <v>2.25</v>
+      </c>
+      <c r="AA286">
+        <v>4.1</v>
+      </c>
+      <c r="AB286">
+        <v>2.63</v>
+      </c>
+      <c r="AC286">
+        <v>1.03</v>
+      </c>
+      <c r="AD286">
+        <v>11</v>
+      </c>
+      <c r="AE286">
+        <v>1.11</v>
+      </c>
+      <c r="AF286">
+        <v>4.8</v>
+      </c>
+      <c r="AG286">
+        <v>1.58</v>
+      </c>
+      <c r="AH286">
+        <v>2.29</v>
+      </c>
+      <c r="AI286">
+        <v>1.57</v>
+      </c>
+      <c r="AJ286">
+        <v>2.25</v>
+      </c>
+      <c r="AK286">
+        <v>1.46</v>
+      </c>
+      <c r="AL286">
+        <v>1.28</v>
+      </c>
+      <c r="AM286">
+        <v>1.57</v>
+      </c>
+      <c r="AN286">
+        <v>2.07</v>
+      </c>
+      <c r="AO286">
+        <v>2.2</v>
+      </c>
+      <c r="AP286">
+        <v>2.13</v>
+      </c>
+      <c r="AQ286">
+        <v>2.06</v>
+      </c>
+      <c r="AR286">
+        <v>1.8</v>
+      </c>
+      <c r="AS286">
+        <v>1.5</v>
+      </c>
+      <c r="AT286">
+        <v>3.3</v>
+      </c>
+      <c r="AU286">
+        <v>7</v>
+      </c>
+      <c r="AV286">
+        <v>3</v>
+      </c>
+      <c r="AW286">
+        <v>7</v>
+      </c>
+      <c r="AX286">
+        <v>8</v>
+      </c>
+      <c r="AY286">
+        <v>16</v>
+      </c>
+      <c r="AZ286">
+        <v>14</v>
+      </c>
+      <c r="BA286">
+        <v>7</v>
+      </c>
+      <c r="BB286">
+        <v>3</v>
+      </c>
+      <c r="BC286">
+        <v>10</v>
+      </c>
+      <c r="BD286">
+        <v>1.59</v>
+      </c>
+      <c r="BE286">
+        <v>9</v>
+      </c>
+      <c r="BF286">
+        <v>2.83</v>
+      </c>
+      <c r="BG286">
+        <v>1.18</v>
+      </c>
+      <c r="BH286">
+        <v>3.84</v>
+      </c>
+      <c r="BI286">
+        <v>1.38</v>
+      </c>
+      <c r="BJ286">
+        <v>2.71</v>
+      </c>
+      <c r="BK286">
+        <v>1.69</v>
+      </c>
+      <c r="BL286">
+        <v>2.04</v>
+      </c>
+      <c r="BM286">
+        <v>2.12</v>
+      </c>
+      <c r="BN286">
+        <v>1.61</v>
+      </c>
+      <c r="BO286">
+        <v>2.74</v>
+      </c>
+      <c r="BP286">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="287" spans="1:68">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>7466336</v>
+      </c>
+      <c r="C287" t="s">
+        <v>68</v>
+      </c>
+      <c r="D287" t="s">
+        <v>69</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45788.39583333334</v>
+      </c>
+      <c r="F287">
+        <v>32</v>
+      </c>
+      <c r="G287" t="s">
+        <v>71</v>
+      </c>
+      <c r="H287" t="s">
+        <v>74</v>
+      </c>
+      <c r="I287">
+        <v>2</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>2</v>
+      </c>
+      <c r="L287">
+        <v>2</v>
+      </c>
+      <c r="M287">
+        <v>3</v>
+      </c>
+      <c r="N287">
+        <v>5</v>
+      </c>
+      <c r="O287" t="s">
+        <v>282</v>
+      </c>
+      <c r="P287" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q287">
+        <v>3.1</v>
+      </c>
+      <c r="R287">
+        <v>2.6</v>
+      </c>
+      <c r="S287">
+        <v>2.75</v>
+      </c>
+      <c r="T287">
+        <v>1.22</v>
+      </c>
+      <c r="U287">
+        <v>4</v>
+      </c>
+      <c r="V287">
+        <v>2</v>
+      </c>
+      <c r="W287">
+        <v>1.73</v>
+      </c>
+      <c r="X287">
+        <v>4.33</v>
+      </c>
+      <c r="Y287">
+        <v>1.2</v>
+      </c>
+      <c r="Z287">
+        <v>2.72</v>
+      </c>
+      <c r="AA287">
+        <v>3.79</v>
+      </c>
+      <c r="AB287">
+        <v>2.28</v>
+      </c>
+      <c r="AC287">
+        <v>1.01</v>
+      </c>
+      <c r="AD287">
+        <v>17</v>
+      </c>
+      <c r="AE287">
+        <v>1.08</v>
+      </c>
+      <c r="AF287">
+        <v>5.7</v>
+      </c>
+      <c r="AG287">
+        <v>1.42</v>
+      </c>
+      <c r="AH287">
+        <v>2.74</v>
+      </c>
+      <c r="AI287">
+        <v>1.4</v>
+      </c>
+      <c r="AJ287">
+        <v>2.75</v>
+      </c>
+      <c r="AK287">
+        <v>1.58</v>
+      </c>
+      <c r="AL287">
+        <v>1.26</v>
+      </c>
+      <c r="AM287">
+        <v>1.48</v>
+      </c>
+      <c r="AN287">
+        <v>2.2</v>
+      </c>
+      <c r="AO287">
+        <v>2.07</v>
+      </c>
+      <c r="AP287">
+        <v>2.06</v>
+      </c>
+      <c r="AQ287">
+        <v>2.13</v>
+      </c>
+      <c r="AR287">
+        <v>1.9</v>
+      </c>
+      <c r="AS287">
+        <v>1.93</v>
+      </c>
+      <c r="AT287">
+        <v>3.83</v>
+      </c>
+      <c r="AU287">
+        <v>5</v>
+      </c>
+      <c r="AV287">
+        <v>11</v>
+      </c>
+      <c r="AW287">
+        <v>7</v>
+      </c>
+      <c r="AX287">
+        <v>14</v>
+      </c>
+      <c r="AY287">
+        <v>14</v>
+      </c>
+      <c r="AZ287">
+        <v>30</v>
+      </c>
+      <c r="BA287">
+        <v>1</v>
+      </c>
+      <c r="BB287">
+        <v>12</v>
+      </c>
+      <c r="BC287">
+        <v>13</v>
+      </c>
+      <c r="BD287">
+        <v>2.39</v>
+      </c>
+      <c r="BE287">
+        <v>6.5</v>
+      </c>
+      <c r="BF287">
+        <v>1.92</v>
+      </c>
+      <c r="BG287">
+        <v>1.26</v>
+      </c>
+      <c r="BH287">
+        <v>3.22</v>
+      </c>
+      <c r="BI287">
+        <v>1.51</v>
+      </c>
+      <c r="BJ287">
+        <v>2.32</v>
+      </c>
+      <c r="BK287">
+        <v>1.89</v>
+      </c>
+      <c r="BL287">
+        <v>1.81</v>
+      </c>
+      <c r="BM287">
+        <v>2.45</v>
+      </c>
+      <c r="BN287">
+        <v>1.46</v>
+      </c>
+      <c r="BO287">
+        <v>3.28</v>
+      </c>
+      <c r="BP287">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="288" spans="1:68">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>7466334</v>
+      </c>
+      <c r="C288" t="s">
+        <v>68</v>
+      </c>
+      <c r="D288" t="s">
+        <v>69</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45788.48958333334</v>
+      </c>
+      <c r="F288">
+        <v>32</v>
+      </c>
+      <c r="G288" t="s">
+        <v>82</v>
+      </c>
+      <c r="H288" t="s">
+        <v>70</v>
+      </c>
+      <c r="I288">
+        <v>2</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>2</v>
+      </c>
+      <c r="L288">
+        <v>3</v>
+      </c>
+      <c r="M288">
+        <v>0</v>
+      </c>
+      <c r="N288">
+        <v>3</v>
+      </c>
+      <c r="O288" t="s">
+        <v>283</v>
+      </c>
+      <c r="P288" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q288">
+        <v>2.1</v>
+      </c>
+      <c r="R288">
+        <v>2.3</v>
+      </c>
+      <c r="S288">
+        <v>5.5</v>
+      </c>
+      <c r="T288">
+        <v>1.36</v>
+      </c>
+      <c r="U288">
+        <v>3</v>
+      </c>
+      <c r="V288">
+        <v>2.63</v>
+      </c>
+      <c r="W288">
+        <v>1.44</v>
+      </c>
+      <c r="X288">
+        <v>7</v>
+      </c>
+      <c r="Y288">
+        <v>1.1</v>
+      </c>
+      <c r="Z288">
+        <v>1.58</v>
+      </c>
+      <c r="AA288">
+        <v>3.98</v>
+      </c>
+      <c r="AB288">
+        <v>5.4</v>
+      </c>
+      <c r="AC288">
+        <v>1.05</v>
+      </c>
+      <c r="AD288">
+        <v>9.5</v>
+      </c>
+      <c r="AE288">
+        <v>1.19</v>
+      </c>
+      <c r="AF288">
+        <v>3.88</v>
+      </c>
+      <c r="AG288">
+        <v>1.85</v>
+      </c>
+      <c r="AH288">
+        <v>1.89</v>
+      </c>
+      <c r="AI288">
+        <v>1.91</v>
+      </c>
+      <c r="AJ288">
+        <v>1.91</v>
+      </c>
+      <c r="AK288">
+        <v>1.15</v>
+      </c>
+      <c r="AL288">
+        <v>1.24</v>
+      </c>
+      <c r="AM288">
+        <v>2.33</v>
+      </c>
+      <c r="AN288">
+        <v>1.6</v>
+      </c>
+      <c r="AO288">
+        <v>0.6</v>
+      </c>
+      <c r="AP288">
+        <v>1.69</v>
+      </c>
+      <c r="AQ288">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR288">
+        <v>1.83</v>
+      </c>
+      <c r="AS288">
+        <v>1.13</v>
+      </c>
+      <c r="AT288">
+        <v>2.96</v>
+      </c>
+      <c r="AU288">
+        <v>13</v>
+      </c>
+      <c r="AV288">
+        <v>5</v>
+      </c>
+      <c r="AW288">
+        <v>7</v>
+      </c>
+      <c r="AX288">
+        <v>7</v>
+      </c>
+      <c r="AY288">
+        <v>22</v>
+      </c>
+      <c r="AZ288">
+        <v>15</v>
+      </c>
+      <c r="BA288">
+        <v>11</v>
+      </c>
+      <c r="BB288">
+        <v>4</v>
+      </c>
+      <c r="BC288">
+        <v>15</v>
+      </c>
+      <c r="BD288">
+        <v>1.3</v>
+      </c>
+      <c r="BE288">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF288">
+        <v>4.5</v>
+      </c>
+      <c r="BG288">
+        <v>1.36</v>
+      </c>
+      <c r="BH288">
+        <v>2.79</v>
+      </c>
+      <c r="BI288">
+        <v>1.67</v>
+      </c>
+      <c r="BJ288">
+        <v>2.07</v>
+      </c>
+      <c r="BK288">
+        <v>2.12</v>
+      </c>
+      <c r="BL288">
+        <v>1.61</v>
+      </c>
+      <c r="BM288">
+        <v>2.78</v>
+      </c>
+      <c r="BN288">
+        <v>1.34</v>
+      </c>
+      <c r="BO288">
+        <v>3.92</v>
+      </c>
+      <c r="BP288">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="289" spans="1:68">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>7466332</v>
+      </c>
+      <c r="C289" t="s">
+        <v>68</v>
+      </c>
+      <c r="D289" t="s">
+        <v>69</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45788.48958333334</v>
+      </c>
+      <c r="F289">
+        <v>32</v>
+      </c>
+      <c r="G289" t="s">
+        <v>78</v>
+      </c>
+      <c r="H289" t="s">
+        <v>72</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>0</v>
+      </c>
+      <c r="L289">
+        <v>0</v>
+      </c>
+      <c r="M289">
+        <v>3</v>
+      </c>
+      <c r="N289">
+        <v>3</v>
+      </c>
+      <c r="O289" t="s">
+        <v>91</v>
+      </c>
+      <c r="P289" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q289">
+        <v>1.67</v>
+      </c>
+      <c r="R289">
+        <v>2.75</v>
+      </c>
+      <c r="S289">
+        <v>7.5</v>
+      </c>
+      <c r="T289">
+        <v>1.25</v>
+      </c>
+      <c r="U289">
+        <v>3.75</v>
+      </c>
+      <c r="V289">
+        <v>2.1</v>
+      </c>
+      <c r="W289">
+        <v>1.67</v>
+      </c>
+      <c r="X289">
+        <v>4.5</v>
+      </c>
+      <c r="Y289">
+        <v>1.18</v>
+      </c>
+      <c r="Z289">
+        <v>1.36</v>
+      </c>
+      <c r="AA289">
+        <v>5</v>
+      </c>
+      <c r="AB289">
+        <v>7.3</v>
+      </c>
+      <c r="AC289">
+        <v>1.01</v>
+      </c>
+      <c r="AD289">
+        <v>17</v>
+      </c>
+      <c r="AE289">
+        <v>1.08</v>
+      </c>
+      <c r="AF289">
+        <v>5.5</v>
+      </c>
+      <c r="AG289">
+        <v>1.49</v>
+      </c>
+      <c r="AH289">
+        <v>2.51</v>
+      </c>
+      <c r="AI289">
+        <v>1.8</v>
+      </c>
+      <c r="AJ289">
+        <v>1.95</v>
+      </c>
+      <c r="AK289">
+        <v>1.05</v>
+      </c>
+      <c r="AL289">
+        <v>1.14</v>
+      </c>
+      <c r="AM289">
+        <v>3.58</v>
+      </c>
+      <c r="AN289">
+        <v>2.6</v>
+      </c>
+      <c r="AO289">
+        <v>0.87</v>
+      </c>
+      <c r="AP289">
+        <v>2.44</v>
+      </c>
+      <c r="AQ289">
+        <v>1</v>
+      </c>
+      <c r="AR289">
+        <v>1.86</v>
+      </c>
+      <c r="AS289">
+        <v>1.25</v>
+      </c>
+      <c r="AT289">
+        <v>3.11</v>
+      </c>
+      <c r="AU289">
+        <v>7</v>
+      </c>
+      <c r="AV289">
+        <v>7</v>
+      </c>
+      <c r="AW289">
+        <v>17</v>
+      </c>
+      <c r="AX289">
+        <v>3</v>
+      </c>
+      <c r="AY289">
+        <v>24</v>
+      </c>
+      <c r="AZ289">
+        <v>11</v>
+      </c>
+      <c r="BA289">
+        <v>8</v>
+      </c>
+      <c r="BB289">
+        <v>1</v>
+      </c>
+      <c r="BC289">
+        <v>9</v>
+      </c>
+      <c r="BD289">
+        <v>1.13</v>
+      </c>
+      <c r="BE289">
+        <v>13.25</v>
+      </c>
+      <c r="BF289">
+        <v>7.7</v>
+      </c>
+      <c r="BG289">
+        <v>1.22</v>
+      </c>
+      <c r="BH289">
+        <v>3.5</v>
+      </c>
+      <c r="BI289">
+        <v>1.44</v>
+      </c>
+      <c r="BJ289">
+        <v>2.51</v>
+      </c>
+      <c r="BK289">
+        <v>1.78</v>
+      </c>
+      <c r="BL289">
+        <v>1.93</v>
+      </c>
+      <c r="BM289">
+        <v>2.23</v>
+      </c>
+      <c r="BN289">
+        <v>1.55</v>
+      </c>
+      <c r="BO289">
+        <v>2.97</v>
+      </c>
+      <c r="BP289">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
@@ -1231,7 +1231,7 @@
     <t>['16', '66']</t>
   </si>
   <si>
-    <t>['57', '68', '90']</t>
+    <t>['57', '68', '89']</t>
   </si>
   <si>
     <t>['50', '73', '90+9']</t>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
@@ -59843,16 +59843,16 @@
         <v>5</v>
       </c>
       <c r="AW283">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY283">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ283">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA283">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
@@ -60885,13 +60885,13 @@
         <v>15</v>
       </c>
       <c r="BA288">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB288">
         <v>4</v>
       </c>
       <c r="BC288">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD288">
         <v>1.3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="417">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -868,6 +868,27 @@
     <t>['9', '30', '48']</t>
   </si>
   <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['18', '21', '35', '40']</t>
+  </si>
+  <si>
+    <t>['31', '67', '70']</t>
+  </si>
+  <si>
+    <t>['13', '23']</t>
+  </si>
+  <si>
+    <t>['52', '90+9']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['45+4', '69']</t>
+  </si>
+  <si>
     <t>['8', '54']</t>
   </si>
   <si>
@@ -1147,9 +1168,6 @@
     <t>['9', '32']</t>
   </si>
   <si>
-    <t>['72']</t>
-  </si>
-  <si>
     <t>['67', '75', '85']</t>
   </si>
   <si>
@@ -1238,6 +1256,15 @@
   </si>
   <si>
     <t>['59', '67', '82']</t>
+  </si>
+  <si>
+    <t>['26', '79']</t>
+  </si>
+  <si>
+    <t>['3', '45+1', '71']</t>
+  </si>
+  <si>
+    <t>['27', '68']</t>
   </si>
 </sst>
 </file>
@@ -1599,7 +1626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP289"/>
+  <dimension ref="A1:BP297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1936,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ2">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2142,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ3">
         <v>0.8100000000000001</v>
@@ -2270,7 +2297,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2348,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ4">
         <v>1.25</v>
@@ -2554,10 +2581,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ5">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2682,7 +2709,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -2760,10 +2787,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ6">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2969,7 +2996,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ7">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3175,7 +3202,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ8">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3300,7 +3327,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3378,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>0.9399999999999999</v>
@@ -3587,7 +3614,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ10">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4202,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
         <v>1.25</v>
@@ -4536,7 +4563,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4742,7 +4769,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4948,7 +4975,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -5232,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ18">
         <v>1.06</v>
@@ -5441,7 +5468,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ19">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5644,10 +5671,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ20">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR20">
         <v>1.11</v>
@@ -5772,7 +5799,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -5850,7 +5877,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ21">
         <v>2.13</v>
@@ -5978,7 +6005,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -6262,10 +6289,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ23">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -6880,10 +6907,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR26">
         <v>1.73</v>
@@ -7008,7 +7035,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -7089,7 +7116,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ27">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR27">
         <v>1.81</v>
@@ -7292,7 +7319,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ28">
         <v>0.5600000000000001</v>
@@ -7420,7 +7447,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7707,7 +7734,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ30">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR30">
         <v>2.4</v>
@@ -7832,7 +7859,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7910,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ31">
         <v>1.25</v>
@@ -8325,7 +8352,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ33">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR33">
         <v>0.7</v>
@@ -8528,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ34">
         <v>1.06</v>
@@ -8734,7 +8761,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8940,10 +8967,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR36">
         <v>1.72</v>
@@ -9068,7 +9095,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -9146,7 +9173,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ37">
         <v>2</v>
@@ -9561,7 +9588,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ39">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR39">
         <v>1.82</v>
@@ -9686,7 +9713,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -9970,10 +9997,10 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ41">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR41">
         <v>1.08</v>
@@ -10382,10 +10409,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR43">
         <v>2.19</v>
@@ -10716,7 +10743,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10797,7 +10824,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ45">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR45">
         <v>1.06</v>
@@ -10922,7 +10949,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -11128,7 +11155,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -11334,7 +11361,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -11412,10 +11439,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR48">
         <v>1.91</v>
@@ -11540,7 +11567,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -11618,10 +11645,10 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ49">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR49">
         <v>1.18</v>
@@ -11746,7 +11773,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11952,7 +11979,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -12030,7 +12057,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ51">
         <v>1.25</v>
@@ -12236,10 +12263,10 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ52">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR52">
         <v>2.23</v>
@@ -12364,7 +12391,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -12651,7 +12678,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ54">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR54">
         <v>1.37</v>
@@ -12776,7 +12803,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -12854,7 +12881,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ55">
         <v>2.13</v>
@@ -12982,7 +13009,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -13060,7 +13087,7 @@
         <v>1.67</v>
       </c>
       <c r="AP56">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ56">
         <v>2</v>
@@ -13678,10 +13705,10 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ59">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR59">
         <v>2.11</v>
@@ -13884,7 +13911,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ60">
         <v>1.06</v>
@@ -14012,7 +14039,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -14093,7 +14120,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ61">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR61">
         <v>1.5</v>
@@ -14218,7 +14245,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -14502,7 +14529,7 @@
         <v>0.67</v>
       </c>
       <c r="AP63">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ63">
         <v>0.8100000000000001</v>
@@ -14914,7 +14941,7 @@
         <v>2.33</v>
       </c>
       <c r="AP65">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ65">
         <v>1.25</v>
@@ -15042,7 +15069,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -15123,7 +15150,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ66">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR66">
         <v>1.08</v>
@@ -15326,10 +15353,10 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ67">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR67">
         <v>1.65</v>
@@ -15532,7 +15559,7 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ68">
         <v>1.25</v>
@@ -15741,7 +15768,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ69">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR69">
         <v>2.09</v>
@@ -15866,7 +15893,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -16153,7 +16180,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ71">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR71">
         <v>1.43</v>
@@ -16278,7 +16305,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -16484,7 +16511,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -16768,10 +16795,10 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ74">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR74">
         <v>1.44</v>
@@ -17102,7 +17129,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17180,7 +17207,7 @@
         <v>1.5</v>
       </c>
       <c r="AP76">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ76">
         <v>2</v>
@@ -17386,7 +17413,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ77">
         <v>0.9399999999999999</v>
@@ -17592,7 +17619,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ78">
         <v>2.06</v>
@@ -17720,7 +17747,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q79">
         <v>6.5</v>
@@ -17801,7 +17828,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ79">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR79">
         <v>1.54</v>
@@ -17926,7 +17953,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q80">
         <v>2.6</v>
@@ -18007,7 +18034,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ80">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR80">
         <v>1.12</v>
@@ -18210,7 +18237,7 @@
         <v>0.75</v>
       </c>
       <c r="AP81">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -18622,10 +18649,10 @@
         <v>0.5</v>
       </c>
       <c r="AP83">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ83">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR83">
         <v>2.49</v>
@@ -18750,7 +18777,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q84">
         <v>2.6</v>
@@ -18831,7 +18858,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ84">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR84">
         <v>1.12</v>
@@ -19162,7 +19189,7 @@
         <v>91</v>
       </c>
       <c r="P86" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19446,10 +19473,10 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ87">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR87">
         <v>1.97</v>
@@ -19780,7 +19807,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19986,7 +20013,7 @@
         <v>91</v>
       </c>
       <c r="P90" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -20064,10 +20091,10 @@
         <v>1.75</v>
       </c>
       <c r="AP90">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ90">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR90">
         <v>1.77</v>
@@ -20270,7 +20297,7 @@
         <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ91">
         <v>1.25</v>
@@ -20479,7 +20506,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ92">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR92">
         <v>1.39</v>
@@ -20604,7 +20631,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20810,7 +20837,7 @@
         <v>156</v>
       </c>
       <c r="P94" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="Q94">
         <v>2.05</v>
@@ -20888,10 +20915,10 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ94">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR94">
         <v>1.67</v>
@@ -21097,7 +21124,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ95">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR95">
         <v>1.29</v>
@@ -21222,7 +21249,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="Q96">
         <v>2.2</v>
@@ -21300,10 +21327,10 @@
         <v>0.4</v>
       </c>
       <c r="AP96">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ96">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR96">
         <v>1.62</v>
@@ -21506,7 +21533,7 @@
         <v>0.8</v>
       </c>
       <c r="AP97">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ97">
         <v>0.5600000000000001</v>
@@ -21634,7 +21661,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Q98">
         <v>3.1</v>
@@ -22127,7 +22154,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ100">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR100">
         <v>1.37</v>
@@ -22330,7 +22357,7 @@
         <v>1.4</v>
       </c>
       <c r="AP101">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ101">
         <v>1.25</v>
@@ -22664,7 +22691,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="Q103">
         <v>7.5</v>
@@ -22870,7 +22897,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -23076,7 +23103,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Q105">
         <v>8.5</v>
@@ -23154,7 +23181,7 @@
         <v>2</v>
       </c>
       <c r="AP105">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ105">
         <v>2</v>
@@ -23282,7 +23309,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="Q106">
         <v>3.1</v>
@@ -23360,10 +23387,10 @@
         <v>2</v>
       </c>
       <c r="AP106">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ106">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR106">
         <v>2.03</v>
@@ -23694,7 +23721,7 @@
         <v>115</v>
       </c>
       <c r="P108" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Q108">
         <v>1.95</v>
@@ -23978,7 +24005,7 @@
         <v>0.4</v>
       </c>
       <c r="AP109">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ109">
         <v>0.63</v>
@@ -24184,10 +24211,10 @@
         <v>0</v>
       </c>
       <c r="AP110">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ110">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR110">
         <v>1.62</v>
@@ -24312,7 +24339,7 @@
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24393,7 +24420,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ111">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR111">
         <v>1.37</v>
@@ -24596,7 +24623,7 @@
         <v>0.67</v>
       </c>
       <c r="AP112">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ112">
         <v>0.5600000000000001</v>
@@ -24724,7 +24751,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q113">
         <v>4.75</v>
@@ -24930,7 +24957,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25008,7 +25035,7 @@
         <v>2.6</v>
       </c>
       <c r="AP114">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ114">
         <v>2.06</v>
@@ -25136,7 +25163,7 @@
         <v>93</v>
       </c>
       <c r="P115" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25217,7 +25244,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ115">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR115">
         <v>1.6</v>
@@ -25342,7 +25369,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25420,10 +25447,10 @@
         <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ116">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR116">
         <v>1.02</v>
@@ -25629,7 +25656,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ117">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR117">
         <v>2.01</v>
@@ -25835,7 +25862,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ118">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR118">
         <v>1.65</v>
@@ -26244,7 +26271,7 @@
         <v>1.33</v>
       </c>
       <c r="AP120">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ120">
         <v>0.8100000000000001</v>
@@ -26450,7 +26477,7 @@
         <v>0.83</v>
       </c>
       <c r="AP121">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ121">
         <v>0.9399999999999999</v>
@@ -26784,7 +26811,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -26990,7 +27017,7 @@
         <v>179</v>
       </c>
       <c r="P124" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="Q124">
         <v>2.2</v>
@@ -27068,7 +27095,7 @@
         <v>1.17</v>
       </c>
       <c r="AP124">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ124">
         <v>1.06</v>
@@ -27277,7 +27304,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ125">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR125">
         <v>1.92</v>
@@ -27402,7 +27429,7 @@
         <v>180</v>
       </c>
       <c r="P126" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="Q126">
         <v>4.75</v>
@@ -27480,10 +27507,10 @@
         <v>1.83</v>
       </c>
       <c r="AP126">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ126">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR126">
         <v>1.45</v>
@@ -27608,7 +27635,7 @@
         <v>181</v>
       </c>
       <c r="P127" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Q127">
         <v>2.2</v>
@@ -27892,7 +27919,7 @@
         <v>1.86</v>
       </c>
       <c r="AP128">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ128">
         <v>1.25</v>
@@ -28098,7 +28125,7 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ129">
         <v>1</v>
@@ -28226,7 +28253,7 @@
         <v>91</v>
       </c>
       <c r="P130" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="Q130">
         <v>2.6</v>
@@ -28307,7 +28334,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ130">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR130">
         <v>1.55</v>
@@ -28432,7 +28459,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="Q131">
         <v>8</v>
@@ -28638,7 +28665,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="Q132">
         <v>3.25</v>
@@ -28922,10 +28949,10 @@
         <v>0.43</v>
       </c>
       <c r="AP133">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ133">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR133">
         <v>1.23</v>
@@ -29050,7 +29077,7 @@
         <v>98</v>
       </c>
       <c r="P134" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="Q134">
         <v>3.2</v>
@@ -29128,10 +29155,10 @@
         <v>0</v>
       </c>
       <c r="AP134">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ134">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR134">
         <v>1.12</v>
@@ -29337,7 +29364,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ135">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR135">
         <v>1.92</v>
@@ -29462,7 +29489,7 @@
         <v>147</v>
       </c>
       <c r="P136" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="Q136">
         <v>4.75</v>
@@ -29540,7 +29567,7 @@
         <v>2.43</v>
       </c>
       <c r="AP136">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ136">
         <v>2.06</v>
@@ -30080,7 +30107,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="Q139">
         <v>2.2</v>
@@ -30161,7 +30188,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ139">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR139">
         <v>1.21</v>
@@ -30286,7 +30313,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="Q140">
         <v>1.57</v>
@@ -30364,10 +30391,10 @@
         <v>0.57</v>
       </c>
       <c r="AP140">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ140">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR140">
         <v>1.81</v>
@@ -30492,7 +30519,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="Q141">
         <v>2.6</v>
@@ -30776,7 +30803,7 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ142">
         <v>1.25</v>
@@ -30982,7 +31009,7 @@
         <v>0.57</v>
       </c>
       <c r="AP143">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ143">
         <v>0.5600000000000001</v>
@@ -31316,7 +31343,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31397,7 +31424,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ145">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR145">
         <v>1.32</v>
@@ -31603,7 +31630,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ146">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR146">
         <v>1.16</v>
@@ -31806,10 +31833,10 @@
         <v>0.88</v>
       </c>
       <c r="AP147">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ147">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR147">
         <v>1.7</v>
@@ -32012,10 +32039,10 @@
         <v>0.38</v>
       </c>
       <c r="AP148">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ148">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR148">
         <v>1.21</v>
@@ -32346,7 +32373,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32427,7 +32454,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ150">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR150">
         <v>1.58</v>
@@ -32630,7 +32657,7 @@
         <v>2.25</v>
       </c>
       <c r="AP151">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ151">
         <v>2</v>
@@ -32758,7 +32785,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="Q152">
         <v>2.25</v>
@@ -33042,7 +33069,7 @@
         <v>0.86</v>
       </c>
       <c r="AP153">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ153">
         <v>1</v>
@@ -33170,7 +33197,7 @@
         <v>91</v>
       </c>
       <c r="P154" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="Q154">
         <v>3.5</v>
@@ -33663,7 +33690,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ156">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR156">
         <v>1.73</v>
@@ -33788,7 +33815,7 @@
         <v>91</v>
       </c>
       <c r="P157" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="Q157">
         <v>3.25</v>
@@ -33994,7 +34021,7 @@
         <v>199</v>
       </c>
       <c r="P158" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="Q158">
         <v>1.83</v>
@@ -34072,10 +34099,10 @@
         <v>2</v>
       </c>
       <c r="AP158">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ158">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR158">
         <v>2.37</v>
@@ -34200,7 +34227,7 @@
         <v>200</v>
       </c>
       <c r="P159" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="Q159">
         <v>2</v>
@@ -34278,7 +34305,7 @@
         <v>1.38</v>
       </c>
       <c r="AP159">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ159">
         <v>0.8100000000000001</v>
@@ -34484,7 +34511,7 @@
         <v>0.25</v>
       </c>
       <c r="AP160">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ160">
         <v>0.63</v>
@@ -34612,7 +34639,7 @@
         <v>134</v>
       </c>
       <c r="P161" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="Q161">
         <v>2</v>
@@ -34690,7 +34717,7 @@
         <v>2.5</v>
       </c>
       <c r="AP161">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ161">
         <v>2.06</v>
@@ -34818,7 +34845,7 @@
         <v>201</v>
       </c>
       <c r="P162" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="Q162">
         <v>2.75</v>
@@ -34899,7 +34926,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ162">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR162">
         <v>1.26</v>
@@ -35024,7 +35051,7 @@
         <v>202</v>
       </c>
       <c r="P163" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="Q163">
         <v>8</v>
@@ -35311,7 +35338,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ164">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR164">
         <v>1.55</v>
@@ -35436,7 +35463,7 @@
         <v>132</v>
       </c>
       <c r="P165" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -35514,7 +35541,7 @@
         <v>2</v>
       </c>
       <c r="AP165">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ165">
         <v>2</v>
@@ -35720,7 +35747,7 @@
         <v>0.5</v>
       </c>
       <c r="AP166">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ166">
         <v>0.5600000000000001</v>
@@ -35848,7 +35875,7 @@
         <v>204</v>
       </c>
       <c r="P167" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -36054,7 +36081,7 @@
         <v>91</v>
       </c>
       <c r="P168" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="Q168">
         <v>3.1</v>
@@ -36132,10 +36159,10 @@
         <v>0.5</v>
       </c>
       <c r="AP168">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ168">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR168">
         <v>1.26</v>
@@ -36260,7 +36287,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -36341,7 +36368,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ169">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR169">
         <v>1.56</v>
@@ -36466,7 +36493,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36544,7 +36571,7 @@
         <v>1.11</v>
       </c>
       <c r="AP170">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ170">
         <v>0.9399999999999999</v>
@@ -36753,7 +36780,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ171">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR171">
         <v>1.53</v>
@@ -37084,7 +37111,7 @@
         <v>207</v>
       </c>
       <c r="P173" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="Q173">
         <v>1.4</v>
@@ -37162,10 +37189,10 @@
         <v>0.78</v>
       </c>
       <c r="AP173">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ173">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR173">
         <v>2.35</v>
@@ -37368,10 +37395,10 @@
         <v>0.6</v>
       </c>
       <c r="AP174">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ174">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR174">
         <v>1.36</v>
@@ -37496,7 +37523,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="Q175">
         <v>2.75</v>
@@ -37577,7 +37604,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ175">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR175">
         <v>1.34</v>
@@ -37908,7 +37935,7 @@
         <v>210</v>
       </c>
       <c r="P177" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="Q177">
         <v>2.1</v>
@@ -38114,7 +38141,7 @@
         <v>211</v>
       </c>
       <c r="P178" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38401,7 +38428,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ179">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR179">
         <v>1.35</v>
@@ -38526,7 +38553,7 @@
         <v>213</v>
       </c>
       <c r="P180" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="Q180">
         <v>3.6</v>
@@ -38732,7 +38759,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="Q181">
         <v>2.75</v>
@@ -38938,7 +38965,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="Q182">
         <v>5.5</v>
@@ -39016,7 +39043,7 @@
         <v>2.1</v>
       </c>
       <c r="AP182">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ182">
         <v>2.13</v>
@@ -39144,7 +39171,7 @@
         <v>216</v>
       </c>
       <c r="P183" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="Q183">
         <v>2.88</v>
@@ -39222,10 +39249,10 @@
         <v>0.3</v>
       </c>
       <c r="AP183">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ183">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR183">
         <v>1.31</v>
@@ -39556,7 +39583,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="Q185">
         <v>3.1</v>
@@ -39634,7 +39661,7 @@
         <v>1.3</v>
       </c>
       <c r="AP185">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ185">
         <v>1.25</v>
@@ -39968,7 +39995,7 @@
         <v>91</v>
       </c>
       <c r="P187" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="Q187">
         <v>4.75</v>
@@ -40046,10 +40073,10 @@
         <v>1.8</v>
       </c>
       <c r="AP187">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ187">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR187">
         <v>1.16</v>
@@ -40174,7 +40201,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="Q188">
         <v>3.75</v>
@@ -40458,7 +40485,7 @@
         <v>1.1</v>
       </c>
       <c r="AP189">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ189">
         <v>0.8100000000000001</v>
@@ -40664,7 +40691,7 @@
         <v>1</v>
       </c>
       <c r="AP190">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ190">
         <v>1</v>
@@ -40870,7 +40897,7 @@
         <v>1.2</v>
       </c>
       <c r="AP191">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ191">
         <v>1.25</v>
@@ -41285,7 +41312,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ193">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR193">
         <v>1.22</v>
@@ -41410,7 +41437,7 @@
         <v>91</v>
       </c>
       <c r="P194" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="Q194">
         <v>5.5</v>
@@ -41491,7 +41518,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ194">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR194">
         <v>1.36</v>
@@ -41697,7 +41724,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ195">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR195">
         <v>1.82</v>
@@ -41822,7 +41849,7 @@
         <v>225</v>
       </c>
       <c r="P196" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="Q196">
         <v>4</v>
@@ -42106,7 +42133,7 @@
         <v>1.09</v>
       </c>
       <c r="AP197">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ197">
         <v>1.25</v>
@@ -42234,7 +42261,7 @@
         <v>226</v>
       </c>
       <c r="P198" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="Q198">
         <v>1.8</v>
@@ -42312,7 +42339,7 @@
         <v>2.27</v>
       </c>
       <c r="AP198">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ198">
         <v>2.06</v>
@@ -42646,7 +42673,7 @@
         <v>227</v>
       </c>
       <c r="P200" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="Q200">
         <v>3.25</v>
@@ -42724,7 +42751,7 @@
         <v>0.45</v>
       </c>
       <c r="AP200">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ200">
         <v>0.5600000000000001</v>
@@ -42852,7 +42879,7 @@
         <v>228</v>
       </c>
       <c r="P201" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="Q201">
         <v>2.1</v>
@@ -42930,7 +42957,7 @@
         <v>0.6</v>
       </c>
       <c r="AP201">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ201">
         <v>0.63</v>
@@ -43139,7 +43166,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ202">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR202">
         <v>1.27</v>
@@ -43342,10 +43369,10 @@
         <v>0.55</v>
       </c>
       <c r="AP203">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ203">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR203">
         <v>2.08</v>
@@ -43551,7 +43578,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ204">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR204">
         <v>1.82</v>
@@ -43754,7 +43781,7 @@
         <v>0.64</v>
       </c>
       <c r="AP205">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ205">
         <v>0.63</v>
@@ -44166,7 +44193,7 @@
         <v>0.9</v>
       </c>
       <c r="AP207">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ207">
         <v>1</v>
@@ -44500,7 +44527,7 @@
         <v>160</v>
       </c>
       <c r="P209" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="Q209">
         <v>2.6</v>
@@ -44787,7 +44814,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ210">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR210">
         <v>1.55</v>
@@ -44912,7 +44939,7 @@
         <v>237</v>
       </c>
       <c r="P211" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="Q211">
         <v>4.75</v>
@@ -44990,7 +45017,7 @@
         <v>2</v>
       </c>
       <c r="AP211">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ211">
         <v>2.13</v>
@@ -45118,7 +45145,7 @@
         <v>128</v>
       </c>
       <c r="P212" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="Q212">
         <v>4.33</v>
@@ -45196,7 +45223,7 @@
         <v>1.25</v>
       </c>
       <c r="AP212">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ212">
         <v>1.25</v>
@@ -45402,7 +45429,7 @@
         <v>0.82</v>
       </c>
       <c r="AP213">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ213">
         <v>1</v>
@@ -45611,7 +45638,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ214">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR214">
         <v>1.72</v>
@@ -45736,7 +45763,7 @@
         <v>239</v>
       </c>
       <c r="P215" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="Q215">
         <v>2.75</v>
@@ -45817,7 +45844,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ215">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR215">
         <v>1.42</v>
@@ -46020,10 +46047,10 @@
         <v>2.09</v>
       </c>
       <c r="AP216">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ216">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR216">
         <v>1.35</v>
@@ -46641,7 +46668,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ219">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR219">
         <v>1.35</v>
@@ -46766,7 +46793,7 @@
         <v>241</v>
       </c>
       <c r="P220" t="s">
-        <v>377</v>
+        <v>284</v>
       </c>
       <c r="Q220">
         <v>1.62</v>
@@ -46844,10 +46871,10 @@
         <v>0.58</v>
       </c>
       <c r="AP220">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ220">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR220">
         <v>2.5</v>
@@ -46972,7 +46999,7 @@
         <v>242</v>
       </c>
       <c r="P221" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="Q221">
         <v>4.33</v>
@@ -47050,7 +47077,7 @@
         <v>2.17</v>
       </c>
       <c r="AP221">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ221">
         <v>2.06</v>
@@ -47178,7 +47205,7 @@
         <v>91</v>
       </c>
       <c r="P222" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="Q222">
         <v>5</v>
@@ -47259,7 +47286,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ222">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR222">
         <v>1.26</v>
@@ -47384,7 +47411,7 @@
         <v>243</v>
       </c>
       <c r="P223" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="Q223">
         <v>2.75</v>
@@ -47462,7 +47489,7 @@
         <v>1</v>
       </c>
       <c r="AP223">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ223">
         <v>1.06</v>
@@ -47668,7 +47695,7 @@
         <v>0.58</v>
       </c>
       <c r="AP224">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ224">
         <v>0.63</v>
@@ -47874,10 +47901,10 @@
         <v>0.58</v>
       </c>
       <c r="AP225">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ225">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR225">
         <v>1.36</v>
@@ -48289,7 +48316,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ227">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR227">
         <v>1.66</v>
@@ -48414,7 +48441,7 @@
         <v>91</v>
       </c>
       <c r="P228" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="Q228">
         <v>8</v>
@@ -48701,7 +48728,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ229">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR229">
         <v>1.69</v>
@@ -48904,7 +48931,7 @@
         <v>1</v>
       </c>
       <c r="AP230">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ230">
         <v>0.8100000000000001</v>
@@ -49110,7 +49137,7 @@
         <v>1.08</v>
       </c>
       <c r="AP231">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ231">
         <v>0.9399999999999999</v>
@@ -49238,7 +49265,7 @@
         <v>248</v>
       </c>
       <c r="P232" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="Q232">
         <v>2.88</v>
@@ -49316,7 +49343,7 @@
         <v>1.67</v>
       </c>
       <c r="AP232">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ232">
         <v>2</v>
@@ -49444,7 +49471,7 @@
         <v>249</v>
       </c>
       <c r="P233" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q233">
         <v>2.5</v>
@@ -49525,7 +49552,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ233">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR233">
         <v>1.84</v>
@@ -49856,7 +49883,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="Q235">
         <v>2.88</v>
@@ -49934,7 +49961,7 @@
         <v>0.54</v>
       </c>
       <c r="AP235">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ235">
         <v>0.63</v>
@@ -50062,7 +50089,7 @@
         <v>91</v>
       </c>
       <c r="P236" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="Q236">
         <v>3.75</v>
@@ -50349,7 +50376,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ237">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR237">
         <v>1.26</v>
@@ -50474,7 +50501,7 @@
         <v>252</v>
       </c>
       <c r="P238" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="Q238">
         <v>3.75</v>
@@ -50552,10 +50579,10 @@
         <v>1.69</v>
       </c>
       <c r="AP238">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ238">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR238">
         <v>1.54</v>
@@ -50761,7 +50788,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ239">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR239">
         <v>1.62</v>
@@ -50886,7 +50913,7 @@
         <v>91</v>
       </c>
       <c r="P240" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="Q240">
         <v>2.2</v>
@@ -50964,10 +50991,10 @@
         <v>2.23</v>
       </c>
       <c r="AP240">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ240">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR240">
         <v>2.54</v>
@@ -51298,7 +51325,7 @@
         <v>255</v>
       </c>
       <c r="P242" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="Q242">
         <v>1.91</v>
@@ -51376,7 +51403,7 @@
         <v>1.17</v>
       </c>
       <c r="AP242">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ242">
         <v>1.06</v>
@@ -51504,7 +51531,7 @@
         <v>256</v>
       </c>
       <c r="P243" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="Q243">
         <v>1.8</v>
@@ -51585,7 +51612,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ243">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR243">
         <v>1.8</v>
@@ -51788,7 +51815,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP244">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ244">
         <v>0.5600000000000001</v>
@@ -52406,7 +52433,7 @@
         <v>1</v>
       </c>
       <c r="AP247">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ247">
         <v>0.9399999999999999</v>
@@ -52534,7 +52561,7 @@
         <v>106</v>
       </c>
       <c r="P248" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="Q248">
         <v>6.5</v>
@@ -52612,7 +52639,7 @@
         <v>1.92</v>
       </c>
       <c r="AP248">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ248">
         <v>2.13</v>
@@ -52740,7 +52767,7 @@
         <v>259</v>
       </c>
       <c r="P249" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="Q249">
         <v>2.88</v>
@@ -52818,10 +52845,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP249">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ249">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR249">
         <v>1.41</v>
@@ -53027,7 +53054,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ250">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR250">
         <v>1.3</v>
@@ -53152,7 +53179,7 @@
         <v>260</v>
       </c>
       <c r="P251" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="Q251">
         <v>2.63</v>
@@ -53230,7 +53257,7 @@
         <v>2.23</v>
       </c>
       <c r="AP251">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ251">
         <v>2.06</v>
@@ -53564,7 +53591,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q253">
         <v>1.67</v>
@@ -53645,7 +53672,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ253">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR253">
         <v>1.82</v>
@@ -53848,10 +53875,10 @@
         <v>0.5</v>
       </c>
       <c r="AP254">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ254">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR254">
         <v>1.54</v>
@@ -53976,7 +54003,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="Q255">
         <v>6</v>
@@ -54182,7 +54209,7 @@
         <v>264</v>
       </c>
       <c r="P256" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="Q256">
         <v>2.5</v>
@@ -54263,7 +54290,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ256">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR256">
         <v>1.63</v>
@@ -54466,7 +54493,7 @@
         <v>0.71</v>
       </c>
       <c r="AP257">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ257">
         <v>0.63</v>
@@ -54594,7 +54621,7 @@
         <v>266</v>
       </c>
       <c r="P258" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="Q258">
         <v>3.5</v>
@@ -55087,7 +55114,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ260">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR260">
         <v>1.4</v>
@@ -55418,7 +55445,7 @@
         <v>269</v>
       </c>
       <c r="P262" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="Q262">
         <v>7.5</v>
@@ -55496,10 +55523,10 @@
         <v>2.29</v>
       </c>
       <c r="AP262">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ262">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR262">
         <v>1.27</v>
@@ -55624,7 +55651,7 @@
         <v>270</v>
       </c>
       <c r="P263" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q263">
         <v>2.25</v>
@@ -55911,7 +55938,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ264">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AR264">
         <v>1.6</v>
@@ -56114,10 +56141,10 @@
         <v>0.71</v>
       </c>
       <c r="AP265">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ265">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR265">
         <v>1.42</v>
@@ -56323,7 +56350,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ266">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR266">
         <v>1.79</v>
@@ -56448,7 +56475,7 @@
         <v>274</v>
       </c>
       <c r="P267" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="Q267">
         <v>4</v>
@@ -56526,7 +56553,7 @@
         <v>2</v>
       </c>
       <c r="AP267">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ267">
         <v>2.13</v>
@@ -56654,7 +56681,7 @@
         <v>91</v>
       </c>
       <c r="P268" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="Q268">
         <v>3.75</v>
@@ -56938,10 +56965,10 @@
         <v>0.71</v>
       </c>
       <c r="AP269">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ269">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR269">
         <v>1.93</v>
@@ -57478,7 +57505,7 @@
         <v>273</v>
       </c>
       <c r="P272" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="Q272">
         <v>1.95</v>
@@ -57762,7 +57789,7 @@
         <v>1.07</v>
       </c>
       <c r="AP273">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ273">
         <v>1.06</v>
@@ -57968,7 +57995,7 @@
         <v>0.8</v>
       </c>
       <c r="AP274">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ274">
         <v>0.8100000000000001</v>
@@ -58096,7 +58123,7 @@
         <v>187</v>
       </c>
       <c r="P275" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="Q275">
         <v>5.5</v>
@@ -58380,10 +58407,10 @@
         <v>0.47</v>
       </c>
       <c r="AP276">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ276">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR276">
         <v>1.43</v>
@@ -58586,7 +58613,7 @@
         <v>1</v>
       </c>
       <c r="AP277">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ277">
         <v>0.9399999999999999</v>
@@ -58714,7 +58741,7 @@
         <v>278</v>
       </c>
       <c r="P278" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="Q278">
         <v>2.88</v>
@@ -58795,7 +58822,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ278">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR278">
         <v>1.5</v>
@@ -58920,7 +58947,7 @@
         <v>91</v>
       </c>
       <c r="P279" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="Q279">
         <v>3.1</v>
@@ -59126,7 +59153,7 @@
         <v>91</v>
       </c>
       <c r="P280" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="Q280">
         <v>3.1</v>
@@ -59204,10 +59231,10 @@
         <v>1.53</v>
       </c>
       <c r="AP280">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ280">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR280">
         <v>1.7</v>
@@ -59332,7 +59359,7 @@
         <v>245</v>
       </c>
       <c r="P281" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="Q281">
         <v>3.1</v>
@@ -59410,10 +59437,10 @@
         <v>0.67</v>
       </c>
       <c r="AP281">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AQ281">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR281">
         <v>1.22</v>
@@ -59619,7 +59646,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ282">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AR282">
         <v>1.31</v>
@@ -59825,7 +59852,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ283">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR283">
         <v>1.38</v>
@@ -59950,7 +59977,7 @@
         <v>91</v>
       </c>
       <c r="P284" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="Q284">
         <v>3.25</v>
@@ -60028,7 +60055,7 @@
         <v>1.13</v>
       </c>
       <c r="AP284">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AQ284">
         <v>1.25</v>
@@ -60440,7 +60467,7 @@
         <v>2.2</v>
       </c>
       <c r="AP286">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ286">
         <v>2.06</v>
@@ -60568,7 +60595,7 @@
         <v>282</v>
       </c>
       <c r="P287" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="Q287">
         <v>3.1</v>
@@ -60646,7 +60673,7 @@
         <v>2.07</v>
       </c>
       <c r="AP287">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ287">
         <v>2.13</v>
@@ -60980,7 +61007,7 @@
         <v>91</v>
       </c>
       <c r="P289" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="Q289">
         <v>1.67</v>
@@ -61137,6 +61164,1654 @@
       </c>
       <c r="BP289">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:68">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>7466349</v>
+      </c>
+      <c r="C290" t="s">
+        <v>68</v>
+      </c>
+      <c r="D290" t="s">
+        <v>69</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45791.625</v>
+      </c>
+      <c r="F290">
+        <v>33</v>
+      </c>
+      <c r="G290" t="s">
+        <v>86</v>
+      </c>
+      <c r="H290" t="s">
+        <v>85</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>1</v>
+      </c>
+      <c r="K290">
+        <v>1</v>
+      </c>
+      <c r="L290">
+        <v>1</v>
+      </c>
+      <c r="M290">
+        <v>2</v>
+      </c>
+      <c r="N290">
+        <v>3</v>
+      </c>
+      <c r="O290" t="s">
+        <v>284</v>
+      </c>
+      <c r="P290" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q290">
+        <v>3.25</v>
+      </c>
+      <c r="R290">
+        <v>2.2</v>
+      </c>
+      <c r="S290">
+        <v>3.1</v>
+      </c>
+      <c r="T290">
+        <v>1.36</v>
+      </c>
+      <c r="U290">
+        <v>3</v>
+      </c>
+      <c r="V290">
+        <v>2.75</v>
+      </c>
+      <c r="W290">
+        <v>1.4</v>
+      </c>
+      <c r="X290">
+        <v>7</v>
+      </c>
+      <c r="Y290">
+        <v>1.1</v>
+      </c>
+      <c r="Z290">
+        <v>2.27</v>
+      </c>
+      <c r="AA290">
+        <v>3.45</v>
+      </c>
+      <c r="AB290">
+        <v>2.95</v>
+      </c>
+      <c r="AC290">
+        <v>1.06</v>
+      </c>
+      <c r="AD290">
+        <v>8.5</v>
+      </c>
+      <c r="AE290">
+        <v>1.3</v>
+      </c>
+      <c r="AF290">
+        <v>3.45</v>
+      </c>
+      <c r="AG290">
+        <v>1.77</v>
+      </c>
+      <c r="AH290">
+        <v>1.98</v>
+      </c>
+      <c r="AI290">
+        <v>1.7</v>
+      </c>
+      <c r="AJ290">
+        <v>2.05</v>
+      </c>
+      <c r="AK290">
+        <v>1.5</v>
+      </c>
+      <c r="AL290">
+        <v>1.28</v>
+      </c>
+      <c r="AM290">
+        <v>1.45</v>
+      </c>
+      <c r="AN290">
+        <v>0.75</v>
+      </c>
+      <c r="AO290">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP290">
+        <v>0.71</v>
+      </c>
+      <c r="AQ290">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR290">
+        <v>1.24</v>
+      </c>
+      <c r="AS290">
+        <v>1.15</v>
+      </c>
+      <c r="AT290">
+        <v>2.39</v>
+      </c>
+      <c r="AU290">
+        <v>5</v>
+      </c>
+      <c r="AV290">
+        <v>7</v>
+      </c>
+      <c r="AW290">
+        <v>13</v>
+      </c>
+      <c r="AX290">
+        <v>11</v>
+      </c>
+      <c r="AY290">
+        <v>22</v>
+      </c>
+      <c r="AZ290">
+        <v>19</v>
+      </c>
+      <c r="BA290">
+        <v>3</v>
+      </c>
+      <c r="BB290">
+        <v>8</v>
+      </c>
+      <c r="BC290">
+        <v>11</v>
+      </c>
+      <c r="BD290">
+        <v>2.07</v>
+      </c>
+      <c r="BE290">
+        <v>6.5</v>
+      </c>
+      <c r="BF290">
+        <v>2.19</v>
+      </c>
+      <c r="BG290">
+        <v>1.2</v>
+      </c>
+      <c r="BH290">
+        <v>3.72</v>
+      </c>
+      <c r="BI290">
+        <v>1.41</v>
+      </c>
+      <c r="BJ290">
+        <v>2.6</v>
+      </c>
+      <c r="BK290">
+        <v>1.73</v>
+      </c>
+      <c r="BL290">
+        <v>1.99</v>
+      </c>
+      <c r="BM290">
+        <v>2.17</v>
+      </c>
+      <c r="BN290">
+        <v>1.58</v>
+      </c>
+      <c r="BO290">
+        <v>2.88</v>
+      </c>
+      <c r="BP290">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="291" spans="1:68">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>7466348</v>
+      </c>
+      <c r="C291" t="s">
+        <v>68</v>
+      </c>
+      <c r="D291" t="s">
+        <v>69</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45791.625</v>
+      </c>
+      <c r="F291">
+        <v>33</v>
+      </c>
+      <c r="G291" t="s">
+        <v>74</v>
+      </c>
+      <c r="H291" t="s">
+        <v>84</v>
+      </c>
+      <c r="I291">
+        <v>4</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>4</v>
+      </c>
+      <c r="L291">
+        <v>4</v>
+      </c>
+      <c r="M291">
+        <v>1</v>
+      </c>
+      <c r="N291">
+        <v>5</v>
+      </c>
+      <c r="O291" t="s">
+        <v>285</v>
+      </c>
+      <c r="P291" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q291">
+        <v>1.44</v>
+      </c>
+      <c r="R291">
+        <v>3.2</v>
+      </c>
+      <c r="S291">
+        <v>13</v>
+      </c>
+      <c r="T291">
+        <v>1.2</v>
+      </c>
+      <c r="U291">
+        <v>4.33</v>
+      </c>
+      <c r="V291">
+        <v>1.91</v>
+      </c>
+      <c r="W291">
+        <v>1.8</v>
+      </c>
+      <c r="X291">
+        <v>4</v>
+      </c>
+      <c r="Y291">
+        <v>1.22</v>
+      </c>
+      <c r="Z291">
+        <v>1.14</v>
+      </c>
+      <c r="AA291">
+        <v>7.2</v>
+      </c>
+      <c r="AB291">
+        <v>21</v>
+      </c>
+      <c r="AC291">
+        <v>1.01</v>
+      </c>
+      <c r="AD291">
+        <v>29</v>
+      </c>
+      <c r="AE291">
+        <v>1.09</v>
+      </c>
+      <c r="AF291">
+        <v>7</v>
+      </c>
+      <c r="AG291">
+        <v>1.38</v>
+      </c>
+      <c r="AH291">
+        <v>2.75</v>
+      </c>
+      <c r="AI291">
+        <v>2.1</v>
+      </c>
+      <c r="AJ291">
+        <v>1.67</v>
+      </c>
+      <c r="AK291">
+        <v>1.01</v>
+      </c>
+      <c r="AL291">
+        <v>1.05</v>
+      </c>
+      <c r="AM291">
+        <v>7</v>
+      </c>
+      <c r="AN291">
+        <v>2.44</v>
+      </c>
+      <c r="AO291">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP291">
+        <v>2.47</v>
+      </c>
+      <c r="AQ291">
+        <v>0.76</v>
+      </c>
+      <c r="AR291">
+        <v>2.56</v>
+      </c>
+      <c r="AS291">
+        <v>1.05</v>
+      </c>
+      <c r="AT291">
+        <v>3.61</v>
+      </c>
+      <c r="AU291">
+        <v>13</v>
+      </c>
+      <c r="AV291">
+        <v>3</v>
+      </c>
+      <c r="AW291">
+        <v>19</v>
+      </c>
+      <c r="AX291">
+        <v>1</v>
+      </c>
+      <c r="AY291">
+        <v>36</v>
+      </c>
+      <c r="AZ291">
+        <v>4</v>
+      </c>
+      <c r="BA291">
+        <v>10</v>
+      </c>
+      <c r="BB291">
+        <v>1</v>
+      </c>
+      <c r="BC291">
+        <v>11</v>
+      </c>
+      <c r="BD291">
+        <v>1.04</v>
+      </c>
+      <c r="BE291">
+        <v>17.75</v>
+      </c>
+      <c r="BF291">
+        <v>12.5</v>
+      </c>
+      <c r="BG291">
+        <v>1.14</v>
+      </c>
+      <c r="BH291">
+        <v>4.33</v>
+      </c>
+      <c r="BI291">
+        <v>1.3</v>
+      </c>
+      <c r="BJ291">
+        <v>2.97</v>
+      </c>
+      <c r="BK291">
+        <v>1.56</v>
+      </c>
+      <c r="BL291">
+        <v>2.21</v>
+      </c>
+      <c r="BM291">
+        <v>1.95</v>
+      </c>
+      <c r="BN291">
+        <v>1.76</v>
+      </c>
+      <c r="BO291">
+        <v>2.5</v>
+      </c>
+      <c r="BP291">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="292" spans="1:68">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>7466347</v>
+      </c>
+      <c r="C292" t="s">
+        <v>68</v>
+      </c>
+      <c r="D292" t="s">
+        <v>69</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45791.625</v>
+      </c>
+      <c r="F292">
+        <v>33</v>
+      </c>
+      <c r="G292" t="s">
+        <v>72</v>
+      </c>
+      <c r="H292" t="s">
+        <v>87</v>
+      </c>
+      <c r="I292">
+        <v>1</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <v>1</v>
+      </c>
+      <c r="L292">
+        <v>3</v>
+      </c>
+      <c r="M292">
+        <v>0</v>
+      </c>
+      <c r="N292">
+        <v>3</v>
+      </c>
+      <c r="O292" t="s">
+        <v>286</v>
+      </c>
+      <c r="P292" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q292">
+        <v>2.88</v>
+      </c>
+      <c r="R292">
+        <v>2.2</v>
+      </c>
+      <c r="S292">
+        <v>3.6</v>
+      </c>
+      <c r="T292">
+        <v>1.4</v>
+      </c>
+      <c r="U292">
+        <v>2.75</v>
+      </c>
+      <c r="V292">
+        <v>2.75</v>
+      </c>
+      <c r="W292">
+        <v>1.4</v>
+      </c>
+      <c r="X292">
+        <v>8</v>
+      </c>
+      <c r="Y292">
+        <v>1.08</v>
+      </c>
+      <c r="Z292">
+        <v>2.23</v>
+      </c>
+      <c r="AA292">
+        <v>3.21</v>
+      </c>
+      <c r="AB292">
+        <v>3.21</v>
+      </c>
+      <c r="AC292">
+        <v>1.06</v>
+      </c>
+      <c r="AD292">
+        <v>8.5</v>
+      </c>
+      <c r="AE292">
+        <v>1.3</v>
+      </c>
+      <c r="AF292">
+        <v>3.35</v>
+      </c>
+      <c r="AG292">
+        <v>1.92</v>
+      </c>
+      <c r="AH292">
+        <v>1.82</v>
+      </c>
+      <c r="AI292">
+        <v>1.75</v>
+      </c>
+      <c r="AJ292">
+        <v>2</v>
+      </c>
+      <c r="AK292">
+        <v>1.35</v>
+      </c>
+      <c r="AL292">
+        <v>1.28</v>
+      </c>
+      <c r="AM292">
+        <v>1.6</v>
+      </c>
+      <c r="AN292">
+        <v>1.31</v>
+      </c>
+      <c r="AO292">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP292">
+        <v>1.41</v>
+      </c>
+      <c r="AQ292">
+        <v>0.53</v>
+      </c>
+      <c r="AR292">
+        <v>1.62</v>
+      </c>
+      <c r="AS292">
+        <v>1.16</v>
+      </c>
+      <c r="AT292">
+        <v>2.78</v>
+      </c>
+      <c r="AU292">
+        <v>5</v>
+      </c>
+      <c r="AV292">
+        <v>0</v>
+      </c>
+      <c r="AW292">
+        <v>6</v>
+      </c>
+      <c r="AX292">
+        <v>10</v>
+      </c>
+      <c r="AY292">
+        <v>12</v>
+      </c>
+      <c r="AZ292">
+        <v>10</v>
+      </c>
+      <c r="BA292">
+        <v>3</v>
+      </c>
+      <c r="BB292">
+        <v>5</v>
+      </c>
+      <c r="BC292">
+        <v>8</v>
+      </c>
+      <c r="BD292">
+        <v>1.92</v>
+      </c>
+      <c r="BE292">
+        <v>6.6</v>
+      </c>
+      <c r="BF292">
+        <v>2.38</v>
+      </c>
+      <c r="BG292">
+        <v>1.16</v>
+      </c>
+      <c r="BH292">
+        <v>4.05</v>
+      </c>
+      <c r="BI292">
+        <v>1.34</v>
+      </c>
+      <c r="BJ292">
+        <v>2.78</v>
+      </c>
+      <c r="BK292">
+        <v>1.63</v>
+      </c>
+      <c r="BL292">
+        <v>2.09</v>
+      </c>
+      <c r="BM292">
+        <v>2.06</v>
+      </c>
+      <c r="BN292">
+        <v>1.68</v>
+      </c>
+      <c r="BO292">
+        <v>2.67</v>
+      </c>
+      <c r="BP292">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="293" spans="1:68">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>7466346</v>
+      </c>
+      <c r="C293" t="s">
+        <v>68</v>
+      </c>
+      <c r="D293" t="s">
+        <v>69</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45791.625</v>
+      </c>
+      <c r="F293">
+        <v>33</v>
+      </c>
+      <c r="G293" t="s">
+        <v>77</v>
+      </c>
+      <c r="H293" t="s">
+        <v>80</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>0</v>
+      </c>
+      <c r="L293">
+        <v>1</v>
+      </c>
+      <c r="M293">
+        <v>0</v>
+      </c>
+      <c r="N293">
+        <v>1</v>
+      </c>
+      <c r="O293" t="s">
+        <v>98</v>
+      </c>
+      <c r="P293" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q293">
+        <v>2.5</v>
+      </c>
+      <c r="R293">
+        <v>2.5</v>
+      </c>
+      <c r="S293">
+        <v>3.6</v>
+      </c>
+      <c r="T293">
+        <v>1.25</v>
+      </c>
+      <c r="U293">
+        <v>3.75</v>
+      </c>
+      <c r="V293">
+        <v>2.2</v>
+      </c>
+      <c r="W293">
+        <v>1.62</v>
+      </c>
+      <c r="X293">
+        <v>5</v>
+      </c>
+      <c r="Y293">
+        <v>1.17</v>
+      </c>
+      <c r="Z293">
+        <v>2.23</v>
+      </c>
+      <c r="AA293">
+        <v>3.21</v>
+      </c>
+      <c r="AB293">
+        <v>3.21</v>
+      </c>
+      <c r="AC293">
+        <v>1.05</v>
+      </c>
+      <c r="AD293">
+        <v>9.5</v>
+      </c>
+      <c r="AE293">
+        <v>1.18</v>
+      </c>
+      <c r="AF293">
+        <v>4.75</v>
+      </c>
+      <c r="AG293">
+        <v>1.67</v>
+      </c>
+      <c r="AH293">
+        <v>2.05</v>
+      </c>
+      <c r="AI293">
+        <v>1.5</v>
+      </c>
+      <c r="AJ293">
+        <v>2.5</v>
+      </c>
+      <c r="AK293">
+        <v>1.36</v>
+      </c>
+      <c r="AL293">
+        <v>1.22</v>
+      </c>
+      <c r="AM293">
+        <v>1.67</v>
+      </c>
+      <c r="AN293">
+        <v>1.94</v>
+      </c>
+      <c r="AO293">
+        <v>0.44</v>
+      </c>
+      <c r="AP293">
+        <v>2</v>
+      </c>
+      <c r="AQ293">
+        <v>0.41</v>
+      </c>
+      <c r="AR293">
+        <v>1.68</v>
+      </c>
+      <c r="AS293">
+        <v>1.26</v>
+      </c>
+      <c r="AT293">
+        <v>2.94</v>
+      </c>
+      <c r="AU293">
+        <v>5</v>
+      </c>
+      <c r="AV293">
+        <v>6</v>
+      </c>
+      <c r="AW293">
+        <v>6</v>
+      </c>
+      <c r="AX293">
+        <v>14</v>
+      </c>
+      <c r="AY293">
+        <v>13</v>
+      </c>
+      <c r="AZ293">
+        <v>22</v>
+      </c>
+      <c r="BA293">
+        <v>2</v>
+      </c>
+      <c r="BB293">
+        <v>5</v>
+      </c>
+      <c r="BC293">
+        <v>7</v>
+      </c>
+      <c r="BD293">
+        <v>2.18</v>
+      </c>
+      <c r="BE293">
+        <v>6.6</v>
+      </c>
+      <c r="BF293">
+        <v>2.07</v>
+      </c>
+      <c r="BG293">
+        <v>1.17</v>
+      </c>
+      <c r="BH293">
+        <v>3.98</v>
+      </c>
+      <c r="BI293">
+        <v>1.35</v>
+      </c>
+      <c r="BJ293">
+        <v>2.74</v>
+      </c>
+      <c r="BK293">
+        <v>1.64</v>
+      </c>
+      <c r="BL293">
+        <v>2.07</v>
+      </c>
+      <c r="BM293">
+        <v>2.09</v>
+      </c>
+      <c r="BN293">
+        <v>1.66</v>
+      </c>
+      <c r="BO293">
+        <v>2.71</v>
+      </c>
+      <c r="BP293">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="294" spans="1:68">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>7466343</v>
+      </c>
+      <c r="C294" t="s">
+        <v>68</v>
+      </c>
+      <c r="D294" t="s">
+        <v>69</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45791.625</v>
+      </c>
+      <c r="F294">
+        <v>33</v>
+      </c>
+      <c r="G294" t="s">
+        <v>81</v>
+      </c>
+      <c r="H294" t="s">
+        <v>82</v>
+      </c>
+      <c r="I294">
+        <v>2</v>
+      </c>
+      <c r="J294">
+        <v>2</v>
+      </c>
+      <c r="K294">
+        <v>4</v>
+      </c>
+      <c r="L294">
+        <v>2</v>
+      </c>
+      <c r="M294">
+        <v>3</v>
+      </c>
+      <c r="N294">
+        <v>5</v>
+      </c>
+      <c r="O294" t="s">
+        <v>287</v>
+      </c>
+      <c r="P294" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q294">
+        <v>2.75</v>
+      </c>
+      <c r="R294">
+        <v>2.3</v>
+      </c>
+      <c r="S294">
+        <v>3.4</v>
+      </c>
+      <c r="T294">
+        <v>1.3</v>
+      </c>
+      <c r="U294">
+        <v>3.4</v>
+      </c>
+      <c r="V294">
+        <v>2.5</v>
+      </c>
+      <c r="W294">
+        <v>1.5</v>
+      </c>
+      <c r="X294">
+        <v>6</v>
+      </c>
+      <c r="Y294">
+        <v>1.13</v>
+      </c>
+      <c r="Z294">
+        <v>2.27</v>
+      </c>
+      <c r="AA294">
+        <v>3.45</v>
+      </c>
+      <c r="AB294">
+        <v>2.95</v>
+      </c>
+      <c r="AC294">
+        <v>1.05</v>
+      </c>
+      <c r="AD294">
+        <v>9.5</v>
+      </c>
+      <c r="AE294">
+        <v>1.22</v>
+      </c>
+      <c r="AF294">
+        <v>4</v>
+      </c>
+      <c r="AG294">
+        <v>1.7</v>
+      </c>
+      <c r="AH294">
+        <v>2.05</v>
+      </c>
+      <c r="AI294">
+        <v>1.57</v>
+      </c>
+      <c r="AJ294">
+        <v>2.25</v>
+      </c>
+      <c r="AK294">
+        <v>1.38</v>
+      </c>
+      <c r="AL294">
+        <v>1.25</v>
+      </c>
+      <c r="AM294">
+        <v>1.6</v>
+      </c>
+      <c r="AN294">
+        <v>2.13</v>
+      </c>
+      <c r="AO294">
+        <v>1.63</v>
+      </c>
+      <c r="AP294">
+        <v>2</v>
+      </c>
+      <c r="AQ294">
+        <v>1.71</v>
+      </c>
+      <c r="AR294">
+        <v>1.8</v>
+      </c>
+      <c r="AS294">
+        <v>1.48</v>
+      </c>
+      <c r="AT294">
+        <v>3.28</v>
+      </c>
+      <c r="AU294">
+        <v>6</v>
+      </c>
+      <c r="AV294">
+        <v>8</v>
+      </c>
+      <c r="AW294">
+        <v>15</v>
+      </c>
+      <c r="AX294">
+        <v>8</v>
+      </c>
+      <c r="AY294">
+        <v>25</v>
+      </c>
+      <c r="AZ294">
+        <v>20</v>
+      </c>
+      <c r="BA294">
+        <v>3</v>
+      </c>
+      <c r="BB294">
+        <v>9</v>
+      </c>
+      <c r="BC294">
+        <v>12</v>
+      </c>
+      <c r="BD294">
+        <v>2.02</v>
+      </c>
+      <c r="BE294">
+        <v>6.5</v>
+      </c>
+      <c r="BF294">
+        <v>2.25</v>
+      </c>
+      <c r="BG294">
+        <v>1.22</v>
+      </c>
+      <c r="BH294">
+        <v>3.5</v>
+      </c>
+      <c r="BI294">
+        <v>1.44</v>
+      </c>
+      <c r="BJ294">
+        <v>2.51</v>
+      </c>
+      <c r="BK294">
+        <v>1.79</v>
+      </c>
+      <c r="BL294">
+        <v>1.92</v>
+      </c>
+      <c r="BM294">
+        <v>2.27</v>
+      </c>
+      <c r="BN294">
+        <v>1.53</v>
+      </c>
+      <c r="BO294">
+        <v>2.97</v>
+      </c>
+      <c r="BP294">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:68">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>7466342</v>
+      </c>
+      <c r="C295" t="s">
+        <v>68</v>
+      </c>
+      <c r="D295" t="s">
+        <v>69</v>
+      </c>
+      <c r="E295" s="2">
+        <v>45791.625</v>
+      </c>
+      <c r="F295">
+        <v>33</v>
+      </c>
+      <c r="G295" t="s">
+        <v>70</v>
+      </c>
+      <c r="H295" t="s">
+        <v>78</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295">
+        <v>1</v>
+      </c>
+      <c r="K295">
+        <v>1</v>
+      </c>
+      <c r="L295">
+        <v>2</v>
+      </c>
+      <c r="M295">
+        <v>2</v>
+      </c>
+      <c r="N295">
+        <v>4</v>
+      </c>
+      <c r="O295" t="s">
+        <v>288</v>
+      </c>
+      <c r="P295" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q295">
+        <v>6</v>
+      </c>
+      <c r="R295">
+        <v>2.63</v>
+      </c>
+      <c r="S295">
+        <v>1.91</v>
+      </c>
+      <c r="T295">
+        <v>1.25</v>
+      </c>
+      <c r="U295">
+        <v>3.75</v>
+      </c>
+      <c r="V295">
+        <v>2.2</v>
+      </c>
+      <c r="W295">
+        <v>1.62</v>
+      </c>
+      <c r="X295">
+        <v>5</v>
+      </c>
+      <c r="Y295">
+        <v>1.17</v>
+      </c>
+      <c r="Z295">
+        <v>6.8</v>
+      </c>
+      <c r="AA295">
+        <v>4.4</v>
+      </c>
+      <c r="AB295">
+        <v>1.44</v>
+      </c>
+      <c r="AC295">
+        <v>1.01</v>
+      </c>
+      <c r="AD295">
+        <v>13</v>
+      </c>
+      <c r="AE295">
+        <v>1.17</v>
+      </c>
+      <c r="AF295">
+        <v>5</v>
+      </c>
+      <c r="AG295">
+        <v>1.63</v>
+      </c>
+      <c r="AH295">
+        <v>2.19</v>
+      </c>
+      <c r="AI295">
+        <v>1.67</v>
+      </c>
+      <c r="AJ295">
+        <v>2.1</v>
+      </c>
+      <c r="AK295">
+        <v>2.75</v>
+      </c>
+      <c r="AL295">
+        <v>1.14</v>
+      </c>
+      <c r="AM295">
+        <v>1.1</v>
+      </c>
+      <c r="AN295">
+        <v>1.81</v>
+      </c>
+      <c r="AO295">
+        <v>2.19</v>
+      </c>
+      <c r="AP295">
+        <v>1.76</v>
+      </c>
+      <c r="AQ295">
+        <v>2.12</v>
+      </c>
+      <c r="AR295">
+        <v>1.51</v>
+      </c>
+      <c r="AS295">
+        <v>1.44</v>
+      </c>
+      <c r="AT295">
+        <v>2.95</v>
+      </c>
+      <c r="AU295">
+        <v>6</v>
+      </c>
+      <c r="AV295">
+        <v>5</v>
+      </c>
+      <c r="AW295">
+        <v>8</v>
+      </c>
+      <c r="AX295">
+        <v>9</v>
+      </c>
+      <c r="AY295">
+        <v>15</v>
+      </c>
+      <c r="AZ295">
+        <v>14</v>
+      </c>
+      <c r="BA295">
+        <v>4</v>
+      </c>
+      <c r="BB295">
+        <v>3</v>
+      </c>
+      <c r="BC295">
+        <v>7</v>
+      </c>
+      <c r="BD295">
+        <v>3.32</v>
+      </c>
+      <c r="BE295">
+        <v>8.9</v>
+      </c>
+      <c r="BF295">
+        <v>1.47</v>
+      </c>
+      <c r="BG295">
+        <v>1.28</v>
+      </c>
+      <c r="BH295">
+        <v>3.08</v>
+      </c>
+      <c r="BI295">
+        <v>1.54</v>
+      </c>
+      <c r="BJ295">
+        <v>2.25</v>
+      </c>
+      <c r="BK295">
+        <v>1.95</v>
+      </c>
+      <c r="BL295">
+        <v>1.76</v>
+      </c>
+      <c r="BM295">
+        <v>2.54</v>
+      </c>
+      <c r="BN295">
+        <v>1.43</v>
+      </c>
+      <c r="BO295">
+        <v>3.42</v>
+      </c>
+      <c r="BP295">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="296" spans="1:68">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>7466341</v>
+      </c>
+      <c r="C296" t="s">
+        <v>68</v>
+      </c>
+      <c r="D296" t="s">
+        <v>69</v>
+      </c>
+      <c r="E296" s="2">
+        <v>45791.625</v>
+      </c>
+      <c r="F296">
+        <v>33</v>
+      </c>
+      <c r="G296" t="s">
+        <v>73</v>
+      </c>
+      <c r="H296" t="s">
+        <v>79</v>
+      </c>
+      <c r="I296">
+        <v>1</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>1</v>
+      </c>
+      <c r="L296">
+        <v>1</v>
+      </c>
+      <c r="M296">
+        <v>1</v>
+      </c>
+      <c r="N296">
+        <v>2</v>
+      </c>
+      <c r="O296" t="s">
+        <v>289</v>
+      </c>
+      <c r="P296" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q296">
+        <v>2.45</v>
+      </c>
+      <c r="R296">
+        <v>2.15</v>
+      </c>
+      <c r="S296">
+        <v>4</v>
+      </c>
+      <c r="T296">
+        <v>1.33</v>
+      </c>
+      <c r="U296">
+        <v>3</v>
+      </c>
+      <c r="V296">
+        <v>2.45</v>
+      </c>
+      <c r="W296">
+        <v>1.48</v>
+      </c>
+      <c r="X296">
+        <v>5.5</v>
+      </c>
+      <c r="Y296">
+        <v>1.11</v>
+      </c>
+      <c r="Z296">
+        <v>1.88</v>
+      </c>
+      <c r="AA296">
+        <v>3.47</v>
+      </c>
+      <c r="AB296">
+        <v>3.97</v>
+      </c>
+      <c r="AC296">
+        <v>1.05</v>
+      </c>
+      <c r="AD296">
+        <v>9.5</v>
+      </c>
+      <c r="AE296">
+        <v>1.25</v>
+      </c>
+      <c r="AF296">
+        <v>3.75</v>
+      </c>
+      <c r="AG296">
+        <v>1.8</v>
+      </c>
+      <c r="AH296">
+        <v>1.94</v>
+      </c>
+      <c r="AI296">
+        <v>1.62</v>
+      </c>
+      <c r="AJ296">
+        <v>2.15</v>
+      </c>
+      <c r="AK296">
+        <v>1.28</v>
+      </c>
+      <c r="AL296">
+        <v>1.25</v>
+      </c>
+      <c r="AM296">
+        <v>1.77</v>
+      </c>
+      <c r="AN296">
+        <v>0.63</v>
+      </c>
+      <c r="AO296">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP296">
+        <v>0.65</v>
+      </c>
+      <c r="AQ296">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR296">
+        <v>1.6</v>
+      </c>
+      <c r="AS296">
+        <v>1</v>
+      </c>
+      <c r="AT296">
+        <v>2.6</v>
+      </c>
+      <c r="AU296">
+        <v>8</v>
+      </c>
+      <c r="AV296">
+        <v>4</v>
+      </c>
+      <c r="AW296">
+        <v>7</v>
+      </c>
+      <c r="AX296">
+        <v>8</v>
+      </c>
+      <c r="AY296">
+        <v>15</v>
+      </c>
+      <c r="AZ296">
+        <v>12</v>
+      </c>
+      <c r="BA296">
+        <v>5</v>
+      </c>
+      <c r="BB296">
+        <v>5</v>
+      </c>
+      <c r="BC296">
+        <v>10</v>
+      </c>
+      <c r="BD296">
+        <v>1.67</v>
+      </c>
+      <c r="BE296">
+        <v>6.75</v>
+      </c>
+      <c r="BF296">
+        <v>2.43</v>
+      </c>
+      <c r="BG296">
+        <v>1.2</v>
+      </c>
+      <c r="BH296">
+        <v>3.9</v>
+      </c>
+      <c r="BI296">
+        <v>1.36</v>
+      </c>
+      <c r="BJ296">
+        <v>2.8</v>
+      </c>
+      <c r="BK296">
+        <v>1.6</v>
+      </c>
+      <c r="BL296">
+        <v>2.17</v>
+      </c>
+      <c r="BM296">
+        <v>1.97</v>
+      </c>
+      <c r="BN296">
+        <v>1.73</v>
+      </c>
+      <c r="BO296">
+        <v>2.48</v>
+      </c>
+      <c r="BP296">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="297" spans="1:68">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>7466345</v>
+      </c>
+      <c r="C297" t="s">
+        <v>68</v>
+      </c>
+      <c r="D297" t="s">
+        <v>69</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45791.625</v>
+      </c>
+      <c r="F297">
+        <v>33</v>
+      </c>
+      <c r="G297" t="s">
+        <v>71</v>
+      </c>
+      <c r="H297" t="s">
+        <v>83</v>
+      </c>
+      <c r="I297">
+        <v>1</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297">
+        <v>1</v>
+      </c>
+      <c r="L297">
+        <v>2</v>
+      </c>
+      <c r="M297">
+        <v>0</v>
+      </c>
+      <c r="N297">
+        <v>2</v>
+      </c>
+      <c r="O297" t="s">
+        <v>290</v>
+      </c>
+      <c r="P297" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q297">
+        <v>1.53</v>
+      </c>
+      <c r="R297">
+        <v>3</v>
+      </c>
+      <c r="S297">
+        <v>11</v>
+      </c>
+      <c r="T297">
+        <v>1.22</v>
+      </c>
+      <c r="U297">
+        <v>4</v>
+      </c>
+      <c r="V297">
+        <v>2.1</v>
+      </c>
+      <c r="W297">
+        <v>1.67</v>
+      </c>
+      <c r="X297">
+        <v>4.5</v>
+      </c>
+      <c r="Y297">
+        <v>1.18</v>
+      </c>
+      <c r="Z297">
+        <v>1.19</v>
+      </c>
+      <c r="AA297">
+        <v>6.5</v>
+      </c>
+      <c r="AB297">
+        <v>13</v>
+      </c>
+      <c r="AC297">
+        <v>1.01</v>
+      </c>
+      <c r="AD297">
+        <v>23</v>
+      </c>
+      <c r="AE297">
+        <v>1.14</v>
+      </c>
+      <c r="AF297">
+        <v>5.5</v>
+      </c>
+      <c r="AG297">
+        <v>1.29</v>
+      </c>
+      <c r="AH297">
+        <v>3.4</v>
+      </c>
+      <c r="AI297">
+        <v>2.1</v>
+      </c>
+      <c r="AJ297">
+        <v>1.67</v>
+      </c>
+      <c r="AK297">
+        <v>1.02</v>
+      </c>
+      <c r="AL297">
+        <v>1.06</v>
+      </c>
+      <c r="AM297">
+        <v>5.75</v>
+      </c>
+      <c r="AN297">
+        <v>2.06</v>
+      </c>
+      <c r="AO297">
+        <v>0.44</v>
+      </c>
+      <c r="AP297">
+        <v>2.12</v>
+      </c>
+      <c r="AQ297">
+        <v>0.41</v>
+      </c>
+      <c r="AR297">
+        <v>1.86</v>
+      </c>
+      <c r="AS297">
+        <v>1.27</v>
+      </c>
+      <c r="AT297">
+        <v>3.13</v>
+      </c>
+      <c r="AU297">
+        <v>6</v>
+      </c>
+      <c r="AV297">
+        <v>2</v>
+      </c>
+      <c r="AW297">
+        <v>17</v>
+      </c>
+      <c r="AX297">
+        <v>5</v>
+      </c>
+      <c r="AY297">
+        <v>26</v>
+      </c>
+      <c r="AZ297">
+        <v>11</v>
+      </c>
+      <c r="BA297">
+        <v>6</v>
+      </c>
+      <c r="BB297">
+        <v>3</v>
+      </c>
+      <c r="BC297">
+        <v>9</v>
+      </c>
+      <c r="BD297">
+        <v>1</v>
+      </c>
+      <c r="BE297">
+        <v>23</v>
+      </c>
+      <c r="BF297">
+        <v>19</v>
+      </c>
+      <c r="BG297">
+        <v>1.15</v>
+      </c>
+      <c r="BH297">
+        <v>4.2</v>
+      </c>
+      <c r="BI297">
+        <v>1.32</v>
+      </c>
+      <c r="BJ297">
+        <v>2.88</v>
+      </c>
+      <c r="BK297">
+        <v>1.58</v>
+      </c>
+      <c r="BL297">
+        <v>2.17</v>
+      </c>
+      <c r="BM297">
+        <v>1.99</v>
+      </c>
+      <c r="BN297">
+        <v>1.73</v>
+      </c>
+      <c r="BO297">
+        <v>2.54</v>
+      </c>
+      <c r="BP297">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="417">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1626,7 +1626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP297"/>
+  <dimension ref="A1:BP298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ8">
         <v>0.9399999999999999</v>
@@ -4232,7 +4232,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -7940,7 +7940,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ31">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR31">
         <v>0.77</v>
@@ -8143,7 +8143,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ32">
         <v>1.25</v>
@@ -11027,7 +11027,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ46">
         <v>0.8100000000000001</v>
@@ -11236,7 +11236,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ47">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR47">
         <v>1.15</v>
@@ -14944,7 +14944,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ65">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR65">
         <v>2.79</v>
@@ -15147,7 +15147,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ66">
         <v>0.41</v>
@@ -19064,7 +19064,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ85">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR85">
         <v>1.93</v>
@@ -19267,7 +19267,7 @@
         <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ86">
         <v>2</v>
@@ -22151,7 +22151,7 @@
         <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ100">
         <v>0.76</v>
@@ -22360,7 +22360,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ101">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR101">
         <v>1.12</v>
@@ -26686,7 +26686,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ122">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR122">
         <v>1.18</v>
@@ -26889,7 +26889,7 @@
         <v>2.57</v>
       </c>
       <c r="AP123">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ123">
         <v>2.13</v>
@@ -30597,7 +30597,7 @@
         <v>1</v>
       </c>
       <c r="AP141">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ141">
         <v>1.06</v>
@@ -30806,7 +30806,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ142">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR142">
         <v>1.53</v>
@@ -32863,7 +32863,7 @@
         <v>0.88</v>
       </c>
       <c r="AP152">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ152">
         <v>0.9399999999999999</v>
@@ -33484,7 +33484,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ155">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR155">
         <v>1.47</v>
@@ -35335,7 +35335,7 @@
         <v>1.89</v>
       </c>
       <c r="AP164">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ164">
         <v>1.71</v>
@@ -38016,7 +38016,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ177">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR177">
         <v>1.77</v>
@@ -40900,7 +40900,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ191">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR191">
         <v>1.85</v>
@@ -41103,7 +41103,7 @@
         <v>0.33</v>
       </c>
       <c r="AP192">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ192">
         <v>0.63</v>
@@ -42136,7 +42136,7 @@
         <v>2</v>
       </c>
       <c r="AQ197">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR197">
         <v>1.68</v>
@@ -44811,7 +44811,7 @@
         <v>0.64</v>
       </c>
       <c r="AP210">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ210">
         <v>0.53</v>
@@ -46462,7 +46462,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ218">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR218">
         <v>1.39</v>
@@ -48107,7 +48107,7 @@
         <v>0.83</v>
       </c>
       <c r="AP226">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ226">
         <v>1</v>
@@ -50170,7 +50170,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ236">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR236">
         <v>1.35</v>
@@ -50785,7 +50785,7 @@
         <v>0.54</v>
       </c>
       <c r="AP239">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ239">
         <v>0.41</v>
@@ -54905,7 +54905,7 @@
         <v>0.64</v>
       </c>
       <c r="AP259">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ259">
         <v>0.5600000000000001</v>
@@ -55935,7 +55935,7 @@
         <v>2.33</v>
       </c>
       <c r="AP264">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ264">
         <v>2.12</v>
@@ -57586,7 +57586,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ272">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR272">
         <v>1.79</v>
@@ -60058,7 +60058,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ284">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR284">
         <v>1.58</v>
@@ -62613,7 +62613,7 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>7466345</v>
+        <v>7466344</v>
       </c>
       <c r="C297" t="s">
         <v>68</v>
@@ -62628,189 +62628,395 @@
         <v>33</v>
       </c>
       <c r="G297" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H297" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I297">
         <v>1</v>
       </c>
       <c r="J297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L297">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N297">
         <v>2</v>
       </c>
       <c r="O297" t="s">
-        <v>290</v>
+        <v>166</v>
       </c>
       <c r="P297" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q297">
-        <v>1.53</v>
+        <v>2.1</v>
       </c>
       <c r="R297">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="S297">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="T297">
+        <v>1.25</v>
+      </c>
+      <c r="U297">
+        <v>3.75</v>
+      </c>
+      <c r="V297">
+        <v>2.25</v>
+      </c>
+      <c r="W297">
+        <v>1.57</v>
+      </c>
+      <c r="X297">
+        <v>5.5</v>
+      </c>
+      <c r="Y297">
+        <v>1.14</v>
+      </c>
+      <c r="Z297">
+        <v>1.58</v>
+      </c>
+      <c r="AA297">
+        <v>3.79</v>
+      </c>
+      <c r="AB297">
+        <v>5.8</v>
+      </c>
+      <c r="AC297">
+        <v>1.04</v>
+      </c>
+      <c r="AD297">
+        <v>10</v>
+      </c>
+      <c r="AE297">
         <v>1.22</v>
       </c>
-      <c r="U297">
-        <v>4</v>
-      </c>
-      <c r="V297">
-        <v>2.1</v>
-      </c>
-      <c r="W297">
-        <v>1.67</v>
-      </c>
-      <c r="X297">
-        <v>4.5</v>
-      </c>
-      <c r="Y297">
-        <v>1.18</v>
-      </c>
-      <c r="Z297">
-        <v>1.19</v>
-      </c>
-      <c r="AA297">
-        <v>6.5</v>
-      </c>
-      <c r="AB297">
-        <v>13</v>
-      </c>
-      <c r="AC297">
-        <v>1.01</v>
-      </c>
-      <c r="AD297">
-        <v>23</v>
-      </c>
-      <c r="AE297">
-        <v>1.14</v>
-      </c>
       <c r="AF297">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="AG297">
-        <v>1.29</v>
+        <v>1.55</v>
       </c>
       <c r="AH297">
-        <v>3.4</v>
+        <v>2.29</v>
       </c>
       <c r="AI297">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="AJ297">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="AK297">
-        <v>1.02</v>
+        <v>1.2</v>
       </c>
       <c r="AL297">
-        <v>1.06</v>
+        <v>1.22</v>
       </c>
       <c r="AM297">
-        <v>5.75</v>
+        <v>1.95</v>
       </c>
       <c r="AN297">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="AO297">
-        <v>0.44</v>
+        <v>1.25</v>
       </c>
       <c r="AP297">
-        <v>2.12</v>
+        <v>1.76</v>
       </c>
       <c r="AQ297">
-        <v>0.41</v>
+        <v>1.24</v>
       </c>
       <c r="AR297">
-        <v>1.86</v>
+        <v>1.6</v>
       </c>
       <c r="AS297">
-        <v>1.27</v>
+        <v>1.52</v>
       </c>
       <c r="AT297">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
       <c r="AU297">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AV297">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW297">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AX297">
         <v>5</v>
       </c>
       <c r="AY297">
+        <v>34</v>
+      </c>
+      <c r="AZ297">
+        <v>14</v>
+      </c>
+      <c r="BA297">
+        <v>11</v>
+      </c>
+      <c r="BB297">
+        <v>0</v>
+      </c>
+      <c r="BC297">
+        <v>11</v>
+      </c>
+      <c r="BD297">
+        <v>1.43</v>
+      </c>
+      <c r="BE297">
+        <v>9.5</v>
+      </c>
+      <c r="BF297">
+        <v>3.46</v>
+      </c>
+      <c r="BG297">
+        <v>1.17</v>
+      </c>
+      <c r="BH297">
+        <v>4.05</v>
+      </c>
+      <c r="BI297">
+        <v>1.34</v>
+      </c>
+      <c r="BJ297">
+        <v>2.78</v>
+      </c>
+      <c r="BK297">
+        <v>1.63</v>
+      </c>
+      <c r="BL297">
+        <v>2.09</v>
+      </c>
+      <c r="BM297">
+        <v>2.06</v>
+      </c>
+      <c r="BN297">
+        <v>1.68</v>
+      </c>
+      <c r="BO297">
+        <v>2.67</v>
+      </c>
+      <c r="BP297">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="298" spans="1:68">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>7466345</v>
+      </c>
+      <c r="C298" t="s">
+        <v>68</v>
+      </c>
+      <c r="D298" t="s">
+        <v>69</v>
+      </c>
+      <c r="E298" s="2">
+        <v>45791.625</v>
+      </c>
+      <c r="F298">
+        <v>33</v>
+      </c>
+      <c r="G298" t="s">
+        <v>71</v>
+      </c>
+      <c r="H298" t="s">
+        <v>83</v>
+      </c>
+      <c r="I298">
+        <v>1</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>1</v>
+      </c>
+      <c r="L298">
+        <v>2</v>
+      </c>
+      <c r="M298">
+        <v>0</v>
+      </c>
+      <c r="N298">
+        <v>2</v>
+      </c>
+      <c r="O298" t="s">
+        <v>290</v>
+      </c>
+      <c r="P298" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q298">
+        <v>1.53</v>
+      </c>
+      <c r="R298">
+        <v>3</v>
+      </c>
+      <c r="S298">
+        <v>11</v>
+      </c>
+      <c r="T298">
+        <v>1.22</v>
+      </c>
+      <c r="U298">
+        <v>4</v>
+      </c>
+      <c r="V298">
+        <v>2.1</v>
+      </c>
+      <c r="W298">
+        <v>1.67</v>
+      </c>
+      <c r="X298">
+        <v>4.5</v>
+      </c>
+      <c r="Y298">
+        <v>1.18</v>
+      </c>
+      <c r="Z298">
+        <v>1.19</v>
+      </c>
+      <c r="AA298">
+        <v>6.5</v>
+      </c>
+      <c r="AB298">
+        <v>13</v>
+      </c>
+      <c r="AC298">
+        <v>1.01</v>
+      </c>
+      <c r="AD298">
+        <v>23</v>
+      </c>
+      <c r="AE298">
+        <v>1.14</v>
+      </c>
+      <c r="AF298">
+        <v>5.5</v>
+      </c>
+      <c r="AG298">
+        <v>1.29</v>
+      </c>
+      <c r="AH298">
+        <v>3.4</v>
+      </c>
+      <c r="AI298">
+        <v>2.1</v>
+      </c>
+      <c r="AJ298">
+        <v>1.67</v>
+      </c>
+      <c r="AK298">
+        <v>1.02</v>
+      </c>
+      <c r="AL298">
+        <v>1.06</v>
+      </c>
+      <c r="AM298">
+        <v>5.75</v>
+      </c>
+      <c r="AN298">
+        <v>2.06</v>
+      </c>
+      <c r="AO298">
+        <v>0.44</v>
+      </c>
+      <c r="AP298">
+        <v>2.12</v>
+      </c>
+      <c r="AQ298">
+        <v>0.41</v>
+      </c>
+      <c r="AR298">
+        <v>1.86</v>
+      </c>
+      <c r="AS298">
+        <v>1.27</v>
+      </c>
+      <c r="AT298">
+        <v>3.13</v>
+      </c>
+      <c r="AU298">
+        <v>6</v>
+      </c>
+      <c r="AV298">
+        <v>2</v>
+      </c>
+      <c r="AW298">
+        <v>17</v>
+      </c>
+      <c r="AX298">
+        <v>5</v>
+      </c>
+      <c r="AY298">
         <v>26</v>
       </c>
-      <c r="AZ297">
+      <c r="AZ298">
         <v>11</v>
       </c>
-      <c r="BA297">
+      <c r="BA298">
         <v>6</v>
       </c>
-      <c r="BB297">
+      <c r="BB298">
         <v>3</v>
       </c>
-      <c r="BC297">
+      <c r="BC298">
         <v>9</v>
       </c>
-      <c r="BD297">
-        <v>1</v>
-      </c>
-      <c r="BE297">
+      <c r="BD298">
+        <v>1</v>
+      </c>
+      <c r="BE298">
         <v>23</v>
       </c>
-      <c r="BF297">
+      <c r="BF298">
         <v>19</v>
       </c>
-      <c r="BG297">
+      <c r="BG298">
         <v>1.15</v>
       </c>
-      <c r="BH297">
+      <c r="BH298">
         <v>4.2</v>
       </c>
-      <c r="BI297">
+      <c r="BI298">
         <v>1.32</v>
       </c>
-      <c r="BJ297">
+      <c r="BJ298">
         <v>2.88</v>
       </c>
-      <c r="BK297">
+      <c r="BK298">
         <v>1.58</v>
       </c>
-      <c r="BL297">
+      <c r="BL298">
         <v>2.17</v>
       </c>
-      <c r="BM297">
+      <c r="BM298">
         <v>1.99</v>
       </c>
-      <c r="BN297">
+      <c r="BN298">
         <v>1.73</v>
       </c>
-      <c r="BO297">
+      <c r="BO298">
         <v>2.54</v>
       </c>
-      <c r="BP297">
+      <c r="BP298">
         <v>1.43</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="428">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -901,6 +901,12 @@
     <t>['4', '29']</t>
   </si>
   <si>
+    <t>['3', '21', '45', '66']</t>
+  </si>
+  <si>
+    <t>['16', '62', '94']</t>
+  </si>
+  <si>
     <t>['8', '54']</t>
   </si>
   <si>
@@ -1287,6 +1293,12 @@
   <si>
     <t>['27', '58', '84']</t>
   </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['47', '55']</t>
+  </si>
 </sst>
 </file>
 
@@ -1647,7 +1659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP307"/>
+  <dimension ref="A1:BP309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2318,7 +2330,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2730,7 +2742,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -3348,7 +3360,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -3635,7 +3647,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ10">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4250,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ13">
         <v>1.24</v>
@@ -4456,10 +4468,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ14">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4584,7 +4596,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4790,7 +4802,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4996,7 +5008,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -5820,7 +5832,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -6026,7 +6038,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -7056,7 +7068,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -7468,7 +7480,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7549,7 +7561,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ29">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR29">
         <v>2.19</v>
@@ -7880,7 +7892,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -8785,7 +8797,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ35">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR35">
         <v>2.65</v>
@@ -8988,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ36">
         <v>0.9399999999999999</v>
@@ -9116,7 +9128,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -9606,10 +9618,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ39">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR39">
         <v>1.82</v>
@@ -9734,7 +9746,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -10430,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ43">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR43">
         <v>2.19</v>
@@ -10764,7 +10776,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10970,7 +10982,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -11176,7 +11188,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -11382,7 +11394,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -11588,7 +11600,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -11794,7 +11806,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -12000,7 +12012,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -12412,7 +12424,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -12699,7 +12711,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ54">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR54">
         <v>1.37</v>
@@ -12824,7 +12836,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -13030,7 +13042,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -13932,7 +13944,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ60">
         <v>0.53</v>
@@ -14060,7 +14072,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -14266,7 +14278,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -14344,7 +14356,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ62">
         <v>2</v>
@@ -14759,7 +14771,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ64">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR64">
         <v>0.92</v>
@@ -15090,7 +15102,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -15914,7 +15926,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -16326,7 +16338,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -16532,7 +16544,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -16610,7 +16622,7 @@
         <v>3</v>
       </c>
       <c r="AP73">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ73">
         <v>2.18</v>
@@ -16819,7 +16831,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ74">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR74">
         <v>1.44</v>
@@ -17150,7 +17162,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17768,7 +17780,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q79">
         <v>6.5</v>
@@ -17974,7 +17986,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q80">
         <v>2.6</v>
@@ -18261,7 +18273,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ81">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR81">
         <v>1.25</v>
@@ -18798,7 +18810,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q84">
         <v>2.6</v>
@@ -19210,7 +19222,7 @@
         <v>91</v>
       </c>
       <c r="P86" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19494,7 +19506,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ87">
         <v>0.76</v>
@@ -19828,7 +19840,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19906,7 +19918,7 @@
         <v>1.5</v>
       </c>
       <c r="AP89">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ89">
         <v>1</v>
@@ -20034,7 +20046,7 @@
         <v>91</v>
       </c>
       <c r="P90" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -20652,7 +20664,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20939,7 +20951,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ94">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR94">
         <v>1.29</v>
@@ -21064,7 +21076,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q95">
         <v>2.05</v>
@@ -21270,7 +21282,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q96">
         <v>2.2</v>
@@ -21682,7 +21694,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q98">
         <v>3.1</v>
@@ -22712,7 +22724,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q103">
         <v>7.5</v>
@@ -22918,7 +22930,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -22999,7 +23011,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ104">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR104">
         <v>1.2</v>
@@ -23124,7 +23136,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q105">
         <v>8.5</v>
@@ -23330,7 +23342,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q106">
         <v>3.1</v>
@@ -23408,7 +23420,7 @@
         <v>2</v>
       </c>
       <c r="AP106">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ106">
         <v>2.12</v>
@@ -23742,7 +23754,7 @@
         <v>115</v>
       </c>
       <c r="P108" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q108">
         <v>1.95</v>
@@ -23820,7 +23832,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ108">
         <v>0.82</v>
@@ -24154,7 +24166,7 @@
         <v>168</v>
       </c>
       <c r="P110" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -24441,7 +24453,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ111">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR111">
         <v>1.78</v>
@@ -24772,7 +24784,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q113">
         <v>4.75</v>
@@ -24978,7 +24990,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25184,7 +25196,7 @@
         <v>93</v>
       </c>
       <c r="P115" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25390,7 +25402,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -26832,7 +26844,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -27116,7 +27128,7 @@
         <v>0.67</v>
       </c>
       <c r="AP124">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ124">
         <v>0.76</v>
@@ -27244,7 +27256,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q125">
         <v>2.2</v>
@@ -27322,7 +27334,7 @@
         <v>1.17</v>
       </c>
       <c r="AP125">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ125">
         <v>1</v>
@@ -27450,7 +27462,7 @@
         <v>180</v>
       </c>
       <c r="P126" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q126">
         <v>4.75</v>
@@ -27656,7 +27668,7 @@
         <v>181</v>
       </c>
       <c r="P127" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q127">
         <v>2.2</v>
@@ -28149,7 +28161,7 @@
         <v>2</v>
       </c>
       <c r="AQ129">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR129">
         <v>1.64</v>
@@ -28274,7 +28286,7 @@
         <v>91</v>
       </c>
       <c r="P130" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q130">
         <v>2.6</v>
@@ -28480,7 +28492,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q131">
         <v>8</v>
@@ -28686,7 +28698,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q132">
         <v>3.25</v>
@@ -29176,7 +29188,7 @@
         <v>2</v>
       </c>
       <c r="AP134">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ134">
         <v>2.12</v>
@@ -29304,7 +29316,7 @@
         <v>98</v>
       </c>
       <c r="P135" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q135">
         <v>3.2</v>
@@ -29385,7 +29397,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ135">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR135">
         <v>1.12</v>
@@ -29510,7 +29522,7 @@
         <v>147</v>
       </c>
       <c r="P136" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q136">
         <v>4.75</v>
@@ -30128,7 +30140,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q139">
         <v>2.2</v>
@@ -30334,7 +30346,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q140">
         <v>1.57</v>
@@ -30540,7 +30552,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q141">
         <v>2.6</v>
@@ -31030,7 +31042,7 @@
         <v>0.57</v>
       </c>
       <c r="AP143">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ143">
         <v>0.53</v>
@@ -31364,7 +31376,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -32063,7 +32075,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ148">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR148">
         <v>1.21</v>
@@ -32266,7 +32278,7 @@
         <v>1.63</v>
       </c>
       <c r="AP149">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ149">
         <v>1.18</v>
@@ -32394,7 +32406,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32806,7 +32818,7 @@
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q152">
         <v>2.25</v>
@@ -33093,7 +33105,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ153">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR153">
         <v>1.13</v>
@@ -33218,7 +33230,7 @@
         <v>91</v>
       </c>
       <c r="P154" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q154">
         <v>3.5</v>
@@ -33836,7 +33848,7 @@
         <v>91</v>
       </c>
       <c r="P157" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q157">
         <v>3.25</v>
@@ -33917,7 +33929,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ157">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR157">
         <v>1.23</v>
@@ -34042,7 +34054,7 @@
         <v>199</v>
       </c>
       <c r="P158" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q158">
         <v>1.83</v>
@@ -34248,7 +34260,7 @@
         <v>200</v>
       </c>
       <c r="P159" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q159">
         <v>2</v>
@@ -34326,7 +34338,7 @@
         <v>1.38</v>
       </c>
       <c r="AP159">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ159">
         <v>0.82</v>
@@ -34454,7 +34466,7 @@
         <v>134</v>
       </c>
       <c r="P160" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q160">
         <v>2</v>
@@ -34866,7 +34878,7 @@
         <v>201</v>
       </c>
       <c r="P162" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q162">
         <v>2.75</v>
@@ -34947,7 +34959,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ162">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR162">
         <v>1.26</v>
@@ -35072,7 +35084,7 @@
         <v>202</v>
       </c>
       <c r="P163" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q163">
         <v>8</v>
@@ -35484,7 +35496,7 @@
         <v>132</v>
       </c>
       <c r="P165" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -35896,7 +35908,7 @@
         <v>204</v>
       </c>
       <c r="P167" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -36102,7 +36114,7 @@
         <v>91</v>
       </c>
       <c r="P168" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q168">
         <v>3.1</v>
@@ -36308,7 +36320,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -36514,7 +36526,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -37132,7 +37144,7 @@
         <v>207</v>
       </c>
       <c r="P173" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q173">
         <v>1.4</v>
@@ -37419,7 +37431,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ174">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR174">
         <v>1.36</v>
@@ -37544,7 +37556,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q175">
         <v>2.75</v>
@@ -37956,7 +37968,7 @@
         <v>210</v>
       </c>
       <c r="P177" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q177">
         <v>2.1</v>
@@ -38034,7 +38046,7 @@
         <v>1</v>
       </c>
       <c r="AP177">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ177">
         <v>1.24</v>
@@ -38162,7 +38174,7 @@
         <v>211</v>
       </c>
       <c r="P178" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38574,7 +38586,7 @@
         <v>213</v>
       </c>
       <c r="P180" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q180">
         <v>3.6</v>
@@ -38780,7 +38792,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q181">
         <v>2.75</v>
@@ -38986,7 +38998,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q182">
         <v>5.5</v>
@@ -39192,7 +39204,7 @@
         <v>216</v>
       </c>
       <c r="P183" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q183">
         <v>2.88</v>
@@ -39604,7 +39616,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q185">
         <v>3.1</v>
@@ -40016,7 +40028,7 @@
         <v>91</v>
       </c>
       <c r="P187" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q187">
         <v>4.75</v>
@@ -40222,7 +40234,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q188">
         <v>3.75</v>
@@ -40715,7 +40727,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ190">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR190">
         <v>1.38</v>
@@ -41458,7 +41470,7 @@
         <v>91</v>
       </c>
       <c r="P194" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q194">
         <v>5.5</v>
@@ -41742,7 +41754,7 @@
         <v>0.8</v>
       </c>
       <c r="AP195">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ195">
         <v>0.9399999999999999</v>
@@ -41870,7 +41882,7 @@
         <v>225</v>
       </c>
       <c r="P196" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q196">
         <v>4</v>
@@ -42282,7 +42294,7 @@
         <v>226</v>
       </c>
       <c r="P198" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q198">
         <v>1.8</v>
@@ -42694,7 +42706,7 @@
         <v>227</v>
       </c>
       <c r="P200" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q200">
         <v>3.25</v>
@@ -42900,7 +42912,7 @@
         <v>228</v>
       </c>
       <c r="P201" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q201">
         <v>2.1</v>
@@ -43184,7 +43196,7 @@
         <v>0.55</v>
       </c>
       <c r="AP202">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ202">
         <v>0.41</v>
@@ -43393,7 +43405,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ203">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR203">
         <v>1.27</v>
@@ -44008,10 +44020,10 @@
         <v>0.9</v>
       </c>
       <c r="AP206">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ206">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR206">
         <v>2.08</v>
@@ -44420,7 +44432,7 @@
         <v>1</v>
       </c>
       <c r="AP208">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ208">
         <v>0.9399999999999999</v>
@@ -44548,7 +44560,7 @@
         <v>160</v>
       </c>
       <c r="P209" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q209">
         <v>2.6</v>
@@ -44960,7 +44972,7 @@
         <v>237</v>
       </c>
       <c r="P211" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q211">
         <v>4.75</v>
@@ -45166,7 +45178,7 @@
         <v>128</v>
       </c>
       <c r="P212" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q212">
         <v>4.33</v>
@@ -45453,7 +45465,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ213">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR213">
         <v>2.01</v>
@@ -45784,7 +45796,7 @@
         <v>239</v>
       </c>
       <c r="P215" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q215">
         <v>2.75</v>
@@ -46895,7 +46907,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ220">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR220">
         <v>2.5</v>
@@ -47020,7 +47032,7 @@
         <v>242</v>
       </c>
       <c r="P221" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q221">
         <v>4.33</v>
@@ -47226,7 +47238,7 @@
         <v>91</v>
       </c>
       <c r="P222" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q222">
         <v>5</v>
@@ -47432,7 +47444,7 @@
         <v>243</v>
       </c>
       <c r="P223" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q223">
         <v>2.75</v>
@@ -47716,7 +47728,7 @@
         <v>0.58</v>
       </c>
       <c r="AP224">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ224">
         <v>0.65</v>
@@ -48131,7 +48143,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ226">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR226">
         <v>1.62</v>
@@ -48462,7 +48474,7 @@
         <v>91</v>
       </c>
       <c r="P228" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q228">
         <v>8</v>
@@ -49286,7 +49298,7 @@
         <v>248</v>
       </c>
       <c r="P232" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q232">
         <v>2.88</v>
@@ -49364,7 +49376,7 @@
         <v>1.67</v>
       </c>
       <c r="AP232">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ232">
         <v>1.88</v>
@@ -49492,7 +49504,7 @@
         <v>249</v>
       </c>
       <c r="P233" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q233">
         <v>2.5</v>
@@ -49904,7 +49916,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q235">
         <v>3.75</v>
@@ -50110,7 +50122,7 @@
         <v>91</v>
       </c>
       <c r="P236" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q236">
         <v>2.88</v>
@@ -50522,7 +50534,7 @@
         <v>252</v>
       </c>
       <c r="P238" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q238">
         <v>3.75</v>
@@ -50809,7 +50821,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ239">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR239">
         <v>1.62</v>
@@ -51140,7 +51152,7 @@
         <v>91</v>
       </c>
       <c r="P241" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q241">
         <v>2.2</v>
@@ -51346,7 +51358,7 @@
         <v>255</v>
       </c>
       <c r="P242" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q242">
         <v>1.91</v>
@@ -51552,7 +51564,7 @@
         <v>256</v>
       </c>
       <c r="P243" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q243">
         <v>1.8</v>
@@ -51630,7 +51642,7 @@
         <v>0.46</v>
       </c>
       <c r="AP243">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ243">
         <v>0.41</v>
@@ -52248,7 +52260,7 @@
         <v>1.77</v>
       </c>
       <c r="AP246">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ246">
         <v>1.88</v>
@@ -52454,7 +52466,7 @@
         <v>1</v>
       </c>
       <c r="AP247">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ247">
         <v>0.9399999999999999</v>
@@ -52582,7 +52594,7 @@
         <v>106</v>
       </c>
       <c r="P248" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q248">
         <v>6.5</v>
@@ -52788,7 +52800,7 @@
         <v>259</v>
       </c>
       <c r="P249" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q249">
         <v>2.88</v>
@@ -53200,7 +53212,7 @@
         <v>260</v>
       </c>
       <c r="P251" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q251">
         <v>2.63</v>
@@ -53487,7 +53499,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ252">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR252">
         <v>1.63</v>
@@ -53612,7 +53624,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q253">
         <v>1.67</v>
@@ -54024,7 +54036,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q255">
         <v>6</v>
@@ -54230,7 +54242,7 @@
         <v>264</v>
       </c>
       <c r="P256" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q256">
         <v>2.5</v>
@@ -54311,7 +54323,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ256">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR256">
         <v>1.63</v>
@@ -54642,7 +54654,7 @@
         <v>266</v>
       </c>
       <c r="P258" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q258">
         <v>3.5</v>
@@ -55466,7 +55478,7 @@
         <v>269</v>
       </c>
       <c r="P262" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q262">
         <v>7.5</v>
@@ -55672,7 +55684,7 @@
         <v>270</v>
       </c>
       <c r="P263" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q263">
         <v>2.25</v>
@@ -56368,7 +56380,7 @@
         <v>0.57</v>
       </c>
       <c r="AP266">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ266">
         <v>0.53</v>
@@ -56496,7 +56508,7 @@
         <v>274</v>
       </c>
       <c r="P267" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q267">
         <v>4</v>
@@ -56574,7 +56586,7 @@
         <v>2</v>
       </c>
       <c r="AP267">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ267">
         <v>2.18</v>
@@ -56702,7 +56714,7 @@
         <v>91</v>
       </c>
       <c r="P268" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q268">
         <v>3.75</v>
@@ -57320,7 +57332,7 @@
         <v>273</v>
       </c>
       <c r="P271" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q271">
         <v>1.95</v>
@@ -57607,7 +57619,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ272">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR272">
         <v>1.71</v>
@@ -58144,7 +58156,7 @@
         <v>187</v>
       </c>
       <c r="P275" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q275">
         <v>5.5</v>
@@ -58762,7 +58774,7 @@
         <v>278</v>
       </c>
       <c r="P278" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q278">
         <v>2.88</v>
@@ -58968,7 +58980,7 @@
         <v>91</v>
       </c>
       <c r="P279" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q279">
         <v>3.1</v>
@@ -59174,7 +59186,7 @@
         <v>91</v>
       </c>
       <c r="P280" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q280">
         <v>3.1</v>
@@ -59380,7 +59392,7 @@
         <v>245</v>
       </c>
       <c r="P281" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q281">
         <v>3.1</v>
@@ -59667,7 +59679,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ282">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR282">
         <v>1.31</v>
@@ -59998,7 +60010,7 @@
         <v>91</v>
       </c>
       <c r="P284" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q284">
         <v>3.25</v>
@@ -60488,7 +60500,7 @@
         <v>2.2</v>
       </c>
       <c r="AP286">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ286">
         <v>2</v>
@@ -60616,7 +60628,7 @@
         <v>282</v>
       </c>
       <c r="P287" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q287">
         <v>3.1</v>
@@ -60822,7 +60834,7 @@
         <v>91</v>
       </c>
       <c r="P288" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q288">
         <v>1.67</v>
@@ -60903,7 +60915,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ288">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR288">
         <v>1.86</v>
@@ -61106,7 +61118,7 @@
         <v>0.6</v>
       </c>
       <c r="AP289">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ289">
         <v>0.53</v>
@@ -61440,7 +61452,7 @@
         <v>285</v>
       </c>
       <c r="P291" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q291">
         <v>3.25</v>
@@ -62264,7 +62276,7 @@
         <v>288</v>
       </c>
       <c r="P295" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q295">
         <v>2.75</v>
@@ -62342,7 +62354,7 @@
         <v>1.63</v>
       </c>
       <c r="AP295">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ295">
         <v>1.71</v>
@@ -62470,7 +62482,7 @@
         <v>289</v>
       </c>
       <c r="P296" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q296">
         <v>6</v>
@@ -62963,7 +62975,7 @@
         <v>2</v>
       </c>
       <c r="AQ298">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR298">
         <v>1.68</v>
@@ -63372,7 +63384,7 @@
         <v>0.63</v>
       </c>
       <c r="AP300">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ300">
         <v>0.65</v>
@@ -63706,7 +63718,7 @@
         <v>268</v>
       </c>
       <c r="P302" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q302">
         <v>3.25</v>
@@ -63787,7 +63799,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ302">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR302">
         <v>1.38</v>
@@ -64324,7 +64336,7 @@
         <v>293</v>
       </c>
       <c r="P305" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q305">
         <v>3.25</v>
@@ -64736,7 +64748,7 @@
         <v>235</v>
       </c>
       <c r="P307" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q307">
         <v>6.5</v>
@@ -64893,6 +64905,418 @@
       </c>
       <c r="BP307">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="308" spans="1:68">
+      <c r="A308" s="1">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>7900810</v>
+      </c>
+      <c r="C308" t="s">
+        <v>68</v>
+      </c>
+      <c r="D308" t="s">
+        <v>69</v>
+      </c>
+      <c r="E308" s="2">
+        <v>45799.57291666666</v>
+      </c>
+      <c r="F308">
+        <v>0</v>
+      </c>
+      <c r="G308" t="s">
+        <v>82</v>
+      </c>
+      <c r="H308" t="s">
+        <v>80</v>
+      </c>
+      <c r="I308">
+        <v>3</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="K308">
+        <v>3</v>
+      </c>
+      <c r="L308">
+        <v>4</v>
+      </c>
+      <c r="M308">
+        <v>1</v>
+      </c>
+      <c r="N308">
+        <v>5</v>
+      </c>
+      <c r="O308" t="s">
+        <v>295</v>
+      </c>
+      <c r="P308" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q308">
+        <v>1.85</v>
+      </c>
+      <c r="R308">
+        <v>2.5</v>
+      </c>
+      <c r="S308">
+        <v>5.5</v>
+      </c>
+      <c r="T308">
+        <v>1.25</v>
+      </c>
+      <c r="U308">
+        <v>3.55</v>
+      </c>
+      <c r="V308">
+        <v>2.2</v>
+      </c>
+      <c r="W308">
+        <v>1.6</v>
+      </c>
+      <c r="X308">
+        <v>4.75</v>
+      </c>
+      <c r="Y308">
+        <v>1.15</v>
+      </c>
+      <c r="Z308">
+        <v>1.43</v>
+      </c>
+      <c r="AA308">
+        <v>4.8</v>
+      </c>
+      <c r="AB308">
+        <v>6.2</v>
+      </c>
+      <c r="AC308">
+        <v>1.01</v>
+      </c>
+      <c r="AD308">
+        <v>13</v>
+      </c>
+      <c r="AE308">
+        <v>1.17</v>
+      </c>
+      <c r="AF308">
+        <v>5</v>
+      </c>
+      <c r="AG308">
+        <v>1.52</v>
+      </c>
+      <c r="AH308">
+        <v>2.43</v>
+      </c>
+      <c r="AI308">
+        <v>1.67</v>
+      </c>
+      <c r="AJ308">
+        <v>2.1</v>
+      </c>
+      <c r="AK308">
+        <v>1.11</v>
+      </c>
+      <c r="AL308">
+        <v>1.14</v>
+      </c>
+      <c r="AM308">
+        <v>2.65</v>
+      </c>
+      <c r="AN308">
+        <v>1.68</v>
+      </c>
+      <c r="AO308">
+        <v>1.26</v>
+      </c>
+      <c r="AP308">
+        <v>1.71</v>
+      </c>
+      <c r="AQ308">
+        <v>1.23</v>
+      </c>
+      <c r="AR308">
+        <v>1.69</v>
+      </c>
+      <c r="AS308">
+        <v>1.51</v>
+      </c>
+      <c r="AT308">
+        <v>3.2</v>
+      </c>
+      <c r="AU308">
+        <v>9</v>
+      </c>
+      <c r="AV308">
+        <v>3</v>
+      </c>
+      <c r="AW308">
+        <v>4</v>
+      </c>
+      <c r="AX308">
+        <v>6</v>
+      </c>
+      <c r="AY308">
+        <v>13</v>
+      </c>
+      <c r="AZ308">
+        <v>12</v>
+      </c>
+      <c r="BA308">
+        <v>4</v>
+      </c>
+      <c r="BB308">
+        <v>1</v>
+      </c>
+      <c r="BC308">
+        <v>5</v>
+      </c>
+      <c r="BD308">
+        <v>1.27</v>
+      </c>
+      <c r="BE308">
+        <v>7.5</v>
+      </c>
+      <c r="BF308">
+        <v>4.1</v>
+      </c>
+      <c r="BG308">
+        <v>1.24</v>
+      </c>
+      <c r="BH308">
+        <v>3.55</v>
+      </c>
+      <c r="BI308">
+        <v>1.43</v>
+      </c>
+      <c r="BJ308">
+        <v>2.55</v>
+      </c>
+      <c r="BK308">
+        <v>1.71</v>
+      </c>
+      <c r="BL308">
+        <v>2</v>
+      </c>
+      <c r="BM308">
+        <v>2.1</v>
+      </c>
+      <c r="BN308">
+        <v>1.63</v>
+      </c>
+      <c r="BO308">
+        <v>2.7</v>
+      </c>
+      <c r="BP308">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:68">
+      <c r="A309" s="1">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>7900811</v>
+      </c>
+      <c r="C309" t="s">
+        <v>68</v>
+      </c>
+      <c r="D309" t="s">
+        <v>69</v>
+      </c>
+      <c r="E309" s="2">
+        <v>45799.66666666666</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
+      <c r="G309" t="s">
+        <v>81</v>
+      </c>
+      <c r="H309" t="s">
+        <v>72</v>
+      </c>
+      <c r="I309">
+        <v>1</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="K309">
+        <v>1</v>
+      </c>
+      <c r="L309">
+        <v>3</v>
+      </c>
+      <c r="M309">
+        <v>2</v>
+      </c>
+      <c r="N309">
+        <v>5</v>
+      </c>
+      <c r="O309" t="s">
+        <v>296</v>
+      </c>
+      <c r="P309" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q309">
+        <v>2</v>
+      </c>
+      <c r="R309">
+        <v>2.38</v>
+      </c>
+      <c r="S309">
+        <v>5</v>
+      </c>
+      <c r="T309">
+        <v>1.28</v>
+      </c>
+      <c r="U309">
+        <v>3.4</v>
+      </c>
+      <c r="V309">
+        <v>2.25</v>
+      </c>
+      <c r="W309">
+        <v>1.57</v>
+      </c>
+      <c r="X309">
+        <v>5</v>
+      </c>
+      <c r="Y309">
+        <v>1.13</v>
+      </c>
+      <c r="Z309">
+        <v>1.59</v>
+      </c>
+      <c r="AA309">
+        <v>4.2</v>
+      </c>
+      <c r="AB309">
+        <v>4.8</v>
+      </c>
+      <c r="AC309">
+        <v>1.03</v>
+      </c>
+      <c r="AD309">
+        <v>11</v>
+      </c>
+      <c r="AE309">
+        <v>1.18</v>
+      </c>
+      <c r="AF309">
+        <v>4.75</v>
+      </c>
+      <c r="AG309">
+        <v>1.57</v>
+      </c>
+      <c r="AH309">
+        <v>2.3</v>
+      </c>
+      <c r="AI309">
+        <v>1.6</v>
+      </c>
+      <c r="AJ309">
+        <v>2.2</v>
+      </c>
+      <c r="AK309">
+        <v>1.15</v>
+      </c>
+      <c r="AL309">
+        <v>1.17</v>
+      </c>
+      <c r="AM309">
+        <v>2.3</v>
+      </c>
+      <c r="AN309">
+        <v>1.59</v>
+      </c>
+      <c r="AO309">
+        <v>1.26</v>
+      </c>
+      <c r="AP309">
+        <v>1.63</v>
+      </c>
+      <c r="AQ309">
+        <v>1.23</v>
+      </c>
+      <c r="AR309">
+        <v>1.7</v>
+      </c>
+      <c r="AS309">
+        <v>1.44</v>
+      </c>
+      <c r="AT309">
+        <v>3.14</v>
+      </c>
+      <c r="AU309">
+        <v>7</v>
+      </c>
+      <c r="AV309">
+        <v>9</v>
+      </c>
+      <c r="AW309">
+        <v>8</v>
+      </c>
+      <c r="AX309">
+        <v>15</v>
+      </c>
+      <c r="AY309">
+        <v>17</v>
+      </c>
+      <c r="AZ309">
+        <v>27</v>
+      </c>
+      <c r="BA309">
+        <v>5</v>
+      </c>
+      <c r="BB309">
+        <v>8</v>
+      </c>
+      <c r="BC309">
+        <v>13</v>
+      </c>
+      <c r="BD309">
+        <v>1.27</v>
+      </c>
+      <c r="BE309">
+        <v>8</v>
+      </c>
+      <c r="BF309">
+        <v>4.1</v>
+      </c>
+      <c r="BG309">
+        <v>1.16</v>
+      </c>
+      <c r="BH309">
+        <v>4.3</v>
+      </c>
+      <c r="BI309">
+        <v>1.3</v>
+      </c>
+      <c r="BJ309">
+        <v>3.1</v>
+      </c>
+      <c r="BK309">
+        <v>1.5</v>
+      </c>
+      <c r="BL309">
+        <v>2.35</v>
+      </c>
+      <c r="BM309">
+        <v>1.82</v>
+      </c>
+      <c r="BN309">
+        <v>1.86</v>
+      </c>
+      <c r="BO309">
+        <v>2.23</v>
+      </c>
+      <c r="BP309">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Netherlands Eredivisie_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="430">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -520,10 +520,10 @@
     <t>['14', '32', '50']</t>
   </si>
   <si>
-    <t>['29', '80']</t>
+    <t>['24', '34', '78']</t>
   </si>
   <si>
-    <t>['24', '34', '78']</t>
+    <t>['29', '80']</t>
   </si>
   <si>
     <t>['14', '37', '52', '64', '78']</t>
@@ -601,10 +601,10 @@
     <t>['52', '56', '90+2']</t>
   </si>
   <si>
-    <t>['19', '27', '63']</t>
+    <t>['6', '57']</t>
   </si>
   <si>
-    <t>['6', '57']</t>
+    <t>['19', '27', '63']</t>
   </si>
   <si>
     <t>['20', '33', '63', '86']</t>
@@ -868,16 +868,13 @@
     <t>['9', '30', '48']</t>
   </si>
   <si>
-    <t>['31', '67', '70']</t>
-  </si>
-  <si>
     <t>['72']</t>
   </si>
   <si>
     <t>['18', '21', '35', '40']</t>
   </si>
   <si>
-    <t>['45+4', '69']</t>
+    <t>['31', '67', '70']</t>
   </si>
   <si>
     <t>['13', '23']</t>
@@ -887,6 +884,9 @@
   </si>
   <si>
     <t>['14']</t>
+  </si>
+  <si>
+    <t>['45+4', '69']</t>
   </si>
   <si>
     <t>['28', '90']</t>
@@ -905,6 +905,9 @@
   </si>
   <si>
     <t>['16', '62', '94']</t>
+  </si>
+  <si>
+    <t>['43', '53', '90+3']</t>
   </si>
   <si>
     <t>['8', '54']</t>
@@ -1258,10 +1261,10 @@
     <t>['54', '83', '90']</t>
   </si>
   <si>
-    <t>['15', '44', '74']</t>
+    <t>['42', '45']</t>
   </si>
   <si>
-    <t>['42', '45']</t>
+    <t>['15', '44', '74']</t>
   </si>
   <si>
     <t>['16', '66']</t>
@@ -1298,6 +1301,9 @@
   </si>
   <si>
     <t>['47', '55']</t>
+  </si>
+  <si>
+    <t>['22', '40']</t>
   </si>
 </sst>
 </file>
@@ -1659,7 +1665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP309"/>
+  <dimension ref="A1:BP310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2330,7 +2336,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2411,7 +2417,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ4">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2742,7 +2748,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q6">
         <v>1.36</v>
@@ -3360,7 +3366,7 @@
         <v>91</v>
       </c>
       <c r="P9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q9">
         <v>2.6</v>
@@ -4468,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ14">
         <v>1.06</v>
@@ -4596,7 +4602,7 @@
         <v>98</v>
       </c>
       <c r="P15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4802,7 +4808,7 @@
         <v>99</v>
       </c>
       <c r="P16" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -5008,7 +5014,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -5832,7 +5838,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q21">
         <v>11</v>
@@ -6038,7 +6044,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q22">
         <v>4.5</v>
@@ -7068,7 +7074,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q27">
         <v>5.5</v>
@@ -7480,7 +7486,7 @@
         <v>91</v>
       </c>
       <c r="P29" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q29">
         <v>2.88</v>
@@ -7892,7 +7898,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -8179,7 +8185,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ32">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR32">
         <v>1.07</v>
@@ -9128,7 +9134,7 @@
         <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -9618,7 +9624,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ39">
         <v>0.39</v>
@@ -9746,7 +9752,7 @@
         <v>119</v>
       </c>
       <c r="P40" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q40">
         <v>2.63</v>
@@ -10776,7 +10782,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -10982,7 +10988,7 @@
         <v>124</v>
       </c>
       <c r="P46" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -11188,7 +11194,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -11394,7 +11400,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -11600,7 +11606,7 @@
         <v>94</v>
       </c>
       <c r="P49" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q49">
         <v>2.1</v>
@@ -11806,7 +11812,7 @@
         <v>126</v>
       </c>
       <c r="P50" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -12012,7 +12018,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q51">
         <v>5.5</v>
@@ -12093,7 +12099,7 @@
         <v>0.65</v>
       </c>
       <c r="AQ51">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR51">
         <v>0.82</v>
@@ -12424,7 +12430,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q53">
         <v>8.5</v>
@@ -12836,7 +12842,7 @@
         <v>91</v>
       </c>
       <c r="P55" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q55">
         <v>7.5</v>
@@ -13042,7 +13048,7 @@
         <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -14072,7 +14078,7 @@
         <v>91</v>
       </c>
       <c r="P61" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q61">
         <v>6</v>
@@ -14278,7 +14284,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q62">
         <v>2.1</v>
@@ -14356,7 +14362,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ62">
         <v>2</v>
@@ -15102,7 +15108,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q66">
         <v>1.83</v>
@@ -15801,7 +15807,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ69">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR69">
         <v>2.17</v>
@@ -15926,7 +15932,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -16338,7 +16344,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q72">
         <v>2.1</v>
@@ -16544,7 +16550,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -16622,7 +16628,7 @@
         <v>3</v>
       </c>
       <c r="AP73">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ73">
         <v>2.18</v>
@@ -17037,7 +17043,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ75">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR75">
         <v>1.24</v>
@@ -17162,7 +17168,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17780,7 +17786,7 @@
         <v>145</v>
       </c>
       <c r="P79" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q79">
         <v>6.5</v>
@@ -17986,7 +17992,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q80">
         <v>2.6</v>
@@ -18810,7 +18816,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q84">
         <v>2.6</v>
@@ -19222,7 +19228,7 @@
         <v>91</v>
       </c>
       <c r="P86" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19840,7 +19846,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19918,7 +19924,7 @@
         <v>1.5</v>
       </c>
       <c r="AP89">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ89">
         <v>1</v>
@@ -20046,7 +20052,7 @@
         <v>91</v>
       </c>
       <c r="P90" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -20333,7 +20339,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ91">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR91">
         <v>1.05</v>
@@ -20664,7 +20670,7 @@
         <v>155</v>
       </c>
       <c r="P93" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -21076,7 +21082,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q95">
         <v>2.05</v>
@@ -21282,7 +21288,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q96">
         <v>2.2</v>
@@ -21694,7 +21700,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q98">
         <v>3.1</v>
@@ -22724,7 +22730,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q103">
         <v>7.5</v>
@@ -22930,7 +22936,7 @@
         <v>91</v>
       </c>
       <c r="P104" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q104">
         <v>4.33</v>
@@ -23136,7 +23142,7 @@
         <v>108</v>
       </c>
       <c r="P105" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q105">
         <v>8.5</v>
@@ -23342,7 +23348,7 @@
         <v>165</v>
       </c>
       <c r="P106" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q106">
         <v>3.1</v>
@@ -23754,7 +23760,7 @@
         <v>115</v>
       </c>
       <c r="P108" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q108">
         <v>1.95</v>
@@ -23832,7 +23838,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ108">
         <v>0.82</v>
@@ -24124,7 +24130,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>7466164</v>
+        <v>7466163</v>
       </c>
       <c r="C110" t="s">
         <v>68</v>
@@ -24136,127 +24142,127 @@
         <v>45619.61458333334</v>
       </c>
       <c r="F110">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="H110" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J110">
         <v>0</v>
       </c>
       <c r="K110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N110">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O110" t="s">
         <v>168</v>
       </c>
       <c r="P110" t="s">
-        <v>340</v>
+        <v>91</v>
       </c>
       <c r="Q110">
-        <v>2.4</v>
+        <v>1.73</v>
       </c>
       <c r="R110">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="S110">
-        <v>4.33</v>
+        <v>7.5</v>
       </c>
       <c r="T110">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U110">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V110">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="W110">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="X110">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y110">
+        <v>1.18</v>
+      </c>
+      <c r="Z110">
+        <v>1.27</v>
+      </c>
+      <c r="AA110">
+        <v>6</v>
+      </c>
+      <c r="AB110">
+        <v>10.5</v>
+      </c>
+      <c r="AC110">
+        <v>1.01</v>
+      </c>
+      <c r="AD110">
+        <v>21</v>
+      </c>
+      <c r="AE110">
+        <v>1.14</v>
+      </c>
+      <c r="AF110">
+        <v>5.38</v>
+      </c>
+      <c r="AG110">
+        <v>1.48</v>
+      </c>
+      <c r="AH110">
+        <v>2.54</v>
+      </c>
+      <c r="AI110">
+        <v>1.8</v>
+      </c>
+      <c r="AJ110">
+        <v>1.95</v>
+      </c>
+      <c r="AK110">
+        <v>1.03</v>
+      </c>
+      <c r="AL110">
         <v>1.11</v>
       </c>
-      <c r="Z110">
-        <v>1.77</v>
-      </c>
-      <c r="AA110">
-        <v>4.1</v>
-      </c>
-      <c r="AB110">
-        <v>4.15</v>
-      </c>
-      <c r="AC110">
-        <v>1.03</v>
-      </c>
-      <c r="AD110">
-        <v>15</v>
-      </c>
-      <c r="AE110">
-        <v>1.21</v>
-      </c>
-      <c r="AF110">
-        <v>4.25</v>
-      </c>
-      <c r="AG110">
-        <v>1.7</v>
-      </c>
-      <c r="AH110">
-        <v>2.16</v>
-      </c>
-      <c r="AI110">
-        <v>1.67</v>
-      </c>
-      <c r="AJ110">
-        <v>2.1</v>
-      </c>
-      <c r="AK110">
-        <v>1.24</v>
-      </c>
-      <c r="AL110">
-        <v>1.22</v>
-      </c>
       <c r="AM110">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="AN110">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO110">
         <v>0</v>
       </c>
       <c r="AP110">
-        <v>1.47</v>
+        <v>2.12</v>
       </c>
       <c r="AQ110">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR110">
-        <v>1.37</v>
+        <v>1.78</v>
       </c>
       <c r="AS110">
-        <v>0.8100000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="AT110">
-        <v>2.18</v>
+        <v>2.98</v>
       </c>
       <c r="AU110">
         <v>4</v>
@@ -24268,61 +24274,61 @@
         <v>6</v>
       </c>
       <c r="AX110">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AY110">
         <v>10</v>
       </c>
       <c r="AZ110">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BA110">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BB110">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC110">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BD110">
-        <v>1.53</v>
+        <v>1.27</v>
       </c>
       <c r="BE110">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF110">
-        <v>2.7</v>
+        <v>3.95</v>
       </c>
       <c r="BG110">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="BH110">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="BI110">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="BJ110">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="BK110">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="BL110">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="BM110">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="BN110">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="BO110">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="BP110">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="111" spans="1:68">
@@ -24330,7 +24336,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>7466163</v>
+        <v>7466164</v>
       </c>
       <c r="C111" t="s">
         <v>68</v>
@@ -24342,127 +24348,127 @@
         <v>45619.61458333334</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="H111" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111">
         <v>0</v>
       </c>
       <c r="K111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O111" t="s">
         <v>169</v>
       </c>
       <c r="P111" t="s">
-        <v>91</v>
+        <v>341</v>
       </c>
       <c r="Q111">
-        <v>1.73</v>
+        <v>2.4</v>
       </c>
       <c r="R111">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="S111">
-        <v>7.5</v>
+        <v>4.33</v>
       </c>
       <c r="T111">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="U111">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="V111">
+        <v>2.5</v>
+      </c>
+      <c r="W111">
+        <v>1.5</v>
+      </c>
+      <c r="X111">
+        <v>6.5</v>
+      </c>
+      <c r="Y111">
+        <v>1.11</v>
+      </c>
+      <c r="Z111">
+        <v>1.77</v>
+      </c>
+      <c r="AA111">
+        <v>4.1</v>
+      </c>
+      <c r="AB111">
+        <v>4.15</v>
+      </c>
+      <c r="AC111">
+        <v>1.03</v>
+      </c>
+      <c r="AD111">
+        <v>15</v>
+      </c>
+      <c r="AE111">
+        <v>1.21</v>
+      </c>
+      <c r="AF111">
+        <v>4.25</v>
+      </c>
+      <c r="AG111">
+        <v>1.7</v>
+      </c>
+      <c r="AH111">
+        <v>2.16</v>
+      </c>
+      <c r="AI111">
+        <v>1.67</v>
+      </c>
+      <c r="AJ111">
         <v>2.1</v>
       </c>
-      <c r="W111">
-        <v>1.67</v>
-      </c>
-      <c r="X111">
-        <v>4.5</v>
-      </c>
-      <c r="Y111">
-        <v>1.18</v>
-      </c>
-      <c r="Z111">
-        <v>1.27</v>
-      </c>
-      <c r="AA111">
-        <v>6</v>
-      </c>
-      <c r="AB111">
-        <v>10.5</v>
-      </c>
-      <c r="AC111">
-        <v>1.01</v>
-      </c>
-      <c r="AD111">
-        <v>21</v>
-      </c>
-      <c r="AE111">
-        <v>1.14</v>
-      </c>
-      <c r="AF111">
-        <v>5.38</v>
-      </c>
-      <c r="AG111">
-        <v>1.48</v>
-      </c>
-      <c r="AH111">
-        <v>2.54</v>
-      </c>
-      <c r="AI111">
-        <v>1.8</v>
-      </c>
-      <c r="AJ111">
-        <v>1.95</v>
-      </c>
       <c r="AK111">
-        <v>1.03</v>
+        <v>1.24</v>
       </c>
       <c r="AL111">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="AM111">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="AN111">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO111">
         <v>0</v>
       </c>
       <c r="AP111">
-        <v>2.12</v>
+        <v>1.47</v>
       </c>
       <c r="AQ111">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="AR111">
-        <v>1.78</v>
+        <v>1.37</v>
       </c>
       <c r="AS111">
-        <v>1.2</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT111">
-        <v>2.98</v>
+        <v>2.18</v>
       </c>
       <c r="AU111">
         <v>4</v>
@@ -24474,61 +24480,61 @@
         <v>6</v>
       </c>
       <c r="AX111">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AY111">
         <v>10</v>
       </c>
       <c r="AZ111">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BA111">
+        <v>9</v>
+      </c>
+      <c r="BB111">
+        <v>5</v>
+      </c>
+      <c r="BC111">
+        <v>14</v>
+      </c>
+      <c r="BD111">
+        <v>1.53</v>
+      </c>
+      <c r="BE111">
         <v>7</v>
       </c>
-      <c r="BB111">
-        <v>3</v>
-      </c>
-      <c r="BC111">
-        <v>10</v>
-      </c>
-      <c r="BD111">
-        <v>1.27</v>
-      </c>
-      <c r="BE111">
-        <v>8</v>
-      </c>
       <c r="BF111">
-        <v>3.95</v>
+        <v>2.7</v>
       </c>
       <c r="BG111">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="BH111">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="BI111">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="BJ111">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="BK111">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="BL111">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="BM111">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="BN111">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="BO111">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="BP111">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="112" spans="1:68">
@@ -24784,7 +24790,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q113">
         <v>4.75</v>
@@ -24865,7 +24871,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ113">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR113">
         <v>1.21</v>
@@ -24990,7 +24996,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25196,7 +25202,7 @@
         <v>93</v>
       </c>
       <c r="P115" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25402,7 +25408,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -26844,7 +26850,7 @@
         <v>178</v>
       </c>
       <c r="P123" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -27128,7 +27134,7 @@
         <v>0.67</v>
       </c>
       <c r="AP124">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ124">
         <v>0.76</v>
@@ -27256,7 +27262,7 @@
         <v>179</v>
       </c>
       <c r="P125" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q125">
         <v>2.2</v>
@@ -27462,7 +27468,7 @@
         <v>180</v>
       </c>
       <c r="P126" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q126">
         <v>4.75</v>
@@ -27668,7 +27674,7 @@
         <v>181</v>
       </c>
       <c r="P127" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q127">
         <v>2.2</v>
@@ -27955,7 +27961,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ128">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR128">
         <v>2.46</v>
@@ -28286,7 +28292,7 @@
         <v>91</v>
       </c>
       <c r="P130" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q130">
         <v>2.6</v>
@@ -28492,7 +28498,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q131">
         <v>8</v>
@@ -28698,7 +28704,7 @@
         <v>185</v>
       </c>
       <c r="P132" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q132">
         <v>3.25</v>
@@ -29188,7 +29194,7 @@
         <v>2</v>
       </c>
       <c r="AP134">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ134">
         <v>2.12</v>
@@ -29316,7 +29322,7 @@
         <v>98</v>
       </c>
       <c r="P135" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q135">
         <v>3.2</v>
@@ -29522,7 +29528,7 @@
         <v>147</v>
       </c>
       <c r="P136" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q136">
         <v>4.75</v>
@@ -30140,7 +30146,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q139">
         <v>2.2</v>
@@ -30346,7 +30352,7 @@
         <v>189</v>
       </c>
       <c r="P140" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q140">
         <v>1.57</v>
@@ -30552,7 +30558,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q141">
         <v>2.6</v>
@@ -31376,7 +31382,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -32278,10 +32284,10 @@
         <v>1.63</v>
       </c>
       <c r="AP149">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ149">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR149">
         <v>1.83</v>
@@ -32406,7 +32412,7 @@
         <v>91</v>
       </c>
       <c r="P150" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32570,7 +32576,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>7466202</v>
+        <v>7466199</v>
       </c>
       <c r="C151" t="s">
         <v>68</v>
@@ -32585,133 +32591,133 @@
         <v>17</v>
       </c>
       <c r="G151" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H151" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J151">
         <v>0</v>
       </c>
       <c r="K151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M151">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N151">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O151" t="s">
         <v>195</v>
       </c>
       <c r="P151" t="s">
-        <v>91</v>
+        <v>360</v>
       </c>
       <c r="Q151">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R151">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="S151">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T151">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="U151">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="V151">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="W151">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="X151">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y151">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="Z151">
         <v>1.68</v>
       </c>
       <c r="AA151">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AB151">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AC151">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD151">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AE151">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="AF151">
-        <v>5.38</v>
+        <v>3.89</v>
       </c>
       <c r="AG151">
-        <v>1.44</v>
+        <v>1.81</v>
       </c>
       <c r="AH151">
-        <v>2.6</v>
+        <v>2.01</v>
       </c>
       <c r="AI151">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="AJ151">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="AK151">
+        <v>1.18</v>
+      </c>
+      <c r="AL151">
         <v>1.2</v>
-      </c>
-      <c r="AL151">
-        <v>1.19</v>
       </c>
       <c r="AM151">
         <v>2.25</v>
       </c>
       <c r="AN151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO151">
-        <v>2.25</v>
+        <v>0.88</v>
       </c>
       <c r="AP151">
-        <v>2.47</v>
+        <v>1.76</v>
       </c>
       <c r="AQ151">
-        <v>1.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR151">
-        <v>2.48</v>
+        <v>1.54</v>
       </c>
       <c r="AS151">
-        <v>2.02</v>
+        <v>1.09</v>
       </c>
       <c r="AT151">
-        <v>4.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU151">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV151">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW151">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX151">
         <v>5</v>
@@ -32720,55 +32726,55 @@
         <v>18</v>
       </c>
       <c r="AZ151">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA151">
+        <v>4</v>
+      </c>
+      <c r="BB151">
+        <v>4</v>
+      </c>
+      <c r="BC151">
+        <v>8</v>
+      </c>
+      <c r="BD151">
+        <v>1.4</v>
+      </c>
+      <c r="BE151">
         <v>7</v>
       </c>
-      <c r="BB151">
-        <v>3</v>
-      </c>
-      <c r="BC151">
-        <v>10</v>
-      </c>
-      <c r="BD151">
-        <v>1.68</v>
-      </c>
-      <c r="BE151">
-        <v>6.4</v>
-      </c>
       <c r="BF151">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="BG151">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="BH151">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="BI151">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="BJ151">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="BK151">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="BL151">
-        <v>1.98</v>
+        <v>2.18</v>
       </c>
       <c r="BM151">
-        <v>2.12</v>
+        <v>1.94</v>
       </c>
       <c r="BN151">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="BO151">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="BP151">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="152" spans="1:68">
@@ -32776,7 +32782,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>7466199</v>
+        <v>7466202</v>
       </c>
       <c r="C152" t="s">
         <v>68</v>
@@ -32791,133 +32797,133 @@
         <v>17</v>
       </c>
       <c r="G152" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H152" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J152">
         <v>0</v>
       </c>
       <c r="K152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M152">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N152">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O152" t="s">
         <v>196</v>
       </c>
       <c r="P152" t="s">
-        <v>359</v>
+        <v>91</v>
       </c>
       <c r="Q152">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R152">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="S152">
+        <v>4.5</v>
+      </c>
+      <c r="T152">
+        <v>1.25</v>
+      </c>
+      <c r="U152">
+        <v>3.75</v>
+      </c>
+      <c r="V152">
+        <v>2.2</v>
+      </c>
+      <c r="W152">
+        <v>1.62</v>
+      </c>
+      <c r="X152">
         <v>5</v>
       </c>
-      <c r="T152">
-        <v>1.36</v>
-      </c>
-      <c r="U152">
-        <v>3</v>
-      </c>
-      <c r="V152">
-        <v>2.63</v>
-      </c>
-      <c r="W152">
-        <v>1.44</v>
-      </c>
-      <c r="X152">
-        <v>7</v>
-      </c>
       <c r="Y152">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="Z152">
         <v>1.68</v>
       </c>
       <c r="AA152">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AB152">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="AC152">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD152">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AE152">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="AF152">
-        <v>3.89</v>
+        <v>5.38</v>
       </c>
       <c r="AG152">
-        <v>1.81</v>
+        <v>1.44</v>
       </c>
       <c r="AH152">
-        <v>2.01</v>
+        <v>2.6</v>
       </c>
       <c r="AI152">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="AJ152">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="AK152">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AL152">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AM152">
         <v>2.25</v>
       </c>
       <c r="AN152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO152">
-        <v>0.88</v>
+        <v>2.25</v>
       </c>
       <c r="AP152">
-        <v>1.76</v>
+        <v>2.47</v>
       </c>
       <c r="AQ152">
-        <v>0.9399999999999999</v>
+        <v>1.88</v>
       </c>
       <c r="AR152">
-        <v>1.54</v>
+        <v>2.48</v>
       </c>
       <c r="AS152">
-        <v>1.09</v>
+        <v>2.02</v>
       </c>
       <c r="AT152">
-        <v>2.63</v>
+        <v>4.5</v>
       </c>
       <c r="AU152">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV152">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW152">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX152">
         <v>5</v>
@@ -32926,55 +32932,55 @@
         <v>18</v>
       </c>
       <c r="AZ152">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA152">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BB152">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC152">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD152">
+        <v>1.68</v>
+      </c>
+      <c r="BE152">
+        <v>6.4</v>
+      </c>
+      <c r="BF152">
+        <v>2.45</v>
+      </c>
+      <c r="BG152">
+        <v>1.25</v>
+      </c>
+      <c r="BH152">
+        <v>3.4</v>
+      </c>
+      <c r="BI152">
+        <v>1.46</v>
+      </c>
+      <c r="BJ152">
+        <v>2.5</v>
+      </c>
+      <c r="BK152">
+        <v>1.72</v>
+      </c>
+      <c r="BL152">
+        <v>1.98</v>
+      </c>
+      <c r="BM152">
+        <v>2.12</v>
+      </c>
+      <c r="BN152">
+        <v>1.63</v>
+      </c>
+      <c r="BO152">
+        <v>2.7</v>
+      </c>
+      <c r="BP152">
         <v>1.4</v>
-      </c>
-      <c r="BE152">
-        <v>7</v>
-      </c>
-      <c r="BF152">
-        <v>3.3</v>
-      </c>
-      <c r="BG152">
-        <v>1.2</v>
-      </c>
-      <c r="BH152">
-        <v>3.9</v>
-      </c>
-      <c r="BI152">
-        <v>1.36</v>
-      </c>
-      <c r="BJ152">
-        <v>2.8</v>
-      </c>
-      <c r="BK152">
-        <v>1.58</v>
-      </c>
-      <c r="BL152">
-        <v>2.18</v>
-      </c>
-      <c r="BM152">
-        <v>1.94</v>
-      </c>
-      <c r="BN152">
-        <v>1.76</v>
-      </c>
-      <c r="BO152">
-        <v>2.4</v>
-      </c>
-      <c r="BP152">
-        <v>1.49</v>
       </c>
     </row>
     <row r="153" spans="1:68">
@@ -33230,7 +33236,7 @@
         <v>91</v>
       </c>
       <c r="P154" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q154">
         <v>3.5</v>
@@ -33848,7 +33854,7 @@
         <v>91</v>
       </c>
       <c r="P157" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q157">
         <v>3.25</v>
@@ -34054,7 +34060,7 @@
         <v>199</v>
       </c>
       <c r="P158" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q158">
         <v>1.83</v>
@@ -34260,7 +34266,7 @@
         <v>200</v>
       </c>
       <c r="P159" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q159">
         <v>2</v>
@@ -34466,7 +34472,7 @@
         <v>134</v>
       </c>
       <c r="P160" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q160">
         <v>2</v>
@@ -34878,7 +34884,7 @@
         <v>201</v>
       </c>
       <c r="P162" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q162">
         <v>2.75</v>
@@ -35084,7 +35090,7 @@
         <v>202</v>
       </c>
       <c r="P163" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q163">
         <v>8</v>
@@ -35496,7 +35502,7 @@
         <v>132</v>
       </c>
       <c r="P165" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -35908,7 +35914,7 @@
         <v>204</v>
       </c>
       <c r="P167" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -35989,7 +35995,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ167">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR167">
         <v>1.33</v>
@@ -36114,7 +36120,7 @@
         <v>91</v>
       </c>
       <c r="P168" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q168">
         <v>3.1</v>
@@ -36320,7 +36326,7 @@
         <v>91</v>
       </c>
       <c r="P169" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -36526,7 +36532,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -37144,7 +37150,7 @@
         <v>207</v>
       </c>
       <c r="P173" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q173">
         <v>1.4</v>
@@ -37556,7 +37562,7 @@
         <v>208</v>
       </c>
       <c r="P175" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q175">
         <v>2.75</v>
@@ -37968,7 +37974,7 @@
         <v>210</v>
       </c>
       <c r="P177" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q177">
         <v>2.1</v>
@@ -38046,7 +38052,7 @@
         <v>1</v>
       </c>
       <c r="AP177">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ177">
         <v>1.24</v>
@@ -38174,7 +38180,7 @@
         <v>211</v>
       </c>
       <c r="P178" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -38586,7 +38592,7 @@
         <v>213</v>
       </c>
       <c r="P180" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q180">
         <v>3.6</v>
@@ -38792,7 +38798,7 @@
         <v>214</v>
       </c>
       <c r="P181" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q181">
         <v>2.75</v>
@@ -38998,7 +39004,7 @@
         <v>215</v>
       </c>
       <c r="P182" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q182">
         <v>5.5</v>
@@ -39204,7 +39210,7 @@
         <v>216</v>
       </c>
       <c r="P183" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q183">
         <v>2.88</v>
@@ -39616,7 +39622,7 @@
         <v>218</v>
       </c>
       <c r="P185" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q185">
         <v>3.1</v>
@@ -39697,7 +39703,7 @@
         <v>2</v>
       </c>
       <c r="AQ185">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR185">
         <v>1.74</v>
@@ -40028,7 +40034,7 @@
         <v>91</v>
       </c>
       <c r="P187" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q187">
         <v>4.75</v>
@@ -40234,7 +40240,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q188">
         <v>3.75</v>
@@ -41470,7 +41476,7 @@
         <v>91</v>
       </c>
       <c r="P194" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q194">
         <v>5.5</v>
@@ -41754,7 +41760,7 @@
         <v>0.8</v>
       </c>
       <c r="AP195">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ195">
         <v>0.9399999999999999</v>
@@ -41882,7 +41888,7 @@
         <v>225</v>
       </c>
       <c r="P196" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q196">
         <v>4</v>
@@ -41963,7 +41969,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ196">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR196">
         <v>1.64</v>
@@ -42294,7 +42300,7 @@
         <v>226</v>
       </c>
       <c r="P198" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q198">
         <v>1.8</v>
@@ -42706,7 +42712,7 @@
         <v>227</v>
       </c>
       <c r="P200" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q200">
         <v>3.25</v>
@@ -42912,7 +42918,7 @@
         <v>228</v>
       </c>
       <c r="P201" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q201">
         <v>2.1</v>
@@ -44432,7 +44438,7 @@
         <v>1</v>
       </c>
       <c r="AP208">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ208">
         <v>0.9399999999999999</v>
@@ -44560,7 +44566,7 @@
         <v>160</v>
       </c>
       <c r="P209" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q209">
         <v>2.6</v>
@@ -44972,7 +44978,7 @@
         <v>237</v>
       </c>
       <c r="P211" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q211">
         <v>4.75</v>
@@ -45178,7 +45184,7 @@
         <v>128</v>
       </c>
       <c r="P212" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q212">
         <v>4.33</v>
@@ -45259,7 +45265,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ212">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR212">
         <v>1.44</v>
@@ -45796,7 +45802,7 @@
         <v>239</v>
       </c>
       <c r="P215" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q215">
         <v>2.75</v>
@@ -46826,7 +46832,7 @@
         <v>241</v>
       </c>
       <c r="P220" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q220">
         <v>1.62</v>
@@ -47032,7 +47038,7 @@
         <v>242</v>
       </c>
       <c r="P221" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q221">
         <v>4.33</v>
@@ -47238,7 +47244,7 @@
         <v>91</v>
       </c>
       <c r="P222" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q222">
         <v>5</v>
@@ -47444,7 +47450,7 @@
         <v>243</v>
       </c>
       <c r="P223" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q223">
         <v>2.75</v>
@@ -48474,7 +48480,7 @@
         <v>91</v>
       </c>
       <c r="P228" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q228">
         <v>8</v>
@@ -49298,7 +49304,7 @@
         <v>248</v>
       </c>
       <c r="P232" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q232">
         <v>2.88</v>
@@ -49504,7 +49510,7 @@
         <v>249</v>
       </c>
       <c r="P233" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q233">
         <v>2.5</v>
@@ -49916,7 +49922,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q235">
         <v>3.75</v>
@@ -50122,7 +50128,7 @@
         <v>91</v>
       </c>
       <c r="P236" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q236">
         <v>2.88</v>
@@ -50534,7 +50540,7 @@
         <v>252</v>
       </c>
       <c r="P238" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q238">
         <v>3.75</v>
@@ -51027,7 +51033,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ240">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR240">
         <v>1.45</v>
@@ -51152,7 +51158,7 @@
         <v>91</v>
       </c>
       <c r="P241" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q241">
         <v>2.2</v>
@@ -51358,7 +51364,7 @@
         <v>255</v>
       </c>
       <c r="P242" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q242">
         <v>1.91</v>
@@ -51564,7 +51570,7 @@
         <v>256</v>
       </c>
       <c r="P243" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q243">
         <v>1.8</v>
@@ -51642,7 +51648,7 @@
         <v>0.46</v>
       </c>
       <c r="AP243">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ243">
         <v>0.41</v>
@@ -52260,7 +52266,7 @@
         <v>1.77</v>
       </c>
       <c r="AP246">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ246">
         <v>1.88</v>
@@ -52594,7 +52600,7 @@
         <v>106</v>
       </c>
       <c r="P248" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q248">
         <v>6.5</v>
@@ -52800,7 +52806,7 @@
         <v>259</v>
       </c>
       <c r="P249" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q249">
         <v>2.88</v>
@@ -53212,7 +53218,7 @@
         <v>260</v>
       </c>
       <c r="P251" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q251">
         <v>2.63</v>
@@ -53624,7 +53630,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q253">
         <v>1.67</v>
@@ -54036,7 +54042,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q255">
         <v>6</v>
@@ -54242,7 +54248,7 @@
         <v>264</v>
       </c>
       <c r="P256" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q256">
         <v>2.5</v>
@@ -54654,7 +54660,7 @@
         <v>266</v>
       </c>
       <c r="P258" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q258">
         <v>3.5</v>
@@ -55147,7 +55153,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ260">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR260">
         <v>1.38</v>
@@ -55478,7 +55484,7 @@
         <v>269</v>
       </c>
       <c r="P262" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q262">
         <v>7.5</v>
@@ -55684,7 +55690,7 @@
         <v>270</v>
       </c>
       <c r="P263" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q263">
         <v>2.25</v>
@@ -56380,7 +56386,7 @@
         <v>0.57</v>
       </c>
       <c r="AP266">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ266">
         <v>0.53</v>
@@ -56508,7 +56514,7 @@
         <v>274</v>
       </c>
       <c r="P267" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q267">
         <v>4</v>
@@ -56714,7 +56720,7 @@
         <v>91</v>
       </c>
       <c r="P268" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q268">
         <v>3.75</v>
@@ -57332,7 +57338,7 @@
         <v>273</v>
       </c>
       <c r="P271" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q271">
         <v>1.95</v>
@@ -58156,7 +58162,7 @@
         <v>187</v>
       </c>
       <c r="P275" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q275">
         <v>5.5</v>
@@ -58774,7 +58780,7 @@
         <v>278</v>
       </c>
       <c r="P278" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q278">
         <v>2.88</v>
@@ -58938,7 +58944,7 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>7466325</v>
+        <v>7466326</v>
       </c>
       <c r="C279" t="s">
         <v>68</v>
@@ -58953,10 +58959,10 @@
         <v>31</v>
       </c>
       <c r="G279" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H279" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I279">
         <v>0</v>
@@ -58971,52 +58977,52 @@
         <v>0</v>
       </c>
       <c r="M279">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N279">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O279" t="s">
         <v>91</v>
       </c>
       <c r="P279" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q279">
         <v>3.1</v>
       </c>
       <c r="R279">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S279">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="T279">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="U279">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V279">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="W279">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="X279">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y279">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="Z279">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AA279">
-        <v>3.85</v>
+        <v>3.59</v>
       </c>
       <c r="AB279">
-        <v>2.47</v>
+        <v>2.69</v>
       </c>
       <c r="AC279">
         <v>0</v>
@@ -59031,16 +59037,16 @@
         <v>0</v>
       </c>
       <c r="AG279">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AH279">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AI279">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AJ279">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AK279">
         <v>0</v>
@@ -59052,52 +59058,52 @@
         <v>0</v>
       </c>
       <c r="AN279">
-        <v>2.07</v>
+        <v>1.2</v>
       </c>
       <c r="AO279">
-        <v>1.53</v>
+        <v>1.13</v>
       </c>
       <c r="AP279">
-        <v>2</v>
+        <v>1.06</v>
       </c>
       <c r="AQ279">
-        <v>1.71</v>
+        <v>1.11</v>
       </c>
       <c r="AR279">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AS279">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="AT279">
-        <v>3.12</v>
+        <v>3.28</v>
       </c>
       <c r="AU279">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV279">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AW279">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AX279">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY279">
         <v>21</v>
       </c>
       <c r="AZ279">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="BA279">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB279">
+        <v>4</v>
+      </c>
+      <c r="BC279">
         <v>9</v>
-      </c>
-      <c r="BC279">
-        <v>15</v>
       </c>
       <c r="BD279">
         <v>0</v>
@@ -59144,7 +59150,7 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>7466326</v>
+        <v>7466325</v>
       </c>
       <c r="C280" t="s">
         <v>68</v>
@@ -59159,10 +59165,10 @@
         <v>31</v>
       </c>
       <c r="G280" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H280" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I280">
         <v>0</v>
@@ -59177,77 +59183,77 @@
         <v>0</v>
       </c>
       <c r="M280">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N280">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O280" t="s">
         <v>91</v>
       </c>
       <c r="P280" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q280">
         <v>3.1</v>
       </c>
       <c r="R280">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S280">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="T280">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="U280">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V280">
+        <v>2.25</v>
+      </c>
+      <c r="W280">
+        <v>1.57</v>
+      </c>
+      <c r="X280">
+        <v>5.5</v>
+      </c>
+      <c r="Y280">
+        <v>1.14</v>
+      </c>
+      <c r="Z280">
+        <v>2.7</v>
+      </c>
+      <c r="AA280">
+        <v>3.85</v>
+      </c>
+      <c r="AB280">
+        <v>2.47</v>
+      </c>
+      <c r="AC280">
+        <v>0</v>
+      </c>
+      <c r="AD280">
+        <v>0</v>
+      </c>
+      <c r="AE280">
+        <v>0</v>
+      </c>
+      <c r="AF280">
+        <v>0</v>
+      </c>
+      <c r="AG280">
+        <v>1.6</v>
+      </c>
+      <c r="AH280">
+        <v>2.25</v>
+      </c>
+      <c r="AI280">
+        <v>1.5</v>
+      </c>
+      <c r="AJ280">
         <v>2.5</v>
       </c>
-      <c r="W280">
-        <v>1.5</v>
-      </c>
-      <c r="X280">
-        <v>6.5</v>
-      </c>
-      <c r="Y280">
-        <v>1.11</v>
-      </c>
-      <c r="Z280">
-        <v>2.6</v>
-      </c>
-      <c r="AA280">
-        <v>3.59</v>
-      </c>
-      <c r="AB280">
-        <v>2.69</v>
-      </c>
-      <c r="AC280">
-        <v>0</v>
-      </c>
-      <c r="AD280">
-        <v>0</v>
-      </c>
-      <c r="AE280">
-        <v>0</v>
-      </c>
-      <c r="AF280">
-        <v>0</v>
-      </c>
-      <c r="AG280">
-        <v>1.67</v>
-      </c>
-      <c r="AH280">
-        <v>2.1</v>
-      </c>
-      <c r="AI280">
-        <v>1.62</v>
-      </c>
-      <c r="AJ280">
-        <v>2.2</v>
-      </c>
       <c r="AK280">
         <v>0</v>
       </c>
@@ -59258,52 +59264,52 @@
         <v>0</v>
       </c>
       <c r="AN280">
-        <v>1.2</v>
+        <v>2.07</v>
       </c>
       <c r="AO280">
-        <v>1.13</v>
+        <v>1.53</v>
       </c>
       <c r="AP280">
-        <v>1.06</v>
+        <v>2</v>
       </c>
       <c r="AQ280">
-        <v>1.18</v>
+        <v>1.71</v>
       </c>
       <c r="AR280">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="AS280">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
       <c r="AT280">
-        <v>3.28</v>
+        <v>3.12</v>
       </c>
       <c r="AU280">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV280">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AW280">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AX280">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY280">
         <v>21</v>
       </c>
       <c r="AZ280">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="BA280">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB280">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BC280">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BD280">
         <v>0</v>
@@ -59392,7 +59398,7 @@
         <v>245</v>
       </c>
       <c r="P281" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q281">
         <v>3.1</v>
@@ -60010,7 +60016,7 @@
         <v>91</v>
       </c>
       <c r="P284" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q284">
         <v>3.25</v>
@@ -60628,7 +60634,7 @@
         <v>282</v>
       </c>
       <c r="P287" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q287">
         <v>3.1</v>
@@ -60834,7 +60840,7 @@
         <v>91</v>
       </c>
       <c r="P288" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q288">
         <v>1.67</v>
@@ -61118,7 +61124,7 @@
         <v>0.6</v>
       </c>
       <c r="AP289">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ289">
         <v>0.53</v>
@@ -61204,7 +61210,7 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>7466347</v>
+        <v>7466349</v>
       </c>
       <c r="C290" t="s">
         <v>68</v>
@@ -61219,25 +61225,25 @@
         <v>33</v>
       </c>
       <c r="G290" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="H290" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I290">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K290">
         <v>1</v>
       </c>
       <c r="L290">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M290">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N290">
         <v>3</v>
@@ -61246,22 +61252,22 @@
         <v>284</v>
       </c>
       <c r="P290" t="s">
-        <v>91</v>
+        <v>421</v>
       </c>
       <c r="Q290">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="R290">
         <v>2.2</v>
       </c>
       <c r="S290">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="T290">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U290">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V290">
         <v>2.75</v>
@@ -61270,19 +61276,19 @@
         <v>1.4</v>
       </c>
       <c r="X290">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y290">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z290">
-        <v>2.23</v>
+        <v>2.27</v>
       </c>
       <c r="AA290">
-        <v>3.21</v>
+        <v>3.45</v>
       </c>
       <c r="AB290">
-        <v>3.21</v>
+        <v>2.95</v>
       </c>
       <c r="AC290">
         <v>1.06</v>
@@ -61294,115 +61300,115 @@
         <v>1.3</v>
       </c>
       <c r="AF290">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="AG290">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AH290">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="AI290">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AJ290">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AK290">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="AL290">
         <v>1.28</v>
       </c>
       <c r="AM290">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AN290">
-        <v>1.31</v>
+        <v>0.75</v>
       </c>
       <c r="AO290">
-        <v>0.5600000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AP290">
-        <v>1.41</v>
+        <v>0.71</v>
       </c>
       <c r="AQ290">
-        <v>0.53</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR290">
-        <v>1.62</v>
+        <v>1.24</v>
       </c>
       <c r="AS290">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AT290">
-        <v>2.78</v>
+        <v>2.39</v>
       </c>
       <c r="AU290">
         <v>5</v>
       </c>
       <c r="AV290">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AW290">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AX290">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY290">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AZ290">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="BA290">
         <v>3</v>
       </c>
       <c r="BB290">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC290">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD290">
-        <v>1.92</v>
+        <v>2.07</v>
       </c>
       <c r="BE290">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="BF290">
-        <v>2.38</v>
+        <v>2.19</v>
       </c>
       <c r="BG290">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="BH290">
-        <v>4.05</v>
+        <v>3.72</v>
       </c>
       <c r="BI290">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="BJ290">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="BK290">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="BL290">
-        <v>2.09</v>
+        <v>1.99</v>
       </c>
       <c r="BM290">
-        <v>2.06</v>
+        <v>2.17</v>
       </c>
       <c r="BN290">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="BO290">
-        <v>2.67</v>
+        <v>2.88</v>
       </c>
       <c r="BP290">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="291" spans="1:68">
@@ -61410,7 +61416,7 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>7466349</v>
+        <v>7466348</v>
       </c>
       <c r="C291" t="s">
         <v>68</v>
@@ -61425,190 +61431,190 @@
         <v>33</v>
       </c>
       <c r="G291" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H291" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I291">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K291">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L291">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M291">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N291">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O291" t="s">
         <v>285</v>
       </c>
       <c r="P291" t="s">
-        <v>420</v>
+        <v>97</v>
       </c>
       <c r="Q291">
-        <v>3.25</v>
+        <v>1.44</v>
       </c>
       <c r="R291">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="S291">
-        <v>3.1</v>
+        <v>13</v>
       </c>
       <c r="T291">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="U291">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="V291">
+        <v>1.91</v>
+      </c>
+      <c r="W291">
+        <v>1.8</v>
+      </c>
+      <c r="X291">
+        <v>4</v>
+      </c>
+      <c r="Y291">
+        <v>1.22</v>
+      </c>
+      <c r="Z291">
+        <v>1.14</v>
+      </c>
+      <c r="AA291">
+        <v>7.2</v>
+      </c>
+      <c r="AB291">
+        <v>21</v>
+      </c>
+      <c r="AC291">
+        <v>1.01</v>
+      </c>
+      <c r="AD291">
+        <v>29</v>
+      </c>
+      <c r="AE291">
+        <v>1.09</v>
+      </c>
+      <c r="AF291">
+        <v>7</v>
+      </c>
+      <c r="AG291">
+        <v>1.38</v>
+      </c>
+      <c r="AH291">
         <v>2.75</v>
       </c>
-      <c r="W291">
-        <v>1.4</v>
-      </c>
-      <c r="X291">
+      <c r="AI291">
+        <v>2.1</v>
+      </c>
+      <c r="AJ291">
+        <v>1.67</v>
+      </c>
+      <c r="AK291">
+        <v>1.01</v>
+      </c>
+      <c r="AL291">
+        <v>1.05</v>
+      </c>
+      <c r="AM291">
         <v>7</v>
       </c>
-      <c r="Y291">
-        <v>1.1</v>
-      </c>
-      <c r="Z291">
-        <v>2.27</v>
-      </c>
-      <c r="AA291">
-        <v>3.45</v>
-      </c>
-      <c r="AB291">
-        <v>2.95</v>
-      </c>
-      <c r="AC291">
-        <v>1.06</v>
-      </c>
-      <c r="AD291">
-        <v>8.5</v>
-      </c>
-      <c r="AE291">
-        <v>1.3</v>
-      </c>
-      <c r="AF291">
-        <v>3.45</v>
-      </c>
-      <c r="AG291">
-        <v>1.77</v>
-      </c>
-      <c r="AH291">
-        <v>1.98</v>
-      </c>
-      <c r="AI291">
-        <v>1.7</v>
-      </c>
-      <c r="AJ291">
-        <v>2.05</v>
-      </c>
-      <c r="AK291">
-        <v>1.5</v>
-      </c>
-      <c r="AL291">
-        <v>1.28</v>
-      </c>
-      <c r="AM291">
-        <v>1.45</v>
-      </c>
       <c r="AN291">
-        <v>0.75</v>
+        <v>2.44</v>
       </c>
       <c r="AO291">
         <v>0.8100000000000001</v>
       </c>
       <c r="AP291">
-        <v>0.71</v>
+        <v>2.47</v>
       </c>
       <c r="AQ291">
-        <v>0.9399999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="AR291">
-        <v>1.24</v>
+        <v>2.56</v>
       </c>
       <c r="AS291">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="AT291">
-        <v>2.39</v>
+        <v>3.61</v>
       </c>
       <c r="AU291">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AV291">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW291">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AX291">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AY291">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AZ291">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="BA291">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BB291">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BC291">
         <v>11</v>
       </c>
       <c r="BD291">
-        <v>2.07</v>
+        <v>1.04</v>
       </c>
       <c r="BE291">
-        <v>6.5</v>
+        <v>17.75</v>
       </c>
       <c r="BF291">
-        <v>2.19</v>
+        <v>12.5</v>
       </c>
       <c r="BG291">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="BH291">
-        <v>3.72</v>
+        <v>4.33</v>
       </c>
       <c r="BI291">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="BJ291">
-        <v>2.6</v>
+        <v>2.97</v>
       </c>
       <c r="BK291">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="BL291">
-        <v>1.99</v>
+        <v>2.21</v>
       </c>
       <c r="BM291">
-        <v>2.17</v>
+        <v>1.95</v>
       </c>
       <c r="BN291">
-        <v>1.58</v>
+        <v>1.76</v>
       </c>
       <c r="BO291">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="BP291">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="292" spans="1:68">
@@ -61616,7 +61622,7 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>7466348</v>
+        <v>7466347</v>
       </c>
       <c r="C292" t="s">
         <v>68</v>
@@ -61631,190 +61637,190 @@
         <v>33</v>
       </c>
       <c r="G292" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H292" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I292">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J292">
         <v>0</v>
       </c>
       <c r="K292">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L292">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N292">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O292" t="s">
         <v>286</v>
       </c>
       <c r="P292" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="Q292">
-        <v>1.44</v>
+        <v>2.88</v>
       </c>
       <c r="R292">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="S292">
-        <v>13</v>
+        <v>3.6</v>
       </c>
       <c r="T292">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="U292">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="V292">
-        <v>1.91</v>
+        <v>2.75</v>
       </c>
       <c r="W292">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="X292">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Y292">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="Z292">
-        <v>1.14</v>
+        <v>2.23</v>
       </c>
       <c r="AA292">
-        <v>7.2</v>
+        <v>3.21</v>
       </c>
       <c r="AB292">
-        <v>21</v>
+        <v>3.21</v>
       </c>
       <c r="AC292">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="AD292">
-        <v>29</v>
+        <v>8.5</v>
       </c>
       <c r="AE292">
-        <v>1.09</v>
+        <v>1.3</v>
       </c>
       <c r="AF292">
-        <v>7</v>
+        <v>3.35</v>
       </c>
       <c r="AG292">
-        <v>1.38</v>
+        <v>1.92</v>
       </c>
       <c r="AH292">
-        <v>2.75</v>
+        <v>1.82</v>
       </c>
       <c r="AI292">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="AJ292">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AK292">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="AL292">
-        <v>1.05</v>
+        <v>1.28</v>
       </c>
       <c r="AM292">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="AN292">
-        <v>2.44</v>
+        <v>1.31</v>
       </c>
       <c r="AO292">
-        <v>0.8100000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP292">
-        <v>2.47</v>
+        <v>1.41</v>
       </c>
       <c r="AQ292">
-        <v>0.76</v>
+        <v>0.53</v>
       </c>
       <c r="AR292">
-        <v>2.56</v>
+        <v>1.62</v>
       </c>
       <c r="AS292">
-        <v>1.05</v>
+        <v>1.16</v>
       </c>
       <c r="AT292">
-        <v>3.61</v>
+        <v>2.78</v>
       </c>
       <c r="AU292">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AV292">
+        <v>0</v>
+      </c>
+      <c r="AW292">
+        <v>6</v>
+      </c>
+      <c r="AX292">
+        <v>10</v>
+      </c>
+      <c r="AY292">
+        <v>12</v>
+      </c>
+      <c r="AZ292">
+        <v>10</v>
+      </c>
+      <c r="BA292">
         <v>3</v>
       </c>
-      <c r="AW292">
-        <v>19</v>
-      </c>
-      <c r="AX292">
-        <v>1</v>
-      </c>
-      <c r="AY292">
-        <v>36</v>
-      </c>
-      <c r="AZ292">
-        <v>4</v>
-      </c>
-      <c r="BA292">
-        <v>10</v>
-      </c>
       <c r="BB292">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC292">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD292">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="BE292">
-        <v>17.75</v>
+        <v>6.6</v>
       </c>
       <c r="BF292">
-        <v>12.5</v>
+        <v>2.38</v>
       </c>
       <c r="BG292">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="BH292">
-        <v>4.33</v>
+        <v>4.05</v>
       </c>
       <c r="BI292">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="BJ292">
-        <v>2.97</v>
+        <v>2.78</v>
       </c>
       <c r="BK292">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="BL292">
-        <v>2.21</v>
+        <v>2.09</v>
       </c>
       <c r="BM292">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="BN292">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="BO292">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="BP292">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="293" spans="1:68">
@@ -61822,7 +61828,7 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>7466345</v>
+        <v>7466346</v>
       </c>
       <c r="C293" t="s">
         <v>68</v>
@@ -61837,190 +61843,190 @@
         <v>33</v>
       </c>
       <c r="G293" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H293" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J293">
         <v>0</v>
       </c>
       <c r="K293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M293">
         <v>0</v>
       </c>
       <c r="N293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O293" t="s">
-        <v>287</v>
+        <v>98</v>
       </c>
       <c r="P293" t="s">
         <v>91</v>
       </c>
       <c r="Q293">
-        <v>1.53</v>
+        <v>2.5</v>
       </c>
       <c r="R293">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="S293">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="T293">
+        <v>1.25</v>
+      </c>
+      <c r="U293">
+        <v>3.75</v>
+      </c>
+      <c r="V293">
+        <v>2.2</v>
+      </c>
+      <c r="W293">
+        <v>1.62</v>
+      </c>
+      <c r="X293">
+        <v>5</v>
+      </c>
+      <c r="Y293">
+        <v>1.17</v>
+      </c>
+      <c r="Z293">
+        <v>2.23</v>
+      </c>
+      <c r="AA293">
+        <v>3.21</v>
+      </c>
+      <c r="AB293">
+        <v>3.21</v>
+      </c>
+      <c r="AC293">
+        <v>1.05</v>
+      </c>
+      <c r="AD293">
+        <v>9.5</v>
+      </c>
+      <c r="AE293">
+        <v>1.18</v>
+      </c>
+      <c r="AF293">
+        <v>4.75</v>
+      </c>
+      <c r="AG293">
+        <v>1.67</v>
+      </c>
+      <c r="AH293">
+        <v>2.05</v>
+      </c>
+      <c r="AI293">
+        <v>1.5</v>
+      </c>
+      <c r="AJ293">
+        <v>2.5</v>
+      </c>
+      <c r="AK293">
+        <v>1.36</v>
+      </c>
+      <c r="AL293">
         <v>1.22</v>
       </c>
-      <c r="U293">
-        <v>4</v>
-      </c>
-      <c r="V293">
-        <v>2.1</v>
-      </c>
-      <c r="W293">
+      <c r="AM293">
         <v>1.67</v>
       </c>
-      <c r="X293">
-        <v>4.5</v>
-      </c>
-      <c r="Y293">
-        <v>1.18</v>
-      </c>
-      <c r="Z293">
-        <v>1.19</v>
-      </c>
-      <c r="AA293">
-        <v>6.5</v>
-      </c>
-      <c r="AB293">
-        <v>13</v>
-      </c>
-      <c r="AC293">
-        <v>1.01</v>
-      </c>
-      <c r="AD293">
-        <v>23</v>
-      </c>
-      <c r="AE293">
-        <v>1.14</v>
-      </c>
-      <c r="AF293">
-        <v>5.5</v>
-      </c>
-      <c r="AG293">
-        <v>1.29</v>
-      </c>
-      <c r="AH293">
-        <v>3.4</v>
-      </c>
-      <c r="AI293">
-        <v>2.1</v>
-      </c>
-      <c r="AJ293">
-        <v>1.67</v>
-      </c>
-      <c r="AK293">
-        <v>1.02</v>
-      </c>
-      <c r="AL293">
-        <v>1.06</v>
-      </c>
-      <c r="AM293">
-        <v>5.75</v>
-      </c>
       <c r="AN293">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AO293">
         <v>0.44</v>
       </c>
       <c r="AP293">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ293">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AR293">
-        <v>1.92</v>
+        <v>1.68</v>
       </c>
       <c r="AS293">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AT293">
-        <v>3.19</v>
+        <v>2.94</v>
       </c>
       <c r="AU293">
+        <v>5</v>
+      </c>
+      <c r="AV293">
         <v>6</v>
       </c>
-      <c r="AV293">
-        <v>2</v>
-      </c>
       <c r="AW293">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AX293">
+        <v>14</v>
+      </c>
+      <c r="AY293">
+        <v>13</v>
+      </c>
+      <c r="AZ293">
+        <v>22</v>
+      </c>
+      <c r="BA293">
+        <v>2</v>
+      </c>
+      <c r="BB293">
         <v>5</v>
       </c>
-      <c r="AY293">
-        <v>26</v>
-      </c>
-      <c r="AZ293">
-        <v>11</v>
-      </c>
-      <c r="BA293">
-        <v>6</v>
-      </c>
-      <c r="BB293">
-        <v>3</v>
-      </c>
       <c r="BC293">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD293">
-        <v>1</v>
+        <v>2.18</v>
       </c>
       <c r="BE293">
-        <v>23</v>
+        <v>6.6</v>
       </c>
       <c r="BF293">
-        <v>19</v>
+        <v>2.07</v>
       </c>
       <c r="BG293">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="BH293">
-        <v>4.2</v>
+        <v>3.98</v>
       </c>
       <c r="BI293">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="BJ293">
-        <v>2.88</v>
+        <v>2.74</v>
       </c>
       <c r="BK293">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="BL293">
-        <v>2.17</v>
+        <v>2.07</v>
       </c>
       <c r="BM293">
-        <v>1.99</v>
+        <v>2.09</v>
       </c>
       <c r="BN293">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="BO293">
-        <v>2.54</v>
+        <v>2.71</v>
       </c>
       <c r="BP293">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="294" spans="1:68">
@@ -62273,10 +62279,10 @@
         <v>5</v>
       </c>
       <c r="O295" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P295" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q295">
         <v>2.75</v>
@@ -62479,10 +62485,10 @@
         <v>4</v>
       </c>
       <c r="O296" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P296" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q296">
         <v>6</v>
@@ -62685,7 +62691,7 @@
         <v>2</v>
       </c>
       <c r="O297" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P297" t="s">
         <v>146</v>
@@ -62852,7 +62858,7 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>7466346</v>
+        <v>7466345</v>
       </c>
       <c r="C298" t="s">
         <v>68</v>
@@ -62867,190 +62873,190 @@
         <v>33</v>
       </c>
       <c r="G298" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H298" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J298">
         <v>0</v>
       </c>
       <c r="K298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L298">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M298">
         <v>0</v>
       </c>
       <c r="N298">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O298" t="s">
-        <v>98</v>
+        <v>290</v>
       </c>
       <c r="P298" t="s">
         <v>91</v>
       </c>
       <c r="Q298">
-        <v>2.5</v>
+        <v>1.53</v>
       </c>
       <c r="R298">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="S298">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="T298">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U298">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V298">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W298">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X298">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Y298">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="Z298">
-        <v>2.23</v>
+        <v>1.19</v>
       </c>
       <c r="AA298">
-        <v>3.21</v>
+        <v>6.5</v>
       </c>
       <c r="AB298">
-        <v>3.21</v>
+        <v>13</v>
       </c>
       <c r="AC298">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AD298">
-        <v>9.5</v>
+        <v>23</v>
       </c>
       <c r="AE298">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AF298">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AG298">
+        <v>1.29</v>
+      </c>
+      <c r="AH298">
+        <v>3.4</v>
+      </c>
+      <c r="AI298">
+        <v>2.1</v>
+      </c>
+      <c r="AJ298">
         <v>1.67</v>
       </c>
-      <c r="AH298">
-        <v>2.05</v>
-      </c>
-      <c r="AI298">
-        <v>1.5</v>
-      </c>
-      <c r="AJ298">
-        <v>2.5</v>
-      </c>
       <c r="AK298">
-        <v>1.36</v>
+        <v>1.02</v>
       </c>
       <c r="AL298">
-        <v>1.22</v>
+        <v>1.06</v>
       </c>
       <c r="AM298">
-        <v>1.67</v>
+        <v>5.75</v>
       </c>
       <c r="AN298">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="AO298">
         <v>0.44</v>
       </c>
       <c r="AP298">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="AQ298">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="AR298">
-        <v>1.68</v>
+        <v>1.92</v>
       </c>
       <c r="AS298">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="AT298">
-        <v>2.94</v>
+        <v>3.19</v>
       </c>
       <c r="AU298">
+        <v>6</v>
+      </c>
+      <c r="AV298">
+        <v>2</v>
+      </c>
+      <c r="AW298">
+        <v>17</v>
+      </c>
+      <c r="AX298">
         <v>5</v>
       </c>
-      <c r="AV298">
+      <c r="AY298">
+        <v>26</v>
+      </c>
+      <c r="AZ298">
+        <v>11</v>
+      </c>
+      <c r="BA298">
         <v>6</v>
       </c>
-      <c r="AW298">
-        <v>6</v>
-      </c>
-      <c r="AX298">
-        <v>14</v>
-      </c>
-      <c r="AY298">
-        <v>13</v>
-      </c>
-      <c r="AZ298">
-        <v>22</v>
-      </c>
-      <c r="BA298">
-        <v>2</v>
-      </c>
       <c r="BB298">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC298">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD298">
-        <v>2.18</v>
+        <v>1</v>
       </c>
       <c r="BE298">
-        <v>6.6</v>
+        <v>23</v>
       </c>
       <c r="BF298">
-        <v>2.07</v>
+        <v>19</v>
       </c>
       <c r="BG298">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="BH298">
-        <v>3.98</v>
+        <v>4.2</v>
       </c>
       <c r="BI298">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="BJ298">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="BK298">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="BL298">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="BM298">
-        <v>2.09</v>
+        <v>1.99</v>
       </c>
       <c r="BN298">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="BO298">
-        <v>2.71</v>
+        <v>2.54</v>
       </c>
       <c r="BP298">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="299" spans="1:68">
@@ -63181,7 +63187,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ299">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR299">
         <v>1.9</v>
@@ -63384,7 +63390,7 @@
         <v>0.63</v>
       </c>
       <c r="AP300">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ300">
         <v>0.65</v>
@@ -63718,7 +63724,7 @@
         <v>268</v>
       </c>
       <c r="P302" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q302">
         <v>3.25</v>
@@ -64336,7 +64342,7 @@
         <v>293</v>
       </c>
       <c r="P305" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q305">
         <v>3.25</v>
@@ -64748,7 +64754,7 @@
         <v>235</v>
       </c>
       <c r="P307" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q307">
         <v>6.5</v>
@@ -64954,7 +64960,7 @@
         <v>295</v>
       </c>
       <c r="P308" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q308">
         <v>1.85</v>
@@ -65032,7 +65038,7 @@
         <v>1.26</v>
       </c>
       <c r="AP308">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="AQ308">
         <v>1.23</v>
@@ -65160,7 +65166,7 @@
         <v>296</v>
       </c>
       <c r="P309" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q309">
         <v>2</v>
@@ -65190,13 +65196,13 @@
         <v>1.13</v>
       </c>
       <c r="Z309">
-        <v>1.59</v>
+        <v>1.77</v>
       </c>
       <c r="AA309">
-        <v>4.2</v>
+        <v>3.91</v>
       </c>
       <c r="AB309">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="AC309">
         <v>1.03</v>
@@ -65211,10 +65217,10 @@
         <v>4.75</v>
       </c>
       <c r="AG309">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AH309">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="AI309">
         <v>1.6</v>
@@ -65238,7 +65244,7 @@
         <v>1.26</v>
       </c>
       <c r="AP309">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AQ309">
         <v>1.23</v>
@@ -65271,13 +65277,13 @@
         <v>27</v>
       </c>
       <c r="BA309">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB309">
         <v>8</v>
       </c>
       <c r="BC309">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD309">
         <v>1.27</v>
@@ -65317,6 +65323,212 @@
       </c>
       <c r="BP309">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="310" spans="1:68">
+      <c r="A310" s="1">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>7904316</v>
+      </c>
+      <c r="C310" t="s">
+        <v>68</v>
+      </c>
+      <c r="D310" t="s">
+        <v>69</v>
+      </c>
+      <c r="E310" s="2">
+        <v>45802.54166666666</v>
+      </c>
+      <c r="F310">
+        <v>0</v>
+      </c>
+      <c r="G310" t="s">
+        <v>82</v>
+      </c>
+      <c r="H310" t="s">
+        <v>81</v>
+      </c>
+      <c r="I310">
+        <v>1</v>
+      </c>
+      <c r="J310">
+        <v>2</v>
+      </c>
+      <c r="K310">
+        <v>3</v>
+      </c>
+      <c r="L310">
+        <v>3</v>
+      </c>
+      <c r="M310">
+        <v>2</v>
+      </c>
+      <c r="N310">
+        <v>5</v>
+      </c>
+      <c r="O310" t="s">
+        <v>297</v>
+      </c>
+      <c r="P310" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q310">
+        <v>2.1</v>
+      </c>
+      <c r="R310">
+        <v>2.5</v>
+      </c>
+      <c r="S310">
+        <v>5</v>
+      </c>
+      <c r="T310">
+        <v>1.29</v>
+      </c>
+      <c r="U310">
+        <v>3.5</v>
+      </c>
+      <c r="V310">
+        <v>2.38</v>
+      </c>
+      <c r="W310">
+        <v>1.53</v>
+      </c>
+      <c r="X310">
+        <v>5.5</v>
+      </c>
+      <c r="Y310">
+        <v>1.14</v>
+      </c>
+      <c r="Z310">
+        <v>1.77</v>
+      </c>
+      <c r="AA310">
+        <v>3.91</v>
+      </c>
+      <c r="AB310">
+        <v>4</v>
+      </c>
+      <c r="AC310">
+        <v>1.04</v>
+      </c>
+      <c r="AD310">
+        <v>10</v>
+      </c>
+      <c r="AE310">
+        <v>1.2</v>
+      </c>
+      <c r="AF310">
+        <v>4.33</v>
+      </c>
+      <c r="AG310">
+        <v>1.6</v>
+      </c>
+      <c r="AH310">
+        <v>2.25</v>
+      </c>
+      <c r="AI310">
+        <v>1.67</v>
+      </c>
+      <c r="AJ310">
+        <v>2.1</v>
+      </c>
+      <c r="AK310">
+        <v>1.17</v>
+      </c>
+      <c r="AL310">
+        <v>1.24</v>
+      </c>
+      <c r="AM310">
+        <v>2.2</v>
+      </c>
+      <c r="AN310">
+        <v>1.71</v>
+      </c>
+      <c r="AO310">
+        <v>1.63</v>
+      </c>
+      <c r="AP310">
+        <v>1.75</v>
+      </c>
+      <c r="AQ310">
+        <v>1.58</v>
+      </c>
+      <c r="AR310">
+        <v>1.69</v>
+      </c>
+      <c r="AS310">
+        <v>1.7</v>
+      </c>
+      <c r="AT310">
+        <v>3.39</v>
+      </c>
+      <c r="AU310">
+        <v>7</v>
+      </c>
+      <c r="AV310">
+        <v>5</v>
+      </c>
+      <c r="AW310">
+        <v>8</v>
+      </c>
+      <c r="AX310">
+        <v>7</v>
+      </c>
+      <c r="AY310">
+        <v>18</v>
+      </c>
+      <c r="AZ310">
+        <v>13</v>
+      </c>
+      <c r="BA310">
+        <v>3</v>
+      </c>
+      <c r="BB310">
+        <v>2</v>
+      </c>
+      <c r="BC310">
+        <v>5</v>
+      </c>
+      <c r="BD310">
+        <v>1.36</v>
+      </c>
+      <c r="BE310">
+        <v>9.9</v>
+      </c>
+      <c r="BF310">
+        <v>3.88</v>
+      </c>
+      <c r="BG310">
+        <v>1.19</v>
+      </c>
+      <c r="BH310">
+        <v>3.8</v>
+      </c>
+      <c r="BI310">
+        <v>1.38</v>
+      </c>
+      <c r="BJ310">
+        <v>2.62</v>
+      </c>
+      <c r="BK310">
+        <v>1.77</v>
+      </c>
+      <c r="BL310">
+        <v>1.95</v>
+      </c>
+      <c r="BM310">
+        <v>2.16</v>
+      </c>
+      <c r="BN310">
+        <v>1.62</v>
+      </c>
+      <c r="BO310">
+        <v>2.84</v>
+      </c>
+      <c r="BP310">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>
